--- a/PS-VRP/Dati_output/schedulazione.xlsx
+++ b/PS-VRP/Dati_output/schedulazione.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253524</v>
+        <v>244023</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,37 +551,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>58.75833333333333</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:32:00</t>
+          <t>08-07-2025 12:38:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:32:00</t>
+          <t>08-07-2025 12:38:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 08:30:45</t>
+          <t>08-07-2025 12:46:18</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>7051</v>
+        <v>997</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -594,11 +594,14 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
         <v>70</v>
       </c>
+      <c r="O2" t="n">
+        <v>40054</v>
+      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
@@ -607,7 +610,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -619,7 +622,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>253721</v>
+        <v>251685</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -628,37 +631,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>39.39166666666667</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:30:45</t>
+          <t>08-07-2025 12:46:18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:49:45</t>
+          <t>08-07-2025 13:11:18</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:49:45</t>
+          <t>08-07-2025 13:11:18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 09:29:09</t>
+          <t>08-07-2025 14:50:04</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4727</v>
+        <v>11851</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -671,20 +674,25 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
         <v>70</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
+      <c r="O3" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -696,7 +704,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252906</v>
+        <v>243569</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -705,37 +713,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>34.725</v>
+        <v>21.675</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:29:09</t>
+          <t>08-07-2025 14:50:04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:01:09</t>
+          <t>09-07-2025 07:26:04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:01:09</t>
+          <t>09-07-2025 07:26:04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:35:52</t>
+          <t>09-07-2025 07:47:44</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>4167</v>
+        <v>2601</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -744,15 +752,18 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
         <v>76</v>
       </c>
+      <c r="O4" t="n">
+        <v>40055</v>
+      </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
@@ -761,11 +772,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-14.44157986111111</v>
+        <v>-0.3248206018518519</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -773,7 +784,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252995</v>
+        <v>252378</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -782,37 +793,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>68.31666666666666</v>
+        <v>37.55833333333333</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:35:52</t>
+          <t>09-07-2025 07:47:44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:52:52</t>
+          <t>09-07-2025 08:06:44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:52:52</t>
+          <t>09-07-2025 08:06:44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:01:11</t>
+          <t>09-07-2025 08:44:18</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>8198</v>
+        <v>4507</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -825,7 +836,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
         <v>76</v>
@@ -838,19 +849,19 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-7.500827546296296</v>
+        <v>-5.364097222222222</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>253425</v>
+        <v>245623</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -859,37 +870,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E6" t="n">
-        <v>146.35</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:01:11</t>
+          <t>09-07-2025 08:44:18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:20:11</t>
+          <t>09-07-2025 09:20:18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:20:11</t>
+          <t>09-07-2025 09:20:18</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:46:32</t>
+          <t>09-07-2025 13:00:27</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>17562</v>
+        <v>26419</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -898,14 +909,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -915,11 +926,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-10.61565393518518</v>
+        <v>-165.5419849537037</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -927,7 +938,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>253271</v>
+        <v>252686</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,37 +947,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>42.63333333333333</v>
+        <v>329.15</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:46:32</t>
+          <t>09-07-2025 13:00:27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:18:32</t>
+          <t>09-07-2025 13:17:27</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:18:32</t>
+          <t>09-07-2025 13:17:27</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:01:10</t>
+          <t>10-07-2025 10:46:36</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>5116</v>
+        <v>39498</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -975,14 +986,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -992,19 +1003,19 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-4.334149305555556</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252843</v>
+        <v>252519</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1013,37 +1024,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>19.2</v>
+        <v>11.475</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:01:10</t>
+          <t>10-07-2025 10:46:36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:37:10</t>
+          <t>10-07-2025 11:20:36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:37:10</t>
+          <t>10-07-2025 11:20:36</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:56:22</t>
+          <t>10-07-2025 11:32:05</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2304</v>
+        <v>1377</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1056,7 +1067,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
         <v>76</v>
@@ -1069,11 +1080,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-41.37248263888889</v>
+        <v>-6.480613425925926</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1081,7 +1092,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252815</v>
+        <v>252220</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1090,37 +1101,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>242.9416666666667</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 08:56:22</t>
+          <t>10-07-2025 11:32:05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 09:13:22</t>
+          <t>10-07-2025 12:04:05</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 09:13:22</t>
+          <t>10-07-2025 12:04:05</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09-09-2025 13:16:19</t>
+          <t>10-07-2025 13:24:36</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>29153</v>
+        <v>9662</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1129,14 +1140,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1146,11 +1157,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-4.552997685185185</v>
+        <v>-24.55875</v>
       </c>
       <c r="T9" t="n">
         <v>4</v>
@@ -1158,7 +1169,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>250284</v>
+        <v>252665</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1167,37 +1178,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>146.35</v>
+        <v>48.875</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 13:16:19</t>
+          <t>10-07-2025 13:24:36</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:19</t>
+          <t>10-07-2025 13:43:36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:19</t>
+          <t>10-07-2025 13:43:36</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10-09-2025 08:26:40</t>
+          <t>10-07-2025 14:32:28</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>17562</v>
+        <v>5865</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1206,11 +1217,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
         <v>70</v>
@@ -1223,11 +1234,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-182.3518518518518</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1235,7 +1246,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252216</v>
+        <v>252364</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1244,37 +1255,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>141.8083333333333</v>
+        <v>116.4833333333333</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10-09-2025 08:26:40</t>
+          <t>10-07-2025 14:32:28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10-09-2025 08:45:40</t>
+          <t>10-07-2025 14:51:28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-09-2025 08:45:40</t>
+          <t>10-07-2025 14:51:28</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10-09-2025 11:07:28</t>
+          <t>11-07-2025 08:47:57</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>17017</v>
+        <v>13978</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1287,7 +1298,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>70</v>
@@ -1300,19 +1311,19 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-16.46352430555556</v>
+        <v>-14.36663773148148</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253247</v>
+        <v>252467</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1321,37 +1332,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>109.575</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-09-2025 11:07:28</t>
+          <t>11-07-2025 08:47:57</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-09-2025 11:34:28</t>
+          <t>11-07-2025 09:04:57</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-09-2025 11:34:28</t>
+          <t>11-07-2025 09:04:57</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10-09-2025 13:24:03</t>
+          <t>11-07-2025 10:26:07</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>13149</v>
+        <v>9740</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1364,7 +1375,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
         <v>70</v>
@@ -1377,19 +1388,19 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.5583680555555556</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253245</v>
+        <v>252336</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1398,37 +1409,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>150.8333333333333</v>
+        <v>120.275</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-09-2025 13:24:03</t>
+          <t>11-07-2025 10:26:07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-09-2025 13:45:03</t>
+          <t>11-07-2025 10:41:07</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-09-2025 13:45:03</t>
+          <t>11-07-2025 10:41:07</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11-09-2025 08:15:53</t>
+          <t>11-07-2025 12:41:24</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>18100</v>
+        <v>14433</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1441,7 +1452,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>70</v>
@@ -1454,11 +1465,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-1.344363425925926</v>
+        <v>-7.52875</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1466,7 +1477,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253332</v>
+        <v>252790</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1475,37 +1486,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>184.825</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11-09-2025 08:15:53</t>
+          <t>11-07-2025 12:41:24</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11-09-2025 08:34:53</t>
+          <t>11-07-2025 12:56:24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11-09-2025 08:34:53</t>
+          <t>11-07-2025 12:56:24</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11-09-2025 11:39:42</t>
+          <t>11-07-2025 13:08:30</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>22179</v>
+        <v>1453</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1514,11 +1525,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
         <v>70</v>
@@ -1531,58 +1542,58 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.485908564814815</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253706</v>
+        <v>252087</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>311</v>
+        <v>35.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>11-07-2025 13:08:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:35:00</t>
+          <t>11-07-2025 13:27:30</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:35:00</t>
+          <t>11-07-2025 13:27:30</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>08-09-2025 12:46:00</t>
+          <t>11-07-2025 14:03:00</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>37320</v>
+        <v>4260</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1591,36 +1602,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>70</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>29-06-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>-12.5854224537037</v>
+      </c>
+      <c r="T15" t="n">
         <v>8</v>
-      </c>
-      <c r="N15" t="n">
-        <v>76</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>30-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253072</v>
+        <v>252210</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1629,37 +1640,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
-        <v>29.13333333333333</v>
+        <v>29.2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-09-2025 12:46:00</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-09-2025 13:30:00</t>
+          <t>08-07-2025 12:27:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-09-2025 13:30:00</t>
+          <t>08-07-2025 12:27:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>08-09-2025 13:59:08</t>
+          <t>08-07-2025 12:56:12</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>3496</v>
+        <v>3504</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1668,14 +1679,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1685,19 +1696,19 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-21.58273148148148</v>
+        <v>-12.53902777777778</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253687</v>
+        <v>252298</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1706,37 +1717,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>01-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>44.23333333333333</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-09-2025 13:59:08</t>
+          <t>08-07-2025 12:56:12</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-09-2025 14:26:08</t>
+          <t>08-07-2025 13:27:12</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-09-2025 14:26:08</t>
+          <t>08-07-2025 13:27:12</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>09-09-2025 07:10:22</t>
+          <t>08-07-2025 14:37:58</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>5308</v>
+        <v>8492</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1745,14 +1756,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1762,19 +1773,19 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-15.60969907407407</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253686</v>
+        <v>251790</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1783,37 +1794,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
-        <v>44.23333333333333</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-09-2025 07:10:22</t>
+          <t>08-07-2025 14:37:58</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:22</t>
+          <t>09-07-2025 07:08:58</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:22</t>
+          <t>09-07-2025 07:08:58</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>09-09-2025 08:19:36</t>
+          <t>09-07-2025 11:04:01</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>5308</v>
+        <v>28207</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1822,28 +1833,33 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>70</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O18" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-0.4611284722222222</v>
       </c>
       <c r="T18" t="n">
         <v>1</v>
@@ -1851,7 +1867,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253100</v>
+        <v>243536</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1860,37 +1876,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>47.35</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-09-2025 08:19:36</t>
+          <t>09-07-2025 11:04:01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09-09-2025 08:46:36</t>
+          <t>09-07-2025 11:29:01</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09-09-2025 08:46:36</t>
+          <t>09-07-2025 11:29:01</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>09-09-2025 09:33:57</t>
+          <t>09-07-2025 12:35:38</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>5682</v>
+        <v>7994</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1899,36 +1915,41 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>70</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O19" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-1.398576388888889</v>
+        <v>-0.5247511574074074</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>253246</v>
+        <v>252978</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1937,37 +1958,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E20" t="n">
-        <v>194.25</v>
+        <v>23.3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-09-2025 09:33:57</t>
+          <t>09-07-2025 12:35:38</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09-09-2025 09:58:57</t>
+          <t>09-07-2025 13:04:38</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09-09-2025 09:58:57</t>
+          <t>09-07-2025 13:04:38</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>09-09-2025 13:13:12</t>
+          <t>09-07-2025 13:27:56</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>23310</v>
+        <v>2796</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1976,14 +1997,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O20" t="n">
+        <v>40049</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1993,7 +2017,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -2005,7 +2029,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>253278</v>
+        <v>243527</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2014,37 +2038,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>28.425</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-09-2025 13:13:12</t>
+          <t>09-07-2025 13:27:56</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09-09-2025 13:42:12</t>
+          <t>09-07-2025 13:56:56</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>09-09-2025 13:42:12</t>
+          <t>09-07-2025 13:56:56</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>09-09-2025 14:10:37</t>
+          <t>10-07-2025 07:03:33</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>3411</v>
+        <v>7994</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2053,36 +2077,41 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>70</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O21" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0</v>
+        <v>-1.294137731481481</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>253374</v>
+        <v>243523</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2091,37 +2120,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
-        <v>59.60833333333333</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>09-09-2025 14:10:37</t>
+          <t>10-07-2025 07:03:33</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09-09-2025 14:39:37</t>
+          <t>10-07-2025 07:28:33</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>09-09-2025 14:39:37</t>
+          <t>10-07-2025 07:28:33</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10-09-2025 07:39:14</t>
+          <t>10-07-2025 08:35:10</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>7153</v>
+        <v>7994</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2130,28 +2159,33 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>70</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O22" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-1.357760416666667</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
@@ -2159,7 +2193,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>253368</v>
+        <v>252362</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2168,37 +2202,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>29</v>
       </c>
       <c r="E23" t="n">
-        <v>103.775</v>
+        <v>39.95</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10-09-2025 07:39:14</t>
+          <t>10-07-2025 08:35:10</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10-09-2025 08:08:14</t>
+          <t>10-07-2025 09:04:10</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10-09-2025 08:08:14</t>
+          <t>10-07-2025 09:04:10</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10-09-2025 09:52:00</t>
+          <t>10-07-2025 09:44:07</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>12453</v>
+        <v>4794</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2207,36 +2241,36 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>76</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>04-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>-6.405642361111111</v>
+      </c>
+      <c r="T23" t="n">
         <v>2</v>
-      </c>
-      <c r="N23" t="n">
-        <v>70</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>25-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253370</v>
+        <v>251849</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2245,37 +2279,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E24" t="n">
-        <v>207.5416666666667</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10-09-2025 09:52:00</t>
+          <t>10-07-2025 09:44:07</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10-09-2025 10:17:00</t>
+          <t>10-07-2025 10:32:07</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10-09-2025 10:17:00</t>
+          <t>10-07-2025 10:32:07</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10-09-2025 13:44:33</t>
+          <t>10-07-2025 11:05:30</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>24905</v>
+        <v>4006</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2284,36 +2318,43 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
         <v>70</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0</v>
+        <v>-15.46215856481481</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>253377</v>
+        <v>252085</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2322,37 +2363,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E25" t="n">
-        <v>127.7166666666667</v>
+        <v>28.55</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10-09-2025 13:44:33</t>
+          <t>10-07-2025 11:05:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10-09-2025 14:09:33</t>
+          <t>10-07-2025 11:32:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10-09-2025 14:09:33</t>
+          <t>10-07-2025 11:32:30</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11-09-2025 08:17:16</t>
+          <t>10-07-2025 12:01:03</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>15326</v>
+        <v>3426</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2361,11 +2402,11 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
         <v>70</v>
@@ -2378,19 +2419,19 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-22.5007349537037</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253376</v>
+        <v>252549</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2399,37 +2440,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26" t="n">
-        <v>179.6083333333333</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>11-09-2025 08:17:16</t>
+          <t>10-07-2025 12:01:03</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11-09-2025 08:42:16</t>
+          <t>10-07-2025 12:28:03</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11-09-2025 08:42:16</t>
+          <t>10-07-2025 12:28:03</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11-09-2025 11:41:52</t>
+          <t>10-07-2025 14:00:39</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>21553</v>
+        <v>11111</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2438,11 +2479,11 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
         <v>70</v>
@@ -2455,58 +2496,58 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253371</v>
+        <v>252638</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E27" t="n">
-        <v>107.7666666666667</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11-09-2025 11:41:52</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11-09-2025 12:06:52</t>
+          <t>08-07-2025 12:36:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>11-09-2025 12:06:52</t>
+          <t>08-07-2025 12:36:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11-09-2025 13:54:38</t>
+          <t>08-07-2025 13:37:29</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>12932</v>
+        <v>7379</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2515,11 +2556,11 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N27" t="n">
         <v>70</v>
@@ -2532,58 +2573,58 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-2.567702546296296</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252397</v>
+        <v>251926</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>115.925</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>11-09-2025 13:54:38</t>
+          <t>08-07-2025 13:37:29</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11-09-2025 14:38:38</t>
+          <t>08-07-2025 13:54:29</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>11-09-2025 14:38:38</t>
+          <t>08-07-2025 13:54:29</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12-09-2025 08:34:34</t>
+          <t>09-07-2025 07:13:24</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>13911</v>
+        <v>9470</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2592,14 +2633,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2609,58 +2650,58 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>-0.3009780092592593</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252529</v>
+        <v>252456</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>68.08333333333333</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>12-09-2025 08:34:34</t>
+          <t>09-07-2025 07:13:24</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12-09-2025 09:01:34</t>
+          <t>09-07-2025 07:30:24</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12-09-2025 09:01:34</t>
+          <t>09-07-2025 07:30:24</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>12-09-2025 10:09:39</t>
+          <t>09-07-2025 09:54:52</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>8170</v>
+        <v>17335</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2669,75 +2710,80 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="n">
-        <v>76</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O29" t="n">
+        <v>40051</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>40051</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-7.423368055555556</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253522</v>
+        <v>252656</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E30" t="n">
-        <v>198.625</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>12-09-2025 10:09:39</t>
+          <t>09-07-2025 09:54:52</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12-09-2025 10:53:39</t>
+          <t>09-07-2025 10:15:52</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>12-09-2025 10:53:39</t>
+          <t>09-07-2025 10:15:52</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12-09-2025 14:12:16</t>
+          <t>09-07-2025 13:25:44</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>23835</v>
+        <v>22784</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2746,11 +2792,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
         <v>70</v>
@@ -2763,58 +2809,58 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-0.5918576388888889</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253528</v>
+        <v>245089</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E31" t="n">
-        <v>119.175</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>12-09-2025 14:12:16</t>
+          <t>09-07-2025 13:25:44</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12-09-2025 14:37:16</t>
+          <t>09-07-2025 13:59:44</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>12-09-2025 14:37:16</t>
+          <t>09-07-2025 13:59:44</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>15-09-2025 08:36:27</t>
+          <t>14-07-2025 07:01:56</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>14301</v>
+        <v>122665</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2823,14 +2869,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2840,7 +2886,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -2852,46 +2898,46 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253244</v>
+        <v>235572</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>27</v>
+        <v>34.5</v>
       </c>
       <c r="E32" t="n">
-        <v>166.5</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>15-09-2025 08:36:27</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15-09-2025 09:03:27</t>
+          <t>08-07-2025 12:34:30</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>15-09-2025 09:03:27</t>
+          <t>08-07-2025 12:34:30</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>15-09-2025 11:49:57</t>
+          <t>08-07-2025 13:57:29</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>19980</v>
+        <v>9958</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2904,11 +2950,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="n">
         <v>70</v>
       </c>
+      <c r="O32" t="n">
+        <v>40055</v>
+      </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
@@ -2917,58 +2966,58 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-5.493020833333333</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253549</v>
+        <v>252157</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>29</v>
+        <v>38.5</v>
       </c>
       <c r="E33" t="n">
-        <v>163.6666666666667</v>
+        <v>396.825</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>15-09-2025 11:49:57</t>
+          <t>08-07-2025 13:57:29</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15-09-2025 12:18:57</t>
+          <t>08-07-2025 14:35:59</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>15-09-2025 12:18:57</t>
+          <t>08-07-2025 14:35:59</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>16-09-2025 07:02:37</t>
+          <t>09-07-2025 13:12:48</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>19640</v>
+        <v>47619</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2981,7 +3030,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N33" t="n">
         <v>70</v>
@@ -2994,58 +3043,58 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0</v>
+        <v>-21.55056134259259</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253525</v>
+        <v>252713</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>33</v>
+        <v>38.5</v>
       </c>
       <c r="E34" t="n">
-        <v>92.14166666666667</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>16-09-2025 07:02:37</t>
+          <t>09-07-2025 13:12:48</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>16-09-2025 07:35:37</t>
+          <t>09-07-2025 13:51:18</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>16-09-2025 07:35:37</t>
+          <t>09-07-2025 13:51:18</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>16-09-2025 09:07:45</t>
+          <t>11-07-2025 12:59:04</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>11057</v>
+        <v>108932</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3054,11 +3103,11 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
         <v>70</v>
@@ -3071,58 +3120,58 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>253367</v>
+        <v>252277</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="E35" t="n">
-        <v>135.7</v>
+        <v>144.925</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>16-09-2025 09:07:45</t>
+          <t>11-07-2025 12:59:04</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>16-09-2025 09:32:45</t>
+          <t>11-07-2025 13:33:34</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>16-09-2025 09:32:45</t>
+          <t>11-07-2025 13:33:34</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>16-09-2025 11:48:27</t>
+          <t>14-07-2025 07:58:30</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>16284</v>
+        <v>17391</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3131,75 +3180,80 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
         <v>70</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
+      <c r="O35" t="n">
+        <v>40024</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0</v>
+        <v>-24.33229166666667</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252274</v>
+        <v>252426</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>46</v>
+        <v>32.5</v>
       </c>
       <c r="E36" t="n">
-        <v>173.4166666666667</v>
+        <v>184.2833333333333</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>16-09-2025 11:48:27</t>
+          <t>14-07-2025 07:58:30</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>16-09-2025 12:34:27</t>
+          <t>14-07-2025 08:31:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>16-09-2025 12:34:27</t>
+          <t>14-07-2025 08:31:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>17-09-2025 07:27:52</t>
+          <t>14-07-2025 11:35:17</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>20810</v>
+        <v>22114</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3208,14 +3262,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3225,11 +3279,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-8.311024305555556</v>
+        <v>-12.48283564814815</v>
       </c>
       <c r="T36" t="n">
         <v>2</v>
@@ -3237,46 +3291,46 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>253295</v>
+        <v>252598</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>48</v>
+        <v>30.5</v>
       </c>
       <c r="E37" t="n">
-        <v>230.075</v>
+        <v>149.625</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>17-09-2025 07:27:52</t>
+          <t>14-07-2025 11:35:17</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17-09-2025 08:15:52</t>
+          <t>14-07-2025 12:05:47</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>17-09-2025 08:15:52</t>
+          <t>14-07-2025 12:05:47</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>17-09-2025 12:05:57</t>
+          <t>14-07-2025 14:35:24</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>27609</v>
+        <v>17955</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3285,33 +3339,28 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
         <v>70</v>
       </c>
-      <c r="O37" t="n">
-        <v>40274</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P37" t="n">
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-5.504131944444445</v>
+        <v>-4.607922453703703</v>
       </c>
       <c r="T37" t="n">
         <v>2</v>
@@ -3319,46 +3368,46 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>253401</v>
+        <v>252576</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>14-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="E38" t="n">
-        <v>22.81666666666667</v>
+        <v>374.0666666666667</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>17-09-2025 12:05:57</t>
+          <t>14-07-2025 14:35:24</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17-09-2025 12:34:57</t>
+          <t>15-07-2025 07:05:54</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>17-09-2025 12:34:57</t>
+          <t>15-07-2025 07:05:54</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>17-09-2025 12:57:46</t>
+          <t>15-07-2025 13:19:58</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>2738</v>
+        <v>44888</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3367,11 +3416,11 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
         <v>70</v>
@@ -3384,58 +3433,58 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-5.540115740740741</v>
+        <v>-0.5555381944444444</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>253472</v>
+        <v>252507</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29</v>
+        <v>46.5</v>
       </c>
       <c r="E39" t="n">
-        <v>291.8</v>
+        <v>102.8833333333333</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>17-09-2025 12:57:46</t>
+          <t>15-07-2025 13:19:58</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>17-09-2025 13:26:46</t>
+          <t>15-07-2025 14:06:28</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>17-09-2025 13:26:46</t>
+          <t>15-07-2025 14:06:28</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>18-09-2025 10:18:34</t>
+          <t>16-07-2025 07:49:21</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>35016</v>
+        <v>12346</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3444,11 +3493,11 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N39" t="n">
         <v>70</v>
@@ -3461,58 +3510,58 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-2.429560185185185</v>
+        <v>-13.32594328703704</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>253455</v>
+        <v>252511</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>27</v>
+        <v>30.5</v>
       </c>
       <c r="E40" t="n">
-        <v>55.55833333333333</v>
+        <v>87.45</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>18-09-2025 10:18:34</t>
+          <t>16-07-2025 07:49:21</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18-09-2025 10:45:34</t>
+          <t>16-07-2025 08:19:51</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>18-09-2025 10:45:34</t>
+          <t>16-07-2025 08:19:51</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>18-09-2025 11:41:07</t>
+          <t>16-07-2025 09:47:18</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>6667</v>
+        <v>10494</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3521,11 +3570,11 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N40" t="n">
         <v>70</v>
@@ -3538,58 +3587,58 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-10.48689236111111</v>
+        <v>-13.40785300925926</v>
       </c>
       <c r="T40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252741</v>
+        <v>252201</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>03-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E41" t="n">
-        <v>61.49166666666667</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>18-09-2025 11:41:07</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18-09-2025 12:08:07</t>
+          <t>08-07-2025 13:25:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>18-09-2025 12:08:07</t>
+          <t>08-07-2025 13:25:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>18-09-2025 13:09:37</t>
+          <t>08-07-2025 13:59:06</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>7379</v>
+        <v>4093</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3598,14 +3647,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O41" t="n">
+        <v>40055</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -3615,58 +3667,58 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>253436</v>
+        <v>251919</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>20-06-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E42" t="n">
-        <v>18.85</v>
+        <v>140.05</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>18-09-2025 13:09:37</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18-09-2025 13:36:37</t>
+          <t>08-07-2025 12:34:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>18-09-2025 13:36:37</t>
+          <t>08-07-2025 12:34:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>18-09-2025 13:55:28</t>
+          <t>08-07-2025 14:54:03</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>2262</v>
+        <v>16806</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3675,14 +3727,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -3692,58 +3744,58 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-8.580185185185185</v>
+        <v>-22.62086805555555</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>253261</v>
+        <v>252245</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E43" t="n">
-        <v>18.85</v>
+        <v>489.7583333333333</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>18-09-2025 13:55:28</t>
+          <t>08-07-2025 14:54:03</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18-09-2025 14:20:28</t>
+          <t>09-07-2025 07:11:03</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>18-09-2025 14:20:28</t>
+          <t>09-07-2025 07:11:03</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>18-09-2025 14:39:19</t>
+          <t>10-07-2025 07:20:48</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>2262</v>
+        <v>58771</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3752,14 +3804,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N43" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -3769,58 +3821,58 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-24.61063657407407</v>
+        <v>-13.30611689814815</v>
       </c>
       <c r="T43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>244743</v>
+        <v>252890</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E44" t="n">
-        <v>29.34166666666667</v>
+        <v>51.7</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>18-09-2025 14:39:19</t>
+          <t>10-07-2025 07:20:48</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19-09-2025 07:10:19</t>
+          <t>10-07-2025 07:52:48</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>19-09-2025 07:10:19</t>
+          <t>10-07-2025 07:52:48</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>19-09-2025 07:39:39</t>
+          <t>10-07-2025 08:44:30</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>3521</v>
+        <v>6204</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3829,14 +3881,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -3846,11 +3898,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>01-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-25.31920717592592</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3858,46 +3910,46 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>253668</v>
+        <v>252680</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E45" t="n">
-        <v>189.8666666666667</v>
+        <v>254.7</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>19-09-2025 07:39:39</t>
+          <t>10-07-2025 08:44:30</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19-09-2025 08:06:39</t>
+          <t>10-07-2025 09:01:30</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>19-09-2025 08:06:39</t>
+          <t>10-07-2025 09:01:30</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>19-09-2025 11:16:31</t>
+          <t>10-07-2025 13:16:12</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>22784</v>
+        <v>30564</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3906,14 +3958,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -3923,58 +3975,58 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>253314</v>
+        <v>252495</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>43.40833333333333</v>
+        <v>70.77500000000001</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>10-07-2025 13:16:12</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05-09-2025 07:32:00</t>
+          <t>10-07-2025 13:35:12</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>05-09-2025 07:32:00</t>
+          <t>10-07-2025 13:35:12</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>05-09-2025 08:15:24</t>
+          <t>10-07-2025 14:45:59</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>5209</v>
+        <v>8493</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3992,71 +4044,66 @@
       <c r="N46" t="n">
         <v>76</v>
       </c>
-      <c r="O46" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P46" t="n">
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0</v>
+        <v>-3.615266203703704</v>
       </c>
       <c r="T46" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252582</v>
+        <v>252207</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>27-06-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E47" t="n">
-        <v>46.08333333333334</v>
+        <v>51.55</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>05-09-2025 08:15:24</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>05-09-2025 08:32:24</t>
+          <t>08-07-2025 12:40:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>05-09-2025 08:32:24</t>
+          <t>08-07-2025 12:40:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>05-09-2025 09:18:29</t>
+          <t>08-07-2025 13:31:33</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>5530</v>
+        <v>6186</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4074,24 +4121,19 @@
       <c r="N47" t="n">
         <v>76</v>
       </c>
-      <c r="O47" t="n">
-        <v>40290</v>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P47" t="n">
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0</v>
+        <v>-12.56357638888889</v>
       </c>
       <c r="T47" t="n">
         <v>1</v>
@@ -4099,46 +4141,46 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252682</v>
+        <v>252350</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E48" t="n">
-        <v>83.40833333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>05-09-2025 09:18:29</t>
+          <t>08-07-2025 13:31:33</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>05-09-2025 09:35:29</t>
+          <t>08-07-2025 14:06:33</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>05-09-2025 09:35:29</t>
+          <t>08-07-2025 14:06:33</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>05-09-2025 10:58:54</t>
+          <t>08-07-2025 14:58:26</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>10009</v>
+        <v>6226</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4147,17 +4189,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O48" t="n">
-        <v>40295</v>
+        <v>40055</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -4165,62 +4207,62 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>40295</v>
+        <v>40055</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>253249</v>
+        <v>252723</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E49" t="n">
-        <v>57.75833333333333</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>05-09-2025 10:58:54</t>
+          <t>08-07-2025 14:58:26</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>05-09-2025 11:15:54</t>
+          <t>09-07-2025 07:33:26</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>05-09-2025 11:15:54</t>
+          <t>09-07-2025 07:33:26</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>05-09-2025 12:13:39</t>
+          <t>09-07-2025 10:07:23</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>6931</v>
+        <v>18475</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4246,7 +4288,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
@@ -4258,46 +4300,46 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253284</v>
+        <v>251231</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E50" t="n">
-        <v>56.99166666666667</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>05-09-2025 12:13:39</t>
+          <t>09-07-2025 10:07:23</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05-09-2025 12:30:39</t>
+          <t>09-07-2025 10:52:23</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>05-09-2025 12:30:39</t>
+          <t>09-07-2025 10:52:23</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>05-09-2025 13:27:39</t>
+          <t>10-07-2025 08:04:42</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>6839</v>
+        <v>37477</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4306,31 +4348,35 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N50" t="n">
-        <v>76</v>
-      </c>
-      <c r="O50" t="n">
-        <v>40299</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-7.336597222222222</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -4338,46 +4384,46 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>253527</v>
+        <v>252473</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E51" t="n">
-        <v>67.48333333333333</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>05-09-2025 13:27:39</t>
+          <t>10-07-2025 08:04:42</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>05-09-2025 13:59:39</t>
+          <t>10-07-2025 08:49:42</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>05-09-2025 13:59:39</t>
+          <t>10-07-2025 08:49:42</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>08-09-2025 07:07:08</t>
+          <t>10-07-2025 11:59:34</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>8098</v>
+        <v>22784</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4386,18 +4432,15 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
         <v>70</v>
       </c>
-      <c r="O51" t="n">
-        <v>40299</v>
-      </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
@@ -4406,58 +4449,58 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-9.499699074074075</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252664</v>
+        <v>252662</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E52" t="n">
-        <v>365.975</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-09-2025 07:07:08</t>
+          <t>10-07-2025 11:59:34</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-09-2025 07:24:08</t>
+          <t>10-07-2025 12:24:34</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-09-2025 07:24:08</t>
+          <t>10-07-2025 12:24:34</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>08-09-2025 13:30:06</t>
+          <t>11-07-2025 07:34:26</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>43917</v>
+        <v>22784</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4475,73 +4518,66 @@
       <c r="N52" t="n">
         <v>70</v>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P52" t="n">
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-6.562575231481482</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252833</v>
+        <v>252755</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E53" t="n">
-        <v>74.78333333333333</v>
+        <v>109.575</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-09-2025 13:30:06</t>
+          <t>11-07-2025 07:34:26</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08-09-2025 13:47:06</t>
+          <t>11-07-2025 08:09:26</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>08-09-2025 13:47:06</t>
+          <t>11-07-2025 08:09:26</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>09-09-2025 07:01:53</t>
+          <t>11-07-2025 09:59:00</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>8974</v>
+        <v>13149</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4554,7 +4590,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N53" t="n">
         <v>70</v>
@@ -4567,58 +4603,58 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-14.29298032407407</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>253372</v>
+        <v>252414</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E54" t="n">
-        <v>103.775</v>
+        <v>77.15833333333333</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-09-2025 07:01:53</t>
+          <t>11-07-2025 09:59:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-09-2025 07:18:53</t>
+          <t>11-07-2025 10:39:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-09-2025 07:18:53</t>
+          <t>11-07-2025 10:39:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:40</t>
+          <t>11-07-2025 11:56:10</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>12453</v>
+        <v>9259</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4627,11 +4663,11 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N54" t="n">
         <v>70</v>
@@ -4644,58 +4680,58 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-11.49733796296296</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>253710</v>
+        <v>252371</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>01-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E55" t="n">
-        <v>1.616666666666667</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-09-2025 09:02:40</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-09-2025 09:19:40</t>
+          <t>08-07-2025 12:35:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>09-09-2025 09:19:40</t>
+          <t>08-07-2025 12:35:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>09-09-2025 09:21:17</t>
+          <t>08-07-2025 13:25:02</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>194</v>
+        <v>6005</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4704,14 +4740,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -4721,58 +4757,58 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0</v>
+        <v>-8.559056712962963</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>250891</v>
+        <v>252209</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E56" t="n">
-        <v>77.49166666666666</v>
+        <v>29.19166666666667</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-09-2025 09:21:17</t>
+          <t>08-07-2025 13:25:02</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09-09-2025 09:40:17</t>
+          <t>08-07-2025 13:55:02</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>09-09-2025 09:40:17</t>
+          <t>08-07-2025 13:55:02</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>09-09-2025 10:57:46</t>
+          <t>08-07-2025 14:24:14</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>9299</v>
+        <v>3503</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4781,14 +4817,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -4798,58 +4834,58 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-27.45678819444445</v>
+        <v>-12.60016203703704</v>
       </c>
       <c r="T56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>253359</v>
+        <v>243535</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E57" t="n">
-        <v>134.0166666666667</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-09-2025 10:57:46</t>
+          <t>08-07-2025 14:24:14</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09-09-2025 11:16:46</t>
+          <t>08-07-2025 14:59:14</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>09-09-2025 11:16:46</t>
+          <t>08-07-2025 14:59:14</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>09-09-2025 13:30:47</t>
+          <t>09-07-2025 08:05:51</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>16082</v>
+        <v>7994</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4858,28 +4894,33 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="n">
-        <v>70</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O57" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0</v>
+        <v>-0.3373958333333333</v>
       </c>
       <c r="T57" t="n">
         <v>1</v>
@@ -4887,46 +4928,46 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>253260</v>
+        <v>250284</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E58" t="n">
-        <v>109.4083333333333</v>
+        <v>146.35</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-09-2025 13:30:47</t>
+          <t>09-07-2025 08:05:51</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09-09-2025 13:47:47</t>
+          <t>09-07-2025 09:00:51</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>09-09-2025 13:47:47</t>
+          <t>09-07-2025 09:00:51</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10-09-2025 07:37:12</t>
+          <t>09-07-2025 11:27:12</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>13129</v>
+        <v>17562</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4939,7 +4980,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N58" t="n">
         <v>70</v>
@@ -4952,11 +4993,11 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-16.3175</v>
+        <v>-119.4772222222222</v>
       </c>
       <c r="T58" t="n">
         <v>7</v>
@@ -4964,46 +5005,46 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>253095</v>
+        <v>252785</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="E59" t="n">
-        <v>76.31666666666666</v>
+        <v>58.34166666666667</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>09-07-2025 11:27:12</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09-09-2025 07:32:30</t>
+          <t>09-07-2025 12:02:12</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>09-09-2025 07:32:30</t>
+          <t>09-07-2025 12:02:12</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>09-09-2025 08:48:49</t>
+          <t>09-07-2025 13:00:32</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>9158</v>
+        <v>7001</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5012,75 +5053,80 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N59" t="n">
         <v>70</v>
       </c>
-      <c r="P59" t="n">
-        <v>0</v>
+      <c r="O59" t="n">
+        <v>40055</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-0.5420428240740741</v>
       </c>
       <c r="T59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>244023</v>
+        <v>252784</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>38.5</v>
+        <v>25</v>
       </c>
       <c r="E60" t="n">
-        <v>8.308333333333334</v>
+        <v>26.975</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-09-2025 08:48:49</t>
+          <t>09-07-2025 13:00:32</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09-09-2025 09:27:19</t>
+          <t>09-07-2025 13:25:32</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>09-09-2025 09:27:19</t>
+          <t>09-07-2025 13:25:32</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>09-09-2025 09:35:37</t>
+          <t>09-07-2025 13:52:31</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>997</v>
+        <v>3237</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5098,19 +5144,24 @@
       <c r="N60" t="n">
         <v>70</v>
       </c>
-      <c r="P60" t="n">
-        <v>0</v>
+      <c r="O60" t="n">
+        <v>40055</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-344.3997395833333</v>
+        <v>-0.578136574074074</v>
       </c>
       <c r="T60" t="n">
         <v>1</v>
@@ -5118,46 +5169,46 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>253223</v>
+        <v>252783</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>44.5</v>
+        <v>25</v>
       </c>
       <c r="E61" t="n">
-        <v>16.4</v>
+        <v>11.95</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-09-2025 09:35:37</t>
+          <t>09-07-2025 13:52:31</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09-09-2025 10:20:07</t>
+          <t>09-07-2025 14:17:31</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09-09-2025 10:20:07</t>
+          <t>09-07-2025 14:17:31</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>09-09-2025 10:36:31</t>
+          <t>09-07-2025 14:29:28</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1968</v>
+        <v>1434</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5166,75 +5217,80 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N61" t="n">
         <v>70</v>
       </c>
-      <c r="P61" t="n">
-        <v>0</v>
+      <c r="O61" t="n">
+        <v>40055</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-8.442031249999999</v>
+        <v>-0.6037962962962963</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252601</v>
+        <v>243526</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>32.5</v>
+        <v>45</v>
       </c>
       <c r="E62" t="n">
-        <v>51.20833333333334</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-09-2025 10:36:31</t>
+          <t>09-07-2025 14:29:28</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>09-09-2025 11:09:01</t>
+          <t>10-07-2025 07:14:28</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>09-09-2025 11:09:01</t>
+          <t>10-07-2025 07:14:28</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>09-09-2025 12:00:14</t>
+          <t>10-07-2025 08:21:05</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>6145</v>
+        <v>7994</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5243,75 +5299,80 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N62" t="n">
-        <v>70</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O62" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>0</v>
+        <v>-1.347974537037037</v>
       </c>
       <c r="T62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>253208</v>
+        <v>250383</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="E63" t="n">
-        <v>104.2583333333333</v>
+        <v>24.925</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09-09-2025 12:00:14</t>
+          <t>10-07-2025 08:21:05</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09-09-2025 12:32:44</t>
+          <t>10-07-2025 08:56:05</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>09-09-2025 12:32:44</t>
+          <t>10-07-2025 08:56:05</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>09-09-2025 14:16:59</t>
+          <t>10-07-2025 09:21:00</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>12511</v>
+        <v>2991</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5320,14 +5381,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N63" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5337,58 +5398,58 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>15-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-4.595133101851852</v>
+        <v>-25.38958912037037</v>
       </c>
       <c r="T63" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253210</v>
+        <v>252369</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>30.5</v>
+        <v>45</v>
       </c>
       <c r="E64" t="n">
-        <v>94.15833333333333</v>
+        <v>19.2</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09-09-2025 14:16:59</t>
+          <t>10-07-2025 09:21:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09-09-2025 14:47:29</t>
+          <t>10-07-2025 10:06:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>09-09-2025 14:47:29</t>
+          <t>10-07-2025 10:06:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>10-09-2025 08:21:39</t>
+          <t>10-07-2025 10:25:12</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>11299</v>
+        <v>2304</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5397,14 +5458,14 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N64" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5414,58 +5475,58 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-0.3483680555555556</v>
+        <v>-13.4341724537037</v>
       </c>
       <c r="T64" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253318</v>
+        <v>252814</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>50</v>
       </c>
       <c r="E65" t="n">
-        <v>51.55</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>10-07-2025 10:25:12</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04-09-2025 12:50:00</t>
+          <t>10-07-2025 11:15:12</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>04-09-2025 12:50:00</t>
+          <t>10-07-2025 11:15:12</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>04-09-2025 13:41:33</t>
+          <t>10-07-2025 12:05:17</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>6186</v>
+        <v>6010</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5478,14 +5539,11 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N65" t="n">
         <v>76</v>
       </c>
-      <c r="O65" t="n">
-        <v>40299</v>
-      </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
@@ -5494,58 +5552,58 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252685</v>
+        <v>251812</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>30</v>
       </c>
       <c r="E66" t="n">
-        <v>74.56666666666666</v>
+        <v>33.875</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>04-09-2025 13:41:33</t>
+          <t>10-07-2025 12:05:17</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04-09-2025 14:11:33</t>
+          <t>10-07-2025 12:35:17</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>04-09-2025 14:11:33</t>
+          <t>10-07-2025 12:35:17</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>05-09-2025 07:26:07</t>
+          <t>10-07-2025 13:09:10</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>8948</v>
+        <v>4065</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5558,29 +5616,24 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
         <v>76</v>
       </c>
-      <c r="O66" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P66" t="n">
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
-        <v>0</v>
+        <v>-17.54803240740741</v>
       </c>
       <c r="T66" t="n">
         <v>4</v>
@@ -5588,46 +5641,46 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252679</v>
+        <v>252476</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E67" t="n">
-        <v>60</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>05-09-2025 07:26:07</t>
+          <t>10-07-2025 13:09:10</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>05-09-2025 07:56:07</t>
+          <t>10-07-2025 13:49:10</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>05-09-2025 07:56:07</t>
+          <t>10-07-2025 13:49:10</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>05-09-2025 08:56:07</t>
+          <t>11-07-2025 07:01:30</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>7200</v>
+        <v>8681</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5636,33 +5689,28 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>76</v>
-      </c>
-      <c r="O67" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-4.292714120370371</v>
       </c>
       <c r="T67" t="n">
         <v>4</v>
@@ -5670,46 +5718,46 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252569</v>
+        <v>252547</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>35</v>
       </c>
       <c r="E68" t="n">
-        <v>9.583333333333334</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>05-09-2025 08:56:07</t>
+          <t>11-07-2025 07:01:30</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>05-09-2025 09:31:07</t>
+          <t>11-07-2025 07:36:30</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>05-09-2025 09:31:07</t>
+          <t>11-07-2025 07:36:30</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>05-09-2025 09:40:42</t>
+          <t>11-07-2025 08:57:40</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1150</v>
+        <v>9740</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5718,14 +5766,14 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N68" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -5735,11 +5783,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-4.403263888888889</v>
+        <v>-7.373385416666666</v>
       </c>
       <c r="T68" t="n">
         <v>1</v>
@@ -5747,46 +5795,46 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>253409</v>
+        <v>251495</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E69" t="n">
-        <v>27.18333333333333</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>05-09-2025 09:40:42</t>
+          <t>11-07-2025 08:57:40</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>05-09-2025 10:15:42</t>
+          <t>11-07-2025 09:42:40</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>05-09-2025 10:15:42</t>
+          <t>11-07-2025 09:42:40</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>05-09-2025 10:42:53</t>
+          <t>11-07-2025 10:55:01</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>3262</v>
+        <v>8681</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5795,14 +5843,14 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N69" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -5812,58 +5860,58 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-7.446446759259259</v>
+        <v>-2.454872685185185</v>
       </c>
       <c r="T69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>253194</v>
+        <v>252999</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E70" t="n">
-        <v>199.0833333333333</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>05-09-2025 10:42:53</t>
+          <t>11-07-2025 10:55:01</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>05-09-2025 11:07:53</t>
+          <t>11-07-2025 11:35:01</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>05-09-2025 11:07:53</t>
+          <t>11-07-2025 11:35:01</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>05-09-2025 14:26:58</t>
+          <t>14-07-2025 09:00:51</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>23890</v>
+        <v>39101</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5872,14 +5920,14 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -5889,58 +5937,58 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-16.60206018518518</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252002</v>
+        <v>252334</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>40</v>
       </c>
       <c r="E71" t="n">
-        <v>55.675</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>05-09-2025 14:26:58</t>
+          <t>14-07-2025 09:00:51</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-09-2025 07:06:58</t>
+          <t>14-07-2025 09:40:51</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08-09-2025 07:06:58</t>
+          <t>14-07-2025 09:40:51</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>08-09-2025 08:02:38</t>
+          <t>15-07-2025 09:47:27</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>6681</v>
+        <v>58391</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5953,78 +6001,71 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N71" t="n">
         <v>70</v>
       </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P71" t="n">
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>40307</v>
+        <v>0</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-14.33516782407407</v>
+        <v>-11.40795138888889</v>
       </c>
       <c r="T71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>253140</v>
+        <v>252899</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E72" t="n">
-        <v>55.83333333333334</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-09-2025 08:02:38</t>
+          <t>15-07-2025 09:47:27</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08-09-2025 08:42:38</t>
+          <t>15-07-2025 10:22:27</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>08-09-2025 08:42:38</t>
+          <t>15-07-2025 10:22:27</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>08-09-2025 09:38:28</t>
+          <t>15-07-2025 13:23:01</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>6700</v>
+        <v>21668</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6033,14 +6074,14 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -6050,58 +6091,58 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-13.40171875</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>253313</v>
+        <v>252470</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>30</v>
       </c>
       <c r="E73" t="n">
-        <v>100.0083333333333</v>
+        <v>62.5</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-09-2025 09:38:28</t>
+          <t>15-07-2025 13:23:01</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08-09-2025 10:08:28</t>
+          <t>15-07-2025 13:53:01</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>08-09-2025 10:08:28</t>
+          <t>15-07-2025 13:53:01</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>08-09-2025 11:48:29</t>
+          <t>15-07-2025 14:55:31</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>12001</v>
+        <v>7500</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6110,14 +6151,14 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -6127,58 +6168,58 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-3.492002314814815</v>
+        <v>-11.62188657407407</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>235572</v>
+        <v>252779</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>15-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E74" t="n">
-        <v>82.98333333333333</v>
+        <v>184.2833333333333</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-09-2025 11:48:29</t>
+          <t>15-07-2025 14:55:31</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08-09-2025 12:28:29</t>
+          <t>16-07-2025 07:30:31</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>08-09-2025 12:28:29</t>
+          <t>16-07-2025 07:30:31</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>08-09-2025 13:51:28</t>
+          <t>16-07-2025 10:34:48</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>9958</v>
+        <v>22114</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6187,11 +6228,11 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N74" t="n">
         <v>70</v>
@@ -6204,1425 +6245,14 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-672.5774074074075</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>252883</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>60</v>
-      </c>
-      <c r="E75" t="n">
-        <v>247.3083333333333</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>08-09-2025 13:51:28</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:51:28</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:51:28</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:58:46</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>29677</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>CASON ;H7</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>12</v>
-      </c>
-      <c r="N75" t="n">
-        <v>70</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>29-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S75" s="1" t="n">
-        <v>-11.45748263888889</v>
-      </c>
-      <c r="T75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>252939</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>70</v>
-      </c>
-      <c r="E76" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:58:46</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:08:46</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:08:46</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>09-09-2025 13:38:34</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>10776</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>3</v>
-      </c>
-      <c r="N76" t="n">
-        <v>70</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>22-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S76" s="1" t="n">
-        <v>-18.56845486111111</v>
-      </c>
-      <c r="T76" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>253036</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>45</v>
-      </c>
-      <c r="E77" t="n">
-        <v>78.73333333333333</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>09-09-2025 13:38:34</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:23:34</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:23:34</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:42:18</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>9448</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>H7 ;R5</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>3</v>
-      </c>
-      <c r="N77" t="n">
-        <v>76</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>22-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S77" s="1" t="n">
-        <v>-19.3210474537037</v>
-      </c>
-      <c r="T77" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>253602</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>35</v>
-      </c>
-      <c r="E78" t="n">
-        <v>117.0833333333333</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:42:18</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>10-09-2025 08:17:18</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>10-09-2025 08:17:18</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:14:23</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>14050</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>5</v>
-      </c>
-      <c r="N78" t="n">
-        <v>76</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>10-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S78" s="1" t="n">
-        <v>-0.4266608796296296</v>
-      </c>
-      <c r="T78" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>253317</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>19</v>
-      </c>
-      <c r="E79" t="n">
-        <v>102.775</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:19:00</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:19:00</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:01:46</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>12333</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>3</v>
-      </c>
-      <c r="N79" t="n">
-        <v>76</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>08-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S79" s="1" t="n">
-        <v>-0.3762326388888889</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>243569</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>26-09-2024 14:00:00</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>19</v>
-      </c>
-      <c r="E80" t="n">
-        <v>21.675</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:01:46</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:20:46</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:20:46</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:42:27</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>2601</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>3</v>
-      </c>
-      <c r="N80" t="n">
-        <v>76</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>16-09-2024 00:00:00</t>
-        </is>
-      </c>
-      <c r="S80" s="1" t="n">
-        <v>-357.4044791666666</v>
-      </c>
-      <c r="T80" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>252827</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>17</v>
-      </c>
-      <c r="E81" t="n">
-        <v>410</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:42:27</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:59:27</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:59:27</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:49:27</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>49200</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>2</v>
-      </c>
-      <c r="N81" t="n">
-        <v>76</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>04-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S81" s="1" t="n">
-        <v>-5.367673611111111</v>
-      </c>
-      <c r="T81" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>253659</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>40</v>
-      </c>
-      <c r="E82" t="n">
-        <v>323.75</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:40:00</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:40:00</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>09-09-2025 13:03:45</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>38850</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>5</v>
-      </c>
-      <c r="N82" t="n">
-        <v>70</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>11-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>253016</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>02-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>30</v>
-      </c>
-      <c r="E83" t="n">
-        <v>73.38333333333334</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:30:00</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:30:00</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:43:23</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>8806</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>2</v>
-      </c>
-      <c r="N83" t="n">
-        <v>152</v>
-      </c>
-      <c r="O83" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q83" t="n">
-        <v>40295</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>14-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T83" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>253362</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>30</v>
-      </c>
-      <c r="E84" t="n">
-        <v>58.38333333333333</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:43:23</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:13:23</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:13:23</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:11:46</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>7006</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>3</v>
-      </c>
-      <c r="N84" t="n">
-        <v>152</v>
-      </c>
-      <c r="O84" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q84" t="n">
-        <v>40295</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>15-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>252702</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>25</v>
-      </c>
-      <c r="E85" t="n">
-        <v>58.38333333333333</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:11:46</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:36:46</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:36:46</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>05-09-2025 11:35:09</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>7006</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>3</v>
-      </c>
-      <c r="N85" t="n">
-        <v>152</v>
-      </c>
-      <c r="O85" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>40295</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>04-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>253259</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>35</v>
-      </c>
-      <c r="E86" t="n">
-        <v>69.23333333333333</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>05-09-2025 11:35:09</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>05-09-2025 12:10:09</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>05-09-2025 12:10:09</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:19:23</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>8308</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>2</v>
-      </c>
-      <c r="N86" t="n">
-        <v>70</v>
-      </c>
-      <c r="O86" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
-        <v>40295</v>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>25-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>253375</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>30</v>
-      </c>
-      <c r="E87" t="n">
-        <v>51.88333333333333</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:19:23</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:49:23</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:49:23</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:41:16</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>6226</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>2</v>
-      </c>
-      <c r="N87" t="n">
-        <v>70</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>25-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>253361</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>03-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>25</v>
-      </c>
-      <c r="E88" t="n">
-        <v>76.70833333333333</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:41:16</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:06:16</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:06:16</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:22:58</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>9205</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>2</v>
-      </c>
-      <c r="N88" t="n">
-        <v>70</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0</v>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>11-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>253591</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>35</v>
-      </c>
-      <c r="E89" t="n">
-        <v>17.41666666666667</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:22:58</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:57:58</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:57:58</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:15:23</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>2090</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>3</v>
-      </c>
-      <c r="N89" t="n">
-        <v>76</v>
-      </c>
-      <c r="O89" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q89" t="n">
-        <v>40295</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>24-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S89" s="1" t="n">
-        <v>-0.3856886574074074</v>
-      </c>
-      <c r="T89" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>253268</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>35</v>
-      </c>
-      <c r="E90" t="n">
-        <v>78.55833333333334</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:15:23</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:50:23</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:50:23</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:08:57</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>9427</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>4</v>
-      </c>
-      <c r="N90" t="n">
-        <v>70</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>23-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T90" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>253267</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>25</v>
-      </c>
-      <c r="E91" t="n">
-        <v>164.3666666666667</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:08:57</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:33:57</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:33:57</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:18:19</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>19724</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>4</v>
-      </c>
-      <c r="N91" t="n">
-        <v>70</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>23-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T91" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>252980</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>03-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>17.075</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:17:04</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>08-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S92" s="1" t="n">
-        <v>-0.3035243055555555</v>
-      </c>
-      <c r="T92" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/schedulazione.xlsx
+++ b/PS-VRP/Dati_output/schedulazione.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>244023</v>
+        <v>243569</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,37 +551,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>8.308333333333334</v>
+        <v>21.675</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:38:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:38:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:46:18</t>
+          <t>08-09-2025 07:38:40</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>997</v>
+        <v>2601</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -590,17 +590,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>70</v>
-      </c>
-      <c r="O2" t="n">
-        <v>40054</v>
+        <v>76</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -610,19 +607,19 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-357.3185243055556</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251685</v>
+        <v>252906</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -631,37 +628,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>98.75833333333334</v>
+        <v>34.725</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 12:46:18</t>
+          <t>08-09-2025 07:38:40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:11:18</t>
+          <t>08-09-2025 07:55:40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:11:18</t>
+          <t>08-09-2025 07:55:40</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:50:04</t>
+          <t>08-09-2025 08:30:24</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>11851</v>
+        <v>4167</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -670,41 +667,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>70</v>
-      </c>
-      <c r="O3" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-14.35444444444444</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>243569</v>
+        <v>252995</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -713,37 +705,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>21.675</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:50:04</t>
+          <t>08-09-2025 08:30:24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09-07-2025 07:26:04</t>
+          <t>08-09-2025 08:47:24</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09-07-2025 07:26:04</t>
+          <t>08-09-2025 08:47:24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>09-07-2025 07:47:44</t>
+          <t>08-09-2025 09:55:43</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2601</v>
+        <v>8198</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -752,7 +744,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -761,9 +753,6 @@
       <c r="N4" t="n">
         <v>76</v>
       </c>
-      <c r="O4" t="n">
-        <v>40055</v>
-      </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
@@ -772,19 +761,19 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.3248206018518519</v>
+        <v>-7.41369212962963</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252378</v>
+        <v>253524</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -793,37 +782,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
-        <v>37.55833333333333</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-07-2025 07:47:44</t>
+          <t>08-09-2025 09:55:43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09-07-2025 08:06:44</t>
+          <t>08-09-2025 10:29:43</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09-07-2025 08:06:44</t>
+          <t>08-09-2025 10:29:43</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>09-07-2025 08:44:18</t>
+          <t>08-09-2025 11:28:28</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>4507</v>
+        <v>7051</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -832,14 +821,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -849,19 +838,19 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-5.364097222222222</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>245623</v>
+        <v>253374</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -870,37 +859,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>220.1583333333333</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-07-2025 08:44:18</t>
+          <t>08-09-2025 11:28:28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09-07-2025 09:20:18</t>
+          <t>08-09-2025 11:45:28</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09-07-2025 09:20:18</t>
+          <t>08-09-2025 11:45:28</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:27</t>
+          <t>08-09-2025 12:45:05</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>26419</v>
+        <v>7153</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -909,14 +898,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -926,19 +915,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-165.5419849537037</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252686</v>
+        <v>253527</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -947,37 +936,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>329.15</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:27</t>
+          <t>08-09-2025 12:45:05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-07-2025 13:17:27</t>
+          <t>08-09-2025 13:02:05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-07-2025 13:17:27</t>
+          <t>08-09-2025 13:02:05</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10-07-2025 10:46:36</t>
+          <t>08-09-2025 14:09:34</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>39498</v>
+        <v>8098</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -986,14 +975,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1003,7 +992,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1015,7 +1004,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252519</v>
+        <v>253095</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1024,37 +1013,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>11.475</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10-07-2025 10:46:36</t>
+          <t>08-09-2025 14:09:34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10-07-2025 11:20:36</t>
+          <t>08-09-2025 14:26:34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10-07-2025 11:20:36</t>
+          <t>08-09-2025 14:26:34</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10-07-2025 11:32:05</t>
+          <t>09-09-2025 07:42:53</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1377</v>
+        <v>9158</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1063,14 +1052,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1080,19 +1069,19 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-6.480613425925926</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252220</v>
+        <v>252833</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1101,37 +1090,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>80.51666666666667</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10-07-2025 11:32:05</t>
+          <t>09-09-2025 07:42:53</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10-07-2025 12:04:05</t>
+          <t>09-09-2025 07:59:53</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10-07-2025 12:04:05</t>
+          <t>09-09-2025 07:59:53</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10-07-2025 13:24:36</t>
+          <t>09-09-2025 09:14:40</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>9662</v>
+        <v>8974</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1144,7 +1133,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
         <v>70</v>
@@ -1157,11 +1146,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-24.55875</v>
+        <v>-14.38518518518518</v>
       </c>
       <c r="T9" t="n">
         <v>4</v>
@@ -1169,7 +1158,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252665</v>
+        <v>253278</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1178,37 +1167,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>48.875</v>
+        <v>28.425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10-07-2025 13:24:36</t>
+          <t>09-09-2025 09:14:40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10-07-2025 13:43:36</t>
+          <t>09-09-2025 09:35:40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10-07-2025 13:43:36</t>
+          <t>09-09-2025 09:35:40</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10-07-2025 14:32:28</t>
+          <t>09-09-2025 10:04:05</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5865</v>
+        <v>3411</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1217,11 +1206,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
         <v>70</v>
@@ -1234,19 +1223,19 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252364</v>
+        <v>250891</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1255,37 +1244,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>116.4833333333333</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10-07-2025 14:32:28</t>
+          <t>09-09-2025 10:04:05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10-07-2025 14:51:28</t>
+          <t>09-09-2025 10:21:05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-07-2025 14:51:28</t>
+          <t>09-09-2025 10:21:05</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11-07-2025 08:47:57</t>
+          <t>09-09-2025 11:38:35</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>13978</v>
+        <v>9299</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1298,7 +1287,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
         <v>70</v>
@@ -1311,11 +1300,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-14.36663773148148</v>
+        <v>-27.48512731481481</v>
       </c>
       <c r="T11" t="n">
         <v>4</v>
@@ -1323,7 +1312,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252467</v>
+        <v>253271</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1332,37 +1321,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>81.16666666666667</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>11-07-2025 08:47:57</t>
+          <t>09-09-2025 11:38:35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11-07-2025 09:04:57</t>
+          <t>09-09-2025 11:55:35</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11-07-2025 09:04:57</t>
+          <t>09-09-2025 11:55:35</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11-07-2025 10:26:07</t>
+          <t>09-09-2025 12:38:13</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>9740</v>
+        <v>5116</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1375,7 +1364,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
         <v>70</v>
@@ -1388,19 +1377,19 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-4.526539351851852</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252336</v>
+        <v>253359</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1409,37 +1398,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>120.275</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>11-07-2025 10:26:07</t>
+          <t>09-09-2025 12:38:13</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11-07-2025 10:41:07</t>
+          <t>09-09-2025 12:59:13</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11-07-2025 10:41:07</t>
+          <t>09-09-2025 12:59:13</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11-07-2025 12:41:24</t>
+          <t>10-09-2025 07:13:14</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>14433</v>
+        <v>16082</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1452,7 +1441,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>70</v>
@@ -1465,19 +1454,19 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-7.52875</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252790</v>
+        <v>252939</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1486,37 +1475,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>12.10833333333333</v>
+        <v>89.8</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11-07-2025 12:41:24</t>
+          <t>10-09-2025 07:13:14</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11-07-2025 12:56:24</t>
+          <t>10-09-2025 07:32:14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11-07-2025 12:56:24</t>
+          <t>10-09-2025 07:32:14</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11-07-2025 13:08:30</t>
+          <t>10-09-2025 09:02:02</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1453</v>
+        <v>10776</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1529,7 +1518,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
         <v>70</v>
@@ -1542,58 +1531,58 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-19.37641203703704</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252087</v>
+        <v>253409</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
-        <v>35.5</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11-07-2025 13:08:30</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11-07-2025 13:27:30</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11-07-2025 13:27:30</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11-07-2025 14:03:00</t>
+          <t>08-09-2025 07:56:11</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>4260</v>
+        <v>3262</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1602,14 +1591,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1619,19 +1608,19 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-12.5854224537037</v>
+        <v>-10.33068287037037</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252210</v>
+        <v>253375</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1640,37 +1629,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
-        <v>29.2</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-09-2025 07:56:11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-07-2025 12:27:00</t>
+          <t>08-09-2025 08:38:11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-07-2025 12:27:00</t>
+          <t>08-09-2025 08:38:11</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>08-07-2025 12:56:12</t>
+          <t>08-09-2025 09:30:04</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>3504</v>
+        <v>6226</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1679,14 +1668,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1696,11 +1685,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-12.53902777777778</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
@@ -1708,7 +1697,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252298</v>
+        <v>253361</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1717,37 +1706,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>70.76666666666667</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-07-2025 12:56:12</t>
+          <t>08-09-2025 09:30:04</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-07-2025 13:27:12</t>
+          <t>08-09-2025 09:55:04</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-07-2025 13:27:12</t>
+          <t>08-09-2025 09:55:04</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:58</t>
+          <t>08-09-2025 11:11:46</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>8492</v>
+        <v>9205</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1756,14 +1745,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1773,19 +1762,19 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-15.60969907407407</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251790</v>
+        <v>253372</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1794,37 +1783,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>235.0583333333333</v>
+        <v>103.775</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-07-2025 14:37:58</t>
+          <t>08-09-2025 11:11:46</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:58</t>
+          <t>08-09-2025 11:36:46</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:58</t>
+          <t>08-09-2025 11:36:46</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>09-07-2025 11:04:01</t>
+          <t>08-09-2025 13:20:33</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>28207</v>
+        <v>12453</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1833,33 +1822,28 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>76</v>
-      </c>
-      <c r="O18" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.4611284722222222</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>1</v>
@@ -1867,7 +1851,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>243536</v>
+        <v>253268</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1876,37 +1860,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" t="n">
-        <v>66.61666666666666</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-07-2025 11:04:01</t>
+          <t>08-09-2025 13:20:33</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09-07-2025 11:29:01</t>
+          <t>08-09-2025 13:49:33</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09-07-2025 11:29:01</t>
+          <t>08-09-2025 13:49:33</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>09-07-2025 12:35:38</t>
+          <t>09-09-2025 07:08:06</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>7994</v>
+        <v>9427</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1915,41 +1899,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>76</v>
-      </c>
-      <c r="O19" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.5247511574074074</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252978</v>
+        <v>253267</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1958,37 +1937,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>04-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>23.3</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-07-2025 12:35:38</t>
+          <t>09-09-2025 07:08:06</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09-07-2025 13:04:38</t>
+          <t>09-09-2025 07:33:06</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09-07-2025 13:04:38</t>
+          <t>09-09-2025 07:33:06</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>09-07-2025 13:27:56</t>
+          <t>09-09-2025 10:17:28</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2796</v>
+        <v>19724</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1997,17 +1976,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>76</v>
-      </c>
-      <c r="O20" t="n">
-        <v>40049</v>
+        <v>70</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2017,58 +1993,58 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>243527</v>
+        <v>244023</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
-        <v>66.61666666666666</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>09-07-2025 13:27:56</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:56</t>
+          <t>05-09-2025 07:21:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>09-07-2025 13:56:56</t>
+          <t>05-09-2025 07:21:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10-07-2025 07:03:33</t>
+          <t>05-09-2025 07:29:18</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>7994</v>
+        <v>997</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2077,33 +2053,28 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N21" t="n">
-        <v>76</v>
-      </c>
-      <c r="O21" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-1.294137731481481</v>
+        <v>-340.3120196759259</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
@@ -2111,46 +2082,46 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>243523</v>
+        <v>252569</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E22" t="n">
-        <v>66.61666666666666</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10-07-2025 07:03:33</t>
+          <t>05-09-2025 07:29:18</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10-07-2025 07:28:33</t>
+          <t>05-09-2025 08:05:18</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10-07-2025 07:28:33</t>
+          <t>05-09-2025 08:05:18</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10-07-2025 08:35:10</t>
+          <t>05-09-2025 08:14:53</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>7994</v>
+        <v>1150</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2168,24 +2139,19 @@
       <c r="N22" t="n">
         <v>76</v>
       </c>
-      <c r="O22" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P22" t="n">
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-1.357760416666667</v>
+        <v>-4.343674768518518</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
@@ -2193,46 +2159,46 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252362</v>
+        <v>252843</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" t="n">
-        <v>39.95</v>
+        <v>19.2</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10-07-2025 08:35:10</t>
+          <t>05-09-2025 08:14:53</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10-07-2025 09:04:10</t>
+          <t>05-09-2025 08:41:53</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10-07-2025 09:04:10</t>
+          <t>05-09-2025 08:41:53</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10-07-2025 09:44:07</t>
+          <t>05-09-2025 09:01:05</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>4794</v>
+        <v>2304</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2245,7 +2211,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N23" t="n">
         <v>76</v>
@@ -2258,11 +2224,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-6.405642361111111</v>
+        <v>-37.37575810185185</v>
       </c>
       <c r="T23" t="n">
         <v>2</v>
@@ -2270,46 +2236,46 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251849</v>
+        <v>253591</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E24" t="n">
-        <v>33.38333333333333</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10-07-2025 09:44:07</t>
+          <t>05-09-2025 09:01:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10-07-2025 10:32:07</t>
+          <t>05-09-2025 09:28:05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10-07-2025 10:32:07</t>
+          <t>05-09-2025 09:28:05</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10-07-2025 11:05:30</t>
+          <t>05-09-2025 09:45:30</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>4006</v>
+        <v>2090</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2318,19 +2284,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>70</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O24" t="n">
+        <v>40295</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2338,15 +2302,15 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>40042</v>
+        <v>40295</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-15.46215856481481</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>4</v>
@@ -2354,46 +2318,46 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252085</v>
+        <v>252685</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>28.55</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10-07-2025 11:05:30</t>
+          <t>05-09-2025 09:45:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10-07-2025 11:32:30</t>
+          <t>05-09-2025 10:02:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10-07-2025 11:32:30</t>
+          <t>05-09-2025 10:02:30</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10-07-2025 12:01:03</t>
+          <t>05-09-2025 11:17:04</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>3426</v>
+        <v>8948</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2402,75 +2366,80 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>70</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O25" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-22.5007349537037</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252549</v>
+        <v>253016</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E26" t="n">
-        <v>92.59166666666667</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10-07-2025 12:01:03</t>
+          <t>05-09-2025 11:17:04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10-07-2025 12:28:03</t>
+          <t>05-09-2025 11:51:04</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10-07-2025 12:28:03</t>
+          <t>05-09-2025 11:51:04</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:39</t>
+          <t>05-09-2025 13:04:27</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>11111</v>
+        <v>8806</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2479,36 +2448,41 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>70</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O26" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252638</v>
+        <v>253362</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2517,37 +2491,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>61.49166666666667</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>05-09-2025 13:04:27</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:00</t>
+          <t>05-09-2025 13:21:27</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-07-2025 12:36:00</t>
+          <t>05-09-2025 13:21:27</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>08-07-2025 13:37:29</t>
+          <t>05-09-2025 14:19:50</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>7379</v>
+        <v>7006</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2556,36 +2530,41 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>70</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O27" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>15-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-2.567702546296296</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251926</v>
+        <v>253259</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2594,37 +2573,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>78.91666666666667</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:37:29</t>
+          <t>05-09-2025 14:19:50</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:54:29</t>
+          <t>05-09-2025 14:51:50</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-07-2025 13:54:29</t>
+          <t>05-09-2025 14:51:50</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>09-07-2025 07:13:24</t>
+          <t>08-09-2025 08:01:04</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>9470</v>
+        <v>8308</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2633,36 +2612,41 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
         <v>70</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
+      <c r="O28" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-0.3009780092592593</v>
+        <v>-0.3340798611111111</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252456</v>
+        <v>253072</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2671,37 +2655,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E29" t="n">
-        <v>144.4583333333333</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-07-2025 07:13:24</t>
+          <t>08-09-2025 08:01:04</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-07-2025 07:30:24</t>
+          <t>08-09-2025 08:24:04</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-07-2025 07:30:24</t>
+          <t>08-09-2025 08:24:04</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>09-07-2025 09:54:52</t>
+          <t>08-09-2025 08:53:12</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>17335</v>
+        <v>3496</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2714,37 +2698,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>40051</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P29" t="n">
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>40051</v>
+        <v>0</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-21.37028356481482</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252656</v>
+        <v>253721</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2753,37 +2732,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>21</v>
       </c>
       <c r="E30" t="n">
-        <v>189.8666666666667</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-07-2025 09:54:52</t>
+          <t>08-09-2025 08:53:12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-07-2025 10:15:52</t>
+          <t>08-09-2025 09:14:12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-07-2025 10:15:52</t>
+          <t>08-09-2025 09:14:12</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>09-07-2025 13:25:44</t>
+          <t>08-09-2025 09:53:36</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>22784</v>
+        <v>4727</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2792,11 +2771,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
         <v>70</v>
@@ -2809,19 +2788,19 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>245089</v>
+        <v>253314</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2830,37 +2809,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E31" t="n">
-        <v>1022.208333333333</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-07-2025 13:25:44</t>
+          <t>08-09-2025 09:53:36</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09-07-2025 13:59:44</t>
+          <t>08-09-2025 10:25:36</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-07-2025 13:59:44</t>
+          <t>08-09-2025 10:25:36</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>14-07-2025 07:01:56</t>
+          <t>08-09-2025 11:09:00</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>122665</v>
+        <v>5209</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2869,7 +2848,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -2878,66 +2857,71 @@
       <c r="N31" t="n">
         <v>76</v>
       </c>
-      <c r="P31" t="n">
-        <v>0</v>
+      <c r="O31" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-0.4645891203703704</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>235572</v>
+        <v>253100</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>34.5</v>
+        <v>36</v>
       </c>
       <c r="E32" t="n">
-        <v>82.98333333333333</v>
+        <v>47.35</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-09-2025 11:09:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-07-2025 12:34:30</t>
+          <t>08-09-2025 11:45:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-07-2025 12:34:30</t>
+          <t>08-09-2025 11:45:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>08-07-2025 13:57:29</t>
+          <t>08-09-2025 12:32:21</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>9958</v>
+        <v>5682</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2950,14 +2934,11 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
         <v>70</v>
       </c>
-      <c r="O32" t="n">
-        <v>40055</v>
-      </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
@@ -2966,11 +2947,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-0.5224710648148149</v>
       </c>
       <c r="T32" t="n">
         <v>4</v>
@@ -2978,46 +2959,46 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252157</v>
+        <v>235572</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>38.5</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>396.825</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 13:57:29</t>
+          <t>08-09-2025 12:32:21</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:35:59</t>
+          <t>08-09-2025 12:49:21</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08-07-2025 14:35:59</t>
+          <t>08-09-2025 12:49:21</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>09-07-2025 13:12:48</t>
+          <t>08-09-2025 14:12:20</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>47619</v>
+        <v>9958</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3030,7 +3011,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N33" t="n">
         <v>70</v>
@@ -3043,58 +3024,58 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-21.55056134259259</v>
+        <v>-672.5919039351852</v>
       </c>
       <c r="T33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252713</v>
+        <v>253710</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>38.5</v>
+        <v>19</v>
       </c>
       <c r="E34" t="n">
-        <v>907.7666666666667</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-07-2025 13:12:48</t>
+          <t>08-09-2025 14:12:20</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-07-2025 13:51:18</t>
+          <t>08-09-2025 14:31:20</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-07-2025 13:51:18</t>
+          <t>08-09-2025 14:31:20</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11-07-2025 12:59:04</t>
+          <t>08-09-2025 14:32:57</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>108932</v>
+        <v>194</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3103,11 +3084,11 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
         <v>70</v>
@@ -3120,58 +3101,58 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252277</v>
+        <v>253706</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="E35" t="n">
-        <v>144.925</v>
+        <v>311</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>11-07-2025 12:59:04</t>
+          <t>08-09-2025 14:32:57</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11-07-2025 13:33:34</t>
+          <t>09-09-2025 07:12:57</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11-07-2025 13:33:34</t>
+          <t>09-09-2025 07:12:57</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>14-07-2025 07:58:30</t>
+          <t>09-09-2025 12:23:57</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>17391</v>
+        <v>37320</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3180,33 +3161,28 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N35" t="n">
-        <v>70</v>
-      </c>
-      <c r="O35" t="n">
-        <v>40024</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-24.33229166666667</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3214,46 +3190,46 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252426</v>
+        <v>253246</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>32.5</v>
+        <v>38</v>
       </c>
       <c r="E36" t="n">
-        <v>184.2833333333333</v>
+        <v>194.25</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>14-07-2025 07:58:30</t>
+          <t>09-09-2025 12:23:57</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14-07-2025 08:31:00</t>
+          <t>09-09-2025 13:01:57</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>14-07-2025 08:31:00</t>
+          <t>09-09-2025 13:01:57</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>14-07-2025 11:35:17</t>
+          <t>10-09-2025 08:16:12</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>22114</v>
+        <v>23310</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3262,11 +3238,11 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
         <v>70</v>
@@ -3279,11 +3255,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-12.48283564814815</v>
+        <v>-0.3445891203703704</v>
       </c>
       <c r="T36" t="n">
         <v>2</v>
@@ -3291,7 +3267,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252598</v>
+        <v>253223</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3300,37 +3276,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>30.5</v>
+        <v>54.5</v>
       </c>
       <c r="E37" t="n">
-        <v>149.625</v>
+        <v>16.4</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>14-07-2025 11:35:17</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14-07-2025 12:05:47</t>
+          <t>09-09-2025 07:54:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>14-07-2025 12:05:47</t>
+          <t>09-09-2025 07:54:30</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>14-07-2025 14:35:24</t>
+          <t>09-09-2025 08:10:54</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>17955</v>
+        <v>1968</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3339,11 +3315,11 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N37" t="n">
         <v>70</v>
@@ -3356,19 +3332,19 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-4.607922453703703</v>
+        <v>-8.340902777777778</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252576</v>
+        <v>252601</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3377,37 +3353,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="E38" t="n">
-        <v>374.0666666666667</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>14-07-2025 14:35:24</t>
+          <t>09-09-2025 08:10:54</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15-07-2025 07:05:54</t>
+          <t>09-09-2025 08:43:24</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15-07-2025 07:05:54</t>
+          <t>09-09-2025 08:43:24</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>15-07-2025 13:19:58</t>
+          <t>09-09-2025 09:34:36</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>44888</v>
+        <v>6145</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3416,11 +3392,11 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N38" t="n">
         <v>70</v>
@@ -3433,58 +3409,58 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.5555381944444444</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252507</v>
+        <v>252582</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>46.5</v>
+        <v>50</v>
       </c>
       <c r="E39" t="n">
-        <v>102.8833333333333</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>15-07-2025 13:19:58</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15-07-2025 14:06:28</t>
+          <t>04-09-2025 12:50:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>15-07-2025 14:06:28</t>
+          <t>04-09-2025 12:50:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>16-07-2025 07:49:21</t>
+          <t>04-09-2025 13:36:05</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>12346</v>
+        <v>5530</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3493,75 +3469,80 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>70</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O39" t="n">
+        <v>40290</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-13.32594328703704</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252511</v>
+        <v>252002</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="E40" t="n">
-        <v>87.45</v>
+        <v>55.675</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>16-07-2025 07:49:21</t>
+          <t>04-09-2025 13:36:05</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16-07-2025 08:19:51</t>
+          <t>04-09-2025 14:16:05</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>16-07-2025 08:19:51</t>
+          <t>04-09-2025 14:16:05</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>16-07-2025 09:47:18</t>
+          <t>05-09-2025 07:11:45</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>10494</v>
+        <v>6681</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3570,36 +3551,43 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
         <v>70</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-13.40785300925926</v>
+        <v>-11.29983217592593</v>
       </c>
       <c r="T40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252201</v>
+        <v>252679</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3608,37 +3596,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>03-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>34.10833333333333</v>
+        <v>60</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>05-09-2025 07:11:45</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08-07-2025 13:25:00</t>
+          <t>05-09-2025 07:51:45</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>08-07-2025 13:25:00</t>
+          <t>05-09-2025 07:51:45</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>08-07-2025 13:59:06</t>
+          <t>05-09-2025 08:51:45</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>4093</v>
+        <v>7200</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3651,74 +3639,76 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="n">
         <v>76</v>
       </c>
       <c r="O41" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
+        <v>40295</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251919</v>
+        <v>253284</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20-06-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E42" t="n">
-        <v>140.05</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>05-09-2025 08:51:45</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:34:00</t>
+          <t>05-09-2025 09:21:45</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08-07-2025 12:34:00</t>
+          <t>05-09-2025 09:21:45</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>08-07-2025 14:54:03</t>
+          <t>05-09-2025 10:18:45</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>16806</v>
+        <v>6839</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3727,14 +3717,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>152</v>
+        <v>76</v>
+      </c>
+      <c r="O42" t="n">
+        <v>40299</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -3744,11 +3737,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-22.62086805555555</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -3756,46 +3749,46 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252245</v>
+        <v>253194</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E43" t="n">
-        <v>489.7583333333333</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-07-2025 14:54:03</t>
+          <t>05-09-2025 10:18:45</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09-07-2025 07:11:03</t>
+          <t>05-09-2025 10:48:45</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09-07-2025 07:11:03</t>
+          <t>05-09-2025 10:48:45</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10-07-2025 07:20:48</t>
+          <t>05-09-2025 14:07:50</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>58771</v>
+        <v>23890</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3804,14 +3797,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43" t="n">
-        <v>152</v>
+        <v>76</v>
+      </c>
+      <c r="O43" t="n">
+        <v>40299</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -3821,11 +3817,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-13.30611689814815</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>1</v>
@@ -3833,46 +3829,46 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252890</v>
+        <v>253140</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E44" t="n">
-        <v>51.7</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>10-07-2025 07:20:48</t>
+          <t>05-09-2025 14:07:50</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10-07-2025 07:52:48</t>
+          <t>05-09-2025 14:42:50</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>10-07-2025 07:52:48</t>
+          <t>05-09-2025 14:42:50</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10-07-2025 08:44:30</t>
+          <t>08-09-2025 07:38:40</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>6204</v>
+        <v>6700</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3898,58 +3894,58 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>01-08-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-13.31851851851852</v>
       </c>
       <c r="T44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252680</v>
+        <v>253313</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E45" t="n">
-        <v>254.7</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10-07-2025 08:44:30</t>
+          <t>08-09-2025 07:38:40</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10-07-2025 09:01:30</t>
+          <t>08-09-2025 08:08:40</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>10-07-2025 09:01:30</t>
+          <t>08-09-2025 08:08:40</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10-07-2025 13:16:12</t>
+          <t>08-09-2025 09:48:40</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>30564</v>
+        <v>12001</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3958,11 +3954,11 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N45" t="n">
         <v>76</v>
@@ -3975,11 +3971,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0</v>
+        <v>-3.408802083333333</v>
       </c>
       <c r="T45" t="n">
         <v>1</v>
@@ -3987,46 +3983,46 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252495</v>
+        <v>252883</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E46" t="n">
-        <v>70.77500000000001</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10-07-2025 13:16:12</t>
+          <t>08-09-2025 09:48:40</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10-07-2025 13:35:12</t>
+          <t>08-09-2025 11:03:40</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>10-07-2025 13:35:12</t>
+          <t>08-09-2025 11:03:40</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10-07-2025 14:45:59</t>
+          <t>09-09-2025 07:10:59</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>8493</v>
+        <v>29677</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4035,14 +4031,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N46" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4052,58 +4048,58 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-3.615266203703704</v>
+        <v>-11.29929398148148</v>
       </c>
       <c r="T46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252207</v>
+        <v>250284</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>27-06-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E47" t="n">
-        <v>51.55</v>
+        <v>146.35</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>09-09-2025 07:10:59</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08-07-2025 12:40:00</t>
+          <t>09-09-2025 07:55:59</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08-07-2025 12:40:00</t>
+          <t>09-09-2025 07:55:59</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>08-07-2025 13:31:33</t>
+          <t>09-09-2025 10:22:20</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>6186</v>
+        <v>17562</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4112,14 +4108,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N47" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -4129,58 +4125,58 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-12.56357638888889</v>
+        <v>-181.4321759259259</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252350</v>
+        <v>253036</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E48" t="n">
-        <v>51.88333333333333</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-07-2025 13:31:33</t>
+          <t>09-09-2025 10:22:20</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-07-2025 14:06:33</t>
+          <t>09-09-2025 11:22:20</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08-07-2025 14:06:33</t>
+          <t>09-09-2025 11:22:20</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>08-07-2025 14:58:26</t>
+          <t>09-09-2025 12:41:04</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>6226</v>
+        <v>9448</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4189,80 +4185,75 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>70</v>
-      </c>
-      <c r="O48" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0</v>
+        <v>-18.52851851851852</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252723</v>
+        <v>253208</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E49" t="n">
-        <v>153.9583333333333</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-07-2025 14:58:26</t>
+          <t>09-09-2025 12:41:04</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09-07-2025 07:33:26</t>
+          <t>09-09-2025 14:06:04</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>09-07-2025 07:33:26</t>
+          <t>09-09-2025 14:06:04</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>09-07-2025 10:07:23</t>
+          <t>10-09-2025 07:50:19</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>18475</v>
+        <v>12511</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4271,14 +4262,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N49" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4288,58 +4279,58 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0</v>
+        <v>-5.326614583333333</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251231</v>
+        <v>253210</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E50" t="n">
-        <v>312.3083333333333</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-07-2025 10:07:23</t>
+          <t>10-09-2025 07:50:19</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-07-2025 10:52:23</t>
+          <t>10-09-2025 08:15:19</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-07-2025 10:52:23</t>
+          <t>10-09-2025 08:15:19</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10-07-2025 08:04:42</t>
+          <t>10-09-2025 09:49:29</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>37477</v>
+        <v>11299</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4348,82 +4339,75 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N50" t="n">
         <v>70</v>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P50" t="n">
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-7.336597222222222</v>
+        <v>-0.409363425925926</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252473</v>
+        <v>253247</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E51" t="n">
-        <v>189.8666666666667</v>
+        <v>109.575</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10-07-2025 08:04:42</t>
+          <t>10-09-2025 09:49:29</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10-07-2025 08:49:42</t>
+          <t>10-09-2025 10:59:29</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>10-07-2025 08:49:42</t>
+          <t>10-09-2025 10:59:29</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10-07-2025 11:59:34</t>
+          <t>10-09-2025 12:49:03</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>22784</v>
+        <v>13149</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4432,11 +4416,11 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N51" t="n">
         <v>70</v>
@@ -4449,11 +4433,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-9.499699074074075</v>
+        <v>-0.534068287037037</v>
       </c>
       <c r="T51" t="n">
         <v>2</v>
@@ -4461,46 +4445,46 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252662</v>
+        <v>253602</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E52" t="n">
-        <v>189.8666666666667</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>10-07-2025 11:59:34</t>
+          <t>10-09-2025 12:49:03</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10-07-2025 12:24:34</t>
+          <t>10-09-2025 13:29:03</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>10-07-2025 12:24:34</t>
+          <t>10-09-2025 13:29:03</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>11-07-2025 07:34:26</t>
+          <t>11-09-2025 07:26:08</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>22784</v>
+        <v>14050</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4509,14 +4493,14 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -4526,58 +4510,58 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0</v>
+        <v>-1.309820601851852</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252755</v>
+        <v>253522</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E53" t="n">
-        <v>109.575</v>
+        <v>198.625</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>11-07-2025 07:34:26</t>
+          <t>11-09-2025 07:26:08</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11-07-2025 08:09:26</t>
+          <t>11-09-2025 08:11:08</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>11-07-2025 08:09:26</t>
+          <t>11-09-2025 08:11:08</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>11-07-2025 09:59:00</t>
+          <t>11-09-2025 11:29:46</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>13149</v>
+        <v>23835</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4590,7 +4574,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
         <v>70</v>
@@ -4603,58 +4587,58 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252414</v>
+        <v>252529</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E54" t="n">
-        <v>77.15833333333333</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>11-07-2025 09:59:00</t>
+          <t>11-09-2025 11:29:46</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11-07-2025 10:39:00</t>
+          <t>11-09-2025 12:14:46</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11-07-2025 10:39:00</t>
+          <t>11-09-2025 12:14:46</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>11-07-2025 11:56:10</t>
+          <t>11-09-2025 13:22:51</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>9259</v>
+        <v>8170</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4663,14 +4647,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -4680,58 +4664,58 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-11.49733796296296</v>
+        <v>-6.557534722222222</v>
       </c>
       <c r="T54" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252371</v>
+        <v>253455</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E55" t="n">
-        <v>50.04166666666666</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>11-09-2025 13:22:51</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08-07-2025 12:35:00</t>
+          <t>11-09-2025 14:02:51</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>08-07-2025 12:35:00</t>
+          <t>11-09-2025 14:02:51</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>08-07-2025 13:25:02</t>
+          <t>11-09-2025 14:58:24</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>6005</v>
+        <v>6667</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4740,14 +4724,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -4757,58 +4741,58 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-8.559056712962963</v>
+        <v>-3.623894675925926</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252209</v>
+        <v>253295</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>30</v>
       </c>
       <c r="E56" t="n">
-        <v>29.19166666666667</v>
+        <v>230.075</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-07-2025 13:25:02</t>
+          <t>11-09-2025 14:58:24</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08-07-2025 13:55:02</t>
+          <t>12-09-2025 07:28:24</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08-07-2025 13:55:02</t>
+          <t>12-09-2025 07:28:24</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>08-07-2025 14:24:14</t>
+          <t>12-09-2025 11:18:29</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>3503</v>
+        <v>27609</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4817,75 +4801,80 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N56" t="n">
-        <v>76</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O56" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-12.60016203703704</v>
+        <v>-0.4711689814814815</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>243535</v>
+        <v>253686</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E57" t="n">
-        <v>66.61666666666666</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>08-07-2025 14:24:14</t>
+          <t>12-09-2025 11:18:29</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08-07-2025 14:59:14</t>
+          <t>12-09-2025 11:43:29</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08-07-2025 14:59:14</t>
+          <t>12-09-2025 11:43:29</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>09-07-2025 08:05:51</t>
+          <t>12-09-2025 12:27:43</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>7994</v>
+        <v>5308</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4894,33 +4883,28 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N57" t="n">
-        <v>76</v>
-      </c>
-      <c r="O57" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-0.3373958333333333</v>
+        <v>-0.5192476851851852</v>
       </c>
       <c r="T57" t="n">
         <v>1</v>
@@ -4928,46 +4912,46 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>250284</v>
+        <v>252397</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E58" t="n">
-        <v>146.35</v>
+        <v>115.925</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-07-2025 08:05:51</t>
+          <t>12-09-2025 12:27:43</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09-07-2025 09:00:51</t>
+          <t>12-09-2025 13:07:43</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>09-07-2025 09:00:51</t>
+          <t>12-09-2025 13:07:43</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>09-07-2025 11:27:12</t>
+          <t>15-09-2025 07:03:38</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>17562</v>
+        <v>13911</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4976,14 +4960,14 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N58" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -4993,58 +4977,58 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-119.4772222222222</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252785</v>
+        <v>253393</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E59" t="n">
-        <v>58.34166666666667</v>
+        <v>77.63333333333334</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>09-07-2025 11:27:12</t>
+          <t>15-09-2025 07:03:38</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:12</t>
+          <t>15-09-2025 07:43:38</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>09-07-2025 12:02:12</t>
+          <t>15-09-2025 07:43:38</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:32</t>
+          <t>15-09-2025 09:01:16</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>7001</v>
+        <v>9316</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5053,33 +5037,28 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
         <v>70</v>
       </c>
-      <c r="O59" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P59" t="n">
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-0.5420428240740741</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
         <v>1</v>
@@ -5087,46 +5066,46 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252784</v>
+        <v>253392</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>25</v>
       </c>
       <c r="E60" t="n">
-        <v>26.975</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-07-2025 13:00:32</t>
+          <t>15-09-2025 09:01:16</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09-07-2025 13:25:32</t>
+          <t>15-09-2025 09:26:16</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>09-07-2025 13:25:32</t>
+          <t>15-09-2025 09:26:16</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>09-07-2025 13:52:31</t>
+          <t>15-09-2025 11:35:39</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>3237</v>
+        <v>15526</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5135,33 +5114,28 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N60" t="n">
         <v>70</v>
       </c>
-      <c r="O60" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P60" t="n">
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-0.578136574074074</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
         <v>1</v>
@@ -5169,46 +5143,46 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252783</v>
+        <v>244743</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E61" t="n">
-        <v>11.95</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-07-2025 13:52:31</t>
+          <t>15-09-2025 11:35:39</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09-07-2025 14:17:31</t>
+          <t>15-09-2025 12:10:39</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09-07-2025 14:17:31</t>
+          <t>15-09-2025 12:10:39</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>09-07-2025 14:29:28</t>
+          <t>15-09-2025 12:40:00</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1434</v>
+        <v>3521</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5221,76 +5195,71 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N61" t="n">
         <v>70</v>
       </c>
-      <c r="O61" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P61" t="n">
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-0.6037962962962963</v>
+        <v>-21.52777777777778</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>243526</v>
+        <v>252741</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E62" t="n">
-        <v>66.61666666666666</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-07-2025 14:29:28</t>
+          <t>15-09-2025 12:40:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10-07-2025 07:14:28</t>
+          <t>15-09-2025 13:15:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10-07-2025 07:14:28</t>
+          <t>15-09-2025 13:15:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10-07-2025 08:21:05</t>
+          <t>15-09-2025 14:16:29</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>7994</v>
+        <v>7379</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5299,80 +5268,75 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N62" t="n">
-        <v>76</v>
-      </c>
-      <c r="O62" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-1.347974537037037</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>250383</v>
+        <v>253261</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E63" t="n">
-        <v>24.925</v>
+        <v>18.85</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:21:05</t>
+          <t>15-09-2025 14:16:29</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:56:05</t>
+          <t>15-09-2025 14:46:29</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>10-07-2025 08:56:05</t>
+          <t>15-09-2025 14:46:29</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>10-07-2025 09:21:00</t>
+          <t>16-09-2025 07:05:20</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2991</v>
+        <v>2262</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5381,14 +5345,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N63" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5398,58 +5362,58 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>15-06-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-25.38958912037037</v>
+        <v>-22.29537615740741</v>
       </c>
       <c r="T63" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252369</v>
+        <v>253436</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E64" t="n">
-        <v>19.2</v>
+        <v>18.85</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10-07-2025 09:21:00</t>
+          <t>16-09-2025 07:05:20</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10-07-2025 10:06:00</t>
+          <t>16-09-2025 07:30:20</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>10-07-2025 10:06:00</t>
+          <t>16-09-2025 07:30:20</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>10-07-2025 10:25:12</t>
+          <t>16-09-2025 07:49:11</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>2304</v>
+        <v>2262</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5458,14 +5422,14 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N64" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5475,58 +5439,58 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-13.4341724537037</v>
+        <v>-6.325827546296297</v>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252814</v>
+        <v>253401</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>50.08333333333334</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10-07-2025 10:25:12</t>
+          <t>16-09-2025 07:49:11</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10-07-2025 11:15:12</t>
+          <t>16-09-2025 08:29:11</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>10-07-2025 11:15:12</t>
+          <t>16-09-2025 08:29:11</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>10-07-2025 12:05:17</t>
+          <t>16-09-2025 08:52:00</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>6010</v>
+        <v>2738</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5535,14 +5499,14 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -5552,58 +5516,58 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-4.369450231481482</v>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251812</v>
+        <v>253317</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E66" t="n">
-        <v>33.875</v>
+        <v>102.775</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10-07-2025 12:05:17</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10-07-2025 12:35:17</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>10-07-2025 12:35:17</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>10-07-2025 13:09:10</t>
+          <t>08-09-2025 09:01:46</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>4065</v>
+        <v>12333</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5629,58 +5593,58 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-17.54803240740741</v>
+        <v>-0.3762326388888889</v>
       </c>
       <c r="T66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252476</v>
+        <v>253318</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>72.34166666666667</v>
+        <v>51.55</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>10-07-2025 13:09:10</t>
+          <t>08-09-2025 09:01:46</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10-07-2025 13:49:10</t>
+          <t>08-09-2025 09:16:46</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10-07-2025 13:49:10</t>
+          <t>08-09-2025 09:16:46</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>11-07-2025 07:01:30</t>
+          <t>08-09-2025 10:08:19</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>8681</v>
+        <v>6186</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5689,14 +5653,14 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -5706,58 +5670,58 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-4.292714120370371</v>
+        <v>-0.4224479166666666</v>
       </c>
       <c r="T67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252547</v>
+        <v>253249</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>81.16666666666667</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>11-07-2025 07:01:30</t>
+          <t>08-09-2025 10:08:19</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11-07-2025 07:36:30</t>
+          <t>08-09-2025 10:23:19</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>11-07-2025 07:36:30</t>
+          <t>08-09-2025 10:23:19</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>11-07-2025 08:57:40</t>
+          <t>08-09-2025 11:21:05</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>9740</v>
+        <v>6931</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5766,14 +5730,14 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -5783,11 +5747,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-7.373385416666666</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
         <v>1</v>
@@ -5795,46 +5759,46 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251495</v>
+        <v>252827</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E69" t="n">
-        <v>72.34166666666667</v>
+        <v>410</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11-07-2025 08:57:40</t>
+          <t>08-09-2025 11:21:05</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11-07-2025 09:42:40</t>
+          <t>08-09-2025 11:38:05</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>11-07-2025 09:42:40</t>
+          <t>08-09-2025 11:38:05</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>11-07-2025 10:55:01</t>
+          <t>09-09-2025 10:28:05</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>8681</v>
+        <v>49200</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5843,14 +5807,14 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -5860,11 +5824,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-2.454872685185185</v>
+        <v>-5.436168981481481</v>
       </c>
       <c r="T69" t="n">
         <v>4</v>
@@ -5872,46 +5836,46 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252999</v>
+        <v>253659</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>40</v>
       </c>
       <c r="E70" t="n">
-        <v>325.8416666666666</v>
+        <v>323.75</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>11-07-2025 10:55:01</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11-07-2025 11:35:01</t>
+          <t>09-09-2025 07:40:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>11-07-2025 11:35:01</t>
+          <t>09-09-2025 07:40:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>14-07-2025 09:00:51</t>
+          <t>09-09-2025 13:03:45</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>39101</v>
+        <v>38850</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5920,11 +5884,11 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N70" t="n">
         <v>70</v>
@@ -5937,19 +5901,19 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252334</v>
+        <v>252702</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5958,37 +5922,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E71" t="n">
-        <v>486.5916666666666</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>14-07-2025 09:00:51</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14-07-2025 09:40:51</t>
+          <t>05-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>14-07-2025 09:40:51</t>
+          <t>05-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>15-07-2025 09:47:27</t>
+          <t>05-09-2025 08:33:23</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>58391</v>
+        <v>7006</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5997,28 +5961,33 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N71" t="n">
-        <v>70</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O71" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-11.40795138888889</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
         <v>2</v>
@@ -6026,7 +5995,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252899</v>
+        <v>252682</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -6035,37 +6004,37 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>35</v>
       </c>
       <c r="E72" t="n">
-        <v>180.5666666666667</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>15-07-2025 09:47:27</t>
+          <t>05-09-2025 08:33:23</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15-07-2025 10:22:27</t>
+          <t>05-09-2025 09:08:23</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>15-07-2025 10:22:27</t>
+          <t>05-09-2025 09:08:23</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>15-07-2025 13:23:01</t>
+          <t>05-09-2025 10:31:47</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>21668</v>
+        <v>10009</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6074,36 +6043,41 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N72" t="n">
-        <v>70</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O72" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252470</v>
+        <v>253425</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -6112,37 +6086,37 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>30</v>
       </c>
       <c r="E73" t="n">
-        <v>62.5</v>
+        <v>146.35</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>15-07-2025 13:23:01</t>
+          <t>05-09-2025 10:31:47</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15-07-2025 13:53:01</t>
+          <t>05-09-2025 11:01:47</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>15-07-2025 13:53:01</t>
+          <t>05-09-2025 11:01:47</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>15-07-2025 14:55:31</t>
+          <t>05-09-2025 13:28:08</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>7500</v>
+        <v>17562</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6151,14 +6125,14 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N73" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -6168,19 +6142,19 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-11.62188657407407</v>
+        <v>-7.56120949074074</v>
       </c>
       <c r="T73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>252779</v>
+        <v>253260</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6189,37 +6163,37 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
         <v>35</v>
       </c>
       <c r="E74" t="n">
-        <v>184.2833333333333</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>15-07-2025 14:55:31</t>
+          <t>05-09-2025 13:28:08</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16-07-2025 07:30:31</t>
+          <t>05-09-2025 14:03:08</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>16-07-2025 07:30:31</t>
+          <t>05-09-2025 14:03:08</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>16-07-2025 10:34:48</t>
+          <t>08-09-2025 07:52:33</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>22114</v>
+        <v>13129</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6228,11 +6202,11 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N74" t="n">
         <v>70</v>
@@ -6245,14 +6219,1561 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>0</v>
+        <v>-14.32815972222222</v>
       </c>
       <c r="T74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>253687</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>01-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>30</v>
+      </c>
+      <c r="E75" t="n">
+        <v>44.23333333333333</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:52:33</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:22:33</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:22:33</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:06:47</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>5308</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="n">
+        <v>70</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>12-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>252664</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>03-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>40</v>
+      </c>
+      <c r="E76" t="n">
+        <v>365.975</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:06:47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:46:47</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:46:47</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:52:45</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>43917</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>70</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>40279</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>02-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>-7.328304398148148</v>
+      </c>
+      <c r="T76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>252815</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>60</v>
+      </c>
+      <c r="E77" t="n">
+        <v>242.9416666666667</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:52:45</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:52:45</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:52:45</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:55:42</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>29153</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>8</v>
+      </c>
+      <c r="N77" t="n">
+        <v>76</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>05-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>-4.538680555555556</v>
+      </c>
+      <c r="T77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>252216</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>03-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>40</v>
+      </c>
+      <c r="E78" t="n">
+        <v>141.8083333333333</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:55:42</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:35:42</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:35:42</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:57:30</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>17017</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>10</v>
+      </c>
+      <c r="N78" t="n">
+        <v>70</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>25-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>-16.33160300925926</v>
+      </c>
+      <c r="T78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>253245</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>55</v>
+      </c>
+      <c r="E79" t="n">
+        <v>150.8333333333333</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:57:30</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:52:30</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:52:30</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:23:20</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>18100</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="n">
+        <v>70</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>-0.4745428240740741</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>253368</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>35</v>
+      </c>
+      <c r="E80" t="n">
+        <v>103.775</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:23:20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:58:20</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:58:20</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:42:07</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>12453</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="n">
+        <v>70</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>253370</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>25</v>
+      </c>
+      <c r="E81" t="n">
+        <v>207.5416666666667</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:42:07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:07:07</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:07:07</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>11-09-2025 09:34:39</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>24905</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>70</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>253377</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>25</v>
+      </c>
+      <c r="E82" t="n">
+        <v>127.7166666666667</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>11-09-2025 09:34:39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>11-09-2025 09:59:39</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>11-09-2025 09:59:39</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>11-09-2025 12:07:22</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>15326</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="n">
+        <v>70</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>253371</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>25</v>
+      </c>
+      <c r="E83" t="n">
+        <v>107.7666666666667</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>11-09-2025 12:07:22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>11-09-2025 12:32:22</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>11-09-2025 12:32:22</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:20:08</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>12932</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>70</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>253376</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>25</v>
+      </c>
+      <c r="E84" t="n">
+        <v>179.6083333333333</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:20:08</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:45:08</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:45:08</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>12-09-2025 09:44:45</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>21553</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="n">
+        <v>70</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>253367</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>25</v>
+      </c>
+      <c r="E85" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>12-09-2025 09:44:45</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>12-09-2025 10:09:45</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>12-09-2025 10:09:45</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>12-09-2025 12:25:27</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>16284</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="n">
+        <v>70</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>253528</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>30</v>
+      </c>
+      <c r="E86" t="n">
+        <v>119.175</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>12-09-2025 12:25:27</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>12-09-2025 12:55:27</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>12-09-2025 12:55:27</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:54:37</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>14301</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="n">
+        <v>70</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>253525</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>30</v>
+      </c>
+      <c r="E87" t="n">
+        <v>92.14166666666667</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:54:37</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>15-09-2025 07:24:37</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>15-09-2025 07:24:37</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>15-09-2025 08:56:46</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>11057</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>70</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>26-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>253244</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>35</v>
+      </c>
+      <c r="E88" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>15-09-2025 08:56:46</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>15-09-2025 09:31:46</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>15-09-2025 09:31:46</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:18:16</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>19980</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="n">
+        <v>70</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S88" s="1" t="n">
+        <v>-5.512685185185185</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>253472</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>30</v>
+      </c>
+      <c r="E89" t="n">
+        <v>291.8</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:18:16</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:48:16</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:48:16</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>16-09-2025 09:40:04</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>35016</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="n">
+        <v>70</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>16-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S89" s="1" t="n">
+        <v>-0.4028240740740741</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>253549</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>30</v>
+      </c>
+      <c r="E90" t="n">
+        <v>163.6666666666667</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>16-09-2025 09:40:04</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:10:04</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:10:04</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>16-09-2025 12:53:44</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>19640</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>6</v>
+      </c>
+      <c r="N90" t="n">
+        <v>70</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>252274</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>35</v>
+      </c>
+      <c r="E91" t="n">
+        <v>173.4166666666667</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>16-09-2025 12:53:44</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:28:44</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:28:44</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>17-09-2025 08:22:09</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>20810</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="n">
+        <v>76</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>09-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S91" s="1" t="n">
+        <v>-8.348715277777778</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>253332</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>45</v>
+      </c>
+      <c r="E92" t="n">
+        <v>184.825</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>17-09-2025 08:22:09</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>17-09-2025 09:07:09</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>17-09-2025 09:07:09</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>17-09-2025 12:11:58</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>22179</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="n">
+        <v>70</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S92" s="1" t="n">
+        <v>-7.508315972222222</v>
+      </c>
+      <c r="T92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>253668</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>25</v>
+      </c>
+      <c r="E93" t="n">
+        <v>189.8666666666667</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>17-09-2025 12:11:58</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>17-09-2025 12:36:58</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>17-09-2025 12:36:58</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>18-09-2025 07:46:50</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>22784</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="n">
+        <v>70</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>26-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>252980</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>03-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>17.075</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:17:04</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>08-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S94" s="1" t="n">
+        <v>-0.3035243055555555</v>
+      </c>
+      <c r="T94" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/schedulazione.xlsx
+++ b/PS-VRP/Dati_output/schedulazione.xlsx
@@ -424,23 +424,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
-    <col width="50" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="90" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="50" customWidth="1" min="12" max="12"/>
     <col width="15" customWidth="1" min="13" max="13"/>
     <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="15" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,85 +457,90 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>data fine stampa</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>minuti setup</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>minuti processamento</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>inizio setup</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>fine setup</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>inizio lavorazione</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>fine lavorazione</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>mt da tagliare</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>taglio</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>macchine compatibili</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>numero coltelli</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>diametro tubo</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>veicolo</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>tassativita</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>veicolo tassativo</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>due date (non indicativa)</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>ritardo</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>priorita</t>
         </is>
@@ -619,7 +625,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252906</v>
+        <v>253313</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -628,14 +634,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>34.725</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -654,11 +660,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:30:24</t>
+          <t>08-09-2025 09:35:41</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4167</v>
+        <v>12001</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -676,6 +682,9 @@
       <c r="N3" t="n">
         <v>76</v>
       </c>
+      <c r="O3" t="n">
+        <v>40299</v>
+      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
@@ -684,19 +693,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-14.35444444444444</v>
+        <v>-0.3997800925925926</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252995</v>
+        <v>253317</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -712,30 +721,30 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>68.31666666666666</v>
+        <v>102.775</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:30:24</t>
+          <t>08-09-2025 09:35:41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:47:24</t>
+          <t>08-09-2025 09:52:41</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 08:47:24</t>
+          <t>08-09-2025 09:52:41</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:43</t>
+          <t>08-09-2025 11:35:27</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>8198</v>
+        <v>12333</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -761,19 +770,19 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-7.41369212962963</v>
+        <v>-0.4829571759259259</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>253524</v>
+        <v>253318</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -782,37 +791,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>58.75833333333333</v>
+        <v>51.55</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:43</t>
+          <t>08-09-2025 11:35:27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:29:43</t>
+          <t>08-09-2025 11:50:27</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:29:43</t>
+          <t>08-09-2025 11:50:27</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 11:28:28</t>
+          <t>08-09-2025 12:42:00</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>7051</v>
+        <v>6186</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -821,14 +830,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -838,11 +847,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-0.5291724537037037</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -850,7 +859,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>253374</v>
+        <v>252843</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -863,33 +872,33 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
-        <v>59.60833333333333</v>
+        <v>19.2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 11:28:28</t>
+          <t>08-09-2025 12:42:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 11:45:28</t>
+          <t>08-09-2025 13:09:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 11:45:28</t>
+          <t>08-09-2025 13:09:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:45:05</t>
+          <t>08-09-2025 13:28:12</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>7153</v>
+        <v>2304</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -898,14 +907,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -915,19 +924,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>0</v>
+        <v>-40.56125578703703</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>253527</v>
+        <v>250284</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,37 +945,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>67.48333333333333</v>
+        <v>146.35</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-09-2025 12:45:05</t>
+          <t>08-09-2025 13:28:12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-09-2025 13:02:05</t>
+          <t>08-09-2025 14:00:12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-09-2025 13:02:05</t>
+          <t>08-09-2025 14:00:12</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:09:34</t>
+          <t>09-09-2025 08:26:33</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>8098</v>
+        <v>17562</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -979,7 +988,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
@@ -992,58 +1001,58 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-181.3517766203704</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253095</v>
+        <v>253409</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E8" t="n">
-        <v>76.31666666666666</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-09-2025 14:09:34</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-09-2025 14:26:34</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-09-2025 14:26:34</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 07:42:53</t>
+          <t>08-09-2025 07:56:11</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>9158</v>
+        <v>3262</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1052,14 +1061,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O8" t="n">
+        <v>40299</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1069,23 +1081,23 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-0.3306828703703704</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252833</v>
+        <v>253375</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1094,33 +1106,33 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>74.78333333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 07:42:53</t>
+          <t>08-09-2025 07:56:11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 07:59:53</t>
+          <t>08-09-2025 08:38:11</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 07:59:53</t>
+          <t>08-09-2025 08:38:11</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09-09-2025 09:14:40</t>
+          <t>08-09-2025 09:30:04</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>8974</v>
+        <v>6226</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1129,11 +1141,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
         <v>70</v>
@@ -1146,23 +1158,23 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-14.38518518518518</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>253278</v>
+        <v>253372</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1171,33 +1183,33 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>28.425</v>
+        <v>103.775</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 09:14:40</t>
+          <t>08-09-2025 09:30:04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 09:35:40</t>
+          <t>08-09-2025 09:55:04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-09-2025 09:35:40</t>
+          <t>08-09-2025 09:55:04</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09-09-2025 10:04:05</t>
+          <t>08-09-2025 11:38:50</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>3411</v>
+        <v>12453</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1206,11 +1218,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
         <v>70</v>
@@ -1223,23 +1235,23 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250891</v>
+        <v>253361</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1248,33 +1260,33 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>77.49166666666666</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-09-2025 10:04:05</t>
+          <t>08-09-2025 11:38:50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-09-2025 10:21:05</t>
+          <t>08-09-2025 12:03:50</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-09-2025 10:21:05</t>
+          <t>08-09-2025 12:03:50</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>09-09-2025 11:38:35</t>
+          <t>08-09-2025 13:20:33</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>9299</v>
+        <v>9205</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1283,11 +1295,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>70</v>
@@ -1300,58 +1312,58 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-27.48512731481481</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253271</v>
+        <v>253721</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>42.63333333333333</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09-09-2025 11:38:35</t>
+          <t>08-09-2025 13:20:33</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09-09-2025 11:55:35</t>
+          <t>08-09-2025 13:47:33</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09-09-2025 11:55:35</t>
+          <t>08-09-2025 13:47:33</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>09-09-2025 12:38:13</t>
+          <t>08-09-2025 14:26:56</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>5116</v>
+        <v>4727</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1364,7 +1376,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
         <v>70</v>
@@ -1377,23 +1389,23 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-4.526539351851852</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253359</v>
+        <v>253246</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1402,33 +1414,33 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
-        <v>134.0166666666667</v>
+        <v>194.25</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09-09-2025 12:38:13</t>
+          <t>08-09-2025 14:26:56</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09-09-2025 12:59:13</t>
+          <t>08-09-2025 14:53:56</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09-09-2025 12:59:13</t>
+          <t>08-09-2025 14:53:56</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10-09-2025 07:13:14</t>
+          <t>09-09-2025 10:08:11</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>16082</v>
+        <v>23310</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1441,7 +1453,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>70</v>
@@ -1454,58 +1466,58 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252939</v>
+        <v>253710</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>89.8</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10-09-2025 07:13:14</t>
+          <t>09-09-2025 10:08:11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10-09-2025 07:32:14</t>
+          <t>09-09-2025 10:35:11</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10-09-2025 07:32:14</t>
+          <t>09-09-2025 10:35:11</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10-09-2025 09:02:02</t>
+          <t>09-09-2025 10:36:48</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>10776</v>
+        <v>194</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1531,19 +1543,19 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-19.37641203703704</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253409</v>
+        <v>253260</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1552,37 +1564,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>27.18333333333333</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>09-09-2025 10:36:48</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>09-09-2025 11:03:48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>09-09-2025 11:03:48</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>08-09-2025 07:56:11</t>
+          <t>09-09-2025 12:53:13</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>3262</v>
+        <v>13129</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1591,14 +1603,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1608,19 +1620,19 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-10.33068287037037</v>
+        <v>-15.53695601851852</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253375</v>
+        <v>253271</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1629,37 +1641,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
-        <v>51.88333333333333</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-09-2025 07:56:11</t>
+          <t>09-09-2025 12:53:13</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-09-2025 08:38:11</t>
+          <t>09-09-2025 13:22:13</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-09-2025 08:38:11</t>
+          <t>09-09-2025 13:22:13</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>08-09-2025 09:30:04</t>
+          <t>09-09-2025 14:04:51</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>6226</v>
+        <v>5116</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1668,11 +1680,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
         <v>70</v>
@@ -1685,19 +1697,19 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-4.586701388888889</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253361</v>
+        <v>250891</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1710,33 +1722,33 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>76.70833333333333</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-09-2025 09:30:04</t>
+          <t>09-09-2025 14:04:51</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:04</t>
+          <t>09-09-2025 14:31:51</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:04</t>
+          <t>09-09-2025 14:31:51</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>08-09-2025 11:11:46</t>
+          <t>10-09-2025 07:49:20</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>9205</v>
+        <v>9299</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1745,11 +1757,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
         <v>70</v>
@@ -1762,19 +1774,19 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-28.32593171296296</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253372</v>
+        <v>253524</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1783,37 +1795,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" t="n">
-        <v>103.775</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>08-09-2025 11:11:46</t>
+          <t>10-09-2025 07:49:20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08-09-2025 11:36:46</t>
+          <t>10-09-2025 08:18:20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08-09-2025 11:36:46</t>
+          <t>10-09-2025 08:18:20</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>08-09-2025 13:20:33</t>
+          <t>10-09-2025 09:17:06</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>12453</v>
+        <v>7051</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1822,11 +1834,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
         <v>70</v>
@@ -1839,7 +1851,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -1851,46 +1863,46 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253268</v>
+        <v>253314</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E19" t="n">
-        <v>78.55833333333334</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>08-09-2025 13:20:33</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08-09-2025 13:49:33</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08-09-2025 13:49:33</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>09-09-2025 07:08:06</t>
+          <t>05-09-2025 08:15:24</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>9427</v>
+        <v>5209</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1899,24 +1911,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>70</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O19" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -1928,11 +1945,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>253267</v>
+        <v>253591</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1941,33 +1958,33 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>164.3666666666667</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>09-09-2025 07:08:06</t>
+          <t>05-09-2025 08:15:24</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09-09-2025 07:33:06</t>
+          <t>05-09-2025 08:32:24</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>09-09-2025 07:33:06</t>
+          <t>05-09-2025 08:32:24</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>09-09-2025 10:17:28</t>
+          <t>05-09-2025 08:49:49</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>19724</v>
+        <v>2090</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1976,24 +1993,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>70</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O20" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -2005,7 +2027,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>244023</v>
+        <v>252682</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2014,37 +2036,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>8.308333333333334</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 08:49:49</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05-09-2025 07:21:00</t>
+          <t>05-09-2025 09:06:49</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>05-09-2025 07:21:00</t>
+          <t>05-09-2025 09:06:49</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>05-09-2025 07:29:18</t>
+          <t>05-09-2025 10:30:14</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>997</v>
+        <v>10009</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2053,36 +2075,41 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>70</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O21" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-340.3120196759259</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252569</v>
+        <v>253367</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2091,37 +2118,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" t="n">
-        <v>9.583333333333334</v>
+        <v>135.7</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>05-09-2025 07:29:18</t>
+          <t>05-09-2025 10:30:14</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05-09-2025 08:05:18</t>
+          <t>05-09-2025 11:04:14</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>05-09-2025 08:05:18</t>
+          <t>05-09-2025 11:04:14</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>05-09-2025 08:14:53</t>
+          <t>05-09-2025 13:19:56</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1150</v>
+        <v>16284</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2130,14 +2157,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2147,11 +2174,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-4.343674768518518</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
@@ -2159,7 +2186,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252843</v>
+        <v>253259</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2172,33 +2199,33 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>19.2</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05-09-2025 08:14:53</t>
+          <t>05-09-2025 13:19:56</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05-09-2025 08:41:53</t>
+          <t>05-09-2025 13:36:56</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>05-09-2025 08:41:53</t>
+          <t>05-09-2025 13:36:56</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>05-09-2025 09:01:05</t>
+          <t>05-09-2025 14:46:10</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>2304</v>
+        <v>8308</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2207,36 +2234,41 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>76</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O23" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-37.37575810185185</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253591</v>
+        <v>253687</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2245,37 +2277,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E24" t="n">
-        <v>17.41666666666667</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>05-09-2025 09:01:05</t>
+          <t>05-09-2025 14:46:10</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05-09-2025 09:28:05</t>
+          <t>08-09-2025 07:07:10</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>05-09-2025 09:28:05</t>
+          <t>08-09-2025 07:07:10</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>05-09-2025 09:45:30</t>
+          <t>08-09-2025 07:51:24</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2090</v>
+        <v>5308</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2284,41 +2316,36 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>76</v>
-      </c>
-      <c r="O24" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252685</v>
+        <v>253100</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2327,37 +2354,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>74.56666666666666</v>
+        <v>47.35</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>05-09-2025 09:45:30</t>
+          <t>08-09-2025 07:51:24</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05-09-2025 10:02:30</t>
+          <t>08-09-2025 08:08:24</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>05-09-2025 10:02:30</t>
+          <t>08-09-2025 08:08:24</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>05-09-2025 11:17:04</t>
+          <t>08-09-2025 08:55:45</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>8948</v>
+        <v>5682</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2366,33 +2393,28 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>76</v>
-      </c>
-      <c r="O25" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-0.3720486111111111</v>
       </c>
       <c r="T25" t="n">
         <v>4</v>
@@ -2400,7 +2422,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253016</v>
+        <v>244023</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2409,37 +2431,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
-        <v>73.38333333333334</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>05-09-2025 11:17:04</t>
+          <t>08-09-2025 08:55:45</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05-09-2025 11:51:04</t>
+          <t>08-09-2025 09:14:45</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>05-09-2025 11:51:04</t>
+          <t>08-09-2025 09:14:45</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>05-09-2025 13:04:27</t>
+          <t>08-09-2025 09:23:03</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>8806</v>
+        <v>997</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2448,41 +2470,36 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N26" t="n">
-        <v>152</v>
-      </c>
-      <c r="O26" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>-343.3910127314815</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253362</v>
+        <v>253374</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2495,33 +2512,33 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E27" t="n">
-        <v>58.38333333333333</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>05-09-2025 13:04:27</t>
+          <t>08-09-2025 09:23:03</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05-09-2025 13:21:27</t>
+          <t>08-09-2025 09:42:03</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>05-09-2025 13:21:27</t>
+          <t>08-09-2025 09:42:03</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>05-09-2025 14:19:50</t>
+          <t>08-09-2025 10:41:40</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>7006</v>
+        <v>7153</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2530,41 +2547,36 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>152</v>
-      </c>
-      <c r="O27" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253259</v>
+        <v>253072</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2577,33 +2589,33 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>69.23333333333333</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>05-09-2025 14:19:50</t>
+          <t>08-09-2025 10:41:40</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05-09-2025 14:51:50</t>
+          <t>08-09-2025 11:00:40</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>05-09-2025 14:51:50</t>
+          <t>08-09-2025 11:00:40</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>08-09-2025 08:01:04</t>
+          <t>08-09-2025 11:29:48</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>8308</v>
+        <v>3496</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2612,41 +2624,36 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N28" t="n">
         <v>70</v>
       </c>
-      <c r="O28" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P28" t="n">
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-0.3340798611111111</v>
+        <v>-21.47902777777778</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253072</v>
+        <v>253249</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2655,37 +2662,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E29" t="n">
-        <v>29.13333333333333</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-09-2025 08:01:04</t>
+          <t>08-09-2025 11:29:48</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-09-2025 08:24:04</t>
+          <t>08-09-2025 12:05:48</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08-09-2025 08:24:04</t>
+          <t>08-09-2025 12:05:48</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>08-09-2025 08:53:12</t>
+          <t>08-09-2025 13:03:33</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>3496</v>
+        <v>6931</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2694,14 +2701,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2711,19 +2718,19 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-21.37028356481482</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253721</v>
+        <v>252827</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2732,37 +2739,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>39.39166666666667</v>
+        <v>410</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-09-2025 08:53:12</t>
+          <t>08-09-2025 13:03:33</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-09-2025 09:14:12</t>
+          <t>08-09-2025 13:20:33</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-09-2025 09:14:12</t>
+          <t>08-09-2025 13:20:33</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>08-09-2025 09:53:36</t>
+          <t>09-09-2025 12:10:33</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>4727</v>
+        <v>49200</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2771,14 +2778,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2788,19 +2795,19 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-5.507332175925926</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253314</v>
+        <v>252569</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2809,37 +2816,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>43.40833333333333</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08-09-2025 09:53:36</t>
+          <t>09-09-2025 12:10:33</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08-09-2025 10:25:36</t>
+          <t>09-09-2025 12:27:33</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08-09-2025 10:25:36</t>
+          <t>09-09-2025 12:27:33</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>08-09-2025 11:09:00</t>
+          <t>09-09-2025 12:37:08</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>5209</v>
+        <v>1150</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2852,37 +2859,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
         <v>76</v>
       </c>
-      <c r="O31" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P31" t="n">
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-0.4645891203703704</v>
+        <v>-8.525792824074074</v>
       </c>
       <c r="T31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253100</v>
+        <v>253659</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2891,37 +2893,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" t="n">
-        <v>47.35</v>
+        <v>323.75</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>08-09-2025 11:09:00</t>
+          <t>09-09-2025 12:37:08</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08-09-2025 11:45:00</t>
+          <t>09-09-2025 13:11:08</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08-09-2025 11:45:00</t>
+          <t>09-09-2025 13:11:08</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>08-09-2025 12:32:21</t>
+          <t>10-09-2025 10:34:53</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>5682</v>
+        <v>38850</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2934,7 +2936,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="n">
         <v>70</v>
@@ -2947,19 +2949,19 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-0.5224710648148149</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>235572</v>
+        <v>253245</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2968,37 +2970,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>82.98333333333333</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-09-2025 12:32:21</t>
+          <t>10-09-2025 10:34:53</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-09-2025 12:49:21</t>
+          <t>10-09-2025 10:51:53</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08-09-2025 12:49:21</t>
+          <t>10-09-2025 10:51:53</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>08-09-2025 14:12:20</t>
+          <t>10-09-2025 13:22:43</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>9958</v>
+        <v>18100</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3011,7 +3013,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
         <v>70</v>
@@ -3024,19 +3026,19 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-672.5919039351852</v>
+        <v>-0.5574479166666667</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253710</v>
+        <v>253247</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3045,37 +3047,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E34" t="n">
-        <v>1.616666666666667</v>
+        <v>109.575</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-09-2025 14:12:20</t>
+          <t>10-09-2025 13:22:43</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08-09-2025 14:31:20</t>
+          <t>10-09-2025 13:43:43</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>08-09-2025 14:31:20</t>
+          <t>10-09-2025 13:43:43</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>08-09-2025 14:32:57</t>
+          <t>11-09-2025 07:33:18</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>194</v>
+        <v>13149</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3088,7 +3090,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
         <v>70</v>
@@ -3105,15 +3107,15 @@
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-1.314791666666667</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>253706</v>
+        <v>253332</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3122,37 +3124,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E35" t="n">
-        <v>311</v>
+        <v>184.825</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-09-2025 14:32:57</t>
+          <t>11-09-2025 07:33:18</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09-09-2025 07:12:57</t>
+          <t>11-09-2025 07:52:18</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-09-2025 07:12:57</t>
+          <t>11-09-2025 07:52:18</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>09-09-2025 12:23:57</t>
+          <t>11-09-2025 10:57:07</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>37320</v>
+        <v>22179</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3161,14 +3163,14 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3178,11 +3180,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0</v>
+        <v>-1.456336805555555</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -3190,7 +3192,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253246</v>
+        <v>253668</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3199,37 +3201,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>194.25</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-09-2025 12:23:57</t>
+          <t>11-09-2025 10:57:07</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-09-2025 13:01:57</t>
+          <t>11-09-2025 11:12:07</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-09-2025 13:01:57</t>
+          <t>11-09-2025 11:12:07</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10-09-2025 08:16:12</t>
+          <t>11-09-2025 14:21:59</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>23310</v>
+        <v>22784</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3238,11 +3240,11 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N36" t="n">
         <v>70</v>
@@ -3255,58 +3257,58 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-0.3445891203703704</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>253223</v>
+        <v>253522</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>54.5</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>16.4</v>
+        <v>198.625</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>11-09-2025 14:21:59</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-09-2025 07:54:30</t>
+          <t>11-09-2025 14:38:59</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-09-2025 07:54:30</t>
+          <t>11-09-2025 14:38:59</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>09-09-2025 08:10:54</t>
+          <t>12-09-2025 09:57:37</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1968</v>
+        <v>23835</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3315,11 +3317,11 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
         <v>70</v>
@@ -3332,58 +3334,58 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-8.340902777777778</v>
+        <v>-0.4150115740740741</v>
       </c>
       <c r="T37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252601</v>
+        <v>253527</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>51.20833333333334</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-09-2025 08:10:54</t>
+          <t>12-09-2025 09:57:37</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-09-2025 08:43:24</t>
+          <t>12-09-2025 10:12:37</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-09-2025 08:43:24</t>
+          <t>12-09-2025 10:12:37</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>09-09-2025 09:34:36</t>
+          <t>12-09-2025 11:20:06</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>6145</v>
+        <v>8098</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3392,15 +3394,18 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
         <v>70</v>
       </c>
+      <c r="O38" t="n">
+        <v>40299</v>
+      </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
@@ -3409,58 +3414,58 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>-0.4722916666666667</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252582</v>
+        <v>253528</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>46.08333333333334</v>
+        <v>119.175</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>12-09-2025 11:20:06</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>04-09-2025 12:50:00</t>
+          <t>12-09-2025 11:35:06</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>04-09-2025 12:50:00</t>
+          <t>12-09-2025 11:35:06</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>04-09-2025 13:36:05</t>
+          <t>12-09-2025 13:34:16</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>5530</v>
+        <v>14301</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3469,29 +3474,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>76</v>
-      </c>
-      <c r="O39" t="n">
-        <v>40290</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
@@ -3503,46 +3503,46 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252002</v>
+        <v>252274</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E40" t="n">
-        <v>55.675</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>04-09-2025 13:36:05</t>
+          <t>12-09-2025 13:34:16</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04-09-2025 14:16:05</t>
+          <t>12-09-2025 14:08:16</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>04-09-2025 14:16:05</t>
+          <t>12-09-2025 14:08:16</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>05-09-2025 07:11:45</t>
+          <t>15-09-2025 09:01:41</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>6681</v>
+        <v>20810</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3551,82 +3551,75 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>70</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40307</v>
+        <v>0</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-11.29983217592593</v>
+        <v>-6.376174768518519</v>
       </c>
       <c r="T40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252679</v>
+        <v>252397</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>60</v>
+        <v>115.925</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>05-09-2025 07:11:45</t>
+          <t>15-09-2025 09:01:41</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05-09-2025 07:51:45</t>
+          <t>15-09-2025 09:18:41</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>05-09-2025 07:51:45</t>
+          <t>15-09-2025 09:18:41</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>05-09-2025 08:51:45</t>
+          <t>15-09-2025 11:14:37</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>7200</v>
+        <v>13911</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3639,76 +3632,71 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
         <v>76</v>
       </c>
-      <c r="O41" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P41" t="n">
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>253284</v>
+        <v>253549</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E42" t="n">
-        <v>56.99166666666667</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>05-09-2025 08:51:45</t>
+          <t>15-09-2025 11:14:37</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05-09-2025 09:21:45</t>
+          <t>15-09-2025 11:48:37</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>05-09-2025 09:21:45</t>
+          <t>15-09-2025 11:48:37</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>05-09-2025 10:18:45</t>
+          <t>15-09-2025 14:32:17</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>6839</v>
+        <v>19640</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3717,17 +3705,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N42" t="n">
-        <v>76</v>
-      </c>
-      <c r="O42" t="n">
-        <v>40299</v>
+        <v>70</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -3737,58 +3722,58 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>253194</v>
+        <v>253244</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E43" t="n">
-        <v>199.0833333333333</v>
+        <v>166.5</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>05-09-2025 10:18:45</t>
+          <t>15-09-2025 14:32:17</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05-09-2025 10:48:45</t>
+          <t>15-09-2025 14:51:17</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>05-09-2025 10:48:45</t>
+          <t>15-09-2025 14:51:17</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>05-09-2025 14:07:50</t>
+          <t>16-09-2025 09:37:47</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>23890</v>
+        <v>19980</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3797,17 +3782,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N43" t="n">
-        <v>76</v>
-      </c>
-      <c r="O43" t="n">
-        <v>40299</v>
+        <v>70</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -3817,58 +3799,58 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0</v>
+        <v>-6.401238425925926</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>253140</v>
+        <v>253525</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E44" t="n">
-        <v>55.83333333333334</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>05-09-2025 14:07:50</t>
+          <t>16-09-2025 09:37:47</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05-09-2025 14:42:50</t>
+          <t>16-09-2025 09:56:47</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>05-09-2025 14:42:50</t>
+          <t>16-09-2025 09:56:47</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>08-09-2025 07:38:40</t>
+          <t>16-09-2025 11:28:55</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>6700</v>
+        <v>11057</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3877,14 +3859,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -3894,58 +3876,58 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-13.31851851851852</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>253313</v>
+        <v>253016</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E45" t="n">
-        <v>100.0083333333333</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>08-09-2025 07:38:40</t>
+          <t>16-09-2025 11:28:55</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:40</t>
+          <t>16-09-2025 12:00:55</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:40</t>
+          <t>16-09-2025 12:00:55</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>08-09-2025 09:48:40</t>
+          <t>16-09-2025 13:14:18</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>12001</v>
+        <v>8806</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3954,75 +3936,80 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
-        <v>76</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O45" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-3.408802083333333</v>
+        <v>-8.55160300925926</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252883</v>
+        <v>252529</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E46" t="n">
-        <v>247.3083333333333</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-09-2025 09:48:40</t>
+          <t>16-09-2025 13:14:18</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08-09-2025 11:03:40</t>
+          <t>16-09-2025 13:46:18</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>08-09-2025 11:03:40</t>
+          <t>16-09-2025 13:46:18</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>09-09-2025 07:10:59</t>
+          <t>16-09-2025 14:54:23</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>29677</v>
+        <v>8170</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4031,14 +4018,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4048,58 +4035,58 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-11.29929398148148</v>
+        <v>-11.62110532407407</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>250284</v>
+        <v>253455</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E47" t="n">
-        <v>146.35</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-09-2025 07:10:59</t>
+          <t>16-09-2025 14:54:23</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09-09-2025 07:55:59</t>
+          <t>17-09-2025 07:26:23</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>09-09-2025 07:55:59</t>
+          <t>17-09-2025 07:26:23</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>09-09-2025 10:22:20</t>
+          <t>17-09-2025 08:21:57</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>17562</v>
+        <v>6667</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4112,7 +4099,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N47" t="n">
         <v>70</v>
@@ -4125,58 +4112,58 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-181.4321759259259</v>
+        <v>-9.348576388888889</v>
       </c>
       <c r="T47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>253036</v>
+        <v>253261</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E48" t="n">
-        <v>78.73333333333333</v>
+        <v>18.85</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-09-2025 10:22:20</t>
+          <t>17-09-2025 08:21:57</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09-09-2025 11:22:20</t>
+          <t>17-09-2025 08:40:57</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>09-09-2025 11:22:20</t>
+          <t>17-09-2025 08:40:57</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>09-09-2025 12:41:04</t>
+          <t>17-09-2025 08:59:48</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>9448</v>
+        <v>2262</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4185,14 +4172,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N48" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4202,11 +4189,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-18.52851851851852</v>
+        <v>-23.37486111111111</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4214,46 +4201,46 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>253208</v>
+        <v>253436</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>104.2583333333333</v>
+        <v>18.85</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-09-2025 12:41:04</t>
+          <t>17-09-2025 08:59:48</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09-09-2025 14:06:04</t>
+          <t>17-09-2025 09:14:48</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>09-09-2025 14:06:04</t>
+          <t>17-09-2025 09:14:48</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10-09-2025 07:50:19</t>
+          <t>17-09-2025 09:33:39</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>12511</v>
+        <v>2262</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4262,11 +4249,11 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N49" t="n">
         <v>70</v>
@@ -4279,58 +4266,58 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-5.326614583333333</v>
+        <v>-7.398368055555555</v>
       </c>
       <c r="T49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253210</v>
+        <v>253401</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E50" t="n">
-        <v>94.15833333333333</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10-09-2025 07:50:19</t>
+          <t>17-09-2025 09:33:39</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10-09-2025 08:15:19</t>
+          <t>17-09-2025 09:54:39</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10-09-2025 08:15:19</t>
+          <t>17-09-2025 09:54:39</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10-09-2025 09:49:29</t>
+          <t>17-09-2025 10:17:28</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>11299</v>
+        <v>2738</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4339,11 +4326,11 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N50" t="n">
         <v>70</v>
@@ -4356,58 +4343,58 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-0.409363425925926</v>
+        <v>-5.428796296296296</v>
       </c>
       <c r="T50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>253247</v>
+        <v>253295</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>70</v>
+        <v>38.5</v>
       </c>
       <c r="E51" t="n">
-        <v>109.575</v>
+        <v>230.075</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10-09-2025 09:49:29</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10-09-2025 10:59:29</t>
+          <t>09-09-2025 07:38:30</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>10-09-2025 10:59:29</t>
+          <t>09-09-2025 07:38:30</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10-09-2025 12:49:03</t>
+          <t>09-09-2025 11:28:34</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>13149</v>
+        <v>27609</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4420,24 +4407,29 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="n">
         <v>70</v>
       </c>
-      <c r="P51" t="n">
-        <v>0</v>
+      <c r="O51" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.534068287037037</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>2</v>
@@ -4445,46 +4437,46 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>253602</v>
+        <v>253686</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>40</v>
+        <v>30.5</v>
       </c>
       <c r="E52" t="n">
-        <v>117.0833333333333</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>10-09-2025 12:49:03</t>
+          <t>09-09-2025 11:28:34</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10-09-2025 13:29:03</t>
+          <t>09-09-2025 11:59:04</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>10-09-2025 13:29:03</t>
+          <t>09-09-2025 11:59:04</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>11-09-2025 07:26:08</t>
+          <t>09-09-2025 12:43:18</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>14050</v>
+        <v>5308</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4493,14 +4485,14 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -4510,58 +4502,58 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-1.309820601851852</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>253522</v>
+        <v>253223</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>45</v>
+        <v>46.5</v>
       </c>
       <c r="E53" t="n">
-        <v>198.625</v>
+        <v>16.4</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>11-09-2025 07:26:08</t>
+          <t>09-09-2025 12:43:18</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11-09-2025 08:11:08</t>
+          <t>09-09-2025 13:29:48</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>11-09-2025 08:11:08</t>
+          <t>09-09-2025 13:29:48</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>11-09-2025 11:29:46</t>
+          <t>09-09-2025 13:46:12</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>23835</v>
+        <v>1968</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4570,11 +4562,11 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N53" t="n">
         <v>70</v>
@@ -4587,58 +4579,58 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-8.573755787037037</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252529</v>
+        <v>252601</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>45</v>
+        <v>32.5</v>
       </c>
       <c r="E54" t="n">
-        <v>68.08333333333333</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>11-09-2025 11:29:46</t>
+          <t>09-09-2025 13:46:12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11-09-2025 12:14:46</t>
+          <t>09-09-2025 14:18:42</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11-09-2025 12:14:46</t>
+          <t>09-09-2025 14:18:42</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>11-09-2025 13:22:51</t>
+          <t>10-09-2025 07:09:55</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>8170</v>
+        <v>6145</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4647,14 +4639,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -4664,58 +4656,58 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-6.557534722222222</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>253455</v>
+        <v>253208</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>40</v>
+        <v>32.5</v>
       </c>
       <c r="E55" t="n">
-        <v>55.55833333333333</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>11-09-2025 13:22:51</t>
+          <t>10-09-2025 07:09:55</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11-09-2025 14:02:51</t>
+          <t>10-09-2025 07:42:25</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>11-09-2025 14:02:51</t>
+          <t>10-09-2025 07:42:25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>11-09-2025 14:58:24</t>
+          <t>10-09-2025 09:26:40</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>6667</v>
+        <v>12511</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4724,11 +4716,11 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N55" t="n">
         <v>70</v>
@@ -4741,58 +4733,58 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-3.623894675925926</v>
+        <v>-5.393524305555555</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>253295</v>
+        <v>253210</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="E56" t="n">
-        <v>230.075</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>11-09-2025 14:58:24</t>
+          <t>10-09-2025 09:26:40</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12-09-2025 07:28:24</t>
+          <t>10-09-2025 09:57:10</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>12-09-2025 07:28:24</t>
+          <t>10-09-2025 09:57:10</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>12-09-2025 11:18:29</t>
+          <t>10-09-2025 11:31:20</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>27609</v>
+        <v>11299</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4801,80 +4793,75 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N56" t="n">
         <v>70</v>
       </c>
-      <c r="O56" t="n">
-        <v>40274</v>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P56" t="n">
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-0.4711689814814815</v>
+        <v>-0.4800925925925926</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>253686</v>
+        <v>253368</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>25</v>
+        <v>52.5</v>
       </c>
       <c r="E57" t="n">
-        <v>44.23333333333333</v>
+        <v>103.775</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>12-09-2025 11:18:29</t>
+          <t>10-09-2025 11:31:20</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>12-09-2025 11:43:29</t>
+          <t>10-09-2025 12:23:50</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>12-09-2025 11:43:29</t>
+          <t>10-09-2025 12:23:50</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>12-09-2025 12:27:43</t>
+          <t>10-09-2025 14:07:36</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>5308</v>
+        <v>12453</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4883,11 +4870,11 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N57" t="n">
         <v>70</v>
@@ -4900,11 +4887,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-0.5192476851851852</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
         <v>1</v>
@@ -4912,46 +4899,46 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252397</v>
+        <v>253370</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>40</v>
+        <v>30.5</v>
       </c>
       <c r="E58" t="n">
-        <v>115.925</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>12-09-2025 12:27:43</t>
+          <t>10-09-2025 14:07:36</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12-09-2025 13:07:43</t>
+          <t>10-09-2025 14:38:06</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>12-09-2025 13:07:43</t>
+          <t>10-09-2025 14:38:06</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>15-09-2025 07:03:38</t>
+          <t>11-09-2025 10:05:39</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>13911</v>
+        <v>24905</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4960,14 +4947,14 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -4984,51 +4971,51 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>253393</v>
+        <v>253376</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>40</v>
+        <v>30.5</v>
       </c>
       <c r="E59" t="n">
-        <v>77.63333333333334</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>15-09-2025 07:03:38</t>
+          <t>11-09-2025 10:05:39</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15-09-2025 07:43:38</t>
+          <t>11-09-2025 10:36:09</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>15-09-2025 07:43:38</t>
+          <t>11-09-2025 10:36:09</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>15-09-2025 09:01:16</t>
+          <t>11-09-2025 13:35:45</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>9316</v>
+        <v>21553</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5037,11 +5024,11 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
         <v>70</v>
@@ -5054,7 +5041,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
@@ -5066,46 +5053,46 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>253392</v>
+        <v>253371</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="E60" t="n">
-        <v>129.3833333333333</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>15-09-2025 09:01:16</t>
+          <t>11-09-2025 13:35:45</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15-09-2025 09:26:16</t>
+          <t>11-09-2025 14:06:15</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>15-09-2025 09:26:16</t>
+          <t>11-09-2025 14:06:15</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>15-09-2025 11:35:39</t>
+          <t>12-09-2025 07:54:01</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>15526</v>
+        <v>12932</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5114,11 +5101,11 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
         <v>70</v>
@@ -5131,7 +5118,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
@@ -5143,11 +5130,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>244743</v>
+        <v>253377</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -5156,33 +5143,33 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>35</v>
+        <v>30.5</v>
       </c>
       <c r="E61" t="n">
-        <v>29.34166666666667</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>15-09-2025 11:35:39</t>
+          <t>12-09-2025 07:54:01</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15-09-2025 12:10:39</t>
+          <t>12-09-2025 08:24:31</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>15-09-2025 12:10:39</t>
+          <t>12-09-2025 08:24:31</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>15-09-2025 12:40:00</t>
+          <t>12-09-2025 10:32:14</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>3521</v>
+        <v>15326</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5191,11 +5178,11 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
         <v>70</v>
@@ -5208,23 +5195,23 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-21.52777777777778</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252741</v>
+        <v>253392</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5233,33 +5220,33 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="E62" t="n">
-        <v>61.49166666666667</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>15-09-2025 12:40:00</t>
+          <t>12-09-2025 10:32:14</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15-09-2025 13:15:00</t>
+          <t>12-09-2025 11:04:44</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>15-09-2025 13:15:00</t>
+          <t>12-09-2025 11:04:44</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>15-09-2025 14:16:29</t>
+          <t>12-09-2025 13:14:07</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>7379</v>
+        <v>15526</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5268,11 +5255,11 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N62" t="n">
         <v>70</v>
@@ -5285,58 +5272,58 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>253261</v>
+        <v>252939</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="E63" t="n">
-        <v>18.85</v>
+        <v>89.8</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>15-09-2025 14:16:29</t>
+          <t>12-09-2025 13:14:07</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15-09-2025 14:46:29</t>
+          <t>12-09-2025 13:48:37</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>15-09-2025 14:46:29</t>
+          <t>12-09-2025 13:48:37</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>16-09-2025 07:05:20</t>
+          <t>15-09-2025 07:18:25</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2262</v>
+        <v>10776</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5349,7 +5336,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N63" t="n">
         <v>70</v>
@@ -5362,11 +5349,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-22.29537615740741</v>
+        <v>-24.30446180555555</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
@@ -5374,46 +5361,46 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253436</v>
+        <v>253472</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="E64" t="n">
-        <v>18.85</v>
+        <v>291.8</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>16-09-2025 07:05:20</t>
+          <t>15-09-2025 07:18:25</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16-09-2025 07:30:20</t>
+          <t>15-09-2025 07:52:55</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>16-09-2025 07:30:20</t>
+          <t>15-09-2025 07:52:55</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>16-09-2025 07:49:11</t>
+          <t>15-09-2025 12:44:43</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>2262</v>
+        <v>35016</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5426,7 +5413,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N64" t="n">
         <v>70</v>
@@ -5439,58 +5426,58 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-6.325827546296297</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253401</v>
+        <v>253393</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="E65" t="n">
-        <v>22.81666666666667</v>
+        <v>77.63333333333334</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>16-09-2025 07:49:11</t>
+          <t>15-09-2025 12:44:43</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16-09-2025 08:29:11</t>
+          <t>15-09-2025 13:19:13</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>16-09-2025 08:29:11</t>
+          <t>15-09-2025 13:19:13</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>16-09-2025 08:52:00</t>
+          <t>15-09-2025 14:36:51</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>2738</v>
+        <v>9316</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5499,7 +5486,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -5516,58 +5503,58 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-4.369450231481482</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>253317</v>
+        <v>253095</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="E66" t="n">
-        <v>102.775</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>15-09-2025 14:36:51</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>16-09-2025 07:09:21</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>16-09-2025 07:09:21</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:46</t>
+          <t>16-09-2025 08:25:40</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>12333</v>
+        <v>9158</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5576,14 +5563,14 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N66" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -5593,58 +5580,58 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-0.3762326388888889</v>
+        <v>-4.351163194444444</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>253318</v>
+        <v>244743</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="E67" t="n">
-        <v>51.55</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:46</t>
+          <t>16-09-2025 08:25:40</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08-09-2025 09:16:46</t>
+          <t>16-09-2025 08:58:10</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>08-09-2025 09:16:46</t>
+          <t>16-09-2025 08:58:10</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>08-09-2025 10:08:19</t>
+          <t>16-09-2025 09:27:31</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>6186</v>
+        <v>3521</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5653,14 +5640,14 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -5670,58 +5657,58 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-0.4224479166666666</v>
+        <v>-22.3941087962963</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>253249</v>
+        <v>252741</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="E68" t="n">
-        <v>57.75833333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>08-09-2025 10:08:19</t>
+          <t>16-09-2025 09:27:31</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08-09-2025 10:23:19</t>
+          <t>16-09-2025 10:02:01</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>08-09-2025 10:23:19</t>
+          <t>16-09-2025 10:02:01</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>08-09-2025 11:21:05</t>
+          <t>16-09-2025 11:03:30</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>6931</v>
+        <v>7379</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5730,14 +5717,14 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N68" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -5747,58 +5734,58 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252827</v>
+        <v>253284</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E69" t="n">
-        <v>410</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-09-2025 11:21:05</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-09-2025 11:38:05</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-09-2025 11:38:05</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>09-09-2025 10:28:05</t>
+          <t>04-09-2025 13:51:59</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>49200</v>
+        <v>6839</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5807,15 +5794,18 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N69" t="n">
         <v>76</v>
       </c>
+      <c r="O69" t="n">
+        <v>40299</v>
+      </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
@@ -5824,58 +5814,58 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-5.436168981481481</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>253659</v>
+        <v>252582</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E70" t="n">
-        <v>323.75</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>04-09-2025 13:51:59</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09-09-2025 07:40:00</t>
+          <t>04-09-2025 14:21:59</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>09-09-2025 07:40:00</t>
+          <t>04-09-2025 14:21:59</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>09-09-2025 13:03:45</t>
+          <t>05-09-2025 07:08:04</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>38850</v>
+        <v>5530</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5884,24 +5874,29 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N70" t="n">
-        <v>70</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O70" t="n">
+        <v>40290</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
@@ -5913,11 +5908,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252702</v>
+        <v>252685</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5926,33 +5921,33 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E71" t="n">
-        <v>58.38333333333333</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 07:08:04</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>05-09-2025 07:38:04</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>05-09-2025 07:38:04</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:23</t>
+          <t>05-09-2025 08:52:38</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>7006</v>
+        <v>8948</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5961,14 +5956,14 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N71" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O71" t="n">
         <v>40295</v>
@@ -5983,23 +5978,23 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252682</v>
+        <v>252679</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -6008,33 +6003,33 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E72" t="n">
-        <v>83.40833333333333</v>
+        <v>60</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:23</t>
+          <t>05-09-2025 08:52:38</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>05-09-2025 09:08:23</t>
+          <t>05-09-2025 09:22:38</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>05-09-2025 09:08:23</t>
+          <t>05-09-2025 09:22:38</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>05-09-2025 10:31:47</t>
+          <t>05-09-2025 10:22:38</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>10009</v>
+        <v>7200</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6047,7 +6042,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N72" t="n">
         <v>76</v>
@@ -6077,46 +6072,46 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>253425</v>
+        <v>253140</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E73" t="n">
-        <v>146.35</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>05-09-2025 10:31:47</t>
+          <t>05-09-2025 10:22:38</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>05-09-2025 11:01:47</t>
+          <t>05-09-2025 10:57:38</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>05-09-2025 11:01:47</t>
+          <t>05-09-2025 10:57:38</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>05-09-2025 13:28:08</t>
+          <t>05-09-2025 11:53:28</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>17562</v>
+        <v>6700</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6129,7 +6124,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N73" t="n">
         <v>76</v>
@@ -6142,58 +6137,58 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-7.56120949074074</v>
+        <v>-10.49546875</v>
       </c>
       <c r="T73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>253260</v>
+        <v>252002</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E74" t="n">
-        <v>109.4083333333333</v>
+        <v>55.675</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>05-09-2025 13:28:08</t>
+          <t>05-09-2025 11:53:28</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>05-09-2025 14:03:08</t>
+          <t>05-09-2025 12:33:28</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>05-09-2025 14:03:08</t>
+          <t>05-09-2025 12:33:28</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>08-09-2025 07:52:33</t>
+          <t>05-09-2025 13:29:09</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>13129</v>
+        <v>6681</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6211,11 +6206,18 @@
       <c r="N74" t="n">
         <v>70</v>
       </c>
-      <c r="P74" t="n">
-        <v>0</v>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -6223,54 +6225,54 @@
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-14.32815972222222</v>
+        <v>-11.56190972222222</v>
       </c>
       <c r="T74" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>253687</v>
+        <v>235572</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D75" t="n">
         <v>30</v>
       </c>
       <c r="E75" t="n">
-        <v>44.23333333333333</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-09-2025 07:52:33</t>
+          <t>05-09-2025 13:29:09</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08-09-2025 08:22:33</t>
+          <t>05-09-2025 13:59:09</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>08-09-2025 08:22:33</t>
+          <t>05-09-2025 13:59:09</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>08-09-2025 09:06:47</t>
+          <t>08-09-2025 07:22:08</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>5308</v>
+        <v>9958</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -6296,58 +6298,58 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S75" s="1" t="n">
-        <v>0</v>
+        <v>-672.307037037037</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>252664</v>
+        <v>253278</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E76" t="n">
-        <v>365.975</v>
+        <v>28.425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-09-2025 09:06:47</t>
+          <t>08-09-2025 07:22:08</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08-09-2025 09:46:47</t>
+          <t>08-09-2025 07:52:08</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>08-09-2025 09:46:47</t>
+          <t>08-09-2025 07:52:08</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>09-09-2025 07:52:45</t>
+          <t>08-09-2025 08:20:33</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>43917</v>
+        <v>3411</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -6356,82 +6358,75 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N76" t="n">
         <v>70</v>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P76" t="n">
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-7.328304398148148</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>252815</v>
+        <v>252216</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E77" t="n">
-        <v>242.9416666666667</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>09-09-2025 07:52:45</t>
+          <t>08-09-2025 08:20:33</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09-09-2025 08:52:45</t>
+          <t>08-09-2025 09:05:33</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>09-09-2025 08:52:45</t>
+          <t>08-09-2025 09:05:33</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>09-09-2025 12:55:42</t>
+          <t>08-09-2025 11:27:22</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>29153</v>
+        <v>17017</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6440,75 +6435,75 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M77" t="n">
+        <v>10</v>
+      </c>
+      <c r="N77" t="n">
+        <v>70</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>25-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>-14.47733796296296</v>
+      </c>
+      <c r="T77" t="n">
         <v>8</v>
-      </c>
-      <c r="N77" t="n">
-        <v>76</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>05-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S77" s="1" t="n">
-        <v>-4.538680555555556</v>
-      </c>
-      <c r="T77" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>252216</v>
+        <v>252883</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E78" t="n">
-        <v>141.8083333333333</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>09-09-2025 12:55:42</t>
+          <t>08-09-2025 11:27:22</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09-09-2025 13:35:42</t>
+          <t>08-09-2025 12:02:22</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>09-09-2025 13:35:42</t>
+          <t>08-09-2025 12:02:22</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>10-09-2025 07:57:30</t>
+          <t>09-09-2025 08:09:40</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>17017</v>
+        <v>29677</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -6517,11 +6512,11 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N78" t="n">
         <v>70</v>
@@ -6534,58 +6529,58 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-16.33160300925926</v>
+        <v>-11.34005208333333</v>
       </c>
       <c r="T78" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>253245</v>
+        <v>253359</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E79" t="n">
-        <v>150.8333333333333</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>10-09-2025 07:57:30</t>
+          <t>09-09-2025 08:09:40</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10-09-2025 08:52:30</t>
+          <t>09-09-2025 09:19:40</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>10-09-2025 08:52:30</t>
+          <t>09-09-2025 09:19:40</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>10-09-2025 11:23:20</t>
+          <t>09-09-2025 11:33:41</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>18100</v>
+        <v>16082</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -6598,7 +6593,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N79" t="n">
         <v>70</v>
@@ -6611,58 +6606,58 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-0.4745428240740741</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>253368</v>
+        <v>253036</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>35</v>
       </c>
       <c r="E80" t="n">
-        <v>103.775</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10-09-2025 11:23:20</t>
+          <t>09-09-2025 11:33:41</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10-09-2025 11:58:20</t>
+          <t>09-09-2025 12:08:41</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>10-09-2025 11:58:20</t>
+          <t>09-09-2025 12:08:41</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>10-09-2025 13:42:07</t>
+          <t>09-09-2025 13:27:25</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>12453</v>
+        <v>9448</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -6671,14 +6666,14 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N80" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -6688,58 +6683,58 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S80" s="1" t="n">
-        <v>0</v>
+        <v>-18.56071180555556</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>253370</v>
+        <v>252995</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E81" t="n">
-        <v>207.5416666666667</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>10-09-2025 13:42:07</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10-09-2025 14:07:07</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>10-09-2025 14:07:07</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>11-09-2025 09:34:39</t>
+          <t>08-09-2025 08:27:19</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>24905</v>
+        <v>8198</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -6748,14 +6743,14 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N81" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -6765,58 +6760,58 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S81" s="1" t="n">
-        <v>0</v>
+        <v>-7.352303240740741</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>253377</v>
+        <v>252906</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E82" t="n">
-        <v>127.7166666666667</v>
+        <v>34.725</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>11-09-2025 09:34:39</t>
+          <t>08-09-2025 08:27:19</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>11-09-2025 09:59:39</t>
+          <t>08-09-2025 08:44:19</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>11-09-2025 09:59:39</t>
+          <t>08-09-2025 08:44:19</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>11-09-2025 12:07:22</t>
+          <t>08-09-2025 09:19:02</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>15326</v>
+        <v>4167</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -6825,75 +6820,75 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="n">
+        <v>76</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>25-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>-14.38822337962963</v>
+      </c>
+      <c r="T82" t="n">
         <v>2</v>
-      </c>
-      <c r="N82" t="n">
-        <v>70</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>25-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>253371</v>
+        <v>253194</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E83" t="n">
-        <v>107.7666666666667</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>11-09-2025 12:07:22</t>
+          <t>08-09-2025 09:19:02</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>11-09-2025 12:32:22</t>
+          <t>08-09-2025 09:36:02</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>11-09-2025 12:32:22</t>
+          <t>08-09-2025 09:36:02</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>11-09-2025 14:20:08</t>
+          <t>08-09-2025 12:55:07</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>12932</v>
+        <v>23890</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -6902,14 +6897,14 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N83" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -6919,11 +6914,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S83" s="1" t="n">
-        <v>0</v>
+        <v>-19.53828125</v>
       </c>
       <c r="T83" t="n">
         <v>1</v>
@@ -6931,46 +6926,46 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>253376</v>
+        <v>252815</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D84" t="n">
         <v>25</v>
       </c>
       <c r="E84" t="n">
-        <v>179.6083333333333</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>11-09-2025 14:20:08</t>
+          <t>08-09-2025 12:55:07</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>11-09-2025 14:45:08</t>
+          <t>08-09-2025 13:20:07</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>11-09-2025 14:45:08</t>
+          <t>08-09-2025 13:20:07</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>12-09-2025 09:44:45</t>
+          <t>09-09-2025 09:23:04</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>21553</v>
+        <v>29153</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -6979,14 +6974,14 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N84" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -6996,58 +6991,58 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S84" s="1" t="n">
-        <v>0</v>
+        <v>-4.391018518518519</v>
       </c>
       <c r="T84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>253367</v>
+        <v>253425</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E85" t="n">
-        <v>135.7</v>
+        <v>146.35</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>12-09-2025 09:44:45</t>
+          <t>09-09-2025 09:23:04</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>12-09-2025 10:09:45</t>
+          <t>09-09-2025 09:44:04</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>12-09-2025 10:09:45</t>
+          <t>09-09-2025 09:44:04</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>12-09-2025 12:25:27</t>
+          <t>09-09-2025 12:10:25</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>16284</v>
+        <v>17562</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -7056,75 +7051,75 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="n">
+        <v>76</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>29-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>-11.5072337962963</v>
+      </c>
+      <c r="T85" t="n">
         <v>2</v>
-      </c>
-      <c r="N85" t="n">
-        <v>70</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>25-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>253528</v>
+        <v>253706</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E86" t="n">
-        <v>119.175</v>
+        <v>311</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>12-09-2025 12:25:27</t>
+          <t>09-09-2025 12:10:25</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>12-09-2025 12:55:27</t>
+          <t>09-09-2025 12:31:25</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>12-09-2025 12:55:27</t>
+          <t>09-09-2025 12:31:25</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>12-09-2025 14:54:37</t>
+          <t>10-09-2025 09:42:25</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>14301</v>
+        <v>37320</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -7133,14 +7128,14 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N86" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -7150,58 +7145,58 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S86" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>253525</v>
+        <v>253602</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E87" t="n">
-        <v>92.14166666666667</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>12-09-2025 14:54:37</t>
+          <t>10-09-2025 09:42:25</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>15-09-2025 07:24:37</t>
+          <t>10-09-2025 10:03:25</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>15-09-2025 07:24:37</t>
+          <t>10-09-2025 10:03:25</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>15-09-2025 08:56:46</t>
+          <t>10-09-2025 12:00:30</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>11057</v>
+        <v>14050</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -7210,14 +7205,14 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N87" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -7227,58 +7222,58 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S87" s="1" t="n">
-        <v>0</v>
+        <v>-0.5003472222222223</v>
       </c>
       <c r="T87" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>253244</v>
+        <v>253268</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>35</v>
       </c>
       <c r="E88" t="n">
-        <v>166.5</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>15-09-2025 08:56:46</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>15-09-2025 09:31:46</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>15-09-2025 09:31:46</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>15-09-2025 12:18:16</t>
+          <t>09-09-2025 08:53:33</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>19980</v>
+        <v>9427</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -7304,58 +7299,58 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S88" s="1" t="n">
-        <v>-5.512685185185185</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>253472</v>
+        <v>253267</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E89" t="n">
-        <v>291.8</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>15-09-2025 12:18:16</t>
+          <t>09-09-2025 08:53:33</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>15-09-2025 12:48:16</t>
+          <t>09-09-2025 09:18:33</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>15-09-2025 12:48:16</t>
+          <t>09-09-2025 09:18:33</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>16-09-2025 09:40:04</t>
+          <t>09-09-2025 12:02:55</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>35016</v>
+        <v>19724</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -7368,7 +7363,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N89" t="n">
         <v>70</v>
@@ -7381,19 +7376,19 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S89" s="1" t="n">
-        <v>-0.4028240740740741</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>253549</v>
+        <v>252702</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -7402,37 +7397,37 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E90" t="n">
-        <v>163.6666666666667</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>16-09-2025 09:40:04</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>16-09-2025 10:10:04</t>
+          <t>05-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>16-09-2025 10:10:04</t>
+          <t>05-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>16-09-2025 12:53:44</t>
+          <t>05-09-2025 08:33:23</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>19640</v>
+        <v>7006</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -7441,24 +7436,29 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N90" t="n">
-        <v>70</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O90" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S90" s="1" t="n">
@@ -7470,7 +7470,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>252274</v>
+        <v>253362</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -7479,37 +7479,37 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E91" t="n">
-        <v>173.4166666666667</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>16-09-2025 12:53:44</t>
+          <t>05-09-2025 08:33:23</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>16-09-2025 13:28:44</t>
+          <t>05-09-2025 08:58:23</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>16-09-2025 13:28:44</t>
+          <t>05-09-2025 08:58:23</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>17-09-2025 08:22:09</t>
+          <t>05-09-2025 09:56:46</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>20810</v>
+        <v>7006</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -7518,28 +7518,33 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N91" t="n">
-        <v>76</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O91" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>15-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S91" s="1" t="n">
-        <v>-8.348715277777778</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
         <v>2</v>
@@ -7547,7 +7552,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>253332</v>
+        <v>252664</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -7556,37 +7561,37 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E92" t="n">
-        <v>184.825</v>
+        <v>365.975</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>17-09-2025 08:22:09</t>
+          <t>05-09-2025 09:56:46</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>17-09-2025 09:07:09</t>
+          <t>05-09-2025 10:31:46</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>17-09-2025 09:07:09</t>
+          <t>05-09-2025 10:31:46</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>17-09-2025 12:11:58</t>
+          <t>08-09-2025 08:37:44</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>22179</v>
+        <v>43917</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -7604,19 +7609,26 @@
       <c r="N92" t="n">
         <v>70</v>
       </c>
-      <c r="P92" t="n">
-        <v>0</v>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q92" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S92" s="1" t="n">
-        <v>-7.508315972222222</v>
+        <v>-6.359542824074074</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7624,7 +7636,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>253668</v>
+        <v>252833</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -7633,37 +7645,37 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E93" t="n">
-        <v>189.8666666666667</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>17-09-2025 12:11:58</t>
+          <t>08-09-2025 08:37:44</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>17-09-2025 12:36:58</t>
+          <t>08-09-2025 09:07:44</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>17-09-2025 12:36:58</t>
+          <t>08-09-2025 09:07:44</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>18-09-2025 07:46:50</t>
+          <t>08-09-2025 10:22:31</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>22784</v>
+        <v>8974</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -7672,11 +7684,11 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N93" t="n">
         <v>70</v>
@@ -7689,14 +7701,14 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S93" s="1" t="n">
-        <v>0</v>
+        <v>-13.43230902777778</v>
       </c>
       <c r="T93" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">

--- a/PS-VRP/Dati_output/schedulazione.xlsx
+++ b/PS-VRP/Dati_output/schedulazione.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>243569</v>
+        <v>252201</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -557,37 +557,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>03-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>21.675</v>
+        <v>34.10833333333333</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>08-07-2025 12:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>08-07-2025 12:17:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:38:40</t>
+          <t>08-07-2025 12:51:06</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2601</v>
+        <v>4093</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -605,6 +605,9 @@
       <c r="N2" t="n">
         <v>76</v>
       </c>
+      <c r="O2" t="n">
+        <v>40055</v>
+      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
@@ -613,11 +616,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-357.3185243055556</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -625,7 +628,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>253313</v>
+        <v>243535</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -634,37 +637,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>100.0083333333333</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:38:40</t>
+          <t>08-07-2025 12:51:06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:55:40</t>
+          <t>08-07-2025 13:10:06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:55:40</t>
+          <t>08-07-2025 13:10:06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 09:35:41</t>
+          <t>08-07-2025 14:16:43</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>12001</v>
+        <v>7994</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -677,27 +680,29 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>76</v>
       </c>
       <c r="O3" t="n">
-        <v>40299</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
+        <v>40054</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.3997800925925926</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -705,7 +710,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253317</v>
+        <v>243526</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -714,37 +719,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>102.775</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:35:41</t>
+          <t>08-07-2025 14:16:43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:52:41</t>
+          <t>08-07-2025 14:31:43</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:52:41</t>
+          <t>08-07-2025 14:31:43</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:35:27</t>
+          <t>09-07-2025 07:38:20</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>12333</v>
+        <v>7994</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -762,19 +767,24 @@
       <c r="N4" t="n">
         <v>76</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
+      <c r="O4" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.4829571759259259</v>
+        <v>-0.3182928240740741</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -782,7 +792,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>253318</v>
+        <v>243527</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -791,37 +801,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>51.55</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 11:35:27</t>
+          <t>09-07-2025 07:38:20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 11:50:27</t>
+          <t>09-07-2025 07:53:20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 11:50:27</t>
+          <t>09-07-2025 07:53:20</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:42:00</t>
+          <t>09-07-2025 08:59:57</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>6186</v>
+        <v>7994</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -839,19 +849,24 @@
       <c r="N5" t="n">
         <v>76</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
+      <c r="O5" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.5291724537037037</v>
+        <v>-0.3749710648148148</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -859,7 +874,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252843</v>
+        <v>243523</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -868,37 +883,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>19.2</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:42:00</t>
+          <t>09-07-2025 08:59:57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:09:00</t>
+          <t>09-07-2025 09:14:57</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:09:00</t>
+          <t>09-07-2025 09:14:57</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:28:12</t>
+          <t>09-07-2025 10:21:34</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2304</v>
+        <v>7994</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -911,32 +926,37 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
         <v>76</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
+      <c r="O6" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-40.56125578703703</v>
+        <v>-0.4316493055555555</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>250284</v>
+        <v>251790</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -945,37 +965,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>146.35</v>
+        <v>235.0583333333333</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-09-2025 13:28:12</t>
+          <t>09-07-2025 10:21:34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:12</t>
+          <t>09-07-2025 10:36:34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:12</t>
+          <t>09-07-2025 10:36:34</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:26:33</t>
+          <t>09-07-2025 14:31:38</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>17562</v>
+        <v>28207</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -984,75 +1004,80 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>70</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O7" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-181.3517766203704</v>
+        <v>-0.6053009259259259</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253409</v>
+        <v>252298</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>01-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>27.18333333333333</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>09-07-2025 14:31:38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>09-07-2025 14:52:38</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>09-07-2025 14:52:38</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>08-09-2025 07:56:11</t>
+          <t>10-07-2025 08:03:24</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>3262</v>
+        <v>8492</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1065,14 +1090,11 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
         <v>76</v>
       </c>
-      <c r="O8" t="n">
-        <v>40299</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
@@ -1081,58 +1103,58 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-0.3306828703703704</v>
+        <v>-17.33569444444445</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>253375</v>
+        <v>251849</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>51.88333333333333</v>
+        <v>33.38333333333333</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08-09-2025 07:56:11</t>
+          <t>10-07-2025 08:03:24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08-09-2025 08:38:11</t>
+          <t>10-07-2025 08:35:24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08-09-2025 08:38:11</t>
+          <t>10-07-2025 08:35:24</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>08-09-2025 09:30:04</t>
+          <t>10-07-2025 09:08:47</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>6226</v>
+        <v>4006</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1141,75 +1163,82 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
         <v>70</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>40042 (esterno)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>40042</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>25-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0</v>
+        <v>-15.38109953703704</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>253372</v>
+        <v>252476</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>103.775</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08-09-2025 09:30:04</t>
+          <t>10-07-2025 09:08:47</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:04</t>
+          <t>10-07-2025 09:27:47</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:04</t>
+          <t>10-07-2025 09:27:47</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>08-09-2025 11:38:50</t>
+          <t>10-07-2025 10:40:07</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>12453</v>
+        <v>8681</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1218,11 +1247,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
         <v>70</v>
@@ -1235,58 +1264,58 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-3.44453125</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253361</v>
+        <v>252277</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>76.70833333333333</v>
+        <v>144.925</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08-09-2025 11:38:50</t>
+          <t>10-07-2025 10:40:07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-09-2025 12:03:50</t>
+          <t>10-07-2025 10:59:07</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-09-2025 12:03:50</t>
+          <t>10-07-2025 10:59:07</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>08-09-2025 13:20:33</t>
+          <t>10-07-2025 13:24:03</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>9205</v>
+        <v>17391</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1295,75 +1324,80 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
         <v>70</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
+      <c r="O11" t="n">
+        <v>40024</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>40024</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>20-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-20.55836805555555</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253721</v>
+        <v>252665</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>39.39166666666667</v>
+        <v>48.875</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-09-2025 13:20:33</t>
+          <t>10-07-2025 13:24:03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-09-2025 13:47:33</t>
+          <t>10-07-2025 13:41:03</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-09-2025 13:47:33</t>
+          <t>10-07-2025 13:41:03</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>08-09-2025 14:26:56</t>
+          <t>10-07-2025 14:29:55</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>4727</v>
+        <v>5865</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1372,11 +1406,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
         <v>70</v>
@@ -1389,58 +1423,58 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253246</v>
+        <v>252087</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>194.25</v>
+        <v>35.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-09-2025 14:26:56</t>
+          <t>10-07-2025 14:29:55</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-09-2025 14:53:56</t>
+          <t>10-07-2025 14:46:55</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-09-2025 14:53:56</t>
+          <t>10-07-2025 14:46:55</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>09-09-2025 10:08:11</t>
+          <t>11-07-2025 07:22:25</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>23310</v>
+        <v>4260</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1453,7 +1487,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>70</v>
@@ -1466,58 +1500,58 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>29-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-12.30723958333333</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253710</v>
+        <v>252790</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>1.616666666666667</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-09-2025 10:08:11</t>
+          <t>11-07-2025 07:22:25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09-09-2025 10:35:11</t>
+          <t>11-07-2025 07:41:25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09-09-2025 10:35:11</t>
+          <t>11-07-2025 07:41:25</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>09-09-2025 10:36:48</t>
+          <t>11-07-2025 07:53:32</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>194</v>
+        <v>1453</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1530,7 +1564,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
         <v>70</v>
@@ -1543,58 +1577,58 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253260</v>
+        <v>252755</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>109.4083333333333</v>
+        <v>109.575</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-09-2025 10:36:48</t>
+          <t>11-07-2025 07:53:32</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09-09-2025 11:03:48</t>
+          <t>11-07-2025 08:10:32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09-09-2025 11:03:48</t>
+          <t>11-07-2025 08:10:32</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>09-09-2025 12:53:13</t>
+          <t>11-07-2025 10:00:06</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>13129</v>
+        <v>13149</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1620,58 +1654,58 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-15.53695601851852</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253271</v>
+        <v>252547</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>42.63333333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-09-2025 12:53:13</t>
+          <t>11-07-2025 10:00:06</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09-09-2025 13:22:13</t>
+          <t>11-07-2025 10:17:06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09-09-2025 13:22:13</t>
+          <t>11-07-2025 10:17:06</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>09-09-2025 14:04:51</t>
+          <t>11-07-2025 11:38:16</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>5116</v>
+        <v>9740</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1684,7 +1718,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
         <v>70</v>
@@ -1697,58 +1731,58 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-4.586701388888889</v>
+        <v>-7.484913194444444</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250891</v>
+        <v>251495</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>77.49166666666666</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-09-2025 14:04:51</t>
+          <t>11-07-2025 11:38:16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09-09-2025 14:31:51</t>
+          <t>11-07-2025 12:01:16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09-09-2025 14:31:51</t>
+          <t>11-07-2025 12:01:16</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10-09-2025 07:49:20</t>
+          <t>11-07-2025 13:13:37</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>9299</v>
+        <v>8681</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1774,11 +1808,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-28.32593171296296</v>
+        <v>-2.551122685185185</v>
       </c>
       <c r="T17" t="n">
         <v>4</v>
@@ -1786,46 +1820,46 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253524</v>
+        <v>252519</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E18" t="n">
-        <v>58.75833333333333</v>
+        <v>11.475</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10-09-2025 07:49:20</t>
+          <t>11-07-2025 13:13:37</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10-09-2025 08:18:20</t>
+          <t>11-07-2025 13:47:37</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10-09-2025 08:18:20</t>
+          <t>11-07-2025 13:47:37</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10-09-2025 09:17:06</t>
+          <t>11-07-2025 13:59:05</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>7051</v>
+        <v>1377</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1834,14 +1868,14 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1851,58 +1885,58 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-7.582702546296296</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253314</v>
+        <v>250383</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E19" t="n">
-        <v>43.40833333333333</v>
+        <v>24.925</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>11-07-2025 13:59:05</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05-09-2025 07:32:00</t>
+          <t>11-07-2025 14:18:05</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>05-09-2025 07:32:00</t>
+          <t>11-07-2025 14:18:05</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>05-09-2025 08:15:24</t>
+          <t>11-07-2025 14:43:01</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>5209</v>
+        <v>2991</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1915,76 +1949,71 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
         <v>76</v>
       </c>
-      <c r="O19" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P19" t="n">
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>15-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-26.61320601851852</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>253591</v>
+        <v>245089</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E20" t="n">
-        <v>17.41666666666667</v>
+        <v>1022.208333333333</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>05-09-2025 08:15:24</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05-09-2025 08:32:24</t>
+          <t>08-07-2025 12:29:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05-09-2025 08:32:24</t>
+          <t>08-07-2025 12:29:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>05-09-2025 08:49:49</t>
+          <t>10-07-2025 13:31:12</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2090</v>
+        <v>122665</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1997,76 +2026,71 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
         <v>76</v>
       </c>
-      <c r="O20" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P20" t="n">
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252682</v>
+        <v>252369</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E21" t="n">
-        <v>83.40833333333333</v>
+        <v>19.2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05-09-2025 08:49:49</t>
+          <t>10-07-2025 13:31:12</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05-09-2025 09:06:49</t>
+          <t>10-07-2025 14:06:12</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>05-09-2025 09:06:49</t>
+          <t>10-07-2025 14:06:12</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>05-09-2025 10:30:14</t>
+          <t>10-07-2025 14:25:24</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>10009</v>
+        <v>2304</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2079,76 +2103,71 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N21" t="n">
         <v>76</v>
       </c>
-      <c r="O21" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P21" t="n">
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0</v>
+        <v>-13.60097800925926</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>253367</v>
+        <v>250284</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E22" t="n">
-        <v>135.7</v>
+        <v>146.35</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>05-09-2025 10:30:14</t>
+          <t>10-07-2025 14:25:24</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05-09-2025 11:04:14</t>
+          <t>11-07-2025 07:07:24</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>05-09-2025 11:04:14</t>
+          <t>11-07-2025 07:07:24</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>05-09-2025 13:19:56</t>
+          <t>11-07-2025 09:33:45</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>16284</v>
+        <v>17562</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2157,11 +2176,11 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N22" t="n">
         <v>70</v>
@@ -2174,58 +2193,58 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-121.398443287037</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>253259</v>
+        <v>252336</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E23" t="n">
-        <v>69.23333333333333</v>
+        <v>120.275</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05-09-2025 13:19:56</t>
+          <t>11-07-2025 09:33:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05-09-2025 13:36:56</t>
+          <t>11-07-2025 10:04:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>05-09-2025 13:36:56</t>
+          <t>11-07-2025 10:04:45</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>05-09-2025 14:46:10</t>
+          <t>11-07-2025 12:05:02</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>8308</v>
+        <v>14433</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2234,80 +2253,75 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="n">
         <v>70</v>
       </c>
-      <c r="O23" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P23" t="n">
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-7.50349537037037</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253687</v>
+        <v>252467</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E24" t="n">
-        <v>44.23333333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>05-09-2025 14:46:10</t>
+          <t>11-07-2025 12:05:02</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-09-2025 07:07:10</t>
+          <t>11-07-2025 12:30:02</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-09-2025 07:07:10</t>
+          <t>11-07-2025 12:30:02</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>08-09-2025 07:51:24</t>
+          <t>11-07-2025 13:51:12</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>5308</v>
+        <v>9740</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2333,7 +2347,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>17-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -2345,7 +2359,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>253100</v>
+        <v>243569</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2354,37 +2368,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>47.35</v>
+        <v>21.675</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-09-2025 07:51:24</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:24</t>
+          <t>08-07-2025 12:17:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:24</t>
+          <t>08-07-2025 12:17:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>08-09-2025 08:55:45</t>
+          <t>08-07-2025 12:38:40</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>5682</v>
+        <v>2601</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2393,14 +2407,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O25" t="n">
+        <v>40055</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2410,19 +2427,19 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.3720486111111111</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>244023</v>
+        <v>245623</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2431,37 +2448,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n">
-        <v>8.308333333333334</v>
+        <v>220.1583333333333</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-09-2025 08:55:45</t>
+          <t>08-07-2025 12:38:40</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-09-2025 09:14:45</t>
+          <t>08-07-2025 13:10:40</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-09-2025 09:14:45</t>
+          <t>08-07-2025 13:10:40</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:03</t>
+          <t>09-07-2025 08:50:50</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>997</v>
+        <v>26419</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2470,14 +2487,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2487,19 +2504,19 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>25-01-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-343.3910127314815</v>
+        <v>-165.3686342592593</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253374</v>
+        <v>252364</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2508,37 +2525,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
-        <v>59.60833333333333</v>
+        <v>116.4833333333333</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:03</t>
+          <t>09-07-2025 08:50:50</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-09-2025 09:42:03</t>
+          <t>09-07-2025 09:24:50</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-09-2025 09:42:03</t>
+          <t>09-07-2025 09:24:50</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>08-09-2025 10:41:40</t>
+          <t>09-07-2025 11:21:19</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>7153</v>
+        <v>13978</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2564,19 +2581,19 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-12.47313657407407</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253072</v>
+        <v>252350</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2585,37 +2602,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>29.13333333333333</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-09-2025 10:41:40</t>
+          <t>09-07-2025 11:21:19</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-09-2025 11:00:40</t>
+          <t>09-07-2025 11:40:19</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-09-2025 11:00:40</t>
+          <t>09-07-2025 11:40:19</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>08-09-2025 11:29:48</t>
+          <t>09-07-2025 12:32:12</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>3496</v>
+        <v>6226</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2624,36 +2641,41 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
         <v>70</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
+      <c r="O28" t="n">
+        <v>40055</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>08-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-21.47902777777778</v>
+        <v>-0.5223611111111112</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253249</v>
+        <v>252549</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2662,37 +2684,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>57.75833333333333</v>
+        <v>92.59166666666667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-09-2025 11:29:48</t>
+          <t>09-07-2025 12:32:12</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-09-2025 12:05:48</t>
+          <t>09-07-2025 12:49:12</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08-09-2025 12:05:48</t>
+          <t>09-07-2025 12:49:12</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>08-09-2025 13:03:33</t>
+          <t>09-07-2025 14:21:47</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>6931</v>
+        <v>11111</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2701,14 +2723,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2718,19 +2740,19 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>20-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252827</v>
+        <v>244023</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2739,37 +2761,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E30" t="n">
-        <v>410</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-09-2025 13:03:33</t>
+          <t>09-07-2025 14:21:47</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-09-2025 13:20:33</t>
+          <t>09-07-2025 14:42:47</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-09-2025 13:20:33</t>
+          <t>09-07-2025 14:42:47</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>09-09-2025 12:10:33</t>
+          <t>09-07-2025 14:51:06</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>49200</v>
+        <v>997</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2778,14 +2800,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N30" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O30" t="n">
+        <v>40054</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2795,19 +2820,19 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-5.507332175925926</v>
+        <v>-0.6188194444444445</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252569</v>
+        <v>252456</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2816,37 +2841,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>9.583333333333334</v>
+        <v>144.4583333333333</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-09-2025 12:10:33</t>
+          <t>09-07-2025 14:51:06</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09-09-2025 12:27:33</t>
+          <t>10-07-2025 07:08:06</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-09-2025 12:27:33</t>
+          <t>10-07-2025 07:08:06</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>09-09-2025 12:37:08</t>
+          <t>10-07-2025 09:32:33</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1150</v>
+        <v>17335</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2855,36 +2880,41 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>76</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O31" t="n">
+        <v>40051</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40051</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-8.525792824074074</v>
+        <v>-0.3976099537037037</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253659</v>
+        <v>252686</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2893,37 +2923,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>34</v>
       </c>
       <c r="E32" t="n">
-        <v>323.75</v>
+        <v>329.15</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-09-2025 12:37:08</t>
+          <t>10-07-2025 09:32:33</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09-09-2025 13:11:08</t>
+          <t>10-07-2025 10:06:33</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-09-2025 13:11:08</t>
+          <t>10-07-2025 10:06:33</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10-09-2025 10:34:53</t>
+          <t>11-07-2025 07:35:42</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>38850</v>
+        <v>39498</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2932,14 +2962,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2949,7 +2979,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -2961,46 +2991,46 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253245</v>
+        <v>252713</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="E33" t="n">
-        <v>150.8333333333333</v>
+        <v>907.7666666666667</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10-09-2025 10:34:53</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10-09-2025 10:51:53</t>
+          <t>08-07-2025 12:34:30</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10-09-2025 10:51:53</t>
+          <t>08-07-2025 12:34:30</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10-09-2025 13:22:43</t>
+          <t>10-07-2025 11:42:16</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>18100</v>
+        <v>108932</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3009,11 +3039,11 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="n">
         <v>70</v>
@@ -3026,58 +3056,58 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>18-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-0.5574479166666667</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253247</v>
+        <v>235572</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E34" t="n">
-        <v>109.575</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10-09-2025 13:22:43</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10-09-2025 13:43:43</t>
+          <t>08-07-2025 13:05:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>10-09-2025 13:43:43</t>
+          <t>08-07-2025 13:05:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11-09-2025 07:33:18</t>
+          <t>08-07-2025 14:27:59</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>13149</v>
+        <v>9958</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3090,11 +3120,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
         <v>70</v>
       </c>
+      <c r="O34" t="n">
+        <v>40055</v>
+      </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
@@ -3103,58 +3136,58 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-1.314791666666667</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>253332</v>
+        <v>252220</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E35" t="n">
-        <v>184.825</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>11-09-2025 07:33:18</t>
+          <t>08-07-2025 14:27:59</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11-09-2025 07:52:18</t>
+          <t>08-07-2025 14:57:59</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11-09-2025 07:52:18</t>
+          <t>08-07-2025 14:57:59</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>11-09-2025 10:57:07</t>
+          <t>09-07-2025 08:18:30</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>22179</v>
+        <v>9662</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3163,11 +3196,11 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N35" t="n">
         <v>70</v>
@@ -3180,58 +3213,58 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-1.456336805555555</v>
+        <v>-23.34618055555556</v>
       </c>
       <c r="T35" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253668</v>
+        <v>252378</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E36" t="n">
-        <v>189.8666666666667</v>
+        <v>37.55833333333333</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11-09-2025 10:57:07</t>
+          <t>09-07-2025 08:18:30</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11-09-2025 11:12:07</t>
+          <t>09-07-2025 08:58:30</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11-09-2025 11:12:07</t>
+          <t>09-07-2025 08:58:30</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>11-09-2025 14:21:59</t>
+          <t>09-07-2025 09:36:03</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>22784</v>
+        <v>4507</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3240,75 +3273,75 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>76</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>04-07-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>-5.400040509259259</v>
+      </c>
+      <c r="T36" t="n">
         <v>2</v>
-      </c>
-      <c r="N36" t="n">
-        <v>70</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>26-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>253522</v>
+        <v>252362</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E37" t="n">
-        <v>198.625</v>
+        <v>39.95</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>11-09-2025 14:21:59</t>
+          <t>09-07-2025 09:36:03</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11-09-2025 14:38:59</t>
+          <t>09-07-2025 10:01:03</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11-09-2025 14:38:59</t>
+          <t>09-07-2025 10:01:03</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>12-09-2025 09:57:37</t>
+          <t>09-07-2025 10:41:00</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>23835</v>
+        <v>4794</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3317,14 +3350,14 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3334,58 +3367,58 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-0.4150115740740741</v>
+        <v>-5.445144675925926</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>253527</v>
+        <v>252814</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E38" t="n">
-        <v>67.48333333333333</v>
+        <v>50.08333333333334</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>12-09-2025 09:57:37</t>
+          <t>09-07-2025 10:41:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12-09-2025 10:12:37</t>
+          <t>09-07-2025 11:11:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12-09-2025 10:12:37</t>
+          <t>09-07-2025 11:11:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>12-09-2025 11:20:06</t>
+          <t>09-07-2025 12:01:05</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>8098</v>
+        <v>6010</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3394,17 +3427,14 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>70</v>
-      </c>
-      <c r="O38" t="n">
-        <v>40299</v>
+        <v>76</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3414,58 +3444,58 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.4722916666666667</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>253528</v>
+        <v>243536</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E39" t="n">
-        <v>119.175</v>
+        <v>66.61666666666666</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>12-09-2025 11:20:06</t>
+          <t>09-07-2025 12:01:05</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12-09-2025 11:35:06</t>
+          <t>09-07-2025 12:31:05</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12-09-2025 11:35:06</t>
+          <t>09-07-2025 12:31:05</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>12-09-2025 13:34:16</t>
+          <t>09-07-2025 13:37:42</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>14301</v>
+        <v>7994</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3474,28 +3504,33 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>70</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O39" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>11-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0</v>
+        <v>-0.5678530092592593</v>
       </c>
       <c r="T39" t="n">
         <v>1</v>
@@ -3503,46 +3538,46 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252274</v>
+        <v>252495</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E40" t="n">
-        <v>173.4166666666667</v>
+        <v>70.77500000000001</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>12-09-2025 13:34:16</t>
+          <t>09-07-2025 13:37:42</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12-09-2025 14:08:16</t>
+          <t>09-07-2025 14:07:42</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>12-09-2025 14:08:16</t>
+          <t>09-07-2025 14:07:42</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>15-09-2025 09:01:41</t>
+          <t>10-07-2025 07:18:29</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>20810</v>
+        <v>8493</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3555,7 +3590,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
         <v>76</v>
@@ -3568,58 +3603,58 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>07-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-6.376174768518519</v>
+        <v>-3.304502314814815</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252397</v>
+        <v>252207</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>27-06-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E41" t="n">
-        <v>115.925</v>
+        <v>51.55</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15-09-2025 09:01:41</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15-09-2025 09:18:41</t>
+          <t>08-07-2025 12:19:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>15-09-2025 09:18:41</t>
+          <t>08-07-2025 12:19:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>15-09-2025 11:14:37</t>
+          <t>08-07-2025 13:10:33</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>13911</v>
+        <v>6186</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3632,7 +3667,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
         <v>76</v>
@@ -3645,58 +3680,58 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
-        <v>0</v>
+        <v>-12.54899305555556</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>253549</v>
+        <v>252210</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E42" t="n">
-        <v>163.6666666666667</v>
+        <v>29.2</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>15-09-2025 11:14:37</t>
+          <t>08-07-2025 13:10:33</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15-09-2025 11:48:37</t>
+          <t>08-07-2025 13:29:33</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>15-09-2025 11:48:37</t>
+          <t>08-07-2025 13:29:33</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>15-09-2025 14:32:17</t>
+          <t>08-07-2025 13:58:45</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>19640</v>
+        <v>3504</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3705,14 +3740,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -3722,58 +3757,58 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
-        <v>0</v>
+        <v>-12.58246527777778</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>253244</v>
+        <v>252680</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E43" t="n">
-        <v>166.5</v>
+        <v>254.7</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>15-09-2025 14:32:17</t>
+          <t>08-07-2025 13:58:45</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15-09-2025 14:51:17</t>
+          <t>08-07-2025 14:15:45</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>15-09-2025 14:51:17</t>
+          <t>08-07-2025 14:15:45</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16-09-2025 09:37:47</t>
+          <t>09-07-2025 10:30:27</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>19980</v>
+        <v>30564</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3782,14 +3817,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -3799,58 +3834,58 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-6.401238425925926</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>253525</v>
+        <v>252723</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>92.14166666666667</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>16-09-2025 09:37:47</t>
+          <t>09-07-2025 10:30:27</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16-09-2025 09:56:47</t>
+          <t>09-07-2025 10:47:27</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>16-09-2025 09:56:47</t>
+          <t>09-07-2025 10:47:27</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>16-09-2025 11:28:55</t>
+          <t>09-07-2025 13:21:24</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>11057</v>
+        <v>18475</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3859,14 +3894,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N44" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -3876,58 +3911,58 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>253016</v>
+        <v>252209</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E45" t="n">
-        <v>73.38333333333334</v>
+        <v>29.19166666666667</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>16-09-2025 11:28:55</t>
+          <t>09-07-2025 13:21:24</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16-09-2025 12:00:55</t>
+          <t>09-07-2025 13:40:24</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>16-09-2025 12:00:55</t>
+          <t>09-07-2025 13:40:24</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>16-09-2025 13:14:18</t>
+          <t>09-07-2025 14:09:36</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>8806</v>
+        <v>3503</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3936,80 +3971,75 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>152</v>
-      </c>
-      <c r="O45" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>26-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-8.55160300925926</v>
+        <v>-13.59</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252529</v>
+        <v>252978</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>68.08333333333333</v>
+        <v>23.3</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>16-09-2025 13:14:18</t>
+          <t>09-07-2025 14:09:36</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>16-09-2025 13:46:18</t>
+          <t>09-07-2025 14:28:36</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>16-09-2025 13:46:18</t>
+          <t>09-07-2025 14:28:36</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>16-09-2025 14:54:23</t>
+          <t>09-07-2025 14:51:54</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>8170</v>
+        <v>2796</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4018,7 +4048,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -4027,6 +4057,9 @@
       <c r="N46" t="n">
         <v>76</v>
       </c>
+      <c r="O46" t="n">
+        <v>40049</v>
+      </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
@@ -4035,11 +4068,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-11.62110532407407</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>2</v>
@@ -4047,46 +4080,46 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>253455</v>
+        <v>251812</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E47" t="n">
-        <v>55.55833333333333</v>
+        <v>33.875</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>16-09-2025 14:54:23</t>
+          <t>09-07-2025 14:51:54</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17-09-2025 07:26:23</t>
+          <t>10-07-2025 07:10:54</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>17-09-2025 07:26:23</t>
+          <t>10-07-2025 07:10:54</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>17-09-2025 08:21:57</t>
+          <t>10-07-2025 07:44:46</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>6667</v>
+        <v>4065</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4095,14 +4128,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -4112,11 +4145,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>23-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-9.348576388888889</v>
+        <v>-17.32276041666667</v>
       </c>
       <c r="T47" t="n">
         <v>4</v>
@@ -4124,46 +4157,46 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>253261</v>
+        <v>252890</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>19</v>
       </c>
       <c r="E48" t="n">
-        <v>18.85</v>
+        <v>51.7</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>17-09-2025 08:21:57</t>
+          <t>10-07-2025 07:44:46</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17-09-2025 08:40:57</t>
+          <t>10-07-2025 08:03:46</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>17-09-2025 08:40:57</t>
+          <t>10-07-2025 08:03:46</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>17-09-2025 08:59:48</t>
+          <t>10-07-2025 08:55:28</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>2262</v>
+        <v>6204</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4172,14 +4205,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4189,11 +4222,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>01-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-23.37486111111111</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4201,46 +4234,46 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>253436</v>
+        <v>251919</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>20-06-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E49" t="n">
-        <v>18.85</v>
+        <v>140.05</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>17-09-2025 08:59:48</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>17-09-2025 09:14:48</t>
+          <t>08-07-2025 12:35:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>17-09-2025 09:14:48</t>
+          <t>08-07-2025 12:35:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>17-09-2025 09:33:39</t>
+          <t>08-07-2025 14:55:03</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>2262</v>
+        <v>16806</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4249,14 +4282,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4266,58 +4299,58 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>16-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-7.398368055555555</v>
+        <v>-22.6215625</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253401</v>
+        <v>251685</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E50" t="n">
-        <v>22.81666666666667</v>
+        <v>98.75833333333334</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>17-09-2025 09:33:39</t>
+          <t>08-07-2025 14:55:03</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17-09-2025 09:54:39</t>
+          <t>09-07-2025 07:40:03</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>17-09-2025 09:54:39</t>
+          <t>09-07-2025 07:40:03</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>17-09-2025 10:17:28</t>
+          <t>09-07-2025 09:18:48</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>2738</v>
+        <v>11851</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4330,71 +4363,76 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N50" t="n">
         <v>70</v>
       </c>
-      <c r="P50" t="n">
-        <v>0</v>
+      <c r="O50" t="n">
+        <v>40054</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>40054</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-5.428796296296296</v>
+        <v>-0.3880613425925926</v>
       </c>
       <c r="T50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>253295</v>
+        <v>252662</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>38.5</v>
+        <v>45</v>
       </c>
       <c r="E51" t="n">
-        <v>230.075</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>09-07-2025 09:18:48</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-09-2025 07:38:30</t>
+          <t>09-07-2025 10:03:48</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-09-2025 07:38:30</t>
+          <t>09-07-2025 10:03:48</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>09-09-2025 11:28:34</t>
+          <t>09-07-2025 13:13:40</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>27609</v>
+        <v>22784</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4403,29 +4441,24 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
         <v>70</v>
       </c>
-      <c r="O51" t="n">
-        <v>40274</v>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P51" t="n">
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>31-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S51" s="1" t="n">
@@ -4437,46 +4470,46 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>253686</v>
+        <v>252473</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="E52" t="n">
-        <v>44.23333333333333</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-09-2025 11:28:34</t>
+          <t>09-07-2025 13:13:40</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-09-2025 11:59:04</t>
+          <t>09-07-2025 13:38:40</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>09-09-2025 11:59:04</t>
+          <t>09-07-2025 13:38:40</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>09-09-2025 12:43:18</t>
+          <t>10-07-2025 08:48:32</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>5308</v>
+        <v>22784</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4485,11 +4518,11 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
         <v>70</v>
@@ -4502,58 +4535,58 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>01-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0</v>
+        <v>-9.367042824074074</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>253223</v>
+        <v>252656</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>46.5</v>
+        <v>25</v>
       </c>
       <c r="E53" t="n">
-        <v>16.4</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-09-2025 12:43:18</t>
+          <t>10-07-2025 08:48:32</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-09-2025 13:29:48</t>
+          <t>10-07-2025 09:13:32</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>09-09-2025 13:29:48</t>
+          <t>10-07-2025 09:13:32</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>09-09-2025 13:46:12</t>
+          <t>10-07-2025 12:23:24</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1968</v>
+        <v>22784</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4562,11 +4595,11 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N53" t="n">
         <v>70</v>
@@ -4579,58 +4612,58 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>14-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-8.573755787037037</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252601</v>
+        <v>251926</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="E54" t="n">
-        <v>51.20833333333334</v>
+        <v>78.91666666666667</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-09-2025 13:46:12</t>
+          <t>10-07-2025 12:23:24</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-09-2025 14:18:42</t>
+          <t>10-07-2025 12:58:24</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-09-2025 14:18:42</t>
+          <t>10-07-2025 12:58:24</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10-09-2025 07:09:55</t>
+          <t>10-07-2025 14:17:19</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>6145</v>
+        <v>9470</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4639,11 +4672,11 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N54" t="n">
         <v>70</v>
@@ -4656,58 +4689,58 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>09-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-1.595364583333333</v>
       </c>
       <c r="T54" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>253208</v>
+        <v>251231</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="E55" t="n">
-        <v>104.2583333333333</v>
+        <v>312.3083333333333</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10-09-2025 07:09:55</t>
+          <t>10-07-2025 14:17:19</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10-09-2025 07:42:25</t>
+          <t>10-07-2025 14:52:19</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-09-2025 07:42:25</t>
+          <t>10-07-2025 14:52:19</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10-09-2025 09:26:40</t>
+          <t>11-07-2025 12:04:38</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>12511</v>
+        <v>37477</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4716,75 +4749,82 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N55" t="n">
         <v>70</v>
       </c>
-      <c r="P55" t="n">
-        <v>0</v>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>40034 (esterno)</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>40034</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-5.393524305555555</v>
+        <v>-8.503217592592593</v>
       </c>
       <c r="T55" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>253210</v>
+        <v>252414</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="E56" t="n">
-        <v>94.15833333333333</v>
+        <v>77.15833333333333</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10-09-2025 09:26:40</t>
+          <t>11-07-2025 12:04:38</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10-09-2025 09:57:10</t>
+          <t>11-07-2025 12:34:38</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>10-09-2025 09:57:10</t>
+          <t>11-07-2025 12:34:38</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10-09-2025 11:31:20</t>
+          <t>11-07-2025 13:51:47</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>11299</v>
+        <v>9259</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4793,11 +4833,11 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N56" t="n">
         <v>70</v>
@@ -4810,58 +4850,58 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-0.4800925925925926</v>
+        <v>-11.57763310185185</v>
       </c>
       <c r="T56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>253368</v>
+        <v>252334</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>52.5</v>
+        <v>35</v>
       </c>
       <c r="E57" t="n">
-        <v>103.775</v>
+        <v>486.5916666666666</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10-09-2025 11:31:20</t>
+          <t>11-07-2025 13:51:47</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10-09-2025 12:23:50</t>
+          <t>11-07-2025 14:26:47</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10-09-2025 12:23:50</t>
+          <t>11-07-2025 14:26:47</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10-09-2025 14:07:36</t>
+          <t>14-07-2025 14:33:23</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>12453</v>
+        <v>58391</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4870,11 +4910,11 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N57" t="n">
         <v>70</v>
@@ -4887,58 +4927,58 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0</v>
+        <v>-10.6065162037037</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>253370</v>
+        <v>252085</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="E58" t="n">
-        <v>207.5416666666667</v>
+        <v>28.55</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>10-09-2025 14:07:36</t>
+          <t>14-07-2025 14:33:23</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10-09-2025 14:38:06</t>
+          <t>15-07-2025 07:03:23</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>10-09-2025 14:38:06</t>
+          <t>15-07-2025 07:03:23</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>11-09-2025 10:05:39</t>
+          <t>15-07-2025 07:31:56</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>24905</v>
+        <v>3426</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4947,11 +4987,11 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N58" t="n">
         <v>70</v>
@@ -4964,58 +5004,58 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0</v>
+        <v>-27.31384259259259</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>253376</v>
+        <v>252899</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="E59" t="n">
-        <v>179.6083333333333</v>
+        <v>180.5666666666667</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>11-09-2025 10:05:39</t>
+          <t>15-07-2025 07:31:56</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11-09-2025 10:36:09</t>
+          <t>15-07-2025 08:01:56</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>11-09-2025 10:36:09</t>
+          <t>15-07-2025 08:01:56</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>11-09-2025 13:35:45</t>
+          <t>15-07-2025 11:02:30</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>21553</v>
+        <v>21668</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5024,11 +5064,11 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
         <v>70</v>
@@ -5041,58 +5081,58 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>253371</v>
+        <v>252470</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="E60" t="n">
-        <v>107.7666666666667</v>
+        <v>62.5</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>11-09-2025 13:35:45</t>
+          <t>15-07-2025 11:02:30</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>11-09-2025 14:06:15</t>
+          <t>15-07-2025 11:32:30</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>11-09-2025 14:06:15</t>
+          <t>15-07-2025 11:32:30</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>12-09-2025 07:54:01</t>
+          <t>15-07-2025 12:35:00</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>12932</v>
+        <v>7500</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5101,11 +5141,11 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N60" t="n">
         <v>70</v>
@@ -5118,58 +5158,58 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>04-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>-11.52430555555556</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>253377</v>
+        <v>252511</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>30.5</v>
+        <v>55</v>
       </c>
       <c r="E61" t="n">
-        <v>127.7166666666667</v>
+        <v>87.45</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>12-09-2025 07:54:01</t>
+          <t>15-07-2025 12:35:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12-09-2025 08:24:31</t>
+          <t>15-07-2025 13:30:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>12-09-2025 08:24:31</t>
+          <t>15-07-2025 13:30:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>12-09-2025 10:32:14</t>
+          <t>15-07-2025 14:57:27</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>15326</v>
+        <v>10494</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5178,11 +5218,11 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N61" t="n">
         <v>70</v>
@@ -5195,58 +5235,58 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0</v>
+        <v>-12.62322916666667</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>253392</v>
+        <v>252507</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="E62" t="n">
-        <v>129.3833333333333</v>
+        <v>102.8833333333333</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>12-09-2025 10:32:14</t>
+          <t>15-07-2025 14:57:27</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12-09-2025 11:04:44</t>
+          <t>16-07-2025 07:22:27</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>12-09-2025 11:04:44</t>
+          <t>16-07-2025 07:22:27</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>12-09-2025 13:14:07</t>
+          <t>16-07-2025 09:05:20</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>15526</v>
+        <v>12346</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5259,7 +5299,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N62" t="n">
         <v>70</v>
@@ -5272,58 +5312,58 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>03-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>0</v>
+        <v>-13.3787037037037</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252939</v>
+        <v>252371</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>01-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="E63" t="n">
-        <v>89.8</v>
+        <v>50.04166666666666</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>12-09-2025 13:14:07</t>
+          <t>08-07-2025 12:00:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12-09-2025 13:48:37</t>
+          <t>08-07-2025 12:35:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>12-09-2025 13:48:37</t>
+          <t>08-07-2025 12:35:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>15-09-2025 07:18:25</t>
+          <t>08-07-2025 13:25:02</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>10776</v>
+        <v>6005</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5332,14 +5372,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N63" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5349,58 +5389,58 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>30-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-24.30446180555555</v>
+        <v>-8.559056712962963</v>
       </c>
       <c r="T63" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253472</v>
+        <v>252783</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="E64" t="n">
-        <v>291.8</v>
+        <v>11.95</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>15-09-2025 07:18:25</t>
+          <t>08-07-2025 13:25:02</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>15-09-2025 07:52:55</t>
+          <t>08-07-2025 14:05:02</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>15-09-2025 07:52:55</t>
+          <t>08-07-2025 14:05:02</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>15-09-2025 12:44:43</t>
+          <t>08-07-2025 14:16:59</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>35016</v>
+        <v>1434</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5413,20 +5453,25 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N64" t="n">
         <v>70</v>
       </c>
-      <c r="P64" t="n">
-        <v>0</v>
+      <c r="O64" t="n">
+        <v>40055</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
@@ -5438,46 +5483,46 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253393</v>
+        <v>252784</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="E65" t="n">
-        <v>77.63333333333334</v>
+        <v>26.975</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>15-09-2025 12:44:43</t>
+          <t>08-07-2025 14:16:59</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>15-09-2025 13:19:13</t>
+          <t>08-07-2025 14:41:59</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>15-09-2025 13:19:13</t>
+          <t>08-07-2025 14:41:59</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>15-09-2025 14:36:51</t>
+          <t>09-07-2025 07:08:58</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>9316</v>
+        <v>3237</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5486,28 +5531,33 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N65" t="n">
         <v>70</v>
       </c>
-      <c r="P65" t="n">
-        <v>0</v>
+      <c r="O65" t="n">
+        <v>40055</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-0.2978935185185185</v>
       </c>
       <c r="T65" t="n">
         <v>1</v>
@@ -5515,46 +5565,46 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>253095</v>
+        <v>252785</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="E66" t="n">
-        <v>76.31666666666666</v>
+        <v>58.34166666666667</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>15-09-2025 14:36:51</t>
+          <t>09-07-2025 07:08:58</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16-09-2025 07:09:21</t>
+          <t>09-07-2025 07:33:58</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>16-09-2025 07:09:21</t>
+          <t>09-07-2025 07:33:58</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>16-09-2025 08:25:40</t>
+          <t>09-07-2025 08:32:18</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>9158</v>
+        <v>7001</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5563,75 +5613,80 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N66" t="n">
         <v>70</v>
       </c>
-      <c r="P66" t="n">
-        <v>0</v>
+      <c r="O66" t="n">
+        <v>40055</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>40055</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>24-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-4.351163194444444</v>
+        <v>-0.3557696759259259</v>
       </c>
       <c r="T66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>244743</v>
+        <v>252245</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>08-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>32.5</v>
+        <v>40</v>
       </c>
       <c r="E67" t="n">
-        <v>29.34166666666667</v>
+        <v>489.7583333333333</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>16-09-2025 08:25:40</t>
+          <t>09-07-2025 08:32:18</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16-09-2025 08:58:10</t>
+          <t>09-07-2025 09:12:18</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>16-09-2025 08:58:10</t>
+          <t>09-07-2025 09:12:18</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>16-09-2025 09:27:31</t>
+          <t>10-07-2025 09:22:04</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>3521</v>
+        <v>58771</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5640,14 +5695,14 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N67" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -5657,58 +5712,58 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>27-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-22.3941087962963</v>
+        <v>-13.39032407407407</v>
       </c>
       <c r="T67" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252741</v>
+        <v>252999</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>07-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="E68" t="n">
-        <v>61.49166666666667</v>
+        <v>325.8416666666666</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>16-09-2025 09:27:31</t>
+          <t>10-07-2025 09:22:04</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>16-09-2025 10:02:01</t>
+          <t>10-07-2025 10:02:04</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>16-09-2025 10:02:01</t>
+          <t>10-07-2025 10:02:04</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>16-09-2025 11:03:30</t>
+          <t>11-07-2025 07:27:54</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>7379</v>
+        <v>39101</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5717,11 +5772,11 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N68" t="n">
         <v>70</v>
@@ -5734,7 +5789,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>06-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
@@ -5746,46 +5801,46 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>253284</v>
+        <v>252638</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>09-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E69" t="n">
-        <v>56.99166666666667</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>11-07-2025 07:27:54</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>11-07-2025 08:07:54</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>11-07-2025 08:07:54</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>04-09-2025 13:51:59</t>
+          <t>11-07-2025 09:09:24</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>6839</v>
+        <v>7379</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5794,17 +5849,14 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N69" t="n">
-        <v>76</v>
-      </c>
-      <c r="O69" t="n">
-        <v>40299</v>
+        <v>70</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -5814,58 +5866,58 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>06-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>0</v>
+        <v>-5.381527777777777</v>
       </c>
       <c r="T69" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252582</v>
+        <v>252157</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E70" t="n">
-        <v>46.08333333333334</v>
+        <v>396.825</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>04-09-2025 13:51:59</t>
+          <t>11-07-2025 09:09:24</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>04-09-2025 14:21:59</t>
+          <t>11-07-2025 09:54:24</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>04-09-2025 14:21:59</t>
+          <t>11-07-2025 09:54:24</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>05-09-2025 07:08:04</t>
+          <t>14-07-2025 08:31:13</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>5530</v>
+        <v>47619</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5874,80 +5926,75 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N70" t="n">
-        <v>76</v>
-      </c>
-      <c r="O70" t="n">
-        <v>40290</v>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>18-06-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
-        <v>0</v>
+        <v>-26.35501736111111</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252685</v>
+        <v>252426</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E71" t="n">
-        <v>74.56666666666666</v>
+        <v>184.2833333333333</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>05-09-2025 07:08:04</t>
+          <t>14-07-2025 08:31:13</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>05-09-2025 07:38:04</t>
+          <t>14-07-2025 09:31:13</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>05-09-2025 07:38:04</t>
+          <t>14-07-2025 09:31:13</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>05-09-2025 08:52:38</t>
+          <t>14-07-2025 12:35:30</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>8948</v>
+        <v>22114</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5956,80 +6003,75 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N71" t="n">
-        <v>76</v>
-      </c>
-      <c r="O71" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>02-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>0</v>
+        <v>-12.52465856481481</v>
       </c>
       <c r="T71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252679</v>
+        <v>252598</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E72" t="n">
-        <v>60</v>
+        <v>149.625</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>05-09-2025 08:52:38</t>
+          <t>14-07-2025 12:35:30</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>05-09-2025 09:22:38</t>
+          <t>14-07-2025 13:00:30</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>05-09-2025 09:22:38</t>
+          <t>14-07-2025 13:00:30</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>05-09-2025 10:22:38</t>
+          <t>15-07-2025 07:30:08</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>7200</v>
+        <v>17955</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6038,80 +6080,75 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N72" t="n">
-        <v>76</v>
-      </c>
-      <c r="O72" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>10-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
-        <v>0</v>
+        <v>-5.312592592592592</v>
       </c>
       <c r="T72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>253140</v>
+        <v>252576</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>14-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E73" t="n">
-        <v>55.83333333333334</v>
+        <v>374.0666666666667</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>05-09-2025 10:22:38</t>
+          <t>15-07-2025 07:30:08</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>05-09-2025 10:57:38</t>
+          <t>15-07-2025 07:55:08</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>05-09-2025 10:57:38</t>
+          <t>15-07-2025 07:55:08</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>05-09-2025 11:53:28</t>
+          <t>15-07-2025 14:09:12</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>6700</v>
+        <v>44888</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6120,14 +6157,14 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N73" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -6137,58 +6174,58 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>15-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-10.49546875</v>
+        <v>-0.5897222222222223</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>252002</v>
+        <v>252779</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>15-07-2025 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E74" t="n">
-        <v>55.675</v>
+        <v>184.2833333333333</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>05-09-2025 11:53:28</t>
+          <t>15-07-2025 14:09:12</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>05-09-2025 12:33:28</t>
+          <t>15-07-2025 14:34:12</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>05-09-2025 12:33:28</t>
+          <t>15-07-2025 14:34:12</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>05-09-2025 13:29:09</t>
+          <t>16-07-2025 09:38:29</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>6681</v>
+        <v>22114</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6197,1595 +6234,31 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N74" t="n">
         <v>70</v>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P74" t="n">
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>40307</v>
+        <v>0</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>21-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-11.56190972222222</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>235572</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>03-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>30</v>
-      </c>
-      <c r="E75" t="n">
-        <v>82.98333333333333</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:29:09</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:59:09</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:59:09</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:22:08</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>9958</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>5</v>
-      </c>
-      <c r="N75" t="n">
-        <v>70</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>06-11-2023 00:00:00</t>
-        </is>
-      </c>
-      <c r="S75" s="1" t="n">
-        <v>-672.307037037037</v>
-      </c>
-      <c r="T75" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>253278</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>30</v>
-      </c>
-      <c r="E76" t="n">
-        <v>28.425</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:22:08</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:52:08</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:52:08</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:20:33</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>3411</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>6</v>
-      </c>
-      <c r="N76" t="n">
-        <v>70</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>12-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>252216</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>03-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>45</v>
-      </c>
-      <c r="E77" t="n">
-        <v>141.8083333333333</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:20:33</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:05:33</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:05:33</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:27:22</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>17017</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>10</v>
-      </c>
-      <c r="N77" t="n">
-        <v>70</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>25-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S77" s="1" t="n">
-        <v>-14.47733796296296</v>
-      </c>
-      <c r="T77" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>252883</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>35</v>
-      </c>
-      <c r="E78" t="n">
-        <v>247.3083333333333</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:27:22</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:02:22</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:02:22</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:09:40</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>29677</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>CASON ;H7</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>12</v>
-      </c>
-      <c r="N78" t="n">
-        <v>70</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>29-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S78" s="1" t="n">
-        <v>-11.34005208333333</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>253359</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>70</v>
-      </c>
-      <c r="E79" t="n">
-        <v>134.0166666666667</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:09:40</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:19:40</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:19:40</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>09-09-2025 11:33:41</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>16082</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>3</v>
-      </c>
-      <c r="N79" t="n">
-        <v>70</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>11-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S79" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>253036</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>35</v>
-      </c>
-      <c r="E80" t="n">
-        <v>78.73333333333333</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>09-09-2025 11:33:41</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:08:41</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:08:41</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>09-09-2025 13:27:25</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>9448</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>H7 ;R5</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>3</v>
-      </c>
-      <c r="N80" t="n">
-        <v>76</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>22-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S80" s="1" t="n">
-        <v>-18.56071180555556</v>
-      </c>
-      <c r="T80" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>252995</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>19</v>
-      </c>
-      <c r="E81" t="n">
-        <v>68.31666666666666</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:19:00</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:19:00</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:27:19</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>8198</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>3</v>
-      </c>
-      <c r="N81" t="n">
-        <v>76</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>01-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S81" s="1" t="n">
-        <v>-7.352303240740741</v>
-      </c>
-      <c r="T81" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>252906</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>17</v>
-      </c>
-      <c r="E82" t="n">
-        <v>34.725</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:27:19</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:44:19</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:44:19</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:19:02</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>4167</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>4</v>
-      </c>
-      <c r="N82" t="n">
-        <v>76</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>25-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S82" s="1" t="n">
-        <v>-14.38822337962963</v>
-      </c>
-      <c r="T82" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>253194</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>27-08-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>17</v>
-      </c>
-      <c r="E83" t="n">
-        <v>199.0833333333333</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:19:02</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:36:02</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:36:02</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:55:07</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>23890</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>3</v>
-      </c>
-      <c r="N83" t="n">
-        <v>76</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>20-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S83" s="1" t="n">
-        <v>-19.53828125</v>
-      </c>
-      <c r="T83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>252815</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>25</v>
-      </c>
-      <c r="E84" t="n">
-        <v>242.9416666666667</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:55:07</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>08-09-2025 13:20:07</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>08-09-2025 13:20:07</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:23:04</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>29153</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>8</v>
-      </c>
-      <c r="N84" t="n">
-        <v>76</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>05-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S84" s="1" t="n">
-        <v>-4.391018518518519</v>
-      </c>
-      <c r="T84" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>253425</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>21</v>
-      </c>
-      <c r="E85" t="n">
-        <v>146.35</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:23:04</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:44:04</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:44:04</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:10:25</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>17562</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>5</v>
-      </c>
-      <c r="N85" t="n">
-        <v>76</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>29-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S85" s="1" t="n">
-        <v>-11.5072337962963</v>
-      </c>
-      <c r="T85" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>253706</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>03-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>21</v>
-      </c>
-      <c r="E86" t="n">
-        <v>311</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:10:25</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:31:25</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:31:25</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>10-09-2025 09:42:25</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>37320</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>8</v>
-      </c>
-      <c r="N86" t="n">
-        <v>76</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0</v>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>30-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>253602</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>21</v>
-      </c>
-      <c r="E87" t="n">
-        <v>117.0833333333333</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>10-09-2025 09:42:25</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:03:25</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:03:25</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>10-09-2025 12:00:30</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>14050</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>5</v>
-      </c>
-      <c r="N87" t="n">
-        <v>76</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>10-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S87" s="1" t="n">
-        <v>-0.5003472222222223</v>
-      </c>
-      <c r="T87" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>253268</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>35</v>
-      </c>
-      <c r="E88" t="n">
-        <v>78.55833333333334</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:35:00</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:35:00</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:53:33</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>9427</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>4</v>
-      </c>
-      <c r="N88" t="n">
-        <v>70</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0</v>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>23-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T88" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>253267</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>25</v>
-      </c>
-      <c r="E89" t="n">
-        <v>164.3666666666667</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>09-09-2025 08:53:33</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:18:33</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:18:33</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:02:55</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>19724</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>4</v>
-      </c>
-      <c r="N89" t="n">
-        <v>70</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>23-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T89" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>252702</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>35</v>
-      </c>
-      <c r="E90" t="n">
-        <v>58.38333333333333</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:35:00</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:35:00</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:33:23</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>7006</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>3</v>
-      </c>
-      <c r="N90" t="n">
-        <v>152</v>
-      </c>
-      <c r="O90" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q90" t="n">
-        <v>40295</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>04-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T90" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>253362</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>25</v>
-      </c>
-      <c r="E91" t="n">
-        <v>58.38333333333333</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:33:23</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:58:23</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:58:23</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:56:46</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>7006</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>3</v>
-      </c>
-      <c r="N91" t="n">
-        <v>152</v>
-      </c>
-      <c r="O91" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q91" t="n">
-        <v>40295</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>15-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T91" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>252664</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>03-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>35</v>
-      </c>
-      <c r="E92" t="n">
-        <v>365.975</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:56:46</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:31:46</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:31:46</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:37:44</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>43917</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>2</v>
-      </c>
-      <c r="N92" t="n">
-        <v>70</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q92" t="n">
-        <v>40279</v>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>02-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S92" s="1" t="n">
-        <v>-6.359542824074074</v>
-      </c>
-      <c r="T92" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>252833</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>30</v>
-      </c>
-      <c r="E93" t="n">
-        <v>74.78333333333333</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:37:44</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:07:44</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:07:44</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:22:31</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>8974</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>3</v>
-      </c>
-      <c r="N93" t="n">
-        <v>70</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0</v>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>26-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S93" s="1" t="n">
-        <v>-13.43230902777778</v>
-      </c>
-      <c r="T93" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>252980</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>03-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>17.075</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:17:04</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0</v>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>08-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S94" s="1" t="n">
-        <v>-0.3035243055555555</v>
-      </c>
-      <c r="T94" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/schedulazione.xlsx
+++ b/PS-VRP/Dati_output/schedulazione.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252201</v>
+        <v>253409</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -557,37 +557,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03-07-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>34.10833333333333</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:51:06</t>
+          <t>08-09-2025 07:44:11</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>4093</v>
+        <v>3262</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>76</v>
       </c>
       <c r="O2" t="n">
-        <v>40055</v>
+        <v>40299</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -616,19 +616,19 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3223495370370371</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>243535</v>
+        <v>252843</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -637,37 +637,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>66.61666666666666</v>
+        <v>19.2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 12:51:06</t>
+          <t>08-09-2025 07:44:11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:06</t>
+          <t>08-09-2025 08:11:11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:06</t>
+          <t>08-09-2025 08:11:11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:16:43</t>
+          <t>08-09-2025 08:30:23</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>7994</v>
+        <v>2304</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -680,37 +680,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
         <v>76</v>
       </c>
-      <c r="O3" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-40.35443287037037</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>243526</v>
+        <v>252815</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -719,37 +714,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>66.61666666666666</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:16:43</t>
+          <t>08-09-2025 08:30:23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:31:43</t>
+          <t>08-09-2025 08:47:23</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:31:43</t>
+          <t>08-09-2025 08:47:23</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>09-07-2025 07:38:20</t>
+          <t>08-09-2025 12:50:19</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>7994</v>
+        <v>29153</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -762,37 +757,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>76</v>
       </c>
-      <c r="O4" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P4" t="n">
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.3182928240740741</v>
+        <v>-3.534947916666667</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>243527</v>
+        <v>252906</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -801,37 +791,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>66.61666666666666</v>
+        <v>34.725</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-07-2025 07:38:20</t>
+          <t>08-09-2025 12:50:19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09-07-2025 07:53:20</t>
+          <t>08-09-2025 13:13:19</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09-07-2025 07:53:20</t>
+          <t>08-09-2025 13:13:19</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>09-07-2025 08:59:57</t>
+          <t>08-09-2025 13:48:03</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>7994</v>
+        <v>4167</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -844,37 +834,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
         <v>76</v>
       </c>
-      <c r="O5" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P5" t="n">
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.3749710648148148</v>
+        <v>-14.57503472222222</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>243523</v>
+        <v>252569</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -883,37 +868,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>66.61666666666666</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-07-2025 08:59:57</t>
+          <t>08-09-2025 13:48:03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:57</t>
+          <t>08-09-2025 14:05:03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:57</t>
+          <t>08-09-2025 14:05:03</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09-07-2025 10:21:34</t>
+          <t>08-09-2025 14:14:38</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>7994</v>
+        <v>1150</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -931,24 +916,19 @@
       <c r="N6" t="n">
         <v>76</v>
       </c>
-      <c r="O6" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P6" t="n">
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.4316493055555555</v>
+        <v>-7.593495370370371</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -956,7 +936,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251790</v>
+        <v>244023</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -965,37 +945,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
-        <v>235.0583333333333</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-07-2025 10:21:34</t>
+          <t>08-09-2025 14:14:38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-07-2025 10:36:34</t>
+          <t>08-09-2025 14:50:38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-07-2025 10:36:34</t>
+          <t>08-09-2025 14:50:38</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-07-2025 14:31:38</t>
+          <t>08-09-2025 14:58:56</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>28207</v>
+        <v>997</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1004,33 +984,28 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>76</v>
-      </c>
-      <c r="O7" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.6053009259259259</v>
+        <v>-343.6242650462963</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -1038,7 +1013,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252298</v>
+        <v>253361</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1047,37 +1022,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>70.76666666666667</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-07-2025 14:31:38</t>
+          <t>08-09-2025 14:58:56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-07-2025 14:52:38</t>
+          <t>09-09-2025 07:21:56</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-07-2025 14:52:38</t>
+          <t>09-09-2025 07:21:56</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10-07-2025 08:03:24</t>
+          <t>09-09-2025 08:38:39</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>8492</v>
+        <v>9205</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1086,14 +1061,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1103,19 +1078,19 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-17.33569444444445</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251849</v>
+        <v>253372</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1124,37 +1099,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>33.38333333333333</v>
+        <v>103.775</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10-07-2025 08:03:24</t>
+          <t>09-09-2025 08:38:39</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10-07-2025 08:35:24</t>
+          <t>09-09-2025 08:53:39</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10-07-2025 08:35:24</t>
+          <t>09-09-2025 08:53:39</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10-07-2025 09:08:47</t>
+          <t>09-09-2025 10:37:25</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4006</v>
+        <v>12453</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1163,43 +1138,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
         <v>70</v>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P9" t="n">
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-15.38109953703704</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252476</v>
+        <v>253375</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1208,37 +1176,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>72.34166666666667</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10-07-2025 09:08:47</t>
+          <t>09-09-2025 10:37:25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10-07-2025 09:27:47</t>
+          <t>09-09-2025 10:52:25</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10-07-2025 09:27:47</t>
+          <t>09-09-2025 10:52:25</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10-07-2025 10:40:07</t>
+          <t>09-09-2025 11:44:18</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>8681</v>
+        <v>6226</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1247,11 +1215,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
         <v>70</v>
@@ -1264,19 +1232,19 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-3.44453125</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252277</v>
+        <v>253524</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1285,37 +1253,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>144.925</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10-07-2025 10:40:07</t>
+          <t>09-09-2025 11:44:18</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10-07-2025 10:59:07</t>
+          <t>09-09-2025 12:01:18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-07-2025 10:59:07</t>
+          <t>09-09-2025 12:01:18</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10-07-2025 13:24:03</t>
+          <t>09-09-2025 13:00:04</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>17391</v>
+        <v>7051</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1333,32 +1301,27 @@
       <c r="N11" t="n">
         <v>70</v>
       </c>
-      <c r="O11" t="n">
-        <v>40024</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P11" t="n">
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-20.55836805555555</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252665</v>
+        <v>252833</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1367,37 +1330,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>48.875</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-07-2025 13:24:03</t>
+          <t>09-09-2025 13:00:04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-07-2025 13:41:03</t>
+          <t>09-09-2025 13:19:04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-07-2025 13:41:03</t>
+          <t>09-09-2025 13:19:04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10-07-2025 14:29:55</t>
+          <t>09-09-2025 14:33:51</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>5865</v>
+        <v>8974</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1406,11 +1369,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
         <v>70</v>
@@ -1423,19 +1386,19 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-14.60684027777778</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252087</v>
+        <v>253246</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1444,37 +1407,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>35.5</v>
+        <v>194.25</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-07-2025 14:29:55</t>
+          <t>09-09-2025 14:33:51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-07-2025 14:46:55</t>
+          <t>09-09-2025 14:50:51</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-07-2025 14:46:55</t>
+          <t>09-09-2025 14:50:51</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11-07-2025 07:22:25</t>
+          <t>10-09-2025 10:05:06</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>4260</v>
+        <v>23310</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1487,7 +1450,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>70</v>
@@ -1500,19 +1463,19 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-12.30723958333333</v>
+        <v>-0.4202083333333334</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252790</v>
+        <v>253706</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1521,37 +1484,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
-        <v>12.10833333333333</v>
+        <v>311</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11-07-2025 07:22:25</t>
+          <t>10-09-2025 10:05:06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11-07-2025 07:41:25</t>
+          <t>10-09-2025 10:43:06</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11-07-2025 07:41:25</t>
+          <t>10-09-2025 10:43:06</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11-07-2025 07:53:32</t>
+          <t>11-09-2025 07:54:06</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1453</v>
+        <v>37320</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1560,14 +1523,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1577,19 +1540,19 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252755</v>
+        <v>253370</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1598,37 +1561,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>109.575</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11-07-2025 07:53:32</t>
+          <t>11-09-2025 07:54:06</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11-07-2025 08:10:32</t>
+          <t>11-09-2025 08:36:06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11-07-2025 08:10:32</t>
+          <t>11-09-2025 08:36:06</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11-07-2025 10:00:06</t>
+          <t>11-09-2025 12:03:38</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>13149</v>
+        <v>24905</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1637,11 +1600,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>70</v>
@@ -1654,19 +1617,19 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252547</v>
+        <v>253368</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1675,37 +1638,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>81.16666666666667</v>
+        <v>103.775</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11-07-2025 10:00:06</t>
+          <t>11-09-2025 12:03:38</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11-07-2025 10:17:06</t>
+          <t>11-09-2025 12:18:38</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11-07-2025 10:17:06</t>
+          <t>11-09-2025 12:18:38</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11-07-2025 11:38:16</t>
+          <t>11-09-2025 14:02:25</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>9740</v>
+        <v>12453</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1714,11 +1677,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
         <v>70</v>
@@ -1731,11 +1694,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-7.484913194444444</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
@@ -1743,7 +1706,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251495</v>
+        <v>253377</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1752,37 +1715,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>72.34166666666667</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11-07-2025 11:38:16</t>
+          <t>11-09-2025 14:02:25</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11-07-2025 12:01:16</t>
+          <t>11-09-2025 14:17:25</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11-07-2025 12:01:16</t>
+          <t>11-09-2025 14:17:25</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11-07-2025 13:13:37</t>
+          <t>12-09-2025 08:25:08</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>8681</v>
+        <v>15326</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1791,11 +1754,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
         <v>70</v>
@@ -1808,19 +1771,19 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-2.551122685185185</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252519</v>
+        <v>253295</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1829,37 +1792,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>11.475</v>
+        <v>230.075</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11-07-2025 13:13:37</t>
+          <t>12-09-2025 08:25:08</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11-07-2025 13:47:37</t>
+          <t>12-09-2025 08:46:08</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11-07-2025 13:47:37</t>
+          <t>12-09-2025 08:46:08</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11-07-2025 13:59:05</t>
+          <t>12-09-2025 12:36:12</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1377</v>
+        <v>27609</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1868,28 +1831,33 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>76</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O18" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-7.582702546296296</v>
+        <v>-0.525144675925926</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1897,7 +1865,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>250383</v>
+        <v>253376</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1906,37 +1874,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>24.925</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11-07-2025 13:59:05</t>
+          <t>12-09-2025 12:36:12</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11-07-2025 14:18:05</t>
+          <t>12-09-2025 12:57:12</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11-07-2025 14:18:05</t>
+          <t>12-09-2025 12:57:12</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11-07-2025 14:43:01</t>
+          <t>15-09-2025 07:56:49</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>2991</v>
+        <v>21553</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1945,14 +1913,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1962,58 +1930,58 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>15-06-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-26.61320601851852</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>245089</v>
+        <v>253371</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>1022.208333333333</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>15-09-2025 07:56:49</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08-07-2025 12:29:00</t>
+          <t>15-09-2025 08:11:49</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-07-2025 12:29:00</t>
+          <t>15-09-2025 08:11:49</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10-07-2025 13:31:12</t>
+          <t>15-09-2025 09:59:35</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>122665</v>
+        <v>12932</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2022,14 +1990,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2039,7 +2007,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -2051,7 +2019,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252369</v>
+        <v>252939</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2060,37 +2028,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>19.2</v>
+        <v>89.8</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10-07-2025 13:31:12</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10-07-2025 14:06:12</t>
+          <t>08-09-2025 07:44:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10-07-2025 14:06:12</t>
+          <t>08-09-2025 07:44:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10-07-2025 14:25:24</t>
+          <t>08-09-2025 09:13:48</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2304</v>
+        <v>10776</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2099,14 +2067,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2116,58 +2084,58 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-13.60097800925926</v>
+        <v>-17.38458333333333</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250284</v>
+        <v>253314</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>146.35</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10-07-2025 14:25:24</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11-07-2025 07:07:24</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11-07-2025 07:07:24</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11-07-2025 09:33:45</t>
+          <t>05-09-2025 08:15:24</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>17562</v>
+        <v>5209</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2176,75 +2144,80 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>70</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O22" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-121.398443287037</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252336</v>
+        <v>253362</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" t="n">
-        <v>120.275</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11-07-2025 09:33:45</t>
+          <t>05-09-2025 08:15:24</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11-07-2025 10:04:45</t>
+          <t>05-09-2025 08:47:24</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11-07-2025 10:04:45</t>
+          <t>05-09-2025 08:47:24</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>11-07-2025 12:05:02</t>
+          <t>05-09-2025 09:45:47</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>14433</v>
+        <v>7006</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2253,28 +2226,33 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>70</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O23" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>15-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-7.50349537037037</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>2</v>
@@ -2282,46 +2260,46 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252467</v>
+        <v>252702</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>81.16666666666667</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11-07-2025 12:05:02</t>
+          <t>05-09-2025 09:45:47</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11-07-2025 12:30:02</t>
+          <t>05-09-2025 10:00:47</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11-07-2025 12:30:02</t>
+          <t>05-09-2025 10:00:47</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11-07-2025 13:51:12</t>
+          <t>05-09-2025 10:59:10</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>9740</v>
+        <v>7006</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2330,36 +2308,41 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>70</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O24" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>243569</v>
+        <v>252664</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2368,37 +2351,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E25" t="n">
-        <v>21.675</v>
+        <v>365.975</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>05-09-2025 10:59:10</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:00</t>
+          <t>05-09-2025 11:31:10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:00</t>
+          <t>05-09-2025 11:31:10</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:38:40</t>
+          <t>08-09-2025 09:37:09</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2601</v>
+        <v>43917</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2407,39 +2390,43 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>76</v>
-      </c>
-      <c r="O25" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-6.400798611111111</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>245623</v>
+        <v>253710</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2448,37 +2435,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>220.1583333333333</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:38:40</t>
+          <t>08-09-2025 09:37:09</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:40</t>
+          <t>08-09-2025 09:54:09</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:40</t>
+          <t>08-09-2025 09:54:09</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>09-07-2025 08:50:50</t>
+          <t>08-09-2025 09:55:46</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>26419</v>
+        <v>194</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2487,14 +2474,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2504,19 +2491,19 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-165.3686342592593</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252364</v>
+        <v>253374</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2525,37 +2512,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>116.4833333333333</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-07-2025 08:50:50</t>
+          <t>08-09-2025 09:55:46</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09-07-2025 09:24:50</t>
+          <t>08-09-2025 10:12:46</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-07-2025 09:24:50</t>
+          <t>08-09-2025 10:12:46</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>09-07-2025 11:21:19</t>
+          <t>08-09-2025 11:12:22</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>13978</v>
+        <v>7153</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2581,19 +2568,19 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-12.47313657407407</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252350</v>
+        <v>253721</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2602,37 +2589,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>51.88333333333333</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-07-2025 11:21:19</t>
+          <t>08-09-2025 11:12:22</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09-07-2025 11:40:19</t>
+          <t>08-09-2025 11:29:22</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09-07-2025 11:40:19</t>
+          <t>08-09-2025 11:29:22</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>09-07-2025 12:32:12</t>
+          <t>08-09-2025 12:08:46</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>6226</v>
+        <v>4727</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2641,33 +2628,28 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
         <v>70</v>
       </c>
-      <c r="O28" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P28" t="n">
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-0.5223611111111112</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>1</v>
@@ -2675,7 +2657,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252549</v>
+        <v>253278</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2684,37 +2666,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E29" t="n">
-        <v>92.59166666666667</v>
+        <v>28.425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-07-2025 12:32:12</t>
+          <t>08-09-2025 12:08:46</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-07-2025 12:49:12</t>
+          <t>08-09-2025 12:29:46</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-07-2025 12:49:12</t>
+          <t>08-09-2025 12:29:46</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>09-07-2025 14:21:47</t>
+          <t>08-09-2025 12:58:11</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>11111</v>
+        <v>3411</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2727,7 +2709,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N29" t="n">
         <v>70</v>
@@ -2740,19 +2722,19 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>244023</v>
+        <v>253072</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2761,37 +2743,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>8.308333333333334</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-07-2025 14:21:47</t>
+          <t>08-09-2025 12:58:11</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-07-2025 14:42:47</t>
+          <t>08-09-2025 13:13:11</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-07-2025 14:42:47</t>
+          <t>08-09-2025 13:13:11</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>09-07-2025 14:51:06</t>
+          <t>08-09-2025 13:42:19</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>997</v>
+        <v>3496</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2809,9 +2791,6 @@
       <c r="N30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>40054</v>
-      </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
@@ -2820,19 +2799,19 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-0.6188194444444445</v>
+        <v>-21.57105902777778</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252456</v>
+        <v>235572</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2841,37 +2820,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>144.4583333333333</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-07-2025 14:51:06</t>
+          <t>08-09-2025 13:42:19</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10-07-2025 07:08:06</t>
+          <t>08-09-2025 13:59:19</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10-07-2025 07:08:06</t>
+          <t>08-09-2025 13:59:19</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10-07-2025 09:32:33</t>
+          <t>09-09-2025 07:22:18</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>17335</v>
+        <v>9958</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2889,32 +2868,27 @@
       <c r="N31" t="n">
         <v>70</v>
       </c>
-      <c r="O31" t="n">
-        <v>40051</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P31" t="n">
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40051</v>
+        <v>0</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-0.3976099537037037</v>
+        <v>-673.3071585648148</v>
       </c>
       <c r="T31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252686</v>
+        <v>253100</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2923,37 +2897,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>329.15</v>
+        <v>47.35</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10-07-2025 09:32:33</t>
+          <t>09-09-2025 07:22:18</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10-07-2025 10:06:33</t>
+          <t>09-09-2025 07:39:18</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10-07-2025 10:06:33</t>
+          <t>09-09-2025 07:39:18</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>11-07-2025 07:35:42</t>
+          <t>09-09-2025 08:26:39</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>39498</v>
+        <v>5682</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2962,14 +2936,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2979,58 +2953,58 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-1.351846064814815</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252713</v>
+        <v>250891</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>907.7666666666667</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>09-09-2025 08:26:39</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:34:30</t>
+          <t>09-09-2025 08:43:39</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:34:30</t>
+          <t>09-09-2025 08:43:39</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10-07-2025 11:42:16</t>
+          <t>09-09-2025 10:01:09</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>108932</v>
+        <v>9299</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3039,7 +3013,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -3056,58 +3030,58 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0</v>
+        <v>-27.41746527777778</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>235572</v>
+        <v>253271</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>82.98333333333333</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>09-09-2025 10:01:09</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08-07-2025 13:05:00</t>
+          <t>09-09-2025 10:18:09</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>08-07-2025 13:05:00</t>
+          <t>09-09-2025 10:18:09</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:27:59</t>
+          <t>09-09-2025 11:00:47</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>9958</v>
+        <v>5116</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3120,14 +3094,11 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N34" t="n">
         <v>70</v>
       </c>
-      <c r="O34" t="n">
-        <v>40055</v>
-      </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
@@ -3136,58 +3107,58 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-4.458877314814814</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252220</v>
+        <v>250284</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E35" t="n">
-        <v>80.51666666666667</v>
+        <v>146.35</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:27:59</t>
+          <t>09-09-2025 11:00:47</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:57:59</t>
+          <t>09-09-2025 11:19:47</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:57:59</t>
+          <t>09-09-2025 11:19:47</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>09-07-2025 08:18:30</t>
+          <t>09-09-2025 13:46:08</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>9662</v>
+        <v>17562</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3200,7 +3171,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N35" t="n">
         <v>70</v>
@@ -3213,58 +3184,58 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-23.34618055555556</v>
+        <v>-181.5737037037037</v>
       </c>
       <c r="T35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252378</v>
+        <v>252216</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E36" t="n">
-        <v>37.55833333333333</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-07-2025 08:18:30</t>
+          <t>09-09-2025 13:46:08</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-07-2025 08:58:30</t>
+          <t>09-09-2025 14:05:08</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-07-2025 08:58:30</t>
+          <t>09-09-2025 14:05:08</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>09-07-2025 09:36:03</t>
+          <t>10-09-2025 08:26:56</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>4507</v>
+        <v>17017</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3273,14 +3244,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3290,58 +3261,58 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-5.400040509259259</v>
+        <v>-16.35204282407408</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252362</v>
+        <v>253095</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="E37" t="n">
-        <v>39.95</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-07-2025 09:36:03</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-07-2025 10:01:03</t>
+          <t>09-09-2025 07:32:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 10:01:03</t>
+          <t>09-09-2025 07:32:30</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>09-07-2025 10:41:00</t>
+          <t>09-09-2025 08:48:49</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>4794</v>
+        <v>9158</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3350,14 +3321,14 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3367,58 +3338,58 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-5.445144675925926</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252814</v>
+        <v>253527</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="E38" t="n">
-        <v>50.08333333333334</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 10:41:00</t>
+          <t>09-09-2025 08:48:49</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 11:11:00</t>
+          <t>09-09-2025 09:21:19</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-07-2025 11:11:00</t>
+          <t>09-09-2025 09:21:19</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>09-07-2025 12:01:05</t>
+          <t>09-09-2025 10:28:48</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>6010</v>
+        <v>8098</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3427,14 +3398,14 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3444,58 +3415,58 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>243536</v>
+        <v>253223</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>50.5</v>
       </c>
       <c r="E39" t="n">
-        <v>66.61666666666666</v>
+        <v>16.4</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-07-2025 12:01:05</t>
+          <t>09-09-2025 10:28:48</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-07-2025 12:31:05</t>
+          <t>09-09-2025 11:19:18</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-07-2025 12:31:05</t>
+          <t>09-09-2025 11:19:18</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>09-07-2025 13:37:42</t>
+          <t>09-09-2025 11:35:42</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>7994</v>
+        <v>1968</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3504,80 +3475,75 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N39" t="n">
-        <v>76</v>
-      </c>
-      <c r="O39" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.5678530092592593</v>
+        <v>-8.483124999999999</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252495</v>
+        <v>252601</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="E40" t="n">
-        <v>70.77500000000001</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-07-2025 13:37:42</t>
+          <t>09-09-2025 11:35:42</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09-07-2025 14:07:42</t>
+          <t>09-09-2025 12:08:12</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-07-2025 14:07:42</t>
+          <t>09-09-2025 12:08:12</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10-07-2025 07:18:29</t>
+          <t>09-09-2025 12:59:24</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>8493</v>
+        <v>6145</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3586,14 +3552,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N40" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3603,11 +3569,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-3.304502314814815</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>7</v>
@@ -3615,46 +3581,46 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252207</v>
+        <v>252002</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>27-06-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E41" t="n">
-        <v>51.55</v>
+        <v>55.675</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08-07-2025 12:19:00</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>08-07-2025 12:19:00</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:33</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>6186</v>
+        <v>6681</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3663,75 +3629,82 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>76</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-12.54899305555556</v>
+        <v>-10.57685763888889</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252210</v>
+        <v>253140</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E42" t="n">
-        <v>29.2</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:33</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:33</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:33</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>08-07-2025 13:58:45</t>
+          <t>05-09-2025 07:26:30</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>3504</v>
+        <v>6700</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3757,11 +3730,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-12.58246527777778</v>
+        <v>-10.31007523148148</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -3769,46 +3742,46 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252680</v>
+        <v>252682</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E43" t="n">
-        <v>254.7</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-07-2025 13:58:45</t>
+          <t>05-09-2025 07:26:30</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08-07-2025 14:15:45</t>
+          <t>05-09-2025 07:56:30</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>08-07-2025 14:15:45</t>
+          <t>05-09-2025 07:56:30</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>09-07-2025 10:30:27</t>
+          <t>05-09-2025 09:19:55</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>30564</v>
+        <v>10009</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3817,75 +3790,80 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N43" t="n">
         <v>76</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
+      <c r="O43" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252723</v>
+        <v>252679</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>153.9583333333333</v>
+        <v>60</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-07-2025 10:30:27</t>
+          <t>05-09-2025 09:19:55</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09-07-2025 10:47:27</t>
+          <t>05-09-2025 09:49:55</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09-07-2025 10:47:27</t>
+          <t>05-09-2025 09:49:55</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>09-07-2025 13:21:24</t>
+          <t>05-09-2025 10:49:55</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>18475</v>
+        <v>7200</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3898,71 +3876,76 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N44" t="n">
         <v>76</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
+      <c r="O44" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252209</v>
+        <v>253313</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E45" t="n">
-        <v>29.19166666666667</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-07-2025 13:21:24</t>
+          <t>05-09-2025 10:49:55</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-07-2025 13:40:24</t>
+          <t>05-09-2025 11:19:55</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>09-07-2025 13:40:24</t>
+          <t>05-09-2025 11:19:55</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>09-07-2025 14:09:36</t>
+          <t>05-09-2025 12:59:55</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>3503</v>
+        <v>12001</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3975,11 +3958,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N45" t="n">
         <v>76</v>
       </c>
+      <c r="O45" t="n">
+        <v>40299</v>
+      </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
@@ -3988,11 +3974,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-13.59</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>1</v>
@@ -4000,46 +3986,46 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252978</v>
+        <v>252582</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>04-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E46" t="n">
-        <v>23.3</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-07-2025 14:09:36</t>
+          <t>05-09-2025 12:59:55</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09-07-2025 14:28:36</t>
+          <t>05-09-2025 13:29:55</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>09-07-2025 14:28:36</t>
+          <t>05-09-2025 13:29:55</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>09-07-2025 14:51:54</t>
+          <t>05-09-2025 14:16:00</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>2796</v>
+        <v>5530</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4048,7 +4034,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -4058,68 +4044,70 @@
         <v>76</v>
       </c>
       <c r="O46" t="n">
-        <v>40049</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
+        <v>40290</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251812</v>
+        <v>253284</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>33.875</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-07-2025 14:51:54</t>
+          <t>05-09-2025 14:16:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10-07-2025 07:10:54</t>
+          <t>05-09-2025 14:46:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>10-07-2025 07:10:54</t>
+          <t>05-09-2025 14:46:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10-07-2025 07:44:46</t>
+          <t>08-09-2025 07:43:00</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>4065</v>
+        <v>6839</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4132,11 +4120,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N47" t="n">
         <v>76</v>
       </c>
+      <c r="O47" t="n">
+        <v>40299</v>
+      </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
@@ -4145,58 +4136,58 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-17.32276041666667</v>
+        <v>-0.3215277777777778</v>
       </c>
       <c r="T47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252890</v>
+        <v>253686</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E48" t="n">
-        <v>51.7</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10-07-2025 07:44:46</t>
+          <t>08-09-2025 07:43:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10-07-2025 08:03:46</t>
+          <t>08-09-2025 08:23:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>10-07-2025 08:03:46</t>
+          <t>08-09-2025 08:23:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10-07-2025 08:55:28</t>
+          <t>08-09-2025 09:07:14</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>6204</v>
+        <v>5308</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4205,14 +4196,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4222,58 +4213,58 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>01-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251919</v>
+        <v>253687</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>20-06-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E49" t="n">
-        <v>140.05</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-09-2025 09:07:14</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08-07-2025 12:35:00</t>
+          <t>08-09-2025 09:32:14</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08-07-2025 12:35:00</t>
+          <t>08-09-2025 09:32:14</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>08-07-2025 14:55:03</t>
+          <t>08-09-2025 10:16:28</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>16806</v>
+        <v>5308</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4282,14 +4273,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4299,11 +4290,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-22.6215625</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -4311,46 +4302,46 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251685</v>
+        <v>253249</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>45</v>
       </c>
       <c r="E50" t="n">
-        <v>98.75833333333334</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-07-2025 14:55:03</t>
+          <t>08-09-2025 10:16:28</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-07-2025 07:40:03</t>
+          <t>08-09-2025 11:01:28</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-07-2025 07:40:03</t>
+          <t>08-09-2025 11:01:28</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>09-07-2025 09:18:48</t>
+          <t>08-09-2025 11:59:13</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>11851</v>
+        <v>6931</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4359,33 +4350,28 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N50" t="n">
-        <v>70</v>
-      </c>
-      <c r="O50" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-0.3880613425925926</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -4393,46 +4379,46 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252662</v>
+        <v>253425</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E51" t="n">
-        <v>189.8666666666667</v>
+        <v>146.35</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-07-2025 09:18:48</t>
+          <t>08-09-2025 11:59:13</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-07-2025 10:03:48</t>
+          <t>08-09-2025 12:34:13</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-07-2025 10:03:48</t>
+          <t>08-09-2025 12:34:13</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>09-07-2025 13:13:40</t>
+          <t>09-09-2025 07:00:34</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>22784</v>
+        <v>17562</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4441,14 +4427,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N51" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -4458,11 +4444,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-11.29206597222222</v>
       </c>
       <c r="T51" t="n">
         <v>2</v>
@@ -4470,46 +4456,46 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252473</v>
+        <v>252883</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E52" t="n">
-        <v>189.8666666666667</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:13:40</t>
+          <t>09-09-2025 07:00:34</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:38:40</t>
+          <t>09-09-2025 08:10:34</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:38:40</t>
+          <t>09-09-2025 08:10:34</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>10-07-2025 08:48:32</t>
+          <t>09-09-2025 12:17:53</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>22784</v>
+        <v>29677</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4518,11 +4504,11 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N52" t="n">
         <v>70</v>
@@ -4535,58 +4521,58 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-9.367042824074074</v>
+        <v>-11.51241898148148</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252656</v>
+        <v>252995</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E53" t="n">
-        <v>189.8666666666667</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10-07-2025 08:48:32</t>
+          <t>09-09-2025 12:17:53</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10-07-2025 09:13:32</t>
+          <t>09-09-2025 13:37:53</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10-07-2025 09:13:32</t>
+          <t>09-09-2025 13:37:53</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>10-07-2025 12:23:24</t>
+          <t>09-09-2025 14:46:12</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>22784</v>
+        <v>8198</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4595,14 +4581,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -4612,58 +4598,58 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-8.615416666666667</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251926</v>
+        <v>253208</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E54" t="n">
-        <v>78.91666666666667</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10-07-2025 12:23:24</t>
+          <t>09-09-2025 14:46:12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10-07-2025 12:58:24</t>
+          <t>10-09-2025 08:11:12</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10-07-2025 12:58:24</t>
+          <t>10-09-2025 08:11:12</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10-07-2025 14:17:19</t>
+          <t>10-09-2025 09:55:27</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>9470</v>
+        <v>12511</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4672,11 +4658,11 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N54" t="n">
         <v>70</v>
@@ -4689,58 +4675,58 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-1.595364583333333</v>
+        <v>-5.413512731481481</v>
       </c>
       <c r="T54" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251231</v>
+        <v>253210</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E55" t="n">
-        <v>312.3083333333333</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10-07-2025 14:17:19</t>
+          <t>10-09-2025 09:55:27</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10-07-2025 14:52:19</t>
+          <t>10-09-2025 10:20:27</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-07-2025 14:52:19</t>
+          <t>10-09-2025 10:20:27</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>11-07-2025 12:04:38</t>
+          <t>10-09-2025 11:54:37</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>37477</v>
+        <v>11299</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4749,82 +4735,75 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N55" t="n">
         <v>70</v>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P55" t="n">
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-8.503217592592593</v>
+        <v>-0.4962615740740741</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252414</v>
+        <v>253602</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E56" t="n">
-        <v>77.15833333333333</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>11-07-2025 12:04:38</t>
+          <t>10-09-2025 11:54:37</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11-07-2025 12:34:38</t>
+          <t>10-09-2025 13:09:37</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>11-07-2025 12:34:38</t>
+          <t>10-09-2025 13:09:37</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>11-07-2025 13:51:47</t>
+          <t>11-09-2025 07:06:42</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>9259</v>
+        <v>14050</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4833,14 +4812,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -4850,11 +4829,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-11.57763310185185</v>
+        <v>-1.296319444444444</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4862,46 +4841,46 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252334</v>
+        <v>252529</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>35</v>
       </c>
       <c r="E57" t="n">
-        <v>486.5916666666666</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>11-07-2025 13:51:47</t>
+          <t>11-09-2025 07:06:42</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11-07-2025 14:26:47</t>
+          <t>11-09-2025 07:41:42</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>11-07-2025 14:26:47</t>
+          <t>11-09-2025 07:41:42</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>14-07-2025 14:33:23</t>
+          <t>11-09-2025 08:49:47</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>58391</v>
+        <v>8170</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4910,14 +4889,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -4927,11 +4906,11 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-10.6065162037037</v>
+        <v>-6.367905092592593</v>
       </c>
       <c r="T57" t="n">
         <v>2</v>
@@ -4939,46 +4918,46 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252085</v>
+        <v>253401</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E58" t="n">
-        <v>28.55</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>14-07-2025 14:33:23</t>
+          <t>11-09-2025 08:49:47</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15-07-2025 07:03:23</t>
+          <t>11-09-2025 09:34:47</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>15-07-2025 07:03:23</t>
+          <t>11-09-2025 09:34:47</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>15-07-2025 07:31:56</t>
+          <t>11-09-2025 09:57:36</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>3426</v>
+        <v>2738</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4991,7 +4970,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
         <v>70</v>
@@ -5004,58 +4983,58 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-27.31384259259259</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252899</v>
+        <v>253522</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E59" t="n">
-        <v>180.5666666666667</v>
+        <v>198.625</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>15-07-2025 07:31:56</t>
+          <t>11-09-2025 09:57:36</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15-07-2025 08:01:56</t>
+          <t>11-09-2025 10:32:36</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>15-07-2025 08:01:56</t>
+          <t>11-09-2025 10:32:36</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>15-07-2025 11:02:30</t>
+          <t>11-09-2025 13:51:13</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>21668</v>
+        <v>23835</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5081,58 +5060,58 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252470</v>
+        <v>244743</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E60" t="n">
-        <v>62.5</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>15-07-2025 11:02:30</t>
+          <t>11-09-2025 13:51:13</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15-07-2025 11:32:30</t>
+          <t>11-09-2025 14:26:13</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>15-07-2025 11:32:30</t>
+          <t>11-09-2025 14:26:13</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>15-07-2025 12:35:00</t>
+          <t>11-09-2025 14:55:34</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>7500</v>
+        <v>3521</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5145,7 +5124,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N60" t="n">
         <v>70</v>
@@ -5158,58 +5137,58 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-11.52430555555556</v>
+        <v>-17.6219212962963</v>
       </c>
       <c r="T60" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252511</v>
+        <v>243569</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E61" t="n">
-        <v>87.45</v>
+        <v>21.675</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>15-07-2025 12:35:00</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15-07-2025 13:30:00</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>15-07-2025 13:30:00</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>15-07-2025 14:57:27</t>
+          <t>08-09-2025 07:40:40</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>10494</v>
+        <v>2601</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5218,14 +5197,14 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N61" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -5235,58 +5214,58 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-12.62322916666667</v>
+        <v>-357.3199131944444</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252507</v>
+        <v>253194</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E62" t="n">
-        <v>102.8833333333333</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>15-07-2025 14:57:27</t>
+          <t>08-09-2025 07:40:40</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16-07-2025 07:22:27</t>
+          <t>08-09-2025 07:59:40</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>16-07-2025 07:22:27</t>
+          <t>08-09-2025 07:59:40</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>16-07-2025 09:05:20</t>
+          <t>08-09-2025 11:18:45</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>12346</v>
+        <v>23890</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5295,14 +5274,14 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N62" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -5312,58 +5291,58 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-13.3787037037037</v>
+        <v>-19.4713599537037</v>
       </c>
       <c r="T62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252371</v>
+        <v>252827</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E63" t="n">
-        <v>50.04166666666666</v>
+        <v>410</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-09-2025 11:18:45</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08-07-2025 12:35:00</t>
+          <t>08-09-2025 11:35:45</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08-07-2025 12:35:00</t>
+          <t>08-09-2025 11:35:45</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>08-07-2025 13:25:02</t>
+          <t>09-09-2025 10:25:45</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>6005</v>
+        <v>49200</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5376,7 +5355,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
         <v>76</v>
@@ -5389,58 +5368,58 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-8.559056712962963</v>
+        <v>-5.434554398148149</v>
       </c>
       <c r="T63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252783</v>
+        <v>253036</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E64" t="n">
-        <v>11.95</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-07-2025 13:25:02</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:05:02</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:05:02</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:16:59</t>
+          <t>09-09-2025 08:53:44</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1434</v>
+        <v>9448</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5449,80 +5428,75 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N64" t="n">
-        <v>70</v>
-      </c>
-      <c r="O64" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>0</v>
+        <v>-18.37064814814815</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252784</v>
+        <v>253659</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>26.975</v>
+        <v>323.75</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-07-2025 14:16:59</t>
+          <t>09-09-2025 08:53:44</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08-07-2025 14:41:59</t>
+          <t>09-09-2025 09:33:44</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>08-07-2025 14:41:59</t>
+          <t>09-09-2025 09:33:44</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:58</t>
+          <t>09-09-2025 14:57:29</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>3237</v>
+        <v>38850</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5535,29 +5509,24 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P65" t="n">
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-0.2978935185185185</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
         <v>1</v>
@@ -5565,46 +5534,46 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252785</v>
+        <v>253247</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E66" t="n">
-        <v>58.34166666666667</v>
+        <v>109.575</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:58</t>
+          <t>09-09-2025 14:57:29</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09-07-2025 07:33:58</t>
+          <t>10-09-2025 07:27:29</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09-07-2025 07:33:58</t>
+          <t>10-09-2025 07:27:29</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>09-07-2025 08:32:18</t>
+          <t>10-09-2025 09:17:03</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>7001</v>
+        <v>13149</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5617,76 +5586,71 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N66" t="n">
         <v>70</v>
       </c>
-      <c r="O66" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P66" t="n">
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-0.3557696759259259</v>
+        <v>-0.3868460648148148</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252245</v>
+        <v>253245</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>40</v>
       </c>
       <c r="E67" t="n">
-        <v>489.7583333333333</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>09-07-2025 08:32:18</t>
+          <t>10-09-2025 09:17:03</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:18</t>
+          <t>10-09-2025 09:57:03</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:18</t>
+          <t>10-09-2025 09:57:03</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>10-07-2025 09:22:04</t>
+          <t>10-09-2025 12:27:53</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>58771</v>
+        <v>18100</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5695,14 +5659,14 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -5712,58 +5676,58 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-13.39032407407407</v>
+        <v>-0.519369212962963</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252999</v>
+        <v>253332</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E68" t="n">
-        <v>325.8416666666666</v>
+        <v>184.825</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10-07-2025 09:22:04</t>
+          <t>10-09-2025 12:27:53</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10-07-2025 10:02:04</t>
+          <t>10-09-2025 13:02:53</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>10-07-2025 10:02:04</t>
+          <t>10-09-2025 13:02:53</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>11-07-2025 07:27:54</t>
+          <t>11-09-2025 08:07:43</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>39101</v>
+        <v>22179</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5789,11 +5753,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
-        <v>0</v>
+        <v>-1.33869212962963</v>
       </c>
       <c r="T68" t="n">
         <v>7</v>
@@ -5801,46 +5765,46 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252638</v>
+        <v>253668</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E69" t="n">
-        <v>61.49166666666667</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11-07-2025 07:27:54</t>
+          <t>11-09-2025 08:07:43</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11-07-2025 08:07:54</t>
+          <t>11-09-2025 08:32:43</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>11-07-2025 08:07:54</t>
+          <t>11-09-2025 08:32:43</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>11-07-2025 09:09:24</t>
+          <t>11-09-2025 11:42:35</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>7379</v>
+        <v>22784</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5849,11 +5813,11 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
         <v>70</v>
@@ -5866,11 +5830,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-5.381527777777777</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5878,46 +5842,46 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252157</v>
+        <v>253455</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E70" t="n">
-        <v>396.825</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>11-07-2025 09:09:24</t>
+          <t>11-09-2025 11:42:35</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11-07-2025 09:54:24</t>
+          <t>11-09-2025 12:17:35</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>11-07-2025 09:54:24</t>
+          <t>11-09-2025 12:17:35</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>14-07-2025 08:31:13</t>
+          <t>11-09-2025 13:13:08</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>47619</v>
+        <v>6667</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5930,7 +5894,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N70" t="n">
         <v>70</v>
@@ -5943,58 +5907,58 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-26.35501736111111</v>
+        <v>-3.550792824074074</v>
       </c>
       <c r="T70" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252426</v>
+        <v>253436</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E71" t="n">
-        <v>184.2833333333333</v>
+        <v>18.85</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>14-07-2025 08:31:13</t>
+          <t>11-09-2025 13:13:08</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14-07-2025 09:31:13</t>
+          <t>11-09-2025 13:48:08</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>14-07-2025 09:31:13</t>
+          <t>11-09-2025 13:48:08</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>14-07-2025 12:35:30</t>
+          <t>11-09-2025 14:06:59</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>22114</v>
+        <v>2262</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6003,11 +5967,11 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N71" t="n">
         <v>70</v>
@@ -6020,58 +5984,58 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-12.52465856481481</v>
+        <v>-1.588188657407407</v>
       </c>
       <c r="T71" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252598</v>
+        <v>253261</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>25</v>
       </c>
       <c r="E72" t="n">
-        <v>149.625</v>
+        <v>18.85</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>14-07-2025 12:35:30</t>
+          <t>11-09-2025 14:06:59</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>14-07-2025 13:00:30</t>
+          <t>11-09-2025 14:31:59</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>14-07-2025 13:00:30</t>
+          <t>11-09-2025 14:31:59</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>15-07-2025 07:30:08</t>
+          <t>11-09-2025 14:50:50</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>17955</v>
+        <v>2262</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6080,11 +6044,11 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N72" t="n">
         <v>70</v>
@@ -6097,58 +6061,58 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-5.312592592592592</v>
+        <v>-17.6186400462963</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252576</v>
+        <v>252397</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14-07-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E73" t="n">
-        <v>374.0666666666667</v>
+        <v>115.925</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>15-07-2025 07:30:08</t>
+          <t>11-09-2025 14:50:50</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15-07-2025 07:55:08</t>
+          <t>12-09-2025 07:30:50</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>15-07-2025 07:55:08</t>
+          <t>12-09-2025 07:30:50</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>15-07-2025 14:09:12</t>
+          <t>12-09-2025 09:26:46</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>44888</v>
+        <v>13911</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6157,14 +6121,14 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N73" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -6174,11 +6138,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-0.5897222222222223</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
         <v>2</v>
@@ -6186,46 +6150,46 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>252779</v>
+        <v>253392</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15-07-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E74" t="n">
-        <v>184.2833333333333</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>15-07-2025 14:09:12</t>
+          <t>12-09-2025 09:26:46</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15-07-2025 14:34:12</t>
+          <t>12-09-2025 10:01:46</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>15-07-2025 14:34:12</t>
+          <t>12-09-2025 10:01:46</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>16-07-2025 09:38:29</t>
+          <t>12-09-2025 12:11:09</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>22114</v>
+        <v>15526</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6234,11 +6198,11 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N74" t="n">
         <v>70</v>
@@ -6251,14 +6215,1574 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>253367</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>30</v>
+      </c>
+      <c r="E75" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>12-09-2025 12:11:09</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>12-09-2025 12:41:09</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>12-09-2025 12:41:09</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:56:51</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>16284</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>70</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>253525</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>25</v>
+      </c>
+      <c r="E76" t="n">
+        <v>92.14166666666667</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:56:51</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>15-09-2025 07:21:51</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>15-09-2025 07:21:51</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>15-09-2025 08:53:59</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>11057</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>70</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>26-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>253472</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>40</v>
+      </c>
+      <c r="E77" t="n">
+        <v>291.8</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>15-09-2025 08:53:59</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>15-09-2025 09:33:59</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>15-09-2025 09:33:59</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>15-09-2025 14:25:47</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>35016</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="n">
+        <v>70</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>16-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>253549</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>30</v>
+      </c>
+      <c r="E78" t="n">
+        <v>163.6666666666667</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>15-09-2025 14:25:47</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>15-09-2025 14:55:47</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>15-09-2025 14:55:47</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>16-09-2025 09:39:27</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>19640</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>6</v>
+      </c>
+      <c r="N78" t="n">
+        <v>70</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>253244</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>35</v>
+      </c>
+      <c r="E79" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>16-09-2025 09:39:27</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:14:27</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:14:27</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:00:57</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>19980</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="n">
+        <v>70</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>-6.542332175925926</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>253528</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>30</v>
+      </c>
+      <c r="E80" t="n">
+        <v>119.175</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:00:57</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:30:57</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>16-09-2025 13:30:57</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>17-09-2025 07:30:08</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>14301</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="n">
+        <v>70</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>253393</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>35</v>
+      </c>
+      <c r="E81" t="n">
+        <v>77.63333333333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>17-09-2025 07:30:08</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>17-09-2025 08:05:08</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>17-09-2025 08:05:08</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>17-09-2025 09:22:46</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>9316</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>CASON ;H7 ;R5</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="n">
+        <v>70</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>19-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>252274</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>40</v>
+      </c>
+      <c r="E82" t="n">
+        <v>173.4166666666667</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>17-09-2025 09:22:46</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>17-09-2025 10:02:46</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>17-09-2025 10:02:46</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>17-09-2025 12:56:11</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>20810</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="n">
+        <v>76</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>09-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>-8.539016203703703</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>252741</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>50</v>
+      </c>
+      <c r="E83" t="n">
+        <v>61.49166666666667</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>17-09-2025 12:56:11</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:46:11</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:46:11</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>17-09-2025 14:47:40</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>7379</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="n">
+        <v>70</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>24-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>253016</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>02-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>30</v>
+      </c>
+      <c r="E84" t="n">
+        <v>73.38333333333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:30:00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:30:00</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:43:23</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>8806</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="n">
+        <v>152</v>
+      </c>
+      <c r="O84" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>14-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>253259</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>35</v>
+      </c>
+      <c r="E85" t="n">
+        <v>69.23333333333333</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:43:23</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:18:23</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:18:23</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:27:37</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>8308</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="n">
+        <v>70</v>
+      </c>
+      <c r="O85" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>25-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>253591</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>35</v>
+      </c>
+      <c r="E86" t="n">
+        <v>17.41666666666667</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:27:37</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:02:37</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:02:37</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:20:02</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>2090</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="n">
+        <v>76</v>
+      </c>
+      <c r="O86" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>24-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>252685</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>30</v>
+      </c>
+      <c r="E87" t="n">
+        <v>74.56666666666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:20:02</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:50:02</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:50:02</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:04:36</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>8948</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="n">
+        <v>76</v>
+      </c>
+      <c r="O87" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>01-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>253318</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>30</v>
+      </c>
+      <c r="E88" t="n">
+        <v>51.55</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:04:36</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:34:36</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:34:36</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:26:09</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>6186</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="n">
+        <v>76</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>08-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>253317</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>25</v>
+      </c>
+      <c r="E89" t="n">
+        <v>102.775</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:26:09</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:51:09</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:51:09</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:33:55</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>12333</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="n">
+        <v>76</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>08-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S89" s="1" t="n">
+        <v>-0.3568923611111111</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>253268</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>35</v>
+      </c>
+      <c r="E90" t="n">
+        <v>78.55833333333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:33:55</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:08:55</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:08:55</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:27:29</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>9427</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="n">
+        <v>70</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>23-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>253267</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>25</v>
+      </c>
+      <c r="E91" t="n">
+        <v>164.3666666666667</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:27:29</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:52:29</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:52:29</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:36:51</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>19724</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="n">
+        <v>70</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>23-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>253359</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>30</v>
+      </c>
+      <c r="E92" t="n">
+        <v>134.0166666666667</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:36:51</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:06:51</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:06:51</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:20:52</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>16082</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="n">
+        <v>70</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>11-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>253260</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>30</v>
+      </c>
+      <c r="E93" t="n">
+        <v>109.4083333333333</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:20:52</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:50:52</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:50:52</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:40:16</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>13129</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="n">
+        <v>70</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>25-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S93" s="1" t="n">
+        <v>-15.44463541666667</v>
+      </c>
+      <c r="T93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>252980</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>03-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>17.075</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:17:04</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>08-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S94" s="1" t="n">
+        <v>-0.3035243055555555</v>
+      </c>
+      <c r="T94" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/schedulazione.xlsx
+++ b/PS-VRP/Dati_output/schedulazione.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252201</v>
+        <v>253409</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -557,37 +557,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03-07-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>34.10833333333333</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-07-2025 12:51:06</t>
+          <t>08-09-2025 07:44:11</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>4093</v>
+        <v>3262</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>76</v>
       </c>
       <c r="O2" t="n">
-        <v>40055</v>
+        <v>40299</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -616,19 +616,19 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-0.3223495370370371</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>243535</v>
+        <v>252815</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -637,37 +637,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>66.61666666666666</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-07-2025 12:51:06</t>
+          <t>08-09-2025 07:44:11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:06</t>
+          <t>08-09-2025 08:09:11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:06</t>
+          <t>08-09-2025 08:09:11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-07-2025 14:16:43</t>
+          <t>08-09-2025 12:12:07</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>7994</v>
+        <v>29153</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -680,37 +680,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
         <v>76</v>
       </c>
-      <c r="O3" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-3.508420138888889</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>243526</v>
+        <v>253072</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -719,37 +714,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>66.61666666666666</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:16:43</t>
+          <t>08-09-2025 12:12:07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:31:43</t>
+          <t>08-09-2025 12:46:07</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-07-2025 14:31:43</t>
+          <t>08-09-2025 12:46:07</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>09-07-2025 07:38:20</t>
+          <t>08-09-2025 13:15:15</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>7994</v>
+        <v>3496</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -758,41 +753,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>76</v>
-      </c>
-      <c r="O4" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.3182928240740741</v>
+        <v>-21.55226273148148</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>243527</v>
+        <v>253710</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -801,37 +791,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>66.61666666666666</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>09-07-2025 07:38:20</t>
+          <t>08-09-2025 13:15:15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09-07-2025 07:53:20</t>
+          <t>08-09-2025 13:36:15</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09-07-2025 07:53:20</t>
+          <t>08-09-2025 13:36:15</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>09-07-2025 08:59:57</t>
+          <t>08-09-2025 13:37:52</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>7994</v>
+        <v>194</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -840,41 +830,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>76</v>
-      </c>
-      <c r="O5" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.3749710648148148</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>243523</v>
+        <v>253527</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -883,37 +868,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>66.61666666666666</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>09-07-2025 08:59:57</t>
+          <t>08-09-2025 13:37:52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:57</t>
+          <t>08-09-2025 13:56:52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09-07-2025 09:14:57</t>
+          <t>08-09-2025 13:56:52</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09-07-2025 10:21:34</t>
+          <t>09-09-2025 07:04:21</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>7994</v>
+        <v>8098</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -922,33 +907,28 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>76</v>
-      </c>
-      <c r="O6" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.4316493055555555</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -956,7 +936,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251790</v>
+        <v>253278</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -965,37 +945,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>235.0583333333333</v>
+        <v>28.425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-07-2025 10:21:34</t>
+          <t>09-09-2025 07:04:21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-07-2025 10:36:34</t>
+          <t>09-09-2025 07:25:21</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-07-2025 10:36:34</t>
+          <t>09-09-2025 07:25:21</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-07-2025 14:31:38</t>
+          <t>09-09-2025 07:53:47</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>28207</v>
+        <v>3411</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1004,41 +984,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>76</v>
-      </c>
-      <c r="O7" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.6053009259259259</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252298</v>
+        <v>253687</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1047,37 +1022,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01-07-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>70.76666666666667</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-07-2025 14:31:38</t>
+          <t>09-09-2025 07:53:47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-07-2025 14:52:38</t>
+          <t>09-09-2025 08:10:47</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-07-2025 14:52:38</t>
+          <t>09-09-2025 08:10:47</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10-07-2025 08:03:24</t>
+          <t>09-09-2025 08:55:01</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>8492</v>
+        <v>5308</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1086,14 +1061,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1103,19 +1078,19 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-17.33569444444445</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251849</v>
+        <v>253271</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1124,37 +1099,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>33.38333333333333</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10-07-2025 08:03:24</t>
+          <t>09-09-2025 08:55:01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10-07-2025 08:35:24</t>
+          <t>09-09-2025 09:12:01</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10-07-2025 08:35:24</t>
+          <t>09-09-2025 09:12:01</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10-07-2025 09:08:47</t>
+          <t>09-09-2025 09:54:39</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4006</v>
+        <v>5116</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1167,39 +1142,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9" t="n">
         <v>70</v>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>40042 (esterno)</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P9" t="n">
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>40042</v>
+        <v>0</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>25-06-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-15.38109953703704</v>
+        <v>-4.412951388888889</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252476</v>
+        <v>253686</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1208,37 +1176,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>72.34166666666667</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10-07-2025 09:08:47</t>
+          <t>09-09-2025 09:54:39</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10-07-2025 09:27:47</t>
+          <t>09-09-2025 10:11:39</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10-07-2025 09:27:47</t>
+          <t>09-09-2025 10:11:39</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10-07-2025 10:40:07</t>
+          <t>09-09-2025 10:55:53</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>8681</v>
+        <v>5308</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1251,7 +1219,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
         <v>70</v>
@@ -1264,19 +1232,19 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-3.44453125</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>252277</v>
+        <v>253374</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1285,37 +1253,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>144.925</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10-07-2025 10:40:07</t>
+          <t>09-09-2025 10:55:53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10-07-2025 10:59:07</t>
+          <t>09-09-2025 11:12:53</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-07-2025 10:59:07</t>
+          <t>09-09-2025 11:12:53</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10-07-2025 13:24:03</t>
+          <t>09-09-2025 12:12:29</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>17391</v>
+        <v>7153</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1328,76 +1296,71 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>70</v>
       </c>
-      <c r="O11" t="n">
-        <v>40024</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P11" t="n">
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>40024</v>
+        <v>0</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>20-06-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-20.55836805555555</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252665</v>
+        <v>252833</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
-        <v>48.875</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-07-2025 13:24:03</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10-07-2025 13:41:03</t>
+          <t>08-09-2025 07:44:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-07-2025 13:41:03</t>
+          <t>08-09-2025 07:44:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10-07-2025 14:29:55</t>
+          <t>08-09-2025 08:58:47</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>5865</v>
+        <v>8974</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1406,11 +1369,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
         <v>70</v>
@@ -1423,58 +1386,58 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-13.37415509259259</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252087</v>
+        <v>253140</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
-        <v>35.5</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10-07-2025 14:29:55</t>
+          <t>08-09-2025 08:58:47</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-07-2025 14:46:55</t>
+          <t>08-09-2025 09:42:47</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10-07-2025 14:46:55</t>
+          <t>08-09-2025 09:42:47</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11-07-2025 07:22:25</t>
+          <t>08-09-2025 10:38:37</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>4260</v>
+        <v>6700</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1483,14 +1446,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1500,58 +1463,58 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>29-06-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-12.30723958333333</v>
+        <v>-13.4434837962963</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252790</v>
+        <v>252906</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>12.10833333333333</v>
+        <v>34.725</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11-07-2025 07:22:25</t>
+          <t>08-09-2025 10:38:37</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11-07-2025 07:41:25</t>
+          <t>08-09-2025 11:05:37</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11-07-2025 07:41:25</t>
+          <t>08-09-2025 11:05:37</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11-07-2025 07:53:32</t>
+          <t>08-09-2025 11:40:20</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1453</v>
+        <v>4167</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1560,14 +1523,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1577,11 +1540,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>25-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-14.48634837962963</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1589,46 +1552,46 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252755</v>
+        <v>253721</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>109.575</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11-07-2025 07:53:32</t>
+          <t>08-09-2025 11:40:20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11-07-2025 08:10:32</t>
+          <t>08-09-2025 12:22:20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11-07-2025 08:10:32</t>
+          <t>08-09-2025 12:22:20</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11-07-2025 10:00:06</t>
+          <t>08-09-2025 13:01:44</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>13149</v>
+        <v>4727</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1641,7 +1604,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
         <v>70</v>
@@ -1654,58 +1617,58 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252547</v>
+        <v>244023</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
-        <v>81.16666666666667</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11-07-2025 10:00:06</t>
+          <t>08-09-2025 13:01:44</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11-07-2025 10:17:06</t>
+          <t>08-09-2025 13:32:44</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11-07-2025 10:17:06</t>
+          <t>08-09-2025 13:32:44</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11-07-2025 11:38:16</t>
+          <t>08-09-2025 13:41:02</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>9740</v>
+        <v>997</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1718,7 +1681,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
         <v>70</v>
@@ -1731,11 +1694,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-7.484913194444444</v>
+        <v>-343.5701678240741</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
@@ -1743,46 +1706,46 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251495</v>
+        <v>253659</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>72.34166666666667</v>
+        <v>323.75</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11-07-2025 11:38:16</t>
+          <t>08-09-2025 13:41:02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11-07-2025 12:01:16</t>
+          <t>08-09-2025 14:08:02</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11-07-2025 12:01:16</t>
+          <t>08-09-2025 14:08:02</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11-07-2025 13:13:37</t>
+          <t>09-09-2025 11:31:47</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>8681</v>
+        <v>38850</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1808,58 +1771,58 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-2.551122685185185</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252519</v>
+        <v>253246</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
-        <v>11.475</v>
+        <v>194.25</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11-07-2025 13:13:37</t>
+          <t>09-09-2025 11:31:47</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11-07-2025 13:47:37</t>
+          <t>09-09-2025 11:58:47</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11-07-2025 13:47:37</t>
+          <t>09-09-2025 11:58:47</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11-07-2025 13:59:05</t>
+          <t>10-09-2025 07:13:02</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1377</v>
+        <v>23310</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1868,14 +1831,14 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1885,11 +1848,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-7.582702546296296</v>
+        <v>-0.3007233796296296</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
@@ -1897,46 +1860,46 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>250383</v>
+        <v>253100</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>24.925</v>
+        <v>47.35</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11-07-2025 13:59:05</t>
+          <t>10-09-2025 07:13:02</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11-07-2025 14:18:05</t>
+          <t>10-09-2025 07:38:02</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11-07-2025 14:18:05</t>
+          <t>10-09-2025 07:38:02</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11-07-2025 14:43:01</t>
+          <t>10-09-2025 08:25:23</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>2991</v>
+        <v>5682</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1945,14 +1908,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1962,58 +1925,58 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>15-06-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-26.61320601851852</v>
+        <v>-2.350966435185185</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>245089</v>
+        <v>253016</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>1022.208333333333</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08-07-2025 12:29:00</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-07-2025 12:29:00</t>
+          <t>05-09-2025 07:32:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10-07-2025 13:31:12</t>
+          <t>05-09-2025 08:45:23</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>122665</v>
+        <v>8806</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2026,71 +1989,76 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>76</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O20" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252369</v>
+        <v>253314</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
-        <v>19.2</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10-07-2025 13:31:12</t>
+          <t>05-09-2025 08:45:23</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10-07-2025 14:06:12</t>
+          <t>05-09-2025 09:19:23</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10-07-2025 14:06:12</t>
+          <t>05-09-2025 09:19:23</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10-07-2025 14:25:24</t>
+          <t>05-09-2025 10:02:47</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2304</v>
+        <v>5209</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2103,71 +2071,76 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
         <v>76</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
+      <c r="O21" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-13.60097800925926</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250284</v>
+        <v>253591</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>146.35</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10-07-2025 14:25:24</t>
+          <t>05-09-2025 10:02:47</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11-07-2025 07:07:24</t>
+          <t>05-09-2025 10:19:47</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11-07-2025 07:07:24</t>
+          <t>05-09-2025 10:19:47</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11-07-2025 09:33:45</t>
+          <t>05-09-2025 10:37:12</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>17562</v>
+        <v>2090</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2176,75 +2149,80 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>70</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O22" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-121.398443287037</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252336</v>
+        <v>252685</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>120.275</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11-07-2025 09:33:45</t>
+          <t>05-09-2025 10:37:12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11-07-2025 10:04:45</t>
+          <t>05-09-2025 10:54:12</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11-07-2025 10:04:45</t>
+          <t>05-09-2025 10:54:12</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>11-07-2025 12:05:02</t>
+          <t>05-09-2025 12:08:46</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>14433</v>
+        <v>8948</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2253,75 +2231,80 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>70</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O23" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-7.50349537037037</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252467</v>
+        <v>252569</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>81.16666666666667</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11-07-2025 12:05:02</t>
+          <t>05-09-2025 12:08:46</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11-07-2025 12:30:02</t>
+          <t>05-09-2025 12:25:46</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11-07-2025 12:30:02</t>
+          <t>05-09-2025 12:25:46</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11-07-2025 13:51:12</t>
+          <t>05-09-2025 12:35:21</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>9740</v>
+        <v>1150</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2330,14 +2313,14 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2347,11 +2330,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>17-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0</v>
+        <v>-4.524554398148148</v>
       </c>
       <c r="T24" t="n">
         <v>1</v>
@@ -2359,7 +2342,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>243569</v>
+        <v>252843</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2368,37 +2351,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E25" t="n">
-        <v>21.675</v>
+        <v>19.2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>05-09-2025 12:35:21</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:00</t>
+          <t>05-09-2025 13:02:21</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:17:00</t>
+          <t>05-09-2025 13:02:21</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>08-07-2025 12:38:40</t>
+          <t>05-09-2025 13:21:33</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2601</v>
+        <v>2304</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2407,18 +2390,15 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N25" t="n">
         <v>76</v>
       </c>
-      <c r="O25" t="n">
-        <v>40055</v>
-      </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
@@ -2427,11 +2407,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-37.55663773148148</v>
       </c>
       <c r="T25" t="n">
         <v>2</v>
@@ -2439,7 +2419,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>245623</v>
+        <v>253284</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2448,37 +2428,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>220.1583333333333</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-07-2025 12:38:40</t>
+          <t>05-09-2025 13:21:33</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:40</t>
+          <t>05-09-2025 13:46:33</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:40</t>
+          <t>05-09-2025 13:46:33</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>09-07-2025 08:50:50</t>
+          <t>05-09-2025 14:43:33</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>26419</v>
+        <v>6839</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2487,14 +2467,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>152</v>
+        <v>76</v>
+      </c>
+      <c r="O26" t="n">
+        <v>40299</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2504,19 +2487,19 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-165.3686342592593</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252364</v>
+        <v>252827</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2525,37 +2508,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E27" t="n">
-        <v>116.4833333333333</v>
+        <v>410</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-07-2025 08:50:50</t>
+          <t>05-09-2025 14:43:33</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09-07-2025 09:24:50</t>
+          <t>08-09-2025 07:02:33</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-07-2025 09:24:50</t>
+          <t>08-09-2025 07:02:33</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>09-07-2025 11:21:19</t>
+          <t>08-09-2025 13:52:33</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>13978</v>
+        <v>49200</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2564,14 +2547,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2581,11 +2564,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-12.47313657407407</v>
+        <v>-4.578159722222222</v>
       </c>
       <c r="T27" t="n">
         <v>4</v>
@@ -2593,7 +2576,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252350</v>
+        <v>253259</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2602,37 +2585,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>51.88333333333333</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-07-2025 11:21:19</t>
+          <t>08-09-2025 13:52:33</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09-07-2025 11:40:19</t>
+          <t>08-09-2025 14:24:33</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09-07-2025 11:40:19</t>
+          <t>08-09-2025 14:24:33</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>09-07-2025 12:32:12</t>
+          <t>09-09-2025 07:33:47</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>6226</v>
+        <v>8308</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2651,7 +2634,7 @@
         <v>70</v>
       </c>
       <c r="O28" t="n">
-        <v>40055</v>
+        <v>40295</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2659,23 +2642,23 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>40055</v>
+        <v>40295</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>08-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-0.5223611111111112</v>
+        <v>-1.315127314814815</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>252549</v>
+        <v>253095</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2684,37 +2667,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>92.59166666666667</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-07-2025 12:32:12</t>
+          <t>09-09-2025 07:33:47</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-07-2025 12:49:12</t>
+          <t>09-09-2025 07:50:47</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-07-2025 12:49:12</t>
+          <t>09-09-2025 07:50:47</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>09-07-2025 14:21:47</t>
+          <t>09-09-2025 09:07:06</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>11111</v>
+        <v>9158</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2723,11 +2706,11 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
         <v>70</v>
@@ -2740,19 +2723,19 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>20-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>244023</v>
+        <v>253375</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2761,37 +2744,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>8.308333333333334</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-07-2025 14:21:47</t>
+          <t>09-09-2025 09:07:06</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-07-2025 14:42:47</t>
+          <t>09-09-2025 09:24:06</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-07-2025 14:42:47</t>
+          <t>09-09-2025 09:24:06</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>09-07-2025 14:51:06</t>
+          <t>09-09-2025 10:15:59</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>997</v>
+        <v>6226</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2800,18 +2783,15 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>40054</v>
-      </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
@@ -2820,11 +2800,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-0.6188194444444445</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>1</v>
@@ -2832,7 +2812,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252456</v>
+        <v>253361</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2841,37 +2821,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>144.4583333333333</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-07-2025 14:51:06</t>
+          <t>09-09-2025 10:15:59</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10-07-2025 07:08:06</t>
+          <t>09-09-2025 10:30:59</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10-07-2025 07:08:06</t>
+          <t>09-09-2025 10:30:59</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10-07-2025 09:32:33</t>
+          <t>09-09-2025 11:47:41</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>17335</v>
+        <v>9205</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2880,41 +2860,36 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
         <v>70</v>
       </c>
-      <c r="O31" t="n">
-        <v>40051</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P31" t="n">
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40051</v>
+        <v>0</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-0.3976099537037037</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252686</v>
+        <v>253372</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2923,37 +2898,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>329.15</v>
+        <v>103.775</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10-07-2025 09:32:33</t>
+          <t>09-09-2025 11:47:41</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10-07-2025 10:06:33</t>
+          <t>09-09-2025 12:02:41</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10-07-2025 10:06:33</t>
+          <t>09-09-2025 12:02:41</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>11-07-2025 07:35:42</t>
+          <t>09-09-2025 13:46:28</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>39498</v>
+        <v>12453</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2962,14 +2937,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2979,7 +2954,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -2991,46 +2966,46 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252713</v>
+        <v>253401</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>907.7666666666667</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>09-09-2025 13:46:28</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:34:30</t>
+          <t>09-09-2025 14:03:28</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08-07-2025 12:34:30</t>
+          <t>09-09-2025 14:03:28</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10-07-2025 11:42:16</t>
+          <t>09-09-2025 14:26:17</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>108932</v>
+        <v>2738</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3039,11 +3014,11 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
         <v>70</v>
@@ -3056,14 +3031,14 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>18-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -3072,38 +3047,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E34" t="n">
         <v>82.98333333333333</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>09-09-2025 14:26:17</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08-07-2025 13:05:00</t>
+          <t>09-09-2025 14:45:17</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>08-07-2025 13:05:00</t>
+          <t>09-09-2025 14:45:17</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>08-07-2025 14:27:59</t>
+          <t>10-09-2025 08:08:16</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -3125,9 +3100,6 @@
       <c r="N34" t="n">
         <v>70</v>
       </c>
-      <c r="O34" t="n">
-        <v>40055</v>
-      </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
@@ -3140,7 +3112,7 @@
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-674.3390740740741</v>
       </c>
       <c r="T34" t="n">
         <v>4</v>
@@ -3148,46 +3120,46 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252220</v>
+        <v>253260</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E35" t="n">
-        <v>80.51666666666667</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:27:59</t>
+          <t>10-09-2025 08:08:16</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:57:59</t>
+          <t>10-09-2025 08:25:16</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>08-07-2025 14:57:59</t>
+          <t>10-09-2025 08:25:16</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>09-07-2025 08:18:30</t>
+          <t>10-09-2025 10:14:40</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>9662</v>
+        <v>13129</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3213,58 +3185,58 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-23.34618055555556</v>
+        <v>-16.42685763888889</v>
       </c>
       <c r="T35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252378</v>
+        <v>253370</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E36" t="n">
-        <v>37.55833333333333</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-07-2025 08:18:30</t>
+          <t>10-09-2025 10:14:40</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-07-2025 08:58:30</t>
+          <t>10-09-2025 10:33:40</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-07-2025 08:58:30</t>
+          <t>10-09-2025 10:33:40</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>09-07-2025 09:36:03</t>
+          <t>10-09-2025 14:01:13</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>4507</v>
+        <v>24905</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3273,14 +3245,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3290,58 +3262,58 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-5.400040509259259</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252362</v>
+        <v>252529</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E37" t="n">
-        <v>39.95</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-07-2025 09:36:03</t>
+          <t>10-09-2025 14:01:13</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-07-2025 10:01:03</t>
+          <t>10-09-2025 14:33:13</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-07-2025 10:01:03</t>
+          <t>10-09-2025 14:33:13</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>09-07-2025 10:41:00</t>
+          <t>11-09-2025 07:41:18</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>4794</v>
+        <v>8170</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3354,7 +3326,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
         <v>76</v>
@@ -3367,11 +3339,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-5.445144675925926</v>
+        <v>-6.320347222222222</v>
       </c>
       <c r="T37" t="n">
         <v>2</v>
@@ -3379,46 +3351,46 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252814</v>
+        <v>252939</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="E38" t="n">
-        <v>50.08333333333334</v>
+        <v>89.8</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-07-2025 10:41:00</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-07-2025 11:11:00</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-07-2025 11:11:00</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>09-07-2025 12:01:05</t>
+          <t>09-09-2025 09:04:18</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>6010</v>
+        <v>10776</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3427,14 +3399,14 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3444,58 +3416,58 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>-18.37798611111111</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>243536</v>
+        <v>253268</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="E39" t="n">
-        <v>66.61666666666666</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-07-2025 12:01:05</t>
+          <t>09-09-2025 09:04:18</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-07-2025 12:31:05</t>
+          <t>09-09-2025 09:36:48</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-07-2025 12:31:05</t>
+          <t>09-09-2025 09:36:48</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>09-07-2025 13:37:42</t>
+          <t>09-09-2025 10:55:21</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>7994</v>
+        <v>9427</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3504,80 +3476,75 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>76</v>
-      </c>
-      <c r="O39" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>11-07-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.5678530092592593</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252495</v>
+        <v>253223</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>30</v>
+        <v>48.5</v>
       </c>
       <c r="E40" t="n">
-        <v>70.77500000000001</v>
+        <v>16.4</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-07-2025 13:37:42</t>
+          <t>09-09-2025 10:55:21</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09-07-2025 14:07:42</t>
+          <t>09-09-2025 11:43:51</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-07-2025 14:07:42</t>
+          <t>09-09-2025 11:43:51</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10-07-2025 07:18:29</t>
+          <t>09-09-2025 12:00:15</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>8493</v>
+        <v>1968</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3586,14 +3553,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N40" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3603,11 +3570,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>07-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-3.304502314814815</v>
+        <v>-8.500179398148148</v>
       </c>
       <c r="T40" t="n">
         <v>7</v>
@@ -3615,46 +3582,46 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252207</v>
+        <v>252601</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>27-06-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="E41" t="n">
-        <v>51.55</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>09-09-2025 12:00:15</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08-07-2025 12:19:00</t>
+          <t>09-09-2025 12:32:45</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>08-07-2025 12:19:00</t>
+          <t>09-09-2025 12:32:45</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:33</t>
+          <t>09-09-2025 13:23:58</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>6186</v>
+        <v>6145</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3663,14 +3630,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N41" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -3680,58 +3647,58 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-12.54899305555556</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252210</v>
+        <v>252002</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E42" t="n">
-        <v>29.2</v>
+        <v>55.675</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>08-07-2025 13:10:33</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:33</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08-07-2025 13:29:33</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>08-07-2025 13:58:45</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>3504</v>
+        <v>6681</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3740,75 +3707,82 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>76</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-12.58246527777778</v>
+        <v>-10.57685763888889</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252680</v>
+        <v>252582</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E43" t="n">
-        <v>254.7</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>08-07-2025 13:58:45</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08-07-2025 14:15:45</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>08-07-2025 14:15:45</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>09-07-2025 10:30:27</t>
+          <t>05-09-2025 07:16:45</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>30564</v>
+        <v>5530</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3817,24 +3791,29 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43" t="n">
         <v>76</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
+      <c r="O43" t="n">
+        <v>40290</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
@@ -3846,46 +3825,46 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252723</v>
+        <v>253313</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>153.9583333333333</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09-07-2025 10:30:27</t>
+          <t>05-09-2025 07:16:45</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09-07-2025 10:47:27</t>
+          <t>05-09-2025 07:46:45</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>09-07-2025 10:47:27</t>
+          <t>05-09-2025 07:46:45</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>09-07-2025 13:21:24</t>
+          <t>05-09-2025 09:26:46</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>18475</v>
+        <v>12001</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3898,7 +3877,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44" t="n">
         <v>76</v>
@@ -3911,11 +3890,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-0.3935879629629629</v>
       </c>
       <c r="T44" t="n">
         <v>1</v>
@@ -3923,46 +3902,46 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252209</v>
+        <v>252679</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E45" t="n">
-        <v>29.19166666666667</v>
+        <v>60</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09-07-2025 13:21:24</t>
+          <t>05-09-2025 09:26:46</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09-07-2025 13:40:24</t>
+          <t>05-09-2025 09:56:46</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>09-07-2025 13:40:24</t>
+          <t>05-09-2025 09:56:46</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>09-07-2025 14:09:36</t>
+          <t>05-09-2025 10:56:46</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>3503</v>
+        <v>7200</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3975,71 +3954,76 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N45" t="n">
         <v>76</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
+      <c r="O45" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>26-06-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-13.59</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252978</v>
+        <v>253317</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>04-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E46" t="n">
-        <v>23.3</v>
+        <v>102.775</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>09-07-2025 14:09:36</t>
+          <t>05-09-2025 10:56:46</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09-07-2025 14:28:36</t>
+          <t>05-09-2025 11:31:46</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>09-07-2025 14:28:36</t>
+          <t>05-09-2025 11:31:46</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>09-07-2025 14:51:54</t>
+          <t>05-09-2025 13:14:32</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>2796</v>
+        <v>12333</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4048,7 +4032,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -4058,7 +4042,7 @@
         <v>76</v>
       </c>
       <c r="O46" t="n">
-        <v>40049</v>
+        <v>40299</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4068,58 +4052,58 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251812</v>
+        <v>252682</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>33.875</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>09-07-2025 14:51:54</t>
+          <t>05-09-2025 13:14:32</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10-07-2025 07:10:54</t>
+          <t>05-09-2025 13:44:32</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>10-07-2025 07:10:54</t>
+          <t>05-09-2025 13:44:32</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10-07-2025 07:44:46</t>
+          <t>08-09-2025 07:07:57</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>4065</v>
+        <v>10009</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4132,24 +4116,29 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N47" t="n">
         <v>76</v>
       </c>
-      <c r="P47" t="n">
-        <v>0</v>
+      <c r="O47" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>23-06-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-17.32276041666667</v>
+        <v>-0.2971875</v>
       </c>
       <c r="T47" t="n">
         <v>4</v>
@@ -4157,46 +4146,46 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252890</v>
+        <v>252883</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E48" t="n">
-        <v>51.7</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10-07-2025 07:44:46</t>
+          <t>08-09-2025 07:07:57</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10-07-2025 08:03:46</t>
+          <t>08-09-2025 08:22:57</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>10-07-2025 08:03:46</t>
+          <t>08-09-2025 08:22:57</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10-07-2025 08:55:28</t>
+          <t>08-09-2025 12:30:15</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>6204</v>
+        <v>29677</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4205,14 +4194,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N48" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4222,58 +4211,58 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>01-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0</v>
+        <v>-10.52101273148148</v>
       </c>
       <c r="T48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251919</v>
+        <v>253208</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>20-06-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>140.05</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>08-09-2025 12:30:15</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08-07-2025 12:35:00</t>
+          <t>08-09-2025 13:00:15</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08-07-2025 12:35:00</t>
+          <t>08-09-2025 13:00:15</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>08-07-2025 14:55:03</t>
+          <t>08-09-2025 14:44:31</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>16806</v>
+        <v>12511</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4282,14 +4271,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N49" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4299,58 +4288,58 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>16-06-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-22.6215625</v>
+        <v>-3.614247685185185</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251685</v>
+        <v>253210</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E50" t="n">
-        <v>98.75833333333334</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-07-2025 14:55:03</t>
+          <t>08-09-2025 14:44:31</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-07-2025 07:40:03</t>
+          <t>09-09-2025 07:09:31</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-07-2025 07:40:03</t>
+          <t>09-09-2025 07:09:31</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>09-07-2025 09:18:48</t>
+          <t>09-09-2025 08:43:40</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>11851</v>
+        <v>11299</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4359,80 +4348,75 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N50" t="n">
         <v>70</v>
       </c>
-      <c r="O50" t="n">
-        <v>40054</v>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P50" t="n">
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>40054</v>
+        <v>0</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-0.3880613425925926</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252662</v>
+        <v>243569</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E51" t="n">
-        <v>189.8666666666667</v>
+        <v>21.675</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-07-2025 09:18:48</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-07-2025 10:03:48</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-07-2025 10:03:48</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>09-07-2025 13:13:40</t>
+          <t>08-09-2025 07:40:40</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>22784</v>
+        <v>2601</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4441,14 +4425,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -4458,11 +4442,11 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>31-07-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-357.3199131944444</v>
       </c>
       <c r="T51" t="n">
         <v>2</v>
@@ -4470,46 +4454,46 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>252473</v>
+        <v>253318</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E52" t="n">
-        <v>189.8666666666667</v>
+        <v>51.55</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:13:40</t>
+          <t>08-09-2025 07:40:40</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:38:40</t>
+          <t>08-09-2025 07:59:40</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>09-07-2025 13:38:40</t>
+          <t>08-09-2025 07:59:40</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>10-07-2025 08:48:32</t>
+          <t>08-09-2025 08:51:13</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>22784</v>
+        <v>6186</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4518,14 +4502,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N52" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O52" t="n">
+        <v>40299</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -4535,58 +4522,58 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>01-07-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-9.367042824074074</v>
+        <v>-0.36890625</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252656</v>
+        <v>253249</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>189.8666666666667</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10-07-2025 08:48:32</t>
+          <t>08-09-2025 08:51:13</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10-07-2025 09:13:32</t>
+          <t>08-09-2025 09:06:13</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10-07-2025 09:13:32</t>
+          <t>08-09-2025 09:06:13</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>10-07-2025 12:23:24</t>
+          <t>08-09-2025 10:03:59</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>22784</v>
+        <v>6931</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4595,14 +4582,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -4612,58 +4599,58 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>14-07-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251926</v>
+        <v>252995</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E54" t="n">
-        <v>78.91666666666667</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10-07-2025 12:23:24</t>
+          <t>08-09-2025 10:03:59</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10-07-2025 12:58:24</t>
+          <t>08-09-2025 10:22:59</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10-07-2025 12:58:24</t>
+          <t>08-09-2025 10:22:59</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10-07-2025 14:17:19</t>
+          <t>08-09-2025 11:31:18</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>9470</v>
+        <v>8198</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4672,14 +4659,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -4689,58 +4676,58 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>09-07-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-1.595364583333333</v>
+        <v>-7.480069444444444</v>
       </c>
       <c r="T54" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251231</v>
+        <v>253425</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E55" t="n">
-        <v>312.3083333333333</v>
+        <v>146.35</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10-07-2025 14:17:19</t>
+          <t>08-09-2025 11:31:18</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10-07-2025 14:52:19</t>
+          <t>08-09-2025 11:50:18</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-07-2025 14:52:19</t>
+          <t>08-09-2025 11:50:18</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>11-07-2025 12:04:38</t>
+          <t>08-09-2025 14:16:39</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>37477</v>
+        <v>17562</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4749,82 +4736,75 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N55" t="n">
-        <v>70</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>40034 (esterno)</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-8.503217592592593</v>
+        <v>-10.59489583333333</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252414</v>
+        <v>253706</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E56" t="n">
-        <v>77.15833333333333</v>
+        <v>311</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>11-07-2025 12:04:38</t>
+          <t>08-09-2025 14:16:39</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11-07-2025 12:34:38</t>
+          <t>08-09-2025 14:37:39</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>11-07-2025 12:34:38</t>
+          <t>08-09-2025 14:37:39</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>11-07-2025 13:51:47</t>
+          <t>09-09-2025 11:48:39</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>9259</v>
+        <v>37320</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4833,14 +4813,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -4850,11 +4830,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-11.57763310185185</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
         <v>7</v>
@@ -4862,7 +4842,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252334</v>
+        <v>250891</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4871,37 +4851,37 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E57" t="n">
-        <v>486.5916666666666</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>11-07-2025 13:51:47</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11-07-2025 14:26:47</t>
+          <t>09-09-2025 07:40:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>11-07-2025 14:26:47</t>
+          <t>09-09-2025 07:40:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>14-07-2025 14:33:23</t>
+          <t>09-09-2025 08:57:29</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>58391</v>
+        <v>9299</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4927,19 +4907,19 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-10.6065162037037</v>
+        <v>-27.37325810185185</v>
       </c>
       <c r="T57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252085</v>
+        <v>253036</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4948,37 +4928,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E58" t="n">
-        <v>28.55</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>14-07-2025 14:33:23</t>
+          <t>09-09-2025 08:57:29</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15-07-2025 07:03:23</t>
+          <t>09-09-2025 09:37:29</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>15-07-2025 07:03:23</t>
+          <t>09-09-2025 09:37:29</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>15-07-2025 07:31:56</t>
+          <t>09-09-2025 10:56:13</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>3426</v>
+        <v>9448</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4987,14 +4967,14 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -5004,19 +4984,19 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-27.31384259259259</v>
+        <v>-18.45571180555556</v>
       </c>
       <c r="T58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252899</v>
+        <v>252216</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -5025,37 +5005,37 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E59" t="n">
-        <v>180.5666666666667</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>15-07-2025 07:31:56</t>
+          <t>09-09-2025 10:56:13</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15-07-2025 08:01:56</t>
+          <t>09-09-2025 12:01:13</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>15-07-2025 08:01:56</t>
+          <t>09-09-2025 12:01:13</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>15-07-2025 11:02:30</t>
+          <t>09-09-2025 14:23:02</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>21668</v>
+        <v>17017</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5068,7 +5048,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N59" t="n">
         <v>70</v>
@@ -5081,19 +5061,19 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-15.5993287037037</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252470</v>
+        <v>253524</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5102,37 +5082,37 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E60" t="n">
-        <v>62.5</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>15-07-2025 11:02:30</t>
+          <t>09-09-2025 14:23:02</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15-07-2025 11:32:30</t>
+          <t>10-09-2025 07:23:02</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>15-07-2025 11:32:30</t>
+          <t>10-09-2025 07:23:02</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>15-07-2025 12:35:00</t>
+          <t>10-09-2025 08:21:47</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>7500</v>
+        <v>7051</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5145,7 +5125,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N60" t="n">
         <v>70</v>
@@ -5158,19 +5138,19 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>04-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-11.52430555555556</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252511</v>
+        <v>253247</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5179,37 +5159,37 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E61" t="n">
-        <v>87.45</v>
+        <v>109.575</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>15-07-2025 12:35:00</t>
+          <t>10-09-2025 08:21:47</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15-07-2025 13:30:00</t>
+          <t>10-09-2025 08:51:47</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>15-07-2025 13:30:00</t>
+          <t>10-09-2025 08:51:47</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>15-07-2025 14:57:27</t>
+          <t>10-09-2025 10:41:22</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>10494</v>
+        <v>13149</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5218,11 +5198,11 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N61" t="n">
         <v>70</v>
@@ -5235,19 +5215,19 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-12.62322916666667</v>
+        <v>-0.4453935185185185</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252507</v>
+        <v>253332</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5256,37 +5236,37 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E62" t="n">
-        <v>102.8833333333333</v>
+        <v>184.825</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>15-07-2025 14:57:27</t>
+          <t>10-09-2025 10:41:22</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16-07-2025 07:22:27</t>
+          <t>10-09-2025 11:16:22</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>16-07-2025 07:22:27</t>
+          <t>10-09-2025 11:16:22</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>16-07-2025 09:05:20</t>
+          <t>10-09-2025 14:21:11</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>12346</v>
+        <v>22179</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5295,11 +5275,11 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
         <v>70</v>
@@ -5312,11 +5292,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>03-07-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-13.3787037037037</v>
+        <v>-0.5980497685185185</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5324,46 +5304,46 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252371</v>
+        <v>253668</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E63" t="n">
-        <v>50.04166666666666</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08-07-2025 12:00:00</t>
+          <t>10-09-2025 14:21:11</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08-07-2025 12:35:00</t>
+          <t>10-09-2025 14:46:11</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>08-07-2025 12:35:00</t>
+          <t>10-09-2025 14:46:11</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>08-07-2025 13:25:02</t>
+          <t>11-09-2025 09:56:03</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>6005</v>
+        <v>22784</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5372,14 +5352,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5389,58 +5369,58 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>30-06-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-8.559056712962963</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252783</v>
+        <v>253522</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E64" t="n">
-        <v>11.95</v>
+        <v>198.625</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>08-07-2025 13:25:02</t>
+          <t>11-09-2025 09:56:03</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:05:02</t>
+          <t>11-09-2025 10:26:03</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:05:02</t>
+          <t>11-09-2025 10:26:03</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>08-07-2025 14:16:59</t>
+          <t>11-09-2025 13:44:41</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1434</v>
+        <v>23835</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5453,25 +5433,20 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N64" t="n">
         <v>70</v>
       </c>
-      <c r="O64" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P64" t="n">
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
@@ -5483,46 +5458,46 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252784</v>
+        <v>253528</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>25</v>
       </c>
       <c r="E65" t="n">
-        <v>26.975</v>
+        <v>119.175</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-07-2025 14:16:59</t>
+          <t>11-09-2025 13:44:41</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08-07-2025 14:41:59</t>
+          <t>11-09-2025 14:09:41</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>08-07-2025 14:41:59</t>
+          <t>11-09-2025 14:09:41</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:58</t>
+          <t>12-09-2025 08:08:51</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>3237</v>
+        <v>14301</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5535,29 +5510,24 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P65" t="n">
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-0.2978935185185185</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
         <v>1</v>
@@ -5565,46 +5535,46 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252785</v>
+        <v>252274</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E66" t="n">
-        <v>58.34166666666667</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-07-2025 07:08:58</t>
+          <t>12-09-2025 08:08:51</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09-07-2025 07:33:58</t>
+          <t>12-09-2025 08:48:51</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09-07-2025 07:33:58</t>
+          <t>12-09-2025 08:48:51</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>09-07-2025 08:32:18</t>
+          <t>12-09-2025 11:42:16</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>7001</v>
+        <v>20810</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5613,80 +5583,75 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N66" t="n">
-        <v>70</v>
-      </c>
-      <c r="O66" t="n">
-        <v>40055</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>40055</v>
+        <v>0</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>24-07-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-0.3557696759259259</v>
+        <v>-3.487690972222222</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252245</v>
+        <v>253392</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>08-07-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>40</v>
       </c>
       <c r="E67" t="n">
-        <v>489.7583333333333</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>09-07-2025 08:32:18</t>
+          <t>12-09-2025 11:42:16</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:18</t>
+          <t>12-09-2025 12:22:16</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>09-07-2025 09:12:18</t>
+          <t>12-09-2025 12:22:16</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>10-07-2025 09:22:04</t>
+          <t>12-09-2025 14:31:39</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>58771</v>
+        <v>15526</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5695,14 +5660,14 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -5712,11 +5677,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>27-06-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-13.39032407407407</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
         <v>1</v>
@@ -5724,46 +5689,46 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252999</v>
+        <v>253393</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>07-07-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E68" t="n">
-        <v>325.8416666666666</v>
+        <v>77.63333333333334</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10-07-2025 09:22:04</t>
+          <t>12-09-2025 14:31:39</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10-07-2025 10:02:04</t>
+          <t>12-09-2025 14:56:39</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>10-07-2025 10:02:04</t>
+          <t>12-09-2025 14:56:39</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>11-07-2025 07:27:54</t>
+          <t>15-09-2025 08:14:17</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>39101</v>
+        <v>9316</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5772,11 +5737,11 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N68" t="n">
         <v>70</v>
@@ -5789,58 +5754,58 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>06-08-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252638</v>
+        <v>253472</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>09-07-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E69" t="n">
-        <v>61.49166666666667</v>
+        <v>291.8</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11-07-2025 07:27:54</t>
+          <t>15-09-2025 08:14:17</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11-07-2025 08:07:54</t>
+          <t>15-09-2025 08:49:17</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>11-07-2025 08:07:54</t>
+          <t>15-09-2025 08:49:17</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>11-07-2025 09:09:24</t>
+          <t>15-09-2025 13:41:05</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>7379</v>
+        <v>35016</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5866,58 +5831,58 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>06-07-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-5.381527777777777</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252157</v>
+        <v>253525</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10-07-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E70" t="n">
-        <v>396.825</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>11-07-2025 09:09:24</t>
+          <t>15-09-2025 13:41:05</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11-07-2025 09:54:24</t>
+          <t>15-09-2025 14:21:05</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>11-07-2025 09:54:24</t>
+          <t>15-09-2025 14:21:05</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>14-07-2025 08:31:13</t>
+          <t>16-09-2025 07:53:14</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>47619</v>
+        <v>11057</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5926,11 +5891,11 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N70" t="n">
         <v>70</v>
@@ -5943,58 +5908,58 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>18-06-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-26.35501736111111</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252426</v>
+        <v>253371</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E71" t="n">
-        <v>184.2833333333333</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>14-07-2025 08:31:13</t>
+          <t>16-09-2025 07:53:14</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14-07-2025 09:31:13</t>
+          <t>16-09-2025 08:18:14</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>14-07-2025 09:31:13</t>
+          <t>16-09-2025 08:18:14</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>14-07-2025 12:35:30</t>
+          <t>16-09-2025 10:06:00</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>22114</v>
+        <v>12932</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6020,58 +5985,58 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>02-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-12.52465856481481</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252598</v>
+        <v>253376</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>11-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>25</v>
       </c>
       <c r="E72" t="n">
-        <v>149.625</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>14-07-2025 12:35:30</t>
+          <t>16-09-2025 10:06:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>14-07-2025 13:00:30</t>
+          <t>16-09-2025 10:31:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>14-07-2025 13:00:30</t>
+          <t>16-09-2025 10:31:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>15-07-2025 07:30:08</t>
+          <t>16-09-2025 13:30:36</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>17955</v>
+        <v>21553</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6097,58 +6062,58 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>10-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-5.312592592592592</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252576</v>
+        <v>253377</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14-07-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>25</v>
       </c>
       <c r="E73" t="n">
-        <v>374.0666666666667</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>15-07-2025 07:30:08</t>
+          <t>16-09-2025 13:30:36</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15-07-2025 07:55:08</t>
+          <t>16-09-2025 13:55:36</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>15-07-2025 07:55:08</t>
+          <t>16-09-2025 13:55:36</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>15-07-2025 14:09:12</t>
+          <t>17-09-2025 08:03:19</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>44888</v>
+        <v>15326</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6174,58 +6139,58 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>15-07-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-0.5897222222222223</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>252779</v>
+        <v>253295</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15-07-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E74" t="n">
-        <v>184.2833333333333</v>
+        <v>230.075</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>15-07-2025 14:09:12</t>
+          <t>17-09-2025 08:03:19</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15-07-2025 14:34:12</t>
+          <t>17-09-2025 08:43:19</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>15-07-2025 14:34:12</t>
+          <t>17-09-2025 08:43:19</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>16-07-2025 09:38:29</t>
+          <t>17-09-2025 12:33:24</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>22114</v>
+        <v>27609</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6234,31 +6199,1593 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N74" t="n">
         <v>70</v>
       </c>
-      <c r="P74" t="n">
-        <v>0</v>
+      <c r="O74" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>21-07-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>0</v>
+        <v>-5.523194444444444</v>
       </c>
       <c r="T74" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>253368</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>40</v>
+      </c>
+      <c r="E75" t="n">
+        <v>103.775</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>17-09-2025 12:33:24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:13:24</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:13:24</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>17-09-2025 14:57:10</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>12453</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>70</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>253367</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>25</v>
+      </c>
+      <c r="E76" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>17-09-2025 14:57:10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>18-09-2025 07:22:10</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>18-09-2025 07:22:10</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>18-09-2025 09:37:52</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>16284</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>70</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>252397</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>40</v>
+      </c>
+      <c r="E77" t="n">
+        <v>115.925</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>18-09-2025 09:37:52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>18-09-2025 10:17:52</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>18-09-2025 10:17:52</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>18-09-2025 12:13:48</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>13911</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="n">
+        <v>76</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>253602</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>30</v>
+      </c>
+      <c r="E78" t="n">
+        <v>117.0833333333333</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>18-09-2025 12:13:48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>18-09-2025 12:43:48</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>18-09-2025 12:43:48</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>18-09-2025 14:40:53</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>14050</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="n">
+        <v>76</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>-8.611724537037038</v>
+      </c>
+      <c r="T78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>253244</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>35</v>
+      </c>
+      <c r="E79" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>18-09-2025 14:40:53</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>19-09-2025 07:15:53</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>19-09-2025 07:15:53</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>19-09-2025 10:02:23</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>19980</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="n">
+        <v>70</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>-9.418321759259259</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>253549</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>35</v>
+      </c>
+      <c r="E80" t="n">
+        <v>163.6666666666667</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>19-09-2025 10:02:23</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>19-09-2025 10:37:23</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>19-09-2025 10:37:23</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>19-09-2025 13:21:03</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>19640</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>6</v>
+      </c>
+      <c r="N80" t="n">
+        <v>70</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>253455</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>35</v>
+      </c>
+      <c r="E81" t="n">
+        <v>55.55833333333333</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>19-09-2025 13:21:03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>19-09-2025 13:56:03</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>19-09-2025 13:56:03</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>19-09-2025 14:51:36</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>6667</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="n">
+        <v>70</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>08-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>-11.6191724537037</v>
+      </c>
+      <c r="T81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>253261</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>35</v>
+      </c>
+      <c r="E82" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>19-09-2025 14:51:36</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>22-09-2025 07:26:36</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>22-09-2025 07:26:36</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>22-09-2025 07:45:27</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>2262</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>6</v>
+      </c>
+      <c r="N82" t="n">
+        <v>70</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>25-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>-28.3232349537037</v>
+      </c>
+      <c r="T82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>253436</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>25</v>
+      </c>
+      <c r="E83" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>22-09-2025 07:45:27</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>22-09-2025 08:10:27</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>22-09-2025 08:10:27</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>22-09-2025 08:29:18</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>2262</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>6</v>
+      </c>
+      <c r="N83" t="n">
+        <v>70</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>-12.35368634259259</v>
+      </c>
+      <c r="T83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>244743</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>40</v>
+      </c>
+      <c r="E84" t="n">
+        <v>29.34166666666667</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>22-09-2025 08:29:18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>22-09-2025 09:09:18</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>22-09-2025 09:09:18</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>22-09-2025 09:38:39</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>3521</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="n">
+        <v>70</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>25-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>-28.40184027777778</v>
+      </c>
+      <c r="T84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>252741</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>35</v>
+      </c>
+      <c r="E85" t="n">
+        <v>61.49166666666667</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>22-09-2025 09:38:39</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>22-09-2025 10:13:39</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>22-09-2025 10:13:39</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>22-09-2025 11:15:08</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>7379</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="n">
+        <v>70</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>24-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>252702</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>35</v>
+      </c>
+      <c r="E86" t="n">
+        <v>58.38333333333333</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:33:23</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>7006</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="n">
+        <v>152</v>
+      </c>
+      <c r="O86" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>04-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>253362</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>25</v>
+      </c>
+      <c r="E87" t="n">
+        <v>58.38333333333333</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:33:23</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:58:23</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:58:23</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:56:46</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>7006</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="n">
+        <v>152</v>
+      </c>
+      <c r="O87" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>40295</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>15-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>253194</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>27-08-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>40</v>
+      </c>
+      <c r="E88" t="n">
+        <v>199.0833333333333</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:56:46</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:36:46</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:36:46</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:55:51</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>23890</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="n">
+        <v>76</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>20-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S88" s="1" t="n">
+        <v>-16.58045138888889</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>252664</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>03-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>35</v>
+      </c>
+      <c r="E89" t="n">
+        <v>365.975</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:55:51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:30:51</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:30:51</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:36:49</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>43917</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="n">
+        <v>70</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>40279 (esterno)</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>40279</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>02-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S89" s="1" t="n">
+        <v>-6.525572916666667</v>
+      </c>
+      <c r="T89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>253267</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>35</v>
+      </c>
+      <c r="E90" t="n">
+        <v>164.3666666666667</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:36:49</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:11:49</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:11:49</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:56:11</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>19724</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="n">
+        <v>70</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>23-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>250284</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>17-03-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>45</v>
+      </c>
+      <c r="E91" t="n">
+        <v>146.35</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:56:11</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:41:11</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:41:11</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:07:32</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>17562</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>8</v>
+      </c>
+      <c r="N91" t="n">
+        <v>70</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>12-03-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S91" s="1" t="n">
+        <v>-181.4635706018518</v>
+      </c>
+      <c r="T91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>253359</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>08-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>50</v>
+      </c>
+      <c r="E92" t="n">
+        <v>134.0166666666667</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:07:32</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:57:32</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:57:32</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:11:33</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>16082</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="n">
+        <v>70</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>11-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>253245</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>30</v>
+      </c>
+      <c r="E93" t="n">
+        <v>150.8333333333333</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:11:33</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:41:33</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:41:33</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>10-09-2025 09:12:23</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>18100</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="n">
+        <v>70</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S93" s="1" t="n">
+        <v>-0.383605324074074</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>252980</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>03-09-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>17.075</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:17:04</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>08-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S94" s="1" t="n">
+        <v>-0.3035243055555555</v>
+      </c>
+      <c r="T94" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/schedulazione.xlsx
+++ b/PS-VRP/Dati_output/schedulazione.xlsx
@@ -548,7 +548,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253409</v>
+        <v>243569</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -557,14 +557,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>27.18333333333333</v>
+        <v>21.675</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -583,11 +583,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:11</t>
+          <t>08-09-2025 07:38:40</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3262</v>
+        <v>2601</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -606,7 +606,7 @@
         <v>76</v>
       </c>
       <c r="O2" t="n">
-        <v>40299</v>
+        <v>40904</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -616,19 +616,19 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-0.3223495370370371</v>
+        <v>-374</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252815</v>
+        <v>253375</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -637,37 +637,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>242.9416666666667</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:11</t>
+          <t>08-09-2025 07:38:40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:09:11</t>
+          <t>08-09-2025 08:10:40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:09:11</t>
+          <t>08-09-2025 08:10:40</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 12:12:07</t>
+          <t>08-09-2025 09:02:33</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>29153</v>
+        <v>6226</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -676,14 +676,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O3" t="n">
+        <v>40904</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -693,19 +696,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-3.508420138888889</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253072</v>
+        <v>253370</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -714,37 +717,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>29.13333333333333</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 12:12:07</t>
+          <t>08-09-2025 09:02:33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 12:46:07</t>
+          <t>08-09-2025 09:17:33</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 12:46:07</t>
+          <t>08-09-2025 09:17:33</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 13:15:15</t>
+          <t>08-09-2025 12:45:06</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3496</v>
+        <v>24905</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -753,15 +756,18 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
         <v>70</v>
       </c>
+      <c r="O4" t="n">
+        <v>40904</v>
+      </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
@@ -770,19 +776,19 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-21.55226273148148</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>253710</v>
+        <v>253525</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -791,37 +797,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>1.616666666666667</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:15:15</t>
+          <t>08-09-2025 12:45:06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:36:15</t>
+          <t>08-09-2025 13:00:06</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:36:15</t>
+          <t>08-09-2025 13:00:06</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:37:52</t>
+          <t>08-09-2025 14:32:14</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>194</v>
+        <v>11057</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -830,15 +836,18 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>70</v>
       </c>
+      <c r="O5" t="n">
+        <v>40904</v>
+      </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
@@ -847,19 +856,19 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>253527</v>
+        <v>253246</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -868,37 +877,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>67.48333333333333</v>
+        <v>194.25</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:37:52</t>
+          <t>08-09-2025 14:32:14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:56:52</t>
+          <t>08-09-2025 14:51:14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:56:52</t>
+          <t>08-09-2025 14:51:14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09-09-2025 07:04:21</t>
+          <t>09-09-2025 10:05:29</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>8098</v>
+        <v>23310</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -911,11 +920,14 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
         <v>70</v>
       </c>
+      <c r="O6" t="n">
+        <v>40900</v>
+      </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
@@ -924,19 +936,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>253278</v>
+        <v>253100</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -949,33 +961,33 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>28.425</v>
+        <v>47.35</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:04:21</t>
+          <t>09-09-2025 10:05:29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:25:21</t>
+          <t>09-09-2025 10:20:29</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:25:21</t>
+          <t>09-09-2025 10:20:29</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:53:47</t>
+          <t>09-09-2025 11:07:50</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3411</v>
+        <v>5682</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -988,11 +1000,14 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
       </c>
+      <c r="O7" t="n">
+        <v>40900</v>
+      </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
@@ -1001,19 +1016,19 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253687</v>
+        <v>252815</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1022,37 +1037,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>44.23333333333333</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 07:53:47</t>
+          <t>09-09-2025 11:07:50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:10:47</t>
+          <t>09-09-2025 11:45:50</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:10:47</t>
+          <t>09-09-2025 11:45:50</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:55:01</t>
+          <t>10-09-2025 07:48:47</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>5308</v>
+        <v>29153</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1061,14 +1076,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1078,19 +1093,19 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-5.325543981481482</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>253271</v>
+        <v>253095</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1103,33 +1118,33 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>42.63333333333333</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 08:55:01</t>
+          <t>10-09-2025 07:48:47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 09:12:01</t>
+          <t>10-09-2025 08:30:47</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 09:12:01</t>
+          <t>10-09-2025 08:30:47</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09-09-2025 09:54:39</t>
+          <t>10-09-2025 09:47:06</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>5116</v>
+        <v>9158</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1138,11 +1153,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
         <v>70</v>
@@ -1155,58 +1170,58 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-4.412951388888889</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>253686</v>
+        <v>253361</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E10" t="n">
-        <v>44.23333333333333</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 09:54:39</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 10:11:39</t>
+          <t>08-09-2025 07:42:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-09-2025 10:11:39</t>
+          <t>08-09-2025 07:42:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:53</t>
+          <t>08-09-2025 08:58:42</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5308</v>
+        <v>9205</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1215,15 +1230,18 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
         <v>70</v>
       </c>
+      <c r="O10" t="n">
+        <v>40904</v>
+      </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
@@ -1232,11 +1250,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1244,46 +1262,46 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253374</v>
+        <v>253376</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>59.60833333333333</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:53</t>
+          <t>08-09-2025 08:58:42</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-09-2025 11:12:53</t>
+          <t>08-09-2025 09:23:42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-09-2025 11:12:53</t>
+          <t>08-09-2025 09:23:42</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>09-09-2025 12:12:29</t>
+          <t>08-09-2025 12:23:19</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>7153</v>
+        <v>21553</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1292,15 +1310,18 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>70</v>
       </c>
+      <c r="O11" t="n">
+        <v>40904</v>
+      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
@@ -1321,7 +1342,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252833</v>
+        <v>253371</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1330,37 +1351,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>74.78333333333333</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>08-09-2025 12:23:19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:00</t>
+          <t>08-09-2025 12:48:19</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-09-2025 07:44:00</t>
+          <t>08-09-2025 12:48:19</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:47</t>
+          <t>08-09-2025 14:36:05</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>8974</v>
+        <v>12932</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1369,15 +1390,18 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
         <v>70</v>
       </c>
+      <c r="O12" t="n">
+        <v>40904</v>
+      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
@@ -1386,19 +1410,19 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-13.37415509259259</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253140</v>
+        <v>253372</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1407,37 +1431,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>55.83333333333334</v>
+        <v>103.775</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:47</t>
+          <t>08-09-2025 14:36:05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-09-2025 09:42:47</t>
+          <t>09-09-2025 07:01:05</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-09-2025 09:42:47</t>
+          <t>09-09-2025 07:01:05</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>08-09-2025 10:38:37</t>
+          <t>09-09-2025 08:44:51</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>6700</v>
+        <v>12453</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1446,14 +1470,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O13" t="n">
+        <v>40904</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1463,11 +1490,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-13.4434837962963</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
@@ -1475,7 +1502,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252906</v>
+        <v>253368</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1484,37 +1511,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>34.725</v>
+        <v>103.775</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-09-2025 10:38:37</t>
+          <t>09-09-2025 08:44:51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-09-2025 11:05:37</t>
+          <t>09-09-2025 09:09:51</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-09-2025 11:05:37</t>
+          <t>09-09-2025 09:09:51</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>08-09-2025 11:40:20</t>
+          <t>09-09-2025 10:53:38</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>4167</v>
+        <v>12453</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1523,14 +1550,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O14" t="n">
+        <v>40904</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1540,19 +1570,19 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-14.48634837962963</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253721</v>
+        <v>253367</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1561,37 +1591,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>39.39166666666667</v>
+        <v>135.7</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-09-2025 11:40:20</t>
+          <t>09-09-2025 10:53:38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-09-2025 12:22:20</t>
+          <t>09-09-2025 11:18:38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-09-2025 12:22:20</t>
+          <t>09-09-2025 11:18:38</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>08-09-2025 13:01:44</t>
+          <t>09-09-2025 13:34:20</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>4727</v>
+        <v>16284</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1600,15 +1630,18 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>70</v>
       </c>
+      <c r="O15" t="n">
+        <v>40904</v>
+      </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
@@ -1617,7 +1650,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -1629,7 +1662,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>244023</v>
+        <v>253377</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1638,37 +1671,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>8.308333333333334</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-09-2025 13:01:44</t>
+          <t>09-09-2025 13:34:20</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08-09-2025 13:32:44</t>
+          <t>09-09-2025 13:59:20</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08-09-2025 13:32:44</t>
+          <t>09-09-2025 13:59:20</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>08-09-2025 13:41:02</t>
+          <t>10-09-2025 08:07:03</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>997</v>
+        <v>15326</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1677,15 +1710,18 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
         <v>70</v>
       </c>
+      <c r="O16" t="n">
+        <v>40904</v>
+      </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
@@ -1694,11 +1730,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-343.5701678240741</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
@@ -1706,7 +1742,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253659</v>
+        <v>253401</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1715,37 +1751,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>323.75</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>08-09-2025 13:41:02</t>
+          <t>10-09-2025 08:07:03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08-09-2025 14:08:02</t>
+          <t>10-09-2025 08:34:03</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08-09-2025 14:08:02</t>
+          <t>10-09-2025 08:34:03</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>09-09-2025 11:31:47</t>
+          <t>10-09-2025 08:56:52</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>38850</v>
+        <v>2738</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1758,11 +1794,14 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>70</v>
       </c>
+      <c r="O17" t="n">
+        <v>40904</v>
+      </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
@@ -1771,58 +1810,58 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253246</v>
+        <v>253259</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>194.25</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-09-2025 11:31:47</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09-09-2025 11:58:47</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09-09-2025 11:58:47</t>
+          <t>05-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10-09-2025 07:13:02</t>
+          <t>05-09-2025 08:26:14</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>23310</v>
+        <v>8308</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1831,75 +1870,80 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
         <v>70</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
+      <c r="O18" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.3007233796296296</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253100</v>
+        <v>253016</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E19" t="n">
-        <v>47.35</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10-09-2025 07:13:02</t>
+          <t>05-09-2025 08:26:14</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10-09-2025 07:38:02</t>
+          <t>05-09-2025 08:58:14</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10-09-2025 07:38:02</t>
+          <t>05-09-2025 08:58:14</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>10-09-2025 08:25:23</t>
+          <t>05-09-2025 10:11:37</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>5682</v>
+        <v>8806</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1908,36 +1952,41 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>70</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O19" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-2.350966435185185</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>253016</v>
+        <v>253362</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1946,37 +1995,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>73.38333333333334</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 10:11:37</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05-09-2025 07:32:00</t>
+          <t>05-09-2025 10:28:37</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05-09-2025 07:32:00</t>
+          <t>05-09-2025 10:28:37</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>05-09-2025 08:45:23</t>
+          <t>05-09-2025 11:27:00</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>8806</v>
+        <v>7006</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1989,7 +2038,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
         <v>152</v>
@@ -2007,7 +2056,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>15-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -2019,7 +2068,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>253314</v>
+        <v>252679</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2028,37 +2077,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>34</v>
       </c>
       <c r="E21" t="n">
-        <v>43.40833333333333</v>
+        <v>60</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05-09-2025 08:45:23</t>
+          <t>05-09-2025 11:27:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05-09-2025 09:19:23</t>
+          <t>05-09-2025 12:01:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>05-09-2025 09:19:23</t>
+          <t>05-09-2025 12:01:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>05-09-2025 10:02:47</t>
+          <t>05-09-2025 13:01:00</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>5209</v>
+        <v>7200</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2071,7 +2120,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
         <v>76</v>
@@ -2089,7 +2138,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -2101,7 +2150,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>253591</v>
+        <v>252682</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2117,30 +2166,30 @@
         <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>17.41666666666667</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>05-09-2025 10:02:47</t>
+          <t>05-09-2025 13:01:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05-09-2025 10:19:47</t>
+          <t>05-09-2025 13:18:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>05-09-2025 10:19:47</t>
+          <t>05-09-2025 13:18:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>05-09-2025 10:37:12</t>
+          <t>05-09-2025 14:41:24</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2090</v>
+        <v>10009</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2149,11 +2198,11 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
         <v>76</v>
@@ -2171,7 +2220,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -2183,7 +2232,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252685</v>
+        <v>253140</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2199,30 +2248,30 @@
         <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>74.56666666666666</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05-09-2025 10:37:12</t>
+          <t>05-09-2025 14:41:24</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05-09-2025 10:54:12</t>
+          <t>05-09-2025 14:58:24</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>05-09-2025 10:54:12</t>
+          <t>05-09-2025 14:58:24</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>05-09-2025 12:08:46</t>
+          <t>08-09-2025 07:54:14</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>8948</v>
+        <v>6700</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2235,37 +2284,35 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>76</v>
       </c>
       <c r="O23" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40900</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252569</v>
+        <v>253318</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2278,33 +2325,33 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>9.583333333333334</v>
+        <v>51.55</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>05-09-2025 12:08:46</t>
+          <t>08-09-2025 07:54:14</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05-09-2025 12:25:46</t>
+          <t>08-09-2025 08:13:14</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>05-09-2025 12:25:46</t>
+          <t>08-09-2025 08:13:14</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>05-09-2025 12:35:21</t>
+          <t>08-09-2025 09:04:47</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1150</v>
+        <v>6186</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2322,6 +2369,9 @@
       <c r="N24" t="n">
         <v>76</v>
       </c>
+      <c r="O24" t="n">
+        <v>40910</v>
+      </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
@@ -2330,11 +2380,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-4.524554398148148</v>
+        <v>-13</v>
       </c>
       <c r="T24" t="n">
         <v>1</v>
@@ -2342,7 +2392,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252843</v>
+        <v>253317</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2355,33 +2405,33 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>19.2</v>
+        <v>102.775</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>05-09-2025 12:35:21</t>
+          <t>08-09-2025 09:04:47</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05-09-2025 13:02:21</t>
+          <t>08-09-2025 09:19:47</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>05-09-2025 13:02:21</t>
+          <t>08-09-2025 09:19:47</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>05-09-2025 13:21:33</t>
+          <t>08-09-2025 11:02:34</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2304</v>
+        <v>12333</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2394,11 +2444,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
         <v>76</v>
       </c>
+      <c r="O25" t="n">
+        <v>40910</v>
+      </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
@@ -2407,19 +2460,19 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-37.55663773148148</v>
+        <v>-13</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253284</v>
+        <v>253425</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2428,37 +2481,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
-        <v>56.99166666666667</v>
+        <v>146.35</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>05-09-2025 13:21:33</t>
+          <t>08-09-2025 11:02:34</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05-09-2025 13:46:33</t>
+          <t>08-09-2025 11:21:34</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>05-09-2025 13:46:33</t>
+          <t>08-09-2025 11:21:34</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>05-09-2025 14:43:33</t>
+          <t>08-09-2025 13:47:55</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>6839</v>
+        <v>17562</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2471,14 +2524,11 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="n">
         <v>76</v>
       </c>
-      <c r="O26" t="n">
-        <v>40299</v>
-      </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
@@ -2487,19 +2537,19 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>-10.57494212962963</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252827</v>
+        <v>244023</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2508,37 +2558,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E27" t="n">
-        <v>410</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>05-09-2025 14:43:33</t>
+          <t>08-09-2025 13:47:55</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-09-2025 07:02:33</t>
+          <t>08-09-2025 14:19:55</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-09-2025 07:02:33</t>
+          <t>08-09-2025 14:19:55</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>08-09-2025 13:52:33</t>
+          <t>08-09-2025 14:28:13</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>49200</v>
+        <v>997</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2547,14 +2597,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2564,19 +2614,19 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-4.578159722222222</v>
+        <v>-343.6029340277778</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253259</v>
+        <v>250891</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2585,37 +2635,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>69.23333333333333</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-09-2025 13:52:33</t>
+          <t>08-09-2025 14:28:13</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-09-2025 14:24:33</t>
+          <t>08-09-2025 14:45:13</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-09-2025 14:24:33</t>
+          <t>08-09-2025 14:45:13</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>09-09-2025 07:33:47</t>
+          <t>09-09-2025 08:02:43</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>8308</v>
+        <v>9299</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2624,41 +2674,39 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N28" t="n">
         <v>70</v>
       </c>
       <c r="O28" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40910</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-1.315127314814815</v>
+        <v>-39</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253095</v>
+        <v>253278</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2667,37 +2715,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>76.31666666666666</v>
+        <v>28.425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-09-2025 07:33:47</t>
+          <t>09-09-2025 08:02:43</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-09-2025 07:50:47</t>
+          <t>09-09-2025 08:19:43</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-09-2025 07:50:47</t>
+          <t>09-09-2025 08:19:43</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>09-09-2025 09:07:06</t>
+          <t>09-09-2025 08:48:08</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>9158</v>
+        <v>3411</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2706,15 +2754,18 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N29" t="n">
         <v>70</v>
       </c>
+      <c r="O29" t="n">
+        <v>40904</v>
+      </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
@@ -2727,15 +2778,15 @@
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253375</v>
+        <v>253072</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2748,33 +2799,33 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>51.88333333333333</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-09-2025 09:07:06</t>
+          <t>09-09-2025 08:48:08</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-09-2025 09:24:06</t>
+          <t>09-09-2025 09:03:08</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-09-2025 09:24:06</t>
+          <t>09-09-2025 09:03:08</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>09-09-2025 10:15:59</t>
+          <t>09-09-2025 09:32:16</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>6226</v>
+        <v>3496</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2783,15 +2834,18 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N30" t="n">
         <v>70</v>
       </c>
+      <c r="O30" t="n">
+        <v>40904</v>
+      </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
@@ -2800,19 +2854,19 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253361</v>
+        <v>253271</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2821,37 +2875,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>76.70833333333333</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-09-2025 10:15:59</t>
+          <t>09-09-2025 09:32:16</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09-09-2025 10:30:59</t>
+          <t>09-09-2025 09:47:16</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-09-2025 10:30:59</t>
+          <t>09-09-2025 09:47:16</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>09-09-2025 11:47:41</t>
+          <t>09-09-2025 10:29:54</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>9205</v>
+        <v>5116</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2860,15 +2914,18 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N31" t="n">
         <v>70</v>
       </c>
+      <c r="O31" t="n">
+        <v>40904</v>
+      </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
@@ -2877,19 +2934,19 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253372</v>
+        <v>253374</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2898,37 +2955,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E32" t="n">
-        <v>103.775</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-09-2025 11:47:41</t>
+          <t>09-09-2025 10:29:54</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09-09-2025 12:02:41</t>
+          <t>09-09-2025 10:48:54</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-09-2025 12:02:41</t>
+          <t>09-09-2025 10:48:54</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>09-09-2025 13:46:28</t>
+          <t>09-09-2025 11:48:31</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>12453</v>
+        <v>7153</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2937,15 +2994,18 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
         <v>70</v>
       </c>
+      <c r="O32" t="n">
+        <v>40904</v>
+      </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
@@ -2966,7 +3026,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253401</v>
+        <v>253359</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2975,37 +3035,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>22.81666666666667</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-09-2025 13:46:28</t>
+          <t>09-09-2025 11:48:31</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09-09-2025 14:03:28</t>
+          <t>09-09-2025 12:05:31</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09-09-2025 14:03:28</t>
+          <t>09-09-2025 12:05:31</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>09-09-2025 14:26:17</t>
+          <t>09-09-2025 14:19:32</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>2738</v>
+        <v>16082</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3023,6 +3083,9 @@
       <c r="N33" t="n">
         <v>70</v>
       </c>
+      <c r="O33" t="n">
+        <v>40904</v>
+      </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
@@ -3031,19 +3094,19 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="T33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>235572</v>
+        <v>253268</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3052,37 +3115,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>82.98333333333333</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-09-2025 14:26:17</t>
+          <t>09-09-2025 14:19:32</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-09-2025 14:45:17</t>
+          <t>09-09-2025 14:36:32</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-09-2025 14:45:17</t>
+          <t>09-09-2025 14:36:32</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10-09-2025 08:08:16</t>
+          <t>10-09-2025 07:55:05</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>9958</v>
+        <v>9427</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3095,7 +3158,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
         <v>70</v>
@@ -3108,11 +3171,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-674.3390740740741</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>4</v>
@@ -3120,7 +3183,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>253260</v>
+        <v>253267</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3129,37 +3192,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>109.4083333333333</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10-09-2025 08:08:16</t>
+          <t>10-09-2025 07:55:05</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10-09-2025 08:25:16</t>
+          <t>10-09-2025 08:10:05</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>10-09-2025 08:25:16</t>
+          <t>10-09-2025 08:10:05</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10-09-2025 10:14:40</t>
+          <t>10-09-2025 10:54:27</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>13129</v>
+        <v>19724</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3185,58 +3248,58 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-16.42685763888889</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253370</v>
+        <v>252601</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>19</v>
+        <v>56.5</v>
       </c>
       <c r="E36" t="n">
-        <v>207.5416666666667</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10-09-2025 10:14:40</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10-09-2025 10:33:40</t>
+          <t>09-09-2025 07:56:30</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>10-09-2025 10:33:40</t>
+          <t>09-09-2025 07:56:30</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10-09-2025 14:01:13</t>
+          <t>09-09-2025 08:47:42</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>24905</v>
+        <v>6145</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3245,11 +3308,11 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N36" t="n">
         <v>70</v>
@@ -3262,58 +3325,58 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252529</v>
+        <v>252216</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>32</v>
+        <v>38.5</v>
       </c>
       <c r="E37" t="n">
-        <v>68.08333333333333</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10-09-2025 14:01:13</t>
+          <t>09-09-2025 08:47:42</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10-09-2025 14:33:13</t>
+          <t>09-09-2025 09:26:12</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>10-09-2025 14:33:13</t>
+          <t>09-09-2025 09:26:12</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>11-09-2025 07:41:18</t>
+          <t>09-09-2025 11:48:01</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>8170</v>
+        <v>17017</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3322,14 +3385,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O37" t="n">
+        <v>40910</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3339,19 +3405,19 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-6.320347222222222</v>
+        <v>-27</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252939</v>
+        <v>252833</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3360,37 +3426,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>34.5</v>
+        <v>44.5</v>
       </c>
       <c r="E38" t="n">
-        <v>89.8</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>09-09-2025 11:48:01</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>09-09-2025 12:32:31</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>09-09-2025 12:32:31</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>09-09-2025 09:04:18</t>
+          <t>09-09-2025 13:47:18</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>10776</v>
+        <v>8974</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3416,19 +3482,19 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-18.37798611111111</v>
+        <v>-14.57451388888889</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>253268</v>
+        <v>252939</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3437,37 +3503,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="E39" t="n">
-        <v>78.55833333333334</v>
+        <v>89.8</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-09-2025 09:04:18</t>
+          <t>09-09-2025 13:47:18</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-09-2025 09:36:48</t>
+          <t>09-09-2025 14:21:48</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-09-2025 09:36:48</t>
+          <t>09-09-2025 14:21:48</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:21</t>
+          <t>10-09-2025 07:51:36</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>9427</v>
+        <v>10776</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3480,7 +3546,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
         <v>70</v>
@@ -3493,19 +3559,19 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0</v>
+        <v>-19.3275</v>
       </c>
       <c r="T39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>253223</v>
+        <v>253332</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3514,37 +3580,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>48.5</v>
+        <v>32.5</v>
       </c>
       <c r="E40" t="n">
-        <v>16.4</v>
+        <v>184.825</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:21</t>
+          <t>10-09-2025 07:51:36</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:51</t>
+          <t>10-09-2025 08:24:06</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-09-2025 11:43:51</t>
+          <t>10-09-2025 08:24:06</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>09-09-2025 12:00:15</t>
+          <t>10-09-2025 11:28:55</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1968</v>
+        <v>22179</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3553,11 +3619,11 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N40" t="n">
         <v>70</v>
@@ -3570,11 +3636,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-8.500179398148148</v>
+        <v>-0.4784201388888889</v>
       </c>
       <c r="T40" t="n">
         <v>7</v>
@@ -3582,7 +3648,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252601</v>
+        <v>253710</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3591,37 +3657,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>32.5</v>
       </c>
       <c r="E41" t="n">
-        <v>51.20833333333334</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09-09-2025 12:00:15</t>
+          <t>10-09-2025 11:28:55</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09-09-2025 12:32:45</t>
+          <t>10-09-2025 12:01:25</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>09-09-2025 12:32:45</t>
+          <t>10-09-2025 12:01:25</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>09-09-2025 13:23:58</t>
+          <t>10-09-2025 12:03:02</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>6145</v>
+        <v>194</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3630,11 +3696,11 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
         <v>70</v>
@@ -3647,19 +3713,19 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
-        <v>0</v>
+        <v>-0.5021122685185185</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252002</v>
+        <v>253314</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3668,14 +3734,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>55</v>
       </c>
       <c r="E42" t="n">
-        <v>55.675</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -3694,11 +3760,11 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>04-09-2025 13:38:24</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>6681</v>
+        <v>5209</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3707,19 +3773,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>70</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O42" t="n">
+        <v>40295</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -3727,15 +3791,15 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>40307</v>
+        <v>40295</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-10.57685763888889</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>4</v>
@@ -3743,7 +3807,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252582</v>
+        <v>252002</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3752,37 +3816,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E43" t="n">
-        <v>46.08333333333334</v>
+        <v>55.675</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>04-09-2025 13:38:24</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04-09-2025 14:30:40</t>
+          <t>04-09-2025 14:28:24</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>04-09-2025 14:30:40</t>
+          <t>04-09-2025 14:28:24</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>05-09-2025 07:16:45</t>
+          <t>05-09-2025 07:24:05</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>5530</v>
+        <v>6681</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3791,17 +3855,19 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N43" t="n">
-        <v>76</v>
-      </c>
-      <c r="O43" t="n">
-        <v>40290</v>
+        <v>70</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3809,23 +3875,23 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>40290</v>
+        <v>40307</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0</v>
+        <v>-11.3083912037037</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>253313</v>
+        <v>252582</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3838,33 +3904,33 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E44" t="n">
-        <v>100.0083333333333</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>05-09-2025 07:16:45</t>
+          <t>05-09-2025 07:24:05</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05-09-2025 07:46:45</t>
+          <t>05-09-2025 08:04:05</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>05-09-2025 07:46:45</t>
+          <t>05-09-2025 08:04:05</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>05-09-2025 09:26:46</t>
+          <t>05-09-2025 08:50:10</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>12001</v>
+        <v>5530</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3877,24 +3943,29 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" t="n">
         <v>76</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
+      <c r="O44" t="n">
+        <v>40290</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.3935879629629629</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>1</v>
@@ -3902,7 +3973,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252679</v>
+        <v>252685</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3918,30 +3989,30 @@
         <v>30</v>
       </c>
       <c r="E45" t="n">
-        <v>60</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>05-09-2025 09:26:46</t>
+          <t>05-09-2025 08:50:10</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05-09-2025 09:56:46</t>
+          <t>05-09-2025 09:20:10</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>05-09-2025 09:56:46</t>
+          <t>05-09-2025 09:20:10</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>05-09-2025 10:56:46</t>
+          <t>05-09-2025 10:34:44</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>7200</v>
+        <v>8948</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3954,7 +4025,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" t="n">
         <v>76</v>
@@ -3984,7 +4055,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>253317</v>
+        <v>253721</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3993,37 +4064,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E46" t="n">
-        <v>102.775</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>05-09-2025 10:56:46</t>
+          <t>05-09-2025 10:34:44</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05-09-2025 11:31:46</t>
+          <t>05-09-2025 11:14:44</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>05-09-2025 11:31:46</t>
+          <t>05-09-2025 11:14:44</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>05-09-2025 13:14:32</t>
+          <t>05-09-2025 11:54:07</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>12333</v>
+        <v>4727</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4032,17 +4103,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O46" t="n">
-        <v>40299</v>
+        <v>40900</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4052,7 +4123,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
@@ -4064,7 +4135,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252682</v>
+        <v>253313</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4077,33 +4148,33 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E47" t="n">
-        <v>83.40833333333333</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>05-09-2025 13:14:32</t>
+          <t>05-09-2025 11:54:07</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>05-09-2025 13:44:32</t>
+          <t>05-09-2025 12:34:07</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>05-09-2025 13:44:32</t>
+          <t>05-09-2025 12:34:07</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>08-09-2025 07:07:57</t>
+          <t>05-09-2025 14:14:08</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>10009</v>
+        <v>12001</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4122,26 +4193,24 @@
         <v>76</v>
       </c>
       <c r="O47" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40299</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-0.2971875</v>
+        <v>-3</v>
       </c>
       <c r="T47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -4166,22 +4235,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-09-2025 07:07:57</t>
+          <t>05-09-2025 14:14:08</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-09-2025 08:22:57</t>
+          <t>08-09-2025 07:29:08</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08-09-2025 08:22:57</t>
+          <t>08-09-2025 07:29:08</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>08-09-2025 12:30:15</t>
+          <t>08-09-2025 11:36:26</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -4203,6 +4272,9 @@
       <c r="N48" t="n">
         <v>70</v>
       </c>
+      <c r="O48" t="n">
+        <v>40900</v>
+      </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
@@ -4215,7 +4287,7 @@
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-10.52101273148148</v>
+        <v>-23</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -4223,7 +4295,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>253208</v>
+        <v>253527</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4232,37 +4304,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E49" t="n">
-        <v>104.2583333333333</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-09-2025 12:30:15</t>
+          <t>08-09-2025 11:36:26</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08-09-2025 13:00:15</t>
+          <t>08-09-2025 12:46:26</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08-09-2025 13:00:15</t>
+          <t>08-09-2025 12:46:26</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>08-09-2025 14:44:31</t>
+          <t>08-09-2025 13:53:55</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>12511</v>
+        <v>8098</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4271,15 +4343,18 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
         <v>70</v>
       </c>
+      <c r="O49" t="n">
+        <v>40910</v>
+      </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
@@ -4288,19 +4363,19 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-3.614247685185185</v>
+        <v>-9</v>
       </c>
       <c r="T49" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253210</v>
+        <v>253528</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4309,37 +4384,37 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>25</v>
       </c>
       <c r="E50" t="n">
-        <v>94.15833333333333</v>
+        <v>119.175</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-09-2025 14:44:31</t>
+          <t>08-09-2025 13:53:55</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-09-2025 07:09:31</t>
+          <t>08-09-2025 14:18:55</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-09-2025 07:09:31</t>
+          <t>08-09-2025 14:18:55</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>09-09-2025 08:43:40</t>
+          <t>09-09-2025 08:18:06</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>11299</v>
+        <v>14301</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4348,15 +4423,18 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N50" t="n">
         <v>70</v>
       </c>
+      <c r="O50" t="n">
+        <v>40910</v>
+      </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
@@ -4365,58 +4443,58 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>243569</v>
+        <v>253522</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E51" t="n">
-        <v>21.675</v>
+        <v>198.625</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>09-09-2025 08:18:06</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>09-09-2025 08:43:06</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>09-09-2025 08:43:06</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>08-09-2025 07:40:40</t>
+          <t>09-09-2025 12:01:43</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>2601</v>
+        <v>23835</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4425,14 +4503,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O51" t="n">
+        <v>40910</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -4442,58 +4523,58 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-357.3199131944444</v>
+        <v>-9</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>253318</v>
+        <v>253524</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E52" t="n">
-        <v>51.55</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-09-2025 07:40:40</t>
+          <t>09-09-2025 12:01:43</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-09-2025 07:59:40</t>
+          <t>09-09-2025 12:26:43</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-09-2025 07:59:40</t>
+          <t>09-09-2025 12:26:43</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>08-09-2025 08:51:13</t>
+          <t>09-09-2025 13:25:29</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>6186</v>
+        <v>7051</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4502,17 +4583,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
-        <v>40299</v>
+        <v>40910</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -4522,11 +4603,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.36890625</v>
+        <v>-9</v>
       </c>
       <c r="T52" t="n">
         <v>1</v>
@@ -4534,46 +4615,46 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>253249</v>
+        <v>252995</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E53" t="n">
-        <v>57.75833333333333</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-09-2025 08:51:13</t>
+          <t>09-09-2025 13:25:29</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08-09-2025 09:06:13</t>
+          <t>09-09-2025 14:10:29</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>08-09-2025 09:06:13</t>
+          <t>09-09-2025 14:10:29</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>08-09-2025 10:03:59</t>
+          <t>10-09-2025 07:18:48</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>6931</v>
+        <v>8198</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4599,58 +4680,58 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-9.304722222222223</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252995</v>
+        <v>253602</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E54" t="n">
-        <v>68.31666666666666</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>08-09-2025 10:03:59</t>
+          <t>10-09-2025 07:18:48</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08-09-2025 10:22:59</t>
+          <t>10-09-2025 07:53:48</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>08-09-2025 10:22:59</t>
+          <t>10-09-2025 07:53:48</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>08-09-2025 11:31:18</t>
+          <t>10-09-2025 09:50:53</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>8198</v>
+        <v>14050</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4663,7 +4744,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N54" t="n">
         <v>76</v>
@@ -4676,11 +4757,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-7.480069444444444</v>
+        <v>-0.4103356481481482</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4688,46 +4769,46 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>253425</v>
+        <v>253223</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E55" t="n">
-        <v>146.35</v>
+        <v>16.4</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08-09-2025 11:31:18</t>
+          <t>10-09-2025 09:50:53</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08-09-2025 11:50:18</t>
+          <t>10-09-2025 11:05:53</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>08-09-2025 11:50:18</t>
+          <t>10-09-2025 11:05:53</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>08-09-2025 14:16:39</t>
+          <t>10-09-2025 11:22:17</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>17562</v>
+        <v>1968</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4736,14 +4817,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -4753,58 +4834,58 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-10.59489583333333</v>
+        <v>-9.47380787037037</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>253706</v>
+        <v>253208</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="E56" t="n">
-        <v>311</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>08-09-2025 14:16:39</t>
+          <t>10-09-2025 11:22:17</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08-09-2025 14:37:39</t>
+          <t>10-09-2025 12:47:17</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08-09-2025 14:37:39</t>
+          <t>10-09-2025 12:47:17</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>09-09-2025 11:48:39</t>
+          <t>10-09-2025 14:31:32</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>37320</v>
+        <v>12511</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4813,75 +4894,75 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M56" t="n">
+        <v>13</v>
+      </c>
+      <c r="N56" t="n">
+        <v>70</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>05-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S56" s="1" t="n">
+        <v>-5.605237268518518</v>
+      </c>
+      <c r="T56" t="n">
         <v>8</v>
-      </c>
-      <c r="N56" t="n">
-        <v>76</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>30-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250891</v>
+        <v>253210</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E57" t="n">
-        <v>77.49166666666666</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>10-09-2025 14:31:32</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09-09-2025 07:40:00</t>
+          <t>10-09-2025 14:56:32</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>09-09-2025 07:40:00</t>
+          <t>10-09-2025 14:56:32</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>09-09-2025 08:57:29</t>
+          <t>11-09-2025 08:30:42</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>9299</v>
+        <v>11299</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4890,11 +4971,11 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N57" t="n">
         <v>70</v>
@@ -4907,58 +4988,58 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-27.37325810185185</v>
+        <v>-1.354652777777778</v>
       </c>
       <c r="T57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>253036</v>
+        <v>252529</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E58" t="n">
-        <v>78.73333333333333</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-09-2025 08:57:29</t>
+          <t>11-09-2025 08:30:42</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09-09-2025 09:37:29</t>
+          <t>11-09-2025 09:55:42</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>09-09-2025 09:37:29</t>
+          <t>11-09-2025 09:55:42</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>09-09-2025 10:56:13</t>
+          <t>11-09-2025 11:03:47</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>9448</v>
+        <v>8170</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4967,7 +5048,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -4984,58 +5065,58 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-18.45571180555556</v>
+        <v>-6.460960648148149</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252216</v>
+        <v>253261</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E59" t="n">
-        <v>141.8083333333333</v>
+        <v>18.85</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>09-09-2025 10:56:13</t>
+          <t>11-09-2025 11:03:47</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09-09-2025 12:01:13</t>
+          <t>11-09-2025 11:53:47</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>09-09-2025 12:01:13</t>
+          <t>11-09-2025 11:53:47</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>09-09-2025 14:23:02</t>
+          <t>11-09-2025 12:12:38</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>17017</v>
+        <v>2262</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5048,7 +5129,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N59" t="n">
         <v>70</v>
@@ -5065,54 +5146,54 @@
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-15.5993287037037</v>
+        <v>-17.50877314814815</v>
       </c>
       <c r="T59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>253524</v>
+        <v>253436</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E60" t="n">
-        <v>58.75833333333333</v>
+        <v>18.85</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-09-2025 14:23:02</t>
+          <t>11-09-2025 12:12:38</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10-09-2025 07:23:02</t>
+          <t>11-09-2025 12:37:38</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10-09-2025 07:23:02</t>
+          <t>11-09-2025 12:37:38</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>10-09-2025 08:21:47</t>
+          <t>11-09-2025 12:56:29</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>7051</v>
+        <v>2262</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5125,7 +5206,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N60" t="n">
         <v>70</v>
@@ -5138,58 +5219,58 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>-1.539224537037037</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>253247</v>
+        <v>244743</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E61" t="n">
-        <v>109.575</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10-09-2025 08:21:47</t>
+          <t>11-09-2025 12:56:29</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10-09-2025 08:51:47</t>
+          <t>11-09-2025 13:36:29</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10-09-2025 08:51:47</t>
+          <t>11-09-2025 13:36:29</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>10-09-2025 10:41:22</t>
+          <t>11-09-2025 14:05:49</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>13149</v>
+        <v>3521</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5202,7 +5283,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N61" t="n">
         <v>70</v>
@@ -5215,58 +5296,58 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-0.4453935185185185</v>
+        <v>-17.58737847222222</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>253332</v>
+        <v>253392</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>35</v>
       </c>
       <c r="E62" t="n">
-        <v>184.825</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10-09-2025 10:41:22</t>
+          <t>11-09-2025 14:05:49</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10-09-2025 11:16:22</t>
+          <t>11-09-2025 14:40:49</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10-09-2025 11:16:22</t>
+          <t>11-09-2025 14:40:49</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10-09-2025 14:21:11</t>
+          <t>12-09-2025 08:50:12</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>22179</v>
+        <v>15526</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5275,11 +5356,11 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N62" t="n">
         <v>70</v>
@@ -5292,58 +5373,58 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-0.5980497685185185</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>253668</v>
+        <v>252397</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E63" t="n">
-        <v>189.8666666666667</v>
+        <v>115.925</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10-09-2025 14:21:11</t>
+          <t>12-09-2025 08:50:12</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10-09-2025 14:46:11</t>
+          <t>12-09-2025 09:30:12</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>10-09-2025 14:46:11</t>
+          <t>12-09-2025 09:30:12</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>11-09-2025 09:56:03</t>
+          <t>12-09-2025 11:26:08</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>22784</v>
+        <v>13911</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5352,75 +5433,75 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="n">
+        <v>76</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>25-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
         <v>2</v>
-      </c>
-      <c r="N63" t="n">
-        <v>70</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>26-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253522</v>
+        <v>252274</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>30</v>
       </c>
       <c r="E64" t="n">
-        <v>198.625</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11-09-2025 09:56:03</t>
+          <t>12-09-2025 11:26:08</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11-09-2025 10:26:03</t>
+          <t>12-09-2025 11:56:08</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>11-09-2025 10:26:03</t>
+          <t>12-09-2025 11:56:08</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>11-09-2025 13:44:41</t>
+          <t>12-09-2025 14:49:33</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>23835</v>
+        <v>20810</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5429,14 +5510,14 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N64" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5446,58 +5527,58 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>0</v>
+        <v>-3.617743055555556</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253528</v>
+        <v>253393</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E65" t="n">
-        <v>119.175</v>
+        <v>77.63333333333334</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>11-09-2025 13:44:41</t>
+          <t>12-09-2025 14:49:33</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11-09-2025 14:09:41</t>
+          <t>15-09-2025 07:34:33</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>11-09-2025 14:09:41</t>
+          <t>15-09-2025 07:34:33</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>12-09-2025 08:08:51</t>
+          <t>15-09-2025 08:52:11</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>14301</v>
+        <v>9316</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5506,7 +5587,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -5523,7 +5604,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
@@ -5535,46 +5616,46 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252274</v>
+        <v>253549</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>40</v>
       </c>
       <c r="E66" t="n">
-        <v>173.4166666666667</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>12-09-2025 08:08:51</t>
+          <t>15-09-2025 08:52:11</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>12-09-2025 08:48:51</t>
+          <t>15-09-2025 09:32:11</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>12-09-2025 08:48:51</t>
+          <t>15-09-2025 09:32:11</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>12-09-2025 11:42:16</t>
+          <t>15-09-2025 12:15:51</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>20810</v>
+        <v>19640</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5583,14 +5664,14 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N66" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -5600,11 +5681,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-3.487690972222222</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
         <v>2</v>
@@ -5612,46 +5693,46 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>253392</v>
+        <v>253244</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E67" t="n">
-        <v>129.3833333333333</v>
+        <v>166.5</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>12-09-2025 11:42:16</t>
+          <t>15-09-2025 12:15:51</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12-09-2025 12:22:16</t>
+          <t>15-09-2025 12:50:51</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>12-09-2025 12:22:16</t>
+          <t>15-09-2025 12:50:51</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>12-09-2025 14:31:39</t>
+          <t>16-09-2025 07:37:21</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>15526</v>
+        <v>19980</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5660,11 +5741,11 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N67" t="n">
         <v>70</v>
@@ -5677,23 +5758,23 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-6.317604166666666</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>253393</v>
+        <v>253472</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5702,33 +5783,33 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>77.63333333333334</v>
+        <v>291.8</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>12-09-2025 14:31:39</t>
+          <t>16-09-2025 07:37:21</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12-09-2025 14:56:39</t>
+          <t>16-09-2025 08:07:21</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>12-09-2025 14:56:39</t>
+          <t>16-09-2025 08:07:21</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>15-09-2025 08:14:17</t>
+          <t>16-09-2025 12:59:09</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>9316</v>
+        <v>35016</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5737,11 +5818,11 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N68" t="n">
         <v>70</v>
@@ -5754,11 +5835,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
-        <v>0</v>
+        <v>-0.5410763888888889</v>
       </c>
       <c r="T68" t="n">
         <v>1</v>
@@ -5766,46 +5847,46 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>253472</v>
+        <v>253295</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E69" t="n">
-        <v>291.8</v>
+        <v>230.075</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>15-09-2025 08:14:17</t>
+          <t>16-09-2025 12:59:09</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>15-09-2025 08:49:17</t>
+          <t>16-09-2025 13:44:09</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>15-09-2025 08:49:17</t>
+          <t>16-09-2025 13:44:09</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>15-09-2025 13:41:05</t>
+          <t>17-09-2025 09:34:13</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>35016</v>
+        <v>27609</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5823,66 +5904,71 @@
       <c r="N69" t="n">
         <v>70</v>
       </c>
-      <c r="P69" t="n">
-        <v>0</v>
+      <c r="O69" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>0</v>
+        <v>-5.398767361111111</v>
       </c>
       <c r="T69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>253525</v>
+        <v>252741</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E70" t="n">
-        <v>92.14166666666667</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>15-09-2025 13:41:05</t>
+          <t>17-09-2025 09:34:13</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15-09-2025 14:21:05</t>
+          <t>17-09-2025 10:19:13</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>15-09-2025 14:21:05</t>
+          <t>17-09-2025 10:19:13</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>16-09-2025 07:53:14</t>
+          <t>17-09-2025 11:20:43</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>11057</v>
+        <v>7379</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5891,11 +5977,11 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N70" t="n">
         <v>70</v>
@@ -5908,58 +5994,58 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>253371</v>
+        <v>253249</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E71" t="n">
-        <v>107.7666666666667</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>16-09-2025 07:53:14</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>16-09-2025 08:18:14</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>16-09-2025 08:18:14</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>16-09-2025 10:06:00</t>
+          <t>08-09-2025 08:16:45</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>12932</v>
+        <v>6931</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5968,14 +6054,14 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N71" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -5985,7 +6071,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
@@ -5997,46 +6083,46 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>253376</v>
+        <v>253284</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E72" t="n">
-        <v>179.6083333333333</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>16-09-2025 10:06:00</t>
+          <t>08-09-2025 08:16:45</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>16-09-2025 10:31:00</t>
+          <t>08-09-2025 08:33:45</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>16-09-2025 10:31:00</t>
+          <t>08-09-2025 08:33:45</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>16-09-2025 13:30:36</t>
+          <t>08-09-2025 09:30:45</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>21553</v>
+        <v>6839</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6045,14 +6131,17 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N72" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O72" t="n">
+        <v>40910</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -6062,11 +6151,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="T72" t="n">
         <v>1</v>
@@ -6074,46 +6163,46 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>253377</v>
+        <v>252681</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E73" t="n">
-        <v>127.7166666666667</v>
+        <v>115.0166666666667</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>16-09-2025 13:30:36</t>
+          <t>08-09-2025 09:30:45</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>16-09-2025 13:55:36</t>
+          <t>08-09-2025 09:47:45</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>16-09-2025 13:55:36</t>
+          <t>08-09-2025 09:47:45</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>17-09-2025 08:03:19</t>
+          <t>08-09-2025 11:42:46</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>15326</v>
+        <v>13802</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6122,75 +6211,80 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N73" t="n">
-        <v>70</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O73" t="n">
+        <v>40279</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>253295</v>
+        <v>252906</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E74" t="n">
-        <v>230.075</v>
+        <v>34.725</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>17-09-2025 08:03:19</t>
+          <t>08-09-2025 11:42:46</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17-09-2025 08:43:19</t>
+          <t>08-09-2025 11:59:46</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>17-09-2025 08:43:19</t>
+          <t>08-09-2025 11:59:46</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>17-09-2025 12:33:24</t>
+          <t>08-09-2025 12:34:29</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>27609</v>
+        <v>4167</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6199,33 +6293,31 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N74" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O74" t="n">
-        <v>40274</v>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40904</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-5.523194444444444</v>
+        <v>-31</v>
       </c>
       <c r="T74" t="n">
         <v>2</v>
@@ -6233,46 +6325,46 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>253368</v>
+        <v>253409</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E75" t="n">
-        <v>103.775</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>17-09-2025 12:33:24</t>
+          <t>08-09-2025 12:34:29</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17-09-2025 13:13:24</t>
+          <t>08-09-2025 12:51:29</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>17-09-2025 13:13:24</t>
+          <t>08-09-2025 12:51:29</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>17-09-2025 14:57:10</t>
+          <t>08-09-2025 13:18:40</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>12453</v>
+        <v>3262</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -6281,14 +6373,17 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N75" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O75" t="n">
+        <v>40910</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -6298,11 +6393,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S75" s="1" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="T75" t="n">
         <v>1</v>
@@ -6310,46 +6405,46 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>253367</v>
+        <v>253194</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>135.7</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>17-09-2025 14:57:10</t>
+          <t>08-09-2025 13:18:40</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18-09-2025 07:22:10</t>
+          <t>08-09-2025 13:33:40</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>18-09-2025 07:22:10</t>
+          <t>08-09-2025 13:33:40</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>18-09-2025 09:37:52</t>
+          <t>09-09-2025 08:52:45</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>16284</v>
+        <v>23890</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -6358,14 +6453,17 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N76" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O76" t="n">
+        <v>40910</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -6375,11 +6473,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S76" s="1" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="T76" t="n">
         <v>1</v>
@@ -6387,46 +6485,46 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>252397</v>
+        <v>252827</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E77" t="n">
-        <v>115.925</v>
+        <v>410</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>18-09-2025 09:37:52</t>
+          <t>09-09-2025 08:52:45</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18-09-2025 10:17:52</t>
+          <t>09-09-2025 09:09:45</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>18-09-2025 10:17:52</t>
+          <t>09-09-2025 09:09:45</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>18-09-2025 12:13:48</t>
+          <t>10-09-2025 07:59:45</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>13911</v>
+        <v>49200</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6435,11 +6533,11 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N77" t="n">
         <v>76</v>
@@ -6452,58 +6550,58 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S77" s="1" t="n">
-        <v>0</v>
+        <v>-6.333165509259259</v>
       </c>
       <c r="T77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>253602</v>
+        <v>252569</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E78" t="n">
-        <v>117.0833333333333</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>18-09-2025 12:13:48</t>
+          <t>10-09-2025 07:59:45</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18-09-2025 12:43:48</t>
+          <t>10-09-2025 08:16:45</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>18-09-2025 12:43:48</t>
+          <t>10-09-2025 08:16:45</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>18-09-2025 14:40:53</t>
+          <t>10-09-2025 08:26:20</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>14050</v>
+        <v>1150</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -6516,7 +6614,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N78" t="n">
         <v>76</v>
@@ -6529,58 +6627,58 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-8.611724537037038</v>
+        <v>-9.351626157407408</v>
       </c>
       <c r="T78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>253244</v>
+        <v>252843</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E79" t="n">
-        <v>166.5</v>
+        <v>19.2</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>18-09-2025 14:40:53</t>
+          <t>10-09-2025 08:26:20</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>19-09-2025 07:15:53</t>
+          <t>10-09-2025 08:53:20</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>19-09-2025 07:15:53</t>
+          <t>10-09-2025 08:53:20</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>19-09-2025 10:02:23</t>
+          <t>10-09-2025 09:12:32</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>19980</v>
+        <v>2304</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -6589,14 +6687,17 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N79" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O79" t="n">
+        <v>40904</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -6606,11 +6707,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-9.418321759259259</v>
+        <v>-57</v>
       </c>
       <c r="T79" t="n">
         <v>2</v>
@@ -6618,7 +6719,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>253549</v>
+        <v>253260</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6627,37 +6728,37 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>35</v>
       </c>
       <c r="E80" t="n">
-        <v>163.6666666666667</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>19-09-2025 10:02:23</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>19-09-2025 10:37:23</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>19-09-2025 10:37:23</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>19-09-2025 13:21:03</t>
+          <t>09-09-2025 09:24:24</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>19640</v>
+        <v>13129</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -6670,11 +6771,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N80" t="n">
         <v>70</v>
       </c>
+      <c r="O80" t="n">
+        <v>40279</v>
+      </c>
       <c r="P80" t="n">
         <v>0</v>
       </c>
@@ -6683,19 +6787,19 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S80" s="1" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="T80" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>253455</v>
+        <v>253247</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6704,37 +6808,37 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E81" t="n">
-        <v>55.55833333333333</v>
+        <v>109.575</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>19-09-2025 13:21:03</t>
+          <t>09-09-2025 09:24:24</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>19-09-2025 13:56:03</t>
+          <t>09-09-2025 09:49:24</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>19-09-2025 13:56:03</t>
+          <t>09-09-2025 09:49:24</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>19-09-2025 14:51:36</t>
+          <t>09-09-2025 11:38:59</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>6667</v>
+        <v>13149</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -6752,6 +6856,9 @@
       <c r="N81" t="n">
         <v>70</v>
       </c>
+      <c r="O81" t="n">
+        <v>40279</v>
+      </c>
       <c r="P81" t="n">
         <v>0</v>
       </c>
@@ -6760,19 +6867,19 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-11.6191724537037</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>253261</v>
+        <v>253455</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6785,33 +6892,33 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E82" t="n">
-        <v>18.85</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>19-09-2025 14:51:36</t>
+          <t>09-09-2025 11:38:59</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>22-09-2025 07:26:36</t>
+          <t>09-09-2025 12:03:59</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>22-09-2025 07:26:36</t>
+          <t>09-09-2025 12:03:59</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>22-09-2025 07:45:27</t>
+          <t>09-09-2025 12:59:32</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>2262</v>
+        <v>6667</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -6824,11 +6931,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N82" t="n">
         <v>70</v>
       </c>
+      <c r="O82" t="n">
+        <v>40279</v>
+      </c>
       <c r="P82" t="n">
         <v>0</v>
       </c>
@@ -6837,19 +6947,19 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-28.3232349537037</v>
+        <v>-2</v>
       </c>
       <c r="T82" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>253436</v>
+        <v>253036</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6858,37 +6968,37 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E83" t="n">
-        <v>18.85</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>22-09-2025 07:45:27</t>
+          <t>09-09-2025 12:59:32</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>22-09-2025 08:10:27</t>
+          <t>09-09-2025 13:34:32</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>22-09-2025 08:10:27</t>
+          <t>09-09-2025 13:34:32</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>22-09-2025 08:29:18</t>
+          <t>09-09-2025 14:53:16</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>2262</v>
+        <v>9448</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -6897,14 +7007,17 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N83" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O83" t="n">
+        <v>40910</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -6914,11 +7027,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-12.35368634259259</v>
+        <v>-30</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -6926,7 +7039,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>244743</v>
+        <v>253245</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6935,37 +7048,37 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E84" t="n">
-        <v>29.34166666666667</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>22-09-2025 08:29:18</t>
+          <t>09-09-2025 14:53:16</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>22-09-2025 09:09:18</t>
+          <t>10-09-2025 07:28:16</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>22-09-2025 09:09:18</t>
+          <t>10-09-2025 07:28:16</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>22-09-2025 09:38:39</t>
+          <t>10-09-2025 09:59:06</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>3521</v>
+        <v>18100</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -6978,11 +7091,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N84" t="n">
         <v>70</v>
       </c>
+      <c r="O84" t="n">
+        <v>40900</v>
+      </c>
       <c r="P84" t="n">
         <v>0</v>
       </c>
@@ -6991,58 +7107,58 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S84" s="1" t="n">
-        <v>-28.40184027777778</v>
+        <v>-11</v>
       </c>
       <c r="T84" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>252741</v>
+        <v>252702</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>35</v>
       </c>
       <c r="E85" t="n">
-        <v>61.49166666666667</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>22-09-2025 09:38:39</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>22-09-2025 10:13:39</t>
+          <t>05-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>22-09-2025 10:13:39</t>
+          <t>05-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>22-09-2025 11:15:08</t>
+          <t>05-09-2025 08:33:23</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>7379</v>
+        <v>7006</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -7051,36 +7167,41 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N85" t="n">
-        <v>70</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O85" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S85" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>252702</v>
+        <v>253591</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -7093,33 +7214,33 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E86" t="n">
-        <v>58.38333333333333</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 08:33:23</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>05-09-2025 09:13:23</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>05-09-2025 09:13:23</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:23</t>
+          <t>05-09-2025 09:30:48</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>7006</v>
+        <v>2090</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -7135,7 +7256,7 @@
         <v>3</v>
       </c>
       <c r="N86" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O86" t="n">
         <v>40295</v>
@@ -7150,19 +7271,19 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S86" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>253362</v>
+        <v>252664</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -7171,37 +7292,37 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E87" t="n">
-        <v>58.38333333333333</v>
+        <v>365.975</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:23</t>
+          <t>05-09-2025 09:30:48</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>05-09-2025 08:58:23</t>
+          <t>05-09-2025 10:05:48</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>05-09-2025 08:58:23</t>
+          <t>05-09-2025 10:05:48</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>05-09-2025 09:56:46</t>
+          <t>08-09-2025 08:11:46</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>7006</v>
+        <v>43917</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -7210,17 +7331,17 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N87" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O87" t="n">
-        <v>40295</v>
+        <v>40279</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -7228,23 +7349,23 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>40295</v>
+        <v>40279</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S87" s="1" t="n">
-        <v>0</v>
+        <v>-6.341510416666667</v>
       </c>
       <c r="T87" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>253194</v>
+        <v>235572</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -7253,37 +7374,37 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>40</v>
       </c>
       <c r="E88" t="n">
-        <v>199.0833333333333</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>05-09-2025 09:56:46</t>
+          <t>08-09-2025 08:11:46</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>08-09-2025 08:51:46</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>08-09-2025 08:51:46</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>05-09-2025 13:55:51</t>
+          <t>08-09-2025 10:14:45</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>23890</v>
+        <v>9958</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -7292,14 +7413,17 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N88" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O88" t="n">
+        <v>40904</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -7309,19 +7433,19 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S88" s="1" t="n">
-        <v>-16.58045138888889</v>
+        <v>-689</v>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>252664</v>
+        <v>250284</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -7330,37 +7454,37 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E89" t="n">
-        <v>365.975</v>
+        <v>146.35</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>05-09-2025 13:55:51</t>
+          <t>08-09-2025 10:14:45</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>05-09-2025 14:30:51</t>
+          <t>08-09-2025 10:54:45</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>05-09-2025 14:30:51</t>
+          <t>08-09-2025 10:54:45</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>08-09-2025 12:36:49</t>
+          <t>08-09-2025 13:21:06</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>43917</v>
+        <v>17562</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -7369,35 +7493,31 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N89" t="n">
         <v>70</v>
       </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>40279 (esterno)</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O89" t="n">
+        <v>40910</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S89" s="1" t="n">
-        <v>-6.525572916666667</v>
+        <v>-193</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7405,7 +7525,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>253267</v>
+        <v>253686</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -7414,37 +7534,37 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E90" t="n">
-        <v>164.3666666666667</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-09-2025 12:36:49</t>
+          <t>08-09-2025 13:21:06</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08-09-2025 13:11:49</t>
+          <t>08-09-2025 14:01:06</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>08-09-2025 13:11:49</t>
+          <t>08-09-2025 14:01:06</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>09-09-2025 07:56:11</t>
+          <t>08-09-2025 14:45:20</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>19724</v>
+        <v>5308</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -7457,7 +7577,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N90" t="n">
         <v>70</v>
@@ -7470,19 +7590,19 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>250284</v>
+        <v>253687</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -7491,37 +7611,37 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E91" t="n">
-        <v>146.35</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>09-09-2025 07:56:11</t>
+          <t>08-09-2025 14:45:20</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09-09-2025 08:41:11</t>
+          <t>09-09-2025 07:10:20</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>09-09-2025 08:41:11</t>
+          <t>09-09-2025 07:10:20</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>09-09-2025 11:07:32</t>
+          <t>09-09-2025 07:54:34</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>17562</v>
+        <v>5308</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -7534,7 +7654,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N91" t="n">
         <v>70</v>
@@ -7547,19 +7667,19 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S91" s="1" t="n">
-        <v>-181.4635706018518</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>253359</v>
+        <v>253659</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -7572,33 +7692,33 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E92" t="n">
-        <v>134.0166666666667</v>
+        <v>323.75</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>09-09-2025 11:07:32</t>
+          <t>09-09-2025 07:54:34</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09-09-2025 11:57:32</t>
+          <t>09-09-2025 08:19:34</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>09-09-2025 11:57:32</t>
+          <t>09-09-2025 08:19:34</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>09-09-2025 14:11:33</t>
+          <t>09-09-2025 13:43:19</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>16082</v>
+        <v>38850</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -7611,7 +7731,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N92" t="n">
         <v>70</v>
@@ -7636,7 +7756,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>253245</v>
+        <v>253706</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -7645,37 +7765,37 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E93" t="n">
-        <v>150.8333333333333</v>
+        <v>311</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>09-09-2025 14:11:33</t>
+          <t>09-09-2025 13:43:19</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>09-09-2025 14:41:33</t>
+          <t>09-09-2025 14:28:19</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>09-09-2025 14:41:33</t>
+          <t>09-09-2025 14:28:19</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>10-09-2025 09:12:23</t>
+          <t>10-09-2025 11:39:19</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>18100</v>
+        <v>37320</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -7684,14 +7804,14 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N93" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -7701,14 +7821,14 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S93" s="1" t="n">
-        <v>-0.383605324074074</v>
+        <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">

--- a/PS-VRP/Dati_output/schedulazione.xlsx
+++ b/PS-VRP/Dati_output/schedulazione.xlsx
@@ -548,7 +548,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>243569</v>
+        <v>253313</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -557,14 +557,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>21.675</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -573,21 +573,21 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>08-09-2025 07:21:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>08-09-2025 07:21:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:38:40</t>
+          <t>08-09-2025 09:01:00</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2601</v>
+        <v>12001</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,17 +596,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
         <v>76</v>
       </c>
       <c r="O2" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -616,19 +616,19 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-374</v>
+        <v>-16</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>253375</v>
+        <v>253361</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -637,37 +637,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>51.88333333333333</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 07:38:40</t>
+          <t>08-09-2025 09:01:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:10:40</t>
+          <t>08-09-2025 09:35:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:10:40</t>
+          <t>08-09-2025 09:35:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 09:02:33</t>
+          <t>08-09-2025 10:51:43</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>6226</v>
+        <v>9205</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -696,11 +696,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253370</v>
+        <v>253367</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -717,37 +717,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>207.5416666666667</v>
+        <v>135.7</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:02:33</t>
+          <t>08-09-2025 10:51:43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:17:33</t>
+          <t>08-09-2025 11:06:43</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:17:33</t>
+          <t>08-09-2025 11:06:43</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 12:45:06</t>
+          <t>08-09-2025 13:22:25</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>24905</v>
+        <v>16284</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>253525</v>
+        <v>253072</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -797,37 +797,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>92.14166666666667</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 12:45:06</t>
+          <t>08-09-2025 13:22:25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:00:06</t>
+          <t>08-09-2025 13:45:25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:00:06</t>
+          <t>08-09-2025 13:45:25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 14:32:14</t>
+          <t>08-09-2025 14:14:33</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>11057</v>
+        <v>3496</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -836,11 +836,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
         <v>70</v>
@@ -856,11 +856,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>253246</v>
+        <v>253271</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -881,33 +881,33 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>194.25</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:32:14</t>
+          <t>08-09-2025 14:14:33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:51:14</t>
+          <t>08-09-2025 14:29:33</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:51:14</t>
+          <t>08-09-2025 14:29:33</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09-09-2025 10:05:29</t>
+          <t>09-09-2025 07:12:11</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>23310</v>
+        <v>5116</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
         <v>70</v>
       </c>
       <c r="O6" t="n">
-        <v>40900</v>
+        <v>40904</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -936,11 +936,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-11</v>
+        <v>-20</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>253100</v>
+        <v>235572</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -957,37 +957,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>47.35</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-09-2025 10:05:29</t>
+          <t>09-09-2025 07:12:11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-09-2025 10:20:29</t>
+          <t>09-09-2025 07:29:11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-09-2025 10:20:29</t>
+          <t>09-09-2025 07:29:11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 11:07:50</t>
+          <t>09-09-2025 08:52:10</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>5682</v>
+        <v>9958</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1000,13 +1000,13 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
       </c>
       <c r="O7" t="n">
-        <v>40900</v>
+        <v>40904</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1016,11 +1016,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-13</v>
+        <v>-689</v>
       </c>
       <c r="T7" t="n">
         <v>4</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252815</v>
+        <v>252216</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1037,37 +1037,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>242.9416666666667</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 11:07:50</t>
+          <t>09-09-2025 08:52:10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 11:45:50</t>
+          <t>09-09-2025 09:17:10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 11:45:50</t>
+          <t>09-09-2025 09:17:10</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10-09-2025 07:48:47</t>
+          <t>09-09-2025 11:38:58</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>29153</v>
+        <v>17017</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1076,36 +1076,39 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>70</v>
+      </c>
+      <c r="O8" t="n">
+        <v>40910</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>25-08-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>-27</v>
+      </c>
+      <c r="T8" t="n">
         <v>8</v>
-      </c>
-      <c r="N8" t="n">
-        <v>76</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>05-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>-5.325543981481482</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>253095</v>
+        <v>252833</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1114,37 +1117,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
-        <v>76.31666666666666</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10-09-2025 07:48:47</t>
+          <t>09-09-2025 11:38:58</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10-09-2025 08:30:47</t>
+          <t>09-09-2025 12:07:58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10-09-2025 08:30:47</t>
+          <t>09-09-2025 12:07:58</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10-09-2025 09:47:06</t>
+          <t>09-09-2025 13:22:45</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>9158</v>
+        <v>8974</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1153,11 +1156,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
         <v>70</v>
@@ -1170,23 +1173,23 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0</v>
+        <v>-14.55747106481481</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>253361</v>
+        <v>253706</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1195,33 +1198,33 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>76.70833333333333</v>
+        <v>311</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>09-09-2025 13:22:45</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08-09-2025 07:42:00</t>
+          <t>09-09-2025 14:02:45</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08-09-2025 07:42:00</t>
+          <t>09-09-2025 14:02:45</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:42</t>
+          <t>10-09-2025 11:13:45</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>9205</v>
+        <v>37320</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1230,17 +1233,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>70</v>
-      </c>
-      <c r="O10" t="n">
-        <v>40904</v>
+        <v>76</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1250,19 +1250,19 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253376</v>
+        <v>253372</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1271,37 +1271,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
-        <v>179.6083333333333</v>
+        <v>103.775</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:42</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:42</t>
+          <t>08-09-2025 07:42:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:42</t>
+          <t>08-09-2025 07:42:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>08-09-2025 12:23:19</t>
+          <t>08-09-2025 09:25:46</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>21553</v>
+        <v>12453</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1362,22 +1362,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-09-2025 12:23:19</t>
+          <t>08-09-2025 09:25:46</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-09-2025 12:48:19</t>
+          <t>08-09-2025 09:50:46</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-09-2025 12:48:19</t>
+          <t>08-09-2025 09:50:46</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>08-09-2025 14:36:05</t>
+          <t>08-09-2025 11:38:32</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1422,7 +1422,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253372</v>
+        <v>253376</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1431,37 +1431,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>103.775</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-09-2025 14:36:05</t>
+          <t>08-09-2025 11:38:32</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09-09-2025 07:01:05</t>
+          <t>08-09-2025 12:03:32</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09-09-2025 07:01:05</t>
+          <t>08-09-2025 12:03:32</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>09-09-2025 08:44:51</t>
+          <t>09-09-2025 07:03:09</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>12453</v>
+        <v>21553</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253368</v>
+        <v>253370</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1518,30 +1518,30 @@
         <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>103.775</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-09-2025 08:44:51</t>
+          <t>09-09-2025 07:03:09</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09-09-2025 09:09:51</t>
+          <t>09-09-2025 07:28:09</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09-09-2025 09:09:51</t>
+          <t>09-09-2025 07:28:09</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>09-09-2025 10:53:38</t>
+          <t>09-09-2025 10:55:41</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>12453</v>
+        <v>24905</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253367</v>
+        <v>253377</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1591,37 +1591,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>135.7</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-09-2025 10:53:38</t>
+          <t>09-09-2025 10:55:41</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09-09-2025 11:18:38</t>
+          <t>09-09-2025 11:20:41</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09-09-2025 11:18:38</t>
+          <t>09-09-2025 11:20:41</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>09-09-2025 13:34:20</t>
+          <t>09-09-2025 13:28:24</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>16284</v>
+        <v>15326</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253377</v>
+        <v>253368</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1671,37 +1671,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7166666666667</v>
+        <v>103.775</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-09-2025 13:34:20</t>
+          <t>09-09-2025 13:28:24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09-09-2025 13:59:20</t>
+          <t>09-09-2025 13:53:24</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09-09-2025 13:59:20</t>
+          <t>09-09-2025 13:53:24</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10-09-2025 08:07:03</t>
+          <t>10-09-2025 07:37:11</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>15326</v>
+        <v>12453</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253401</v>
+        <v>253375</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1751,37 +1751,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>22.81666666666667</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10-09-2025 08:07:03</t>
+          <t>10-09-2025 07:37:11</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10-09-2025 08:34:03</t>
+          <t>10-09-2025 08:02:11</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10-09-2025 08:34:03</t>
+          <t>10-09-2025 08:02:11</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10-09-2025 08:56:52</t>
+          <t>10-09-2025 08:54:04</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2738</v>
+        <v>6226</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1790,11 +1790,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
         <v>70</v>
@@ -1810,58 +1810,58 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253259</v>
+        <v>253525</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>69.23333333333333</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>10-09-2025 08:54:04</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>10-09-2025 09:19:04</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>05-09-2025 07:17:00</t>
+          <t>10-09-2025 09:19:04</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>05-09-2025 08:26:14</t>
+          <t>10-09-2025 10:51:12</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>8308</v>
+        <v>11057</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1880,31 +1880,29 @@
         <v>70</v>
       </c>
       <c r="O18" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40904</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253016</v>
+        <v>252702</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1913,37 +1911,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" t="n">
-        <v>73.38333333333334</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>05-09-2025 08:26:14</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05-09-2025 08:58:14</t>
+          <t>05-09-2025 07:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>05-09-2025 08:58:14</t>
+          <t>05-09-2025 07:34:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>05-09-2025 10:11:37</t>
+          <t>05-09-2025 08:32:23</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>8806</v>
+        <v>7006</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1956,7 +1954,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
         <v>152</v>
@@ -1974,7 +1972,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -1999,29 +1997,29 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
         <v>58.38333333333333</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>05-09-2025 10:11:37</t>
+          <t>05-09-2025 08:32:23</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05-09-2025 10:28:37</t>
+          <t>05-09-2025 08:47:23</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05-09-2025 10:28:37</t>
+          <t>05-09-2025 08:47:23</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>05-09-2025 11:27:00</t>
+          <t>05-09-2025 09:45:46</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -2088,22 +2086,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05-09-2025 11:27:00</t>
+          <t>05-09-2025 09:45:46</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05-09-2025 12:01:00</t>
+          <t>05-09-2025 10:19:46</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>05-09-2025 12:01:00</t>
+          <t>05-09-2025 10:19:46</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>05-09-2025 13:01:00</t>
+          <t>05-09-2025 11:19:46</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -2150,7 +2148,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252682</v>
+        <v>252582</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2163,33 +2161,33 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E22" t="n">
-        <v>83.40833333333333</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>05-09-2025 13:01:00</t>
+          <t>05-09-2025 11:19:46</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05-09-2025 13:18:00</t>
+          <t>05-09-2025 11:38:46</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>05-09-2025 13:18:00</t>
+          <t>05-09-2025 11:38:46</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>05-09-2025 14:41:24</t>
+          <t>05-09-2025 12:24:51</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>10009</v>
+        <v>5530</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2202,13 +2200,13 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
         <v>76</v>
       </c>
       <c r="O22" t="n">
-        <v>40295</v>
+        <v>40290</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -2216,23 +2214,23 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>40295</v>
+        <v>40290</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>253140</v>
+        <v>252664</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2241,37 +2239,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E23" t="n">
-        <v>55.83333333333334</v>
+        <v>365.975</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05-09-2025 14:41:24</t>
+          <t>05-09-2025 12:24:51</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05-09-2025 14:58:24</t>
+          <t>05-09-2025 12:56:51</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>05-09-2025 14:58:24</t>
+          <t>05-09-2025 12:56:51</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>08-09-2025 07:54:14</t>
+          <t>08-09-2025 11:02:49</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>6700</v>
+        <v>43917</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2280,39 +2278,41 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O23" t="n">
-        <v>40900</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
+        <v>40279</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-26</v>
+        <v>-6.460295138888889</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253318</v>
+        <v>253278</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2321,37 +2321,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>51.55</v>
+        <v>28.425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-09-2025 07:54:14</t>
+          <t>08-09-2025 11:02:49</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-09-2025 08:13:14</t>
+          <t>08-09-2025 11:25:49</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-09-2025 08:13:14</t>
+          <t>08-09-2025 11:25:49</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>08-09-2025 09:04:47</t>
+          <t>08-09-2025 11:54:15</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>6186</v>
+        <v>3411</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2360,17 +2360,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2380,19 +2380,19 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
         <v>-13</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>253317</v>
+        <v>250284</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2401,37 +2401,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>102.775</v>
+        <v>146.35</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-09-2025 09:04:47</t>
+          <t>08-09-2025 11:54:15</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-09-2025 09:19:47</t>
+          <t>08-09-2025 12:13:15</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-09-2025 09:19:47</t>
+          <t>08-09-2025 12:13:15</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>08-09-2025 11:02:34</t>
+          <t>08-09-2025 14:39:36</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>12333</v>
+        <v>17562</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2440,14 +2440,14 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O25" t="n">
         <v>40910</v>
@@ -2460,19 +2460,19 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-13</v>
+        <v>-193</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253425</v>
+        <v>250891</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2481,37 +2481,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E26" t="n">
-        <v>146.35</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-09-2025 11:02:34</t>
+          <t>08-09-2025 14:39:36</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-09-2025 11:21:34</t>
+          <t>09-09-2025 07:00:36</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-09-2025 11:21:34</t>
+          <t>09-09-2025 07:00:36</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>08-09-2025 13:47:55</t>
+          <t>09-09-2025 08:18:05</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>17562</v>
+        <v>9299</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2520,14 +2520,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O26" t="n">
+        <v>40910</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2537,19 +2540,19 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-10.57494212962963</v>
+        <v>-39</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>244023</v>
+        <v>253721</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2558,37 +2561,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E27" t="n">
-        <v>8.308333333333334</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-09-2025 13:47:55</t>
+          <t>09-09-2025 08:18:05</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-09-2025 14:19:55</t>
+          <t>09-09-2025 08:37:05</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-09-2025 14:19:55</t>
+          <t>09-09-2025 08:37:05</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>08-09-2025 14:28:13</t>
+          <t>09-09-2025 09:16:29</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>997</v>
+        <v>4727</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2601,11 +2604,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
         <v>70</v>
       </c>
+      <c r="O27" t="n">
+        <v>40900</v>
+      </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
@@ -2614,11 +2620,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-343.6029340277778</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>1</v>
@@ -2626,7 +2632,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>250891</v>
+        <v>253374</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2635,37 +2641,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>77.49166666666666</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-09-2025 14:28:13</t>
+          <t>09-09-2025 09:16:29</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-09-2025 14:45:13</t>
+          <t>09-09-2025 09:33:29</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-09-2025 14:45:13</t>
+          <t>09-09-2025 09:33:29</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>09-09-2025 08:02:43</t>
+          <t>09-09-2025 10:33:05</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>9299</v>
+        <v>7153</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2678,13 +2684,13 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
         <v>70</v>
       </c>
       <c r="O28" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2694,19 +2700,19 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253278</v>
+        <v>253710</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2715,37 +2721,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>28.425</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-09-2025 08:02:43</t>
+          <t>09-09-2025 10:33:05</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-09-2025 08:19:43</t>
+          <t>09-09-2025 10:50:05</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-09-2025 08:19:43</t>
+          <t>09-09-2025 10:50:05</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>09-09-2025 08:48:08</t>
+          <t>09-09-2025 10:51:42</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>3411</v>
+        <v>194</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2758,14 +2764,11 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>40904</v>
-      </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
@@ -2774,19 +2777,19 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253072</v>
+        <v>253359</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2795,37 +2798,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E30" t="n">
-        <v>29.13333333333333</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-09-2025 08:48:08</t>
+          <t>09-09-2025 10:51:42</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:08</t>
+          <t>09-09-2025 11:10:42</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-09-2025 09:03:08</t>
+          <t>09-09-2025 11:10:42</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>09-09-2025 09:32:16</t>
+          <t>09-09-2025 13:24:43</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>3496</v>
+        <v>16082</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2838,7 +2841,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
         <v>70</v>
@@ -2854,19 +2857,19 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-38</v>
+        <v>-14</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253271</v>
+        <v>253246</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2879,33 +2882,33 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>42.63333333333333</v>
+        <v>194.25</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-09-2025 09:32:16</t>
+          <t>09-09-2025 13:24:43</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09-09-2025 09:47:16</t>
+          <t>09-09-2025 13:41:43</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-09-2025 09:47:16</t>
+          <t>09-09-2025 13:41:43</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>09-09-2025 10:29:54</t>
+          <t>10-09-2025 08:55:58</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>5116</v>
+        <v>23310</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2918,13 +2921,13 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N31" t="n">
         <v>70</v>
       </c>
       <c r="O31" t="n">
-        <v>40904</v>
+        <v>40900</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2934,11 +2937,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-20</v>
+        <v>-11</v>
       </c>
       <c r="T31" t="n">
         <v>2</v>
@@ -2946,7 +2949,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253374</v>
+        <v>252906</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2955,37 +2958,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E32" t="n">
-        <v>59.60833333333333</v>
+        <v>34.725</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-09-2025 10:29:54</t>
+          <t>10-09-2025 08:55:58</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09-09-2025 10:48:54</t>
+          <t>10-09-2025 09:31:58</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-09-2025 10:48:54</t>
+          <t>10-09-2025 09:31:58</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>09-09-2025 11:48:31</t>
+          <t>10-09-2025 10:06:42</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>7153</v>
+        <v>4167</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2994,14 +2997,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O32" t="n">
         <v>40904</v>
@@ -3014,19 +3017,19 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253359</v>
+        <v>253317</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3035,37 +3038,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>134.0166666666667</v>
+        <v>102.775</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-09-2025 11:48:31</t>
+          <t>10-09-2025 10:06:42</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09-09-2025 12:05:31</t>
+          <t>10-09-2025 10:23:42</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09-09-2025 12:05:31</t>
+          <t>10-09-2025 10:23:42</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>09-09-2025 14:19:32</t>
+          <t>10-09-2025 12:06:28</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>16082</v>
+        <v>12333</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3074,17 +3077,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O33" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3094,11 +3097,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
@@ -3106,46 +3109,46 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253268</v>
+        <v>252939</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="E34" t="n">
-        <v>78.55833333333334</v>
+        <v>89.8</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-09-2025 14:19:32</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-09-2025 14:36:32</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-09-2025 14:36:32</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10-09-2025 07:55:05</t>
+          <t>09-09-2025 09:04:18</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>9427</v>
+        <v>10776</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3158,7 +3161,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
         <v>70</v>
@@ -3171,23 +3174,23 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-18.37798611111111</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>253267</v>
+        <v>253268</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3196,33 +3199,33 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="E35" t="n">
-        <v>164.3666666666667</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10-09-2025 07:55:05</t>
+          <t>09-09-2025 09:04:18</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10-09-2025 08:10:05</t>
+          <t>09-09-2025 09:36:48</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>10-09-2025 08:10:05</t>
+          <t>09-09-2025 09:36:48</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10-09-2025 10:54:27</t>
+          <t>09-09-2025 10:55:21</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>19724</v>
+        <v>9427</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3260,7 +3263,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252601</v>
+        <v>253267</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3269,37 +3272,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>56.5</v>
+        <v>30.5</v>
       </c>
       <c r="E36" t="n">
-        <v>51.20833333333334</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>09-09-2025 10:55:21</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-09-2025 07:56:30</t>
+          <t>09-09-2025 11:25:51</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-09-2025 07:56:30</t>
+          <t>09-09-2025 11:25:51</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>09-09-2025 08:47:42</t>
+          <t>09-09-2025 14:10:13</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>6145</v>
+        <v>19724</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3308,11 +3311,11 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
         <v>70</v>
@@ -3325,19 +3328,19 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252216</v>
+        <v>253332</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3346,37 +3349,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>38.5</v>
+        <v>34.5</v>
       </c>
       <c r="E37" t="n">
-        <v>141.8083333333333</v>
+        <v>184.825</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-09-2025 08:47:42</t>
+          <t>09-09-2025 14:10:13</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-09-2025 09:26:12</t>
+          <t>09-09-2025 14:44:43</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-09-2025 09:26:12</t>
+          <t>09-09-2025 14:44:43</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>09-09-2025 11:48:01</t>
+          <t>10-09-2025 09:49:33</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>17017</v>
+        <v>22179</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3385,18 +3388,15 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
         <v>70</v>
       </c>
-      <c r="O37" t="n">
-        <v>40910</v>
-      </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
@@ -3405,19 +3405,19 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-27</v>
+        <v>-0.4094097222222222</v>
       </c>
       <c r="T37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252833</v>
+        <v>253100</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3426,37 +3426,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>44.5</v>
+        <v>34.5</v>
       </c>
       <c r="E38" t="n">
-        <v>74.78333333333333</v>
+        <v>47.35</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>09-09-2025 11:48:01</t>
+          <t>10-09-2025 09:49:33</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09-09-2025 12:32:31</t>
+          <t>10-09-2025 10:24:03</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-09-2025 12:32:31</t>
+          <t>10-09-2025 10:24:03</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>09-09-2025 13:47:18</t>
+          <t>10-09-2025 11:11:24</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>8974</v>
+        <v>5682</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3469,11 +3469,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
         <v>70</v>
       </c>
+      <c r="O38" t="n">
+        <v>40900</v>
+      </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
@@ -3482,11 +3485,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-14.57451388888889</v>
+        <v>-13</v>
       </c>
       <c r="T38" t="n">
         <v>4</v>
@@ -3494,7 +3497,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252939</v>
+        <v>252601</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3507,33 +3510,33 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>34.5</v>
+        <v>50.5</v>
       </c>
       <c r="E39" t="n">
-        <v>89.8</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-09-2025 13:47:18</t>
+          <t>10-09-2025 11:11:24</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09-09-2025 14:21:48</t>
+          <t>10-09-2025 12:01:54</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>09-09-2025 14:21:48</t>
+          <t>10-09-2025 12:01:54</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>10-09-2025 07:51:36</t>
+          <t>10-09-2025 12:53:06</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>10776</v>
+        <v>6145</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3542,11 +3545,11 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N39" t="n">
         <v>70</v>
@@ -3559,11 +3562,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-19.3275</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
@@ -3571,46 +3574,46 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>253332</v>
+        <v>252002</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>32.5</v>
+        <v>55</v>
       </c>
       <c r="E40" t="n">
-        <v>184.825</v>
+        <v>55.675</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>10-09-2025 07:51:36</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10-09-2025 08:24:06</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>10-09-2025 08:24:06</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10-09-2025 11:28:55</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>22179</v>
+        <v>6681</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3619,75 +3622,82 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
         <v>70</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-0.4784201388888889</v>
+        <v>-10.57685763888889</v>
       </c>
       <c r="T40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>253710</v>
+        <v>252569</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>32.5</v>
+        <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>1.616666666666667</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10-09-2025 11:28:55</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10-09-2025 12:01:25</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>10-09-2025 12:01:25</t>
+          <t>04-09-2025 14:30:40</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10-09-2025 12:03:02</t>
+          <t>04-09-2025 14:40:15</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>194</v>
+        <v>1150</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3696,14 +3706,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -3713,19 +3723,19 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-0.5021122685185185</v>
+        <v>-3.611290509259259</v>
       </c>
       <c r="T41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>253314</v>
+        <v>252685</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3734,37 +3744,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E42" t="n">
-        <v>43.40833333333333</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>04-09-2025 14:40:15</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>05-09-2025 07:10:15</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>05-09-2025 07:10:15</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>04-09-2025 13:38:24</t>
+          <t>05-09-2025 08:24:49</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>5209</v>
+        <v>8948</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3795,7 +3805,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
@@ -3807,7 +3817,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252002</v>
+        <v>252682</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3816,37 +3826,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E43" t="n">
-        <v>55.675</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>04-09-2025 13:38:24</t>
+          <t>05-09-2025 08:24:49</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04-09-2025 14:28:24</t>
+          <t>05-09-2025 09:04:49</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>04-09-2025 14:28:24</t>
+          <t>05-09-2025 09:04:49</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>05-09-2025 07:24:05</t>
+          <t>05-09-2025 10:28:14</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>6681</v>
+        <v>10009</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3855,19 +3865,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="n">
-        <v>70</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O43" t="n">
+        <v>40295</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3875,15 +3883,15 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>40307</v>
+        <v>40295</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-11.3083912037037</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>4</v>
@@ -3891,7 +3899,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252582</v>
+        <v>253284</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3900,37 +3908,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>40</v>
       </c>
       <c r="E44" t="n">
-        <v>46.08333333333334</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>05-09-2025 07:24:05</t>
+          <t>05-09-2025 10:28:14</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05-09-2025 08:04:05</t>
+          <t>05-09-2025 11:08:14</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>05-09-2025 08:04:05</t>
+          <t>05-09-2025 11:08:14</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>05-09-2025 08:50:10</t>
+          <t>05-09-2025 12:05:13</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>5530</v>
+        <v>6839</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3943,29 +3951,27 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44" t="n">
         <v>76</v>
       </c>
       <c r="O44" t="n">
-        <v>40290</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40299</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="T44" t="n">
         <v>1</v>
@@ -3973,7 +3979,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252685</v>
+        <v>253314</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3982,37 +3988,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E45" t="n">
-        <v>74.56666666666666</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>05-09-2025 08:50:10</t>
+          <t>05-09-2025 12:05:13</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05-09-2025 09:20:10</t>
+          <t>05-09-2025 12:45:13</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>05-09-2025 09:20:10</t>
+          <t>05-09-2025 12:45:13</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>05-09-2025 10:34:44</t>
+          <t>05-09-2025 13:28:38</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>8948</v>
+        <v>5209</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4043,7 +4049,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
@@ -4055,7 +4061,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>253721</v>
+        <v>253409</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4064,37 +4070,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E46" t="n">
-        <v>39.39166666666667</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>05-09-2025 10:34:44</t>
+          <t>05-09-2025 13:28:38</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05-09-2025 11:14:44</t>
+          <t>05-09-2025 13:58:38</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>05-09-2025 11:14:44</t>
+          <t>05-09-2025 13:58:38</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>05-09-2025 11:54:07</t>
+          <t>05-09-2025 14:25:49</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>4727</v>
+        <v>3262</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4103,17 +4109,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O46" t="n">
-        <v>40900</v>
+        <v>40910</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4123,11 +4129,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="T46" t="n">
         <v>1</v>
@@ -4135,7 +4141,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>253313</v>
+        <v>252883</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4144,37 +4150,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E47" t="n">
-        <v>100.0083333333333</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>05-09-2025 11:54:07</t>
+          <t>05-09-2025 14:25:49</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>05-09-2025 12:34:07</t>
+          <t>08-09-2025 07:45:49</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>05-09-2025 12:34:07</t>
+          <t>08-09-2025 07:45:49</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>05-09-2025 14:14:08</t>
+          <t>08-09-2025 11:53:07</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>12001</v>
+        <v>29677</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4183,17 +4189,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N47" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
-        <v>40299</v>
+        <v>40900</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -4203,11 +4209,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-3</v>
+        <v>-23</v>
       </c>
       <c r="T47" t="n">
         <v>1</v>
@@ -4215,7 +4221,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252883</v>
+        <v>244023</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4224,37 +4230,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E48" t="n">
-        <v>247.3083333333333</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>05-09-2025 14:14:08</t>
+          <t>08-09-2025 11:53:07</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:08</t>
+          <t>08-09-2025 12:48:07</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:08</t>
+          <t>08-09-2025 12:48:07</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>08-09-2025 11:36:26</t>
+          <t>08-09-2025 12:56:26</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>29677</v>
+        <v>997</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4263,18 +4269,15 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N48" t="n">
         <v>70</v>
       </c>
-      <c r="O48" t="n">
-        <v>40900</v>
-      </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
@@ -4283,11 +4286,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-23</v>
+        <v>-343.5391898148148</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -4295,7 +4298,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>253527</v>
+        <v>253249</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4304,37 +4307,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E49" t="n">
-        <v>67.48333333333333</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-09-2025 11:36:26</t>
+          <t>08-09-2025 12:56:26</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08-09-2025 12:46:26</t>
+          <t>08-09-2025 13:46:26</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08-09-2025 12:46:26</t>
+          <t>08-09-2025 13:46:26</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>08-09-2025 13:53:55</t>
+          <t>08-09-2025 14:44:11</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>8098</v>
+        <v>6931</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4343,17 +4346,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>70</v>
-      </c>
-      <c r="O49" t="n">
-        <v>40910</v>
+        <v>76</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4363,11 +4363,11 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253528</v>
+        <v>253659</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4384,37 +4384,37 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E50" t="n">
-        <v>119.175</v>
+        <v>323.75</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-09-2025 13:53:55</t>
+          <t>08-09-2025 14:44:11</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08-09-2025 14:18:55</t>
+          <t>09-09-2025 07:29:11</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>08-09-2025 14:18:55</t>
+          <t>09-09-2025 07:29:11</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>09-09-2025 08:18:06</t>
+          <t>09-09-2025 12:52:56</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>14301</v>
+        <v>38850</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4427,14 +4427,11 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N50" t="n">
         <v>70</v>
       </c>
-      <c r="O50" t="n">
-        <v>40910</v>
-      </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
@@ -4443,7 +4440,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
@@ -4455,7 +4452,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>253522</v>
+        <v>253687</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4464,37 +4461,37 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>25</v>
       </c>
       <c r="E51" t="n">
-        <v>198.625</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-09-2025 08:18:06</t>
+          <t>09-09-2025 12:52:56</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-09-2025 08:43:06</t>
+          <t>09-09-2025 13:17:56</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-09-2025 08:43:06</t>
+          <t>09-09-2025 13:17:56</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>09-09-2025 12:01:43</t>
+          <t>09-09-2025 14:02:10</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>23835</v>
+        <v>5308</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4507,14 +4504,11 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51" t="n">
         <v>70</v>
       </c>
-      <c r="O51" t="n">
-        <v>40910</v>
-      </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
@@ -4527,7 +4521,7 @@
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>1</v>
@@ -4535,7 +4529,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>253524</v>
+        <v>253686</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4544,37 +4538,37 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>25</v>
       </c>
       <c r="E52" t="n">
-        <v>58.75833333333333</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-09-2025 12:01:43</t>
+          <t>09-09-2025 14:02:10</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-09-2025 12:26:43</t>
+          <t>09-09-2025 14:27:10</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>09-09-2025 12:26:43</t>
+          <t>09-09-2025 14:27:10</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>09-09-2025 13:25:29</t>
+          <t>10-09-2025 07:11:24</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>7051</v>
+        <v>5308</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4587,14 +4581,11 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N52" t="n">
         <v>70</v>
       </c>
-      <c r="O52" t="n">
-        <v>40910</v>
-      </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
@@ -4607,7 +4598,7 @@
         </is>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
         <v>1</v>
@@ -4635,22 +4626,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-09-2025 13:25:29</t>
+          <t>10-09-2025 07:11:24</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-09-2025 14:10:29</t>
+          <t>10-09-2025 07:56:24</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>09-09-2025 14:10:29</t>
+          <t>10-09-2025 07:56:24</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>10-09-2025 07:18:48</t>
+          <t>10-09-2025 09:04:43</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -4684,7 +4675,7 @@
         </is>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-9.304722222222223</v>
+        <v>-9.378281250000001</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4692,7 +4683,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>253602</v>
+        <v>253223</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4701,37 +4692,37 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="E54" t="n">
-        <v>117.0833333333333</v>
+        <v>16.4</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10-09-2025 07:18:48</t>
+          <t>10-09-2025 09:04:43</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10-09-2025 07:53:48</t>
+          <t>10-09-2025 10:29:43</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10-09-2025 07:53:48</t>
+          <t>10-09-2025 10:29:43</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10-09-2025 09:50:53</t>
+          <t>10-09-2025 10:46:07</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>14050</v>
+        <v>1968</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4740,14 +4731,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -4757,11 +4748,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-0.4103356481481482</v>
+        <v>-9.448697916666667</v>
       </c>
       <c r="T54" t="n">
         <v>7</v>
@@ -4769,7 +4760,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>253223</v>
+        <v>253208</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4782,33 +4773,33 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E55" t="n">
-        <v>16.4</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10-09-2025 09:50:53</t>
+          <t>10-09-2025 10:46:07</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10-09-2025 11:05:53</t>
+          <t>10-09-2025 12:11:07</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-09-2025 11:05:53</t>
+          <t>10-09-2025 12:11:07</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10-09-2025 11:22:17</t>
+          <t>10-09-2025 13:55:23</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1968</v>
+        <v>12511</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4834,19 +4825,19 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-9.47380787037037</v>
+        <v>-5.580127314814815</v>
       </c>
       <c r="T55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>253208</v>
+        <v>253210</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4859,33 +4850,33 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E56" t="n">
-        <v>104.2583333333333</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10-09-2025 11:22:17</t>
+          <t>10-09-2025 13:55:23</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10-09-2025 12:47:17</t>
+          <t>10-09-2025 14:20:23</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>10-09-2025 12:47:17</t>
+          <t>10-09-2025 14:20:23</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10-09-2025 14:31:32</t>
+          <t>11-09-2025 07:54:32</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>12511</v>
+        <v>11299</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4911,11 +4902,11 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-5.605237268518518</v>
+        <v>-1.329542824074074</v>
       </c>
       <c r="T56" t="n">
         <v>8</v>
@@ -4923,7 +4914,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>253210</v>
+        <v>252529</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4932,37 +4923,37 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E57" t="n">
-        <v>94.15833333333333</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10-09-2025 14:31:32</t>
+          <t>11-09-2025 07:54:32</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10-09-2025 14:56:32</t>
+          <t>11-09-2025 09:19:32</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>10-09-2025 14:56:32</t>
+          <t>11-09-2025 09:19:32</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>11-09-2025 08:30:42</t>
+          <t>11-09-2025 10:27:37</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>11299</v>
+        <v>8170</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4971,14 +4962,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -4988,19 +4979,19 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-1.354652777777778</v>
+        <v>-6.435850694444444</v>
       </c>
       <c r="T57" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252529</v>
+        <v>253436</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -5013,33 +5004,33 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E58" t="n">
-        <v>68.08333333333333</v>
+        <v>18.85</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>11-09-2025 08:30:42</t>
+          <t>11-09-2025 10:27:37</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11-09-2025 09:55:42</t>
+          <t>11-09-2025 11:17:37</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>11-09-2025 09:55:42</t>
+          <t>11-09-2025 11:17:37</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>11-09-2025 11:03:47</t>
+          <t>11-09-2025 11:36:28</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>8170</v>
+        <v>2262</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5048,14 +5039,14 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N58" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -5065,14 +5056,14 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-6.460960648148149</v>
+        <v>-1.483663194444444</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -5090,29 +5081,29 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E59" t="n">
         <v>18.85</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>11-09-2025 11:03:47</t>
+          <t>11-09-2025 11:36:28</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11-09-2025 11:53:47</t>
+          <t>11-09-2025 12:01:28</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>11-09-2025 11:53:47</t>
+          <t>11-09-2025 12:01:28</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>11-09-2025 12:12:38</t>
+          <t>11-09-2025 12:20:19</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -5146,7 +5137,7 @@
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-17.50877314814815</v>
+        <v>-17.51411458333333</v>
       </c>
       <c r="T59" t="n">
         <v>7</v>
@@ -5154,7 +5145,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>253436</v>
+        <v>244743</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5167,33 +5158,33 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E60" t="n">
-        <v>18.85</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>11-09-2025 12:12:38</t>
+          <t>11-09-2025 12:20:19</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>11-09-2025 12:37:38</t>
+          <t>11-09-2025 13:00:19</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>11-09-2025 12:37:38</t>
+          <t>11-09-2025 13:00:19</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>11-09-2025 12:56:29</t>
+          <t>11-09-2025 13:29:40</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2262</v>
+        <v>3521</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5206,7 +5197,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N60" t="n">
         <v>70</v>
@@ -5219,11 +5210,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-1.539224537037037</v>
+        <v>-17.56226851851852</v>
       </c>
       <c r="T60" t="n">
         <v>7</v>
@@ -5231,7 +5222,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>244743</v>
+        <v>253392</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5240,37 +5231,37 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E61" t="n">
-        <v>29.34166666666667</v>
+        <v>129.3833333333333</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>11-09-2025 12:56:29</t>
+          <t>11-09-2025 13:29:40</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11-09-2025 13:36:29</t>
+          <t>11-09-2025 14:04:40</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>11-09-2025 13:36:29</t>
+          <t>11-09-2025 14:04:40</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>11-09-2025 14:05:49</t>
+          <t>12-09-2025 08:14:03</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>3521</v>
+        <v>15526</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5279,7 +5270,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -5296,19 +5287,19 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>19-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-17.58737847222222</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>253392</v>
+        <v>253295</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5324,30 +5315,30 @@
         <v>35</v>
       </c>
       <c r="E62" t="n">
-        <v>129.3833333333333</v>
+        <v>230.075</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>11-09-2025 14:05:49</t>
+          <t>12-09-2025 08:14:03</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11-09-2025 14:40:49</t>
+          <t>12-09-2025 08:49:03</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>11-09-2025 14:40:49</t>
+          <t>12-09-2025 08:49:03</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>12-09-2025 08:50:12</t>
+          <t>12-09-2025 12:39:07</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>15526</v>
+        <v>27609</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5356,31 +5347,36 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N62" t="n">
         <v>70</v>
       </c>
-      <c r="P62" t="n">
-        <v>0</v>
+      <c r="O62" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>0</v>
+        <v>-0.5271701388888889</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -5405,22 +5401,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>12-09-2025 08:50:12</t>
+          <t>12-09-2025 12:39:07</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12-09-2025 09:30:12</t>
+          <t>12-09-2025 13:19:07</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>12-09-2025 09:30:12</t>
+          <t>12-09-2025 13:19:07</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>12-09-2025 11:26:08</t>
+          <t>15-09-2025 07:15:03</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -5462,7 +5458,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252274</v>
+        <v>253472</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5471,37 +5467,37 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E64" t="n">
-        <v>173.4166666666667</v>
+        <v>291.8</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>12-09-2025 11:26:08</t>
+          <t>15-09-2025 07:15:03</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12-09-2025 11:56:08</t>
+          <t>15-09-2025 07:55:03</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>12-09-2025 11:56:08</t>
+          <t>15-09-2025 07:55:03</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>12-09-2025 14:49:33</t>
+          <t>15-09-2025 12:46:51</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>20810</v>
+        <v>35016</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5510,14 +5506,14 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5527,14 +5523,14 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-3.617743055555556</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -5552,29 +5548,29 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E65" t="n">
         <v>77.63333333333334</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>12-09-2025 14:49:33</t>
+          <t>15-09-2025 12:46:51</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>15-09-2025 07:34:33</t>
+          <t>15-09-2025 13:21:51</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>15-09-2025 07:34:33</t>
+          <t>15-09-2025 13:21:51</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>15-09-2025 08:52:11</t>
+          <t>15-09-2025 14:39:29</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -5616,7 +5612,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>253549</v>
+        <v>253244</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5629,33 +5625,33 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E66" t="n">
-        <v>163.6666666666667</v>
+        <v>166.5</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>15-09-2025 08:52:11</t>
+          <t>15-09-2025 14:39:29</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15-09-2025 09:32:11</t>
+          <t>16-09-2025 07:09:29</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>15-09-2025 09:32:11</t>
+          <t>16-09-2025 07:09:29</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>15-09-2025 12:15:51</t>
+          <t>16-09-2025 09:55:59</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>19640</v>
+        <v>19980</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5668,7 +5664,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N66" t="n">
         <v>70</v>
@@ -5681,11 +5677,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
-        <v>0</v>
+        <v>-6.413877314814814</v>
       </c>
       <c r="T66" t="n">
         <v>2</v>
@@ -5693,7 +5689,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>253244</v>
+        <v>253549</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5709,30 +5705,30 @@
         <v>35</v>
       </c>
       <c r="E67" t="n">
-        <v>166.5</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>15-09-2025 12:15:51</t>
+          <t>16-09-2025 09:55:59</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15-09-2025 12:50:51</t>
+          <t>16-09-2025 10:30:59</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>15-09-2025 12:50:51</t>
+          <t>16-09-2025 10:30:59</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>16-09-2025 07:37:21</t>
+          <t>16-09-2025 13:14:39</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>19980</v>
+        <v>19640</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5745,7 +5741,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N67" t="n">
         <v>70</v>
@@ -5758,11 +5754,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-6.317604166666666</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
         <v>2</v>
@@ -5770,7 +5766,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>253472</v>
+        <v>253318</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5779,37 +5775,37 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E68" t="n">
-        <v>291.8</v>
+        <v>51.55</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>16-09-2025 07:37:21</t>
+          <t>16-09-2025 13:14:39</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>16-09-2025 08:07:21</t>
+          <t>16-09-2025 14:04:39</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>16-09-2025 08:07:21</t>
+          <t>16-09-2025 14:04:39</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>16-09-2025 12:59:09</t>
+          <t>16-09-2025 14:56:12</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>35016</v>
+        <v>6186</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5818,14 +5814,17 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O68" t="n">
+        <v>40910</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -5835,11 +5834,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-0.5410763888888889</v>
+        <v>-13</v>
       </c>
       <c r="T68" t="n">
         <v>1</v>
@@ -5847,7 +5846,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>253295</v>
+        <v>252274</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5860,33 +5859,33 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E69" t="n">
-        <v>230.075</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>16-09-2025 12:59:09</t>
+          <t>16-09-2025 14:56:12</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>16-09-2025 13:44:09</t>
+          <t>17-09-2025 07:31:12</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>16-09-2025 13:44:09</t>
+          <t>17-09-2025 07:31:12</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>17-09-2025 09:34:13</t>
+          <t>17-09-2025 10:24:37</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>27609</v>
+        <v>20810</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5895,33 +5894,28 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="n">
-        <v>70</v>
-      </c>
-      <c r="O69" t="n">
-        <v>40274</v>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-5.398767361111111</v>
+        <v>-8.433761574074074</v>
       </c>
       <c r="T69" t="n">
         <v>2</v>
@@ -5942,29 +5936,29 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E70" t="n">
         <v>61.49166666666667</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>17-09-2025 09:34:13</t>
+          <t>17-09-2025 10:24:37</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17-09-2025 10:19:13</t>
+          <t>17-09-2025 11:19:37</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>17-09-2025 10:19:13</t>
+          <t>17-09-2025 11:19:37</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>17-09-2025 11:20:43</t>
+          <t>17-09-2025 12:21:06</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -6006,7 +6000,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>253249</v>
+        <v>253194</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -6015,14 +6009,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>19</v>
       </c>
       <c r="E71" t="n">
-        <v>57.75833333333333</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -6041,11 +6035,11 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>08-09-2025 08:16:45</t>
+          <t>08-09-2025 10:38:05</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>6931</v>
+        <v>23890</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6063,6 +6057,9 @@
       <c r="N71" t="n">
         <v>76</v>
       </c>
+      <c r="O71" t="n">
+        <v>40910</v>
+      </c>
       <c r="P71" t="n">
         <v>0</v>
       </c>
@@ -6071,11 +6068,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="T71" t="n">
         <v>1</v>
@@ -6083,7 +6080,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>253284</v>
+        <v>253425</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -6092,37 +6089,37 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E72" t="n">
-        <v>56.99166666666667</v>
+        <v>146.35</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-09-2025 08:16:45</t>
+          <t>08-09-2025 10:38:05</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08-09-2025 08:33:45</t>
+          <t>08-09-2025 10:57:05</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>08-09-2025 08:33:45</t>
+          <t>08-09-2025 10:57:05</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>08-09-2025 09:30:45</t>
+          <t>08-09-2025 13:23:26</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>6839</v>
+        <v>17562</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6135,14 +6132,11 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N72" t="n">
         <v>76</v>
       </c>
-      <c r="O72" t="n">
-        <v>40910</v>
-      </c>
       <c r="P72" t="n">
         <v>0</v>
       </c>
@@ -6151,19 +6145,19 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-24</v>
+        <v>-10.55793981481481</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252681</v>
+        <v>252843</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -6176,33 +6170,33 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E73" t="n">
-        <v>115.0166666666667</v>
+        <v>19.2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-09-2025 09:30:45</t>
+          <t>08-09-2025 13:23:26</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08-09-2025 09:47:45</t>
+          <t>08-09-2025 13:46:26</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>08-09-2025 09:47:45</t>
+          <t>08-09-2025 13:46:26</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>08-09-2025 11:42:46</t>
+          <t>08-09-2025 14:05:38</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>13802</v>
+        <v>2304</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6211,41 +6205,39 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N73" t="n">
         <v>76</v>
       </c>
       <c r="O73" t="n">
-        <v>40279</v>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40904</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
-        <v>0</v>
+        <v>-57</v>
       </c>
       <c r="T73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>252906</v>
+        <v>243569</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6254,37 +6246,37 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E74" t="n">
-        <v>34.725</v>
+        <v>21.675</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-09-2025 11:42:46</t>
+          <t>08-09-2025 14:05:38</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08-09-2025 11:59:46</t>
+          <t>08-09-2025 14:32:38</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>08-09-2025 11:59:46</t>
+          <t>08-09-2025 14:32:38</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>08-09-2025 12:34:29</t>
+          <t>08-09-2025 14:54:18</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>4167</v>
+        <v>2601</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6293,11 +6285,11 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N74" t="n">
         <v>76</v>
@@ -6313,11 +6305,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-31</v>
+        <v>-374</v>
       </c>
       <c r="T74" t="n">
         <v>2</v>
@@ -6325,7 +6317,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>253409</v>
+        <v>252815</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6334,37 +6326,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E75" t="n">
-        <v>27.18333333333333</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-09-2025 12:34:29</t>
+          <t>08-09-2025 14:54:18</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08-09-2025 12:51:29</t>
+          <t>09-09-2025 07:19:18</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>08-09-2025 12:51:29</t>
+          <t>09-09-2025 07:19:18</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>08-09-2025 13:18:40</t>
+          <t>09-09-2025 11:22:15</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>3262</v>
+        <v>29153</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -6377,14 +6369,11 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N75" t="n">
         <v>76</v>
       </c>
-      <c r="O75" t="n">
-        <v>40910</v>
-      </c>
       <c r="P75" t="n">
         <v>0</v>
       </c>
@@ -6393,19 +6382,19 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-23</v>
+        <v>-4.473784722222222</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>253194</v>
+        <v>252827</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6414,37 +6403,37 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E76" t="n">
-        <v>199.0833333333333</v>
+        <v>410</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-09-2025 13:18:40</t>
+          <t>09-09-2025 11:22:15</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08-09-2025 13:33:40</t>
+          <t>09-09-2025 11:49:15</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>08-09-2025 13:33:40</t>
+          <t>09-09-2025 11:49:15</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>09-09-2025 08:52:45</t>
+          <t>10-09-2025 10:39:15</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>23890</v>
+        <v>49200</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -6453,18 +6442,15 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N76" t="n">
         <v>76</v>
       </c>
-      <c r="O76" t="n">
-        <v>40910</v>
-      </c>
       <c r="P76" t="n">
         <v>0</v>
       </c>
@@ -6473,19 +6459,19 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-32</v>
+        <v>-6.443923611111111</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>252827</v>
+        <v>253602</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6494,37 +6480,37 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E77" t="n">
-        <v>410</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>09-09-2025 08:52:45</t>
+          <t>10-09-2025 10:39:15</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09-09-2025 09:09:45</t>
+          <t>10-09-2025 11:00:15</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>09-09-2025 09:09:45</t>
+          <t>10-09-2025 11:00:15</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>10-09-2025 07:59:45</t>
+          <t>10-09-2025 12:57:20</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>49200</v>
+        <v>14050</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6533,11 +6519,11 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N77" t="n">
         <v>76</v>
@@ -6550,23 +6536,23 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-6.333165509259259</v>
+        <v>-0.5398148148148149</v>
       </c>
       <c r="T77" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>252569</v>
+        <v>253036</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -6575,33 +6561,33 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E78" t="n">
-        <v>9.583333333333334</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>10-09-2025 07:59:45</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10-09-2025 08:16:45</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>10-09-2025 08:16:45</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>10-09-2025 08:26:20</t>
+          <t>09-09-2025 08:53:44</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1150</v>
+        <v>9448</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -6610,7 +6596,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -6619,6 +6605,9 @@
       <c r="N78" t="n">
         <v>76</v>
       </c>
+      <c r="O78" t="n">
+        <v>40910</v>
+      </c>
       <c r="P78" t="n">
         <v>0</v>
       </c>
@@ -6627,58 +6616,58 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-9.351626157407408</v>
+        <v>-30</v>
       </c>
       <c r="T78" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>252843</v>
+        <v>253095</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E79" t="n">
-        <v>19.2</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>10-09-2025 08:26:20</t>
+          <t>09-09-2025 08:53:44</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10-09-2025 08:53:20</t>
+          <t>09-09-2025 09:28:44</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>10-09-2025 08:53:20</t>
+          <t>09-09-2025 09:28:44</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>10-09-2025 09:12:32</t>
+          <t>09-09-2025 10:45:03</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>2304</v>
+        <v>9158</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -6687,17 +6676,14 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N79" t="n">
-        <v>76</v>
-      </c>
-      <c r="O79" t="n">
-        <v>40904</v>
+        <v>70</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -6707,58 +6693,58 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-57</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>253260</v>
+        <v>253016</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E80" t="n">
-        <v>109.4083333333333</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:00</t>
+          <t>05-09-2025 07:30:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:00</t>
+          <t>05-09-2025 07:30:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>09-09-2025 09:24:24</t>
+          <t>05-09-2025 08:43:23</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>13129</v>
+        <v>8806</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -6767,78 +6753,80 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O80" t="n">
-        <v>40279</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
+        <v>40295</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>253247</v>
+        <v>252681</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E81" t="n">
-        <v>109.575</v>
+        <v>115.0166666666667</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>09-09-2025 09:24:24</t>
+          <t>05-09-2025 08:43:23</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09-09-2025 09:49:24</t>
+          <t>05-09-2025 09:18:23</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>09-09-2025 09:49:24</t>
+          <t>05-09-2025 09:18:23</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>09-09-2025 11:38:59</t>
+          <t>05-09-2025 11:13:24</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>13149</v>
+        <v>13802</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -6847,78 +6835,80 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N81" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O81" t="n">
         <v>40279</v>
       </c>
-      <c r="P81" t="n">
-        <v>0</v>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S81" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>253455</v>
+        <v>253591</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>25</v>
       </c>
       <c r="E82" t="n">
-        <v>55.55833333333333</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>09-09-2025 11:38:59</t>
+          <t>05-09-2025 11:13:24</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09-09-2025 12:03:59</t>
+          <t>05-09-2025 11:38:24</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>09-09-2025 12:03:59</t>
+          <t>05-09-2025 11:38:24</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>09-09-2025 12:59:32</t>
+          <t>05-09-2025 11:55:49</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>6667</v>
+        <v>2090</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -6927,31 +6917,33 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N82" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O82" t="n">
-        <v>40279</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
+        <v>40295</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
         <v>4</v>
@@ -6959,11 +6951,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>253036</v>
+        <v>253259</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6975,30 +6967,30 @@
         <v>35</v>
       </c>
       <c r="E83" t="n">
-        <v>78.73333333333333</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>09-09-2025 12:59:32</t>
+          <t>05-09-2025 11:55:49</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>09-09-2025 13:34:32</t>
+          <t>05-09-2025 12:30:49</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>09-09-2025 13:34:32</t>
+          <t>05-09-2025 12:30:49</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>09-09-2025 14:53:16</t>
+          <t>05-09-2025 13:40:03</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>9448</v>
+        <v>8308</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -7007,31 +6999,33 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N83" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O83" t="n">
-        <v>40910</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
+        <v>40295</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7039,46 +7033,46 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>253245</v>
+        <v>253140</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D84" t="n">
         <v>35</v>
       </c>
       <c r="E84" t="n">
-        <v>150.8333333333333</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>09-09-2025 14:53:16</t>
+          <t>05-09-2025 13:40:03</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10-09-2025 07:28:16</t>
+          <t>05-09-2025 14:15:03</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>10-09-2025 07:28:16</t>
+          <t>05-09-2025 14:15:03</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>10-09-2025 09:59:06</t>
+          <t>08-09-2025 07:10:53</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>18100</v>
+        <v>6700</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -7087,14 +7081,14 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N84" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O84" t="n">
         <v>40900</v>
@@ -7107,19 +7101,19 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S84" s="1" t="n">
-        <v>-11</v>
+        <v>-26</v>
       </c>
       <c r="T84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>252702</v>
+        <v>253527</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -7128,37 +7122,37 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E85" t="n">
-        <v>58.38333333333333</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>08-09-2025 07:10:53</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>08-09-2025 07:50:53</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>08-09-2025 07:50:53</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:23</t>
+          <t>08-09-2025 08:58:22</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>7006</v>
+        <v>8098</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -7167,41 +7161,39 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O85" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40910</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S85" s="1" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>253591</v>
+        <v>253522</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -7210,37 +7202,37 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E86" t="n">
-        <v>17.41666666666667</v>
+        <v>198.625</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:23</t>
+          <t>08-09-2025 08:58:22</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>05-09-2025 09:13:23</t>
+          <t>08-09-2025 09:23:22</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>05-09-2025 09:13:23</t>
+          <t>08-09-2025 09:23:22</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>05-09-2025 09:30:48</t>
+          <t>08-09-2025 12:41:59</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>2090</v>
+        <v>23835</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -7249,41 +7241,39 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O86" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40910</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S86" s="1" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="T86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>252664</v>
+        <v>253528</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -7292,37 +7282,37 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E87" t="n">
-        <v>365.975</v>
+        <v>119.175</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>05-09-2025 09:30:48</t>
+          <t>08-09-2025 12:41:59</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>05-09-2025 10:05:48</t>
+          <t>08-09-2025 13:06:59</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>05-09-2025 10:05:48</t>
+          <t>08-09-2025 13:06:59</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>08-09-2025 08:11:46</t>
+          <t>09-09-2025 07:06:10</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>43917</v>
+        <v>14301</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -7331,41 +7321,39 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N87" t="n">
         <v>70</v>
       </c>
       <c r="O87" t="n">
-        <v>40279</v>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40910</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S87" s="1" t="n">
-        <v>-6.341510416666667</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>235572</v>
+        <v>253524</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -7374,37 +7362,37 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E88" t="n">
-        <v>82.98333333333333</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>08-09-2025 08:11:46</t>
+          <t>09-09-2025 07:06:10</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>08-09-2025 08:51:46</t>
+          <t>09-09-2025 07:31:10</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>08-09-2025 08:51:46</t>
+          <t>09-09-2025 07:31:10</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>08-09-2025 10:14:45</t>
+          <t>09-09-2025 08:29:55</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>9958</v>
+        <v>7051</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -7417,13 +7405,13 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N88" t="n">
         <v>70</v>
       </c>
       <c r="O88" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -7433,19 +7421,19 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S88" s="1" t="n">
-        <v>-689</v>
+        <v>-9</v>
       </c>
       <c r="T88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>250284</v>
+        <v>253260</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -7454,37 +7442,37 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E89" t="n">
-        <v>146.35</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>08-09-2025 10:14:45</t>
+          <t>09-09-2025 08:29:55</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08-09-2025 10:54:45</t>
+          <t>09-09-2025 08:59:55</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>08-09-2025 10:54:45</t>
+          <t>09-09-2025 08:59:55</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>08-09-2025 13:21:06</t>
+          <t>09-09-2025 10:49:20</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>17562</v>
+        <v>13129</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -7497,13 +7485,13 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N89" t="n">
         <v>70</v>
       </c>
       <c r="O89" t="n">
-        <v>40910</v>
+        <v>40279</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -7513,11 +7501,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S89" s="1" t="n">
-        <v>-193</v>
+        <v>-16</v>
       </c>
       <c r="T89" t="n">
         <v>7</v>
@@ -7525,7 +7513,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>253686</v>
+        <v>253247</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -7534,37 +7522,37 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E90" t="n">
-        <v>44.23333333333333</v>
+        <v>109.575</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>08-09-2025 13:21:06</t>
+          <t>09-09-2025 10:49:20</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08-09-2025 14:01:06</t>
+          <t>09-09-2025 11:14:20</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>08-09-2025 14:01:06</t>
+          <t>09-09-2025 11:14:20</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>08-09-2025 14:45:20</t>
+          <t>09-09-2025 13:03:54</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>5308</v>
+        <v>13149</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -7577,11 +7565,14 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N90" t="n">
         <v>70</v>
       </c>
+      <c r="O90" t="n">
+        <v>40279</v>
+      </c>
       <c r="P90" t="n">
         <v>0</v>
       </c>
@@ -7590,19 +7581,19 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>253687</v>
+        <v>253455</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -7611,37 +7602,37 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D91" t="n">
         <v>25</v>
       </c>
       <c r="E91" t="n">
-        <v>44.23333333333333</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08-09-2025 14:45:20</t>
+          <t>09-09-2025 13:03:54</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09-09-2025 07:10:20</t>
+          <t>09-09-2025 13:28:54</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>09-09-2025 07:10:20</t>
+          <t>09-09-2025 13:28:54</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>09-09-2025 07:54:34</t>
+          <t>09-09-2025 14:24:28</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>5308</v>
+        <v>6667</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -7654,11 +7645,14 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N91" t="n">
         <v>70</v>
       </c>
+      <c r="O91" t="n">
+        <v>40279</v>
+      </c>
       <c r="P91" t="n">
         <v>0</v>
       </c>
@@ -7667,19 +7661,19 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S91" s="1" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>253659</v>
+        <v>253245</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -7688,37 +7682,37 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E92" t="n">
-        <v>323.75</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>09-09-2025 07:54:34</t>
+          <t>09-09-2025 14:24:28</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09-09-2025 08:19:34</t>
+          <t>10-09-2025 07:04:28</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>09-09-2025 08:19:34</t>
+          <t>10-09-2025 07:04:28</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>09-09-2025 13:43:19</t>
+          <t>10-09-2025 09:35:18</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>38850</v>
+        <v>18100</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -7731,11 +7725,14 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N92" t="n">
         <v>70</v>
       </c>
+      <c r="O92" t="n">
+        <v>40900</v>
+      </c>
       <c r="P92" t="n">
         <v>0</v>
       </c>
@@ -7744,19 +7741,19 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S92" s="1" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="T92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>253706</v>
+        <v>253401</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -7765,37 +7762,37 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E93" t="n">
-        <v>311</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>09-09-2025 13:43:19</t>
+          <t>10-09-2025 09:35:18</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>09-09-2025 14:28:19</t>
+          <t>10-09-2025 10:05:18</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>09-09-2025 14:28:19</t>
+          <t>10-09-2025 10:05:18</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>10-09-2025 11:39:19</t>
+          <t>10-09-2025 10:28:07</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>37320</v>
+        <v>2738</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -7804,14 +7801,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N93" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O93" t="n">
+        <v>40904</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -7821,11 +7821,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S93" s="1" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>

--- a/PS-VRP/Dati_output/schedulazione.xlsx
+++ b/PS-VRP/Dati_output/schedulazione.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253313</v>
+        <v>253278</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -557,14 +557,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>100.0083333333333</v>
+        <v>28.425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -573,21 +573,21 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:21:00</t>
+          <t>08-09-2025 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:21:00</t>
+          <t>08-09-2025 07:34:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:00</t>
+          <t>08-09-2025 08:02:25</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>12001</v>
+        <v>3411</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,17 +596,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -616,19 +616,19 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>253361</v>
+        <v>253271</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -637,37 +637,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>76.70833333333333</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 09:01:00</t>
+          <t>08-09-2025 08:02:25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 09:35:00</t>
+          <t>08-09-2025 08:17:25</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 09:35:00</t>
+          <t>08-09-2025 08:17:25</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:51:43</t>
+          <t>08-09-2025 09:00:03</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>9205</v>
+        <v>5116</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -676,11 +676,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
         <v>70</v>
@@ -696,19 +696,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253367</v>
+        <v>253072</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -717,37 +717,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>135.7</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:51:43</t>
+          <t>08-09-2025 09:00:03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:06:43</t>
+          <t>08-09-2025 09:15:03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:06:43</t>
+          <t>08-09-2025 09:15:03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 13:22:25</t>
+          <t>08-09-2025 09:44:11</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>16284</v>
+        <v>3496</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -756,11 +756,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
         <v>70</v>
@@ -776,19 +776,19 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>253072</v>
+        <v>253527</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -797,37 +797,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>29.13333333333333</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:22:25</t>
+          <t>08-09-2025 09:44:11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:45:25</t>
+          <t>08-09-2025 10:05:11</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:45:25</t>
+          <t>08-09-2025 10:05:11</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 14:14:33</t>
+          <t>08-09-2025 11:12:40</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3496</v>
+        <v>8098</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
         <v>70</v>
       </c>
       <c r="O5" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-38</v>
+        <v>-9</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>253271</v>
+        <v>253524</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -884,30 +884,30 @@
         <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>42.63333333333333</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:14:33</t>
+          <t>08-09-2025 11:12:40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:29:33</t>
+          <t>08-09-2025 11:27:40</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:29:33</t>
+          <t>08-09-2025 11:27:40</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09-09-2025 07:12:11</t>
+          <t>08-09-2025 12:26:26</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>5116</v>
+        <v>7051</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
         <v>70</v>
       </c>
       <c r="O6" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -936,19 +936,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-20</v>
+        <v>-9</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>235572</v>
+        <v>253522</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -957,37 +957,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>82.98333333333333</v>
+        <v>198.625</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:12:11</t>
+          <t>08-09-2025 12:26:26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:29:11</t>
+          <t>08-09-2025 12:41:26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-09-2025 07:29:11</t>
+          <t>08-09-2025 12:41:26</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:52:10</t>
+          <t>09-09-2025 08:00:03</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>9958</v>
+        <v>23835</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1000,13 +1000,13 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
       </c>
       <c r="O7" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1016,19 +1016,19 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-689</v>
+        <v>-9</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252216</v>
+        <v>253528</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1037,37 +1037,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>141.8083333333333</v>
+        <v>119.175</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:52:10</t>
+          <t>09-09-2025 08:00:03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 09:17:10</t>
+          <t>09-09-2025 08:15:03</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 09:17:10</t>
+          <t>09-09-2025 08:15:03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 11:38:58</t>
+          <t>09-09-2025 10:14:14</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>17017</v>
+        <v>14301</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
         <v>70</v>
@@ -1096,19 +1096,19 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252833</v>
+        <v>252815</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1117,37 +1117,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
-        <v>74.78333333333333</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 11:38:58</t>
+          <t>09-09-2025 10:14:14</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 12:07:58</t>
+          <t>09-09-2025 10:54:14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 12:07:58</t>
+          <t>09-09-2025 10:54:14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09-09-2025 13:22:45</t>
+          <t>09-09-2025 14:57:10</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>8974</v>
+        <v>29153</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1156,14 +1156,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1173,11 +1173,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-14.55747106481481</v>
+        <v>-4.623038194444445</v>
       </c>
       <c r="T9" t="n">
         <v>4</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>253706</v>
+        <v>253602</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1194,37 +1194,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>311</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 13:22:45</t>
+          <t>09-09-2025 14:57:10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 14:02:45</t>
+          <t>10-09-2025 07:18:10</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-09-2025 14:02:45</t>
+          <t>10-09-2025 07:18:10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10-09-2025 11:13:45</t>
+          <t>10-09-2025 09:15:15</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>37320</v>
+        <v>14050</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1233,11 +1233,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
         <v>76</v>
@@ -1250,11 +1250,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-0.3855960648148148</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253372</v>
+        <v>253317</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1271,14 +1271,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E11" t="n">
-        <v>103.775</v>
+        <v>102.775</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1287,21 +1287,21 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-09-2025 07:42:00</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-09-2025 07:42:00</t>
+          <t>08-09-2025 07:29:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>08-09-2025 09:25:46</t>
+          <t>08-09-2025 09:11:46</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12453</v>
+        <v>12333</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1310,17 +1310,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O11" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1330,11 +1330,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253371</v>
+        <v>252939</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1351,37 +1351,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
-        <v>107.7666666666667</v>
+        <v>89.8</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-09-2025 09:25:46</t>
+          <t>08-09-2025 09:11:46</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-09-2025 09:50:46</t>
+          <t>08-09-2025 09:55:46</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-09-2025 09:50:46</t>
+          <t>08-09-2025 09:55:46</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>08-09-2025 11:38:32</t>
+          <t>08-09-2025 11:25:34</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12932</v>
+        <v>10776</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1390,18 +1390,15 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
         <v>70</v>
       </c>
-      <c r="O12" t="n">
-        <v>40904</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
@@ -1410,19 +1407,19 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-17.47609375</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253376</v>
+        <v>250284</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1431,37 +1428,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
-        <v>179.6083333333333</v>
+        <v>146.35</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-09-2025 11:38:32</t>
+          <t>08-09-2025 11:25:34</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-09-2025 12:03:32</t>
+          <t>08-09-2025 12:00:34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-09-2025 12:03:32</t>
+          <t>08-09-2025 12:00:34</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>09-09-2025 07:03:09</t>
+          <t>08-09-2025 14:26:55</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>21553</v>
+        <v>17562</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1470,17 +1467,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
         <v>70</v>
       </c>
       <c r="O13" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1490,19 +1487,19 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-193</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253370</v>
+        <v>252216</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1511,37 +1508,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>207.5416666666667</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>09-09-2025 07:03:09</t>
+          <t>08-09-2025 14:26:55</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09-09-2025 07:28:09</t>
+          <t>08-09-2025 14:55:55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09-09-2025 07:28:09</t>
+          <t>08-09-2025 14:55:55</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:41</t>
+          <t>09-09-2025 09:17:44</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>24905</v>
+        <v>17017</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1550,17 +1547,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
         <v>70</v>
       </c>
       <c r="O14" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1570,19 +1567,19 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253377</v>
+        <v>253318</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1591,37 +1588,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7166666666667</v>
+        <v>51.55</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:41</t>
+          <t>09-09-2025 09:17:44</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09-09-2025 11:20:41</t>
+          <t>09-09-2025 10:11:44</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09-09-2025 11:20:41</t>
+          <t>09-09-2025 10:11:44</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>09-09-2025 13:28:24</t>
+          <t>09-09-2025 11:03:17</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>15326</v>
+        <v>6186</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1630,17 +1627,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O15" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1650,11 +1647,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -1662,7 +1659,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253368</v>
+        <v>252681</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1671,37 +1668,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
-        <v>103.775</v>
+        <v>115.0166666666667</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-09-2025 13:28:24</t>
+          <t>09-09-2025 11:03:17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09-09-2025 13:53:24</t>
+          <t>09-09-2025 11:32:17</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09-09-2025 13:53:24</t>
+          <t>09-09-2025 11:32:17</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10-09-2025 07:37:11</t>
+          <t>09-09-2025 13:27:18</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>12453</v>
+        <v>13802</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1710,39 +1707,41 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O16" t="n">
-        <v>40904</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
+        <v>40279</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253375</v>
+        <v>252995</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1755,33 +1754,33 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
-        <v>51.88333333333333</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10-09-2025 07:37:11</t>
+          <t>09-09-2025 13:27:18</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10-09-2025 08:02:11</t>
+          <t>09-09-2025 13:56:18</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10-09-2025 08:02:11</t>
+          <t>09-09-2025 13:56:18</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10-09-2025 08:54:04</t>
+          <t>10-09-2025 07:04:37</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>6226</v>
+        <v>8198</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1790,17 +1789,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>70</v>
-      </c>
-      <c r="O17" t="n">
-        <v>40904</v>
+        <v>76</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1810,58 +1806,58 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-9.294872685185185</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253525</v>
+        <v>252702</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E18" t="n">
-        <v>92.14166666666667</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10-09-2025 08:54:04</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10-09-2025 09:19:04</t>
+          <t>05-09-2025 07:34:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10-09-2025 09:19:04</t>
+          <t>05-09-2025 07:34:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10-09-2025 10:51:12</t>
+          <t>05-09-2025 08:32:23</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>11057</v>
+        <v>7006</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1870,27 +1866,29 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O18" t="n">
-        <v>40904</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
+        <v>40295</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -1902,7 +1900,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252702</v>
+        <v>253362</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1915,29 +1913,29 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
         <v>58.38333333333333</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>05-09-2025 08:32:23</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05-09-2025 07:34:00</t>
+          <t>05-09-2025 08:47:23</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>05-09-2025 07:34:00</t>
+          <t>05-09-2025 08:47:23</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>05-09-2025 08:32:23</t>
+          <t>05-09-2025 09:45:46</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1972,7 +1970,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>15-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -1984,7 +1982,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>253362</v>
+        <v>252679</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1997,33 +1995,33 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E20" t="n">
-        <v>58.38333333333333</v>
+        <v>60</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>05-09-2025 08:32:23</t>
+          <t>05-09-2025 09:45:46</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05-09-2025 08:47:23</t>
+          <t>05-09-2025 10:19:46</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05-09-2025 08:47:23</t>
+          <t>05-09-2025 10:19:46</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>05-09-2025 09:45:46</t>
+          <t>05-09-2025 11:19:46</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>7006</v>
+        <v>7200</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2032,14 +2030,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O20" t="n">
         <v>40295</v>
@@ -2054,19 +2052,19 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252679</v>
+        <v>253259</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2079,33 +2077,33 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05-09-2025 09:45:46</t>
+          <t>05-09-2025 11:19:46</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05-09-2025 10:19:46</t>
+          <t>05-09-2025 11:55:46</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>05-09-2025 10:19:46</t>
+          <t>05-09-2025 11:55:46</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>05-09-2025 11:19:46</t>
+          <t>05-09-2025 13:05:00</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>7200</v>
+        <v>8308</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2114,14 +2112,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O21" t="n">
         <v>40295</v>
@@ -2136,19 +2134,19 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>252582</v>
+        <v>243569</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2157,37 +2155,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>46.08333333333334</v>
+        <v>21.675</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>05-09-2025 11:19:46</t>
+          <t>05-09-2025 13:05:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05-09-2025 11:38:46</t>
+          <t>05-09-2025 13:37:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>05-09-2025 11:38:46</t>
+          <t>05-09-2025 13:37:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>05-09-2025 12:24:51</t>
+          <t>05-09-2025 13:58:40</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>5530</v>
+        <v>2601</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2196,7 +2194,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2206,31 +2204,29 @@
         <v>76</v>
       </c>
       <c r="O22" t="n">
-        <v>40290</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40904</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-374</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252664</v>
+        <v>253284</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2239,37 +2235,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>365.975</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05-09-2025 12:24:51</t>
+          <t>05-09-2025 13:58:40</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05-09-2025 12:56:51</t>
+          <t>05-09-2025 14:15:40</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>05-09-2025 12:56:51</t>
+          <t>05-09-2025 14:15:40</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>08-09-2025 11:02:49</t>
+          <t>08-09-2025 07:12:40</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>43917</v>
+        <v>6839</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2278,41 +2274,39 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O23" t="n">
-        <v>40279</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40910</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-6.460295138888889</v>
+        <v>-24</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253278</v>
+        <v>253313</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2321,37 +2315,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>28.425</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-09-2025 11:02:49</t>
+          <t>08-09-2025 07:12:40</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-09-2025 11:25:49</t>
+          <t>08-09-2025 07:27:40</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-09-2025 11:25:49</t>
+          <t>08-09-2025 07:27:40</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>08-09-2025 11:54:15</t>
+          <t>08-09-2025 09:07:40</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>3411</v>
+        <v>12001</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2360,17 +2354,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O24" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2380,19 +2374,19 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250284</v>
+        <v>253375</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2401,37 +2395,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E25" t="n">
-        <v>146.35</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-09-2025 11:54:15</t>
+          <t>08-09-2025 09:07:40</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-09-2025 12:13:15</t>
+          <t>08-09-2025 09:41:40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-09-2025 12:13:15</t>
+          <t>08-09-2025 09:41:40</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>08-09-2025 14:39:36</t>
+          <t>08-09-2025 10:33:33</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>17562</v>
+        <v>6226</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2440,17 +2434,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
         <v>70</v>
       </c>
       <c r="O25" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2460,19 +2454,19 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-193</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>250891</v>
+        <v>253368</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2481,37 +2475,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>77.49166666666666</v>
+        <v>103.775</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-09-2025 14:39:36</t>
+          <t>08-09-2025 10:33:33</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:36</t>
+          <t>08-09-2025 10:48:33</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:36</t>
+          <t>08-09-2025 10:48:33</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>09-09-2025 08:18:05</t>
+          <t>08-09-2025 12:32:20</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>9299</v>
+        <v>12453</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2520,17 +2514,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
         <v>70</v>
       </c>
       <c r="O26" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2540,19 +2534,19 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253721</v>
+        <v>253370</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2561,37 +2555,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>39.39166666666667</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>09-09-2025 08:18:05</t>
+          <t>08-09-2025 12:32:20</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09-09-2025 08:37:05</t>
+          <t>08-09-2025 12:47:20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>09-09-2025 08:37:05</t>
+          <t>08-09-2025 12:47:20</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>09-09-2025 09:16:29</t>
+          <t>09-09-2025 08:14:52</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>4727</v>
+        <v>24905</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2600,17 +2594,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
         <v>70</v>
       </c>
       <c r="O27" t="n">
-        <v>40900</v>
+        <v>40904</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2620,7 +2614,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -2632,7 +2626,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253374</v>
+        <v>253376</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2641,37 +2635,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>59.60833333333333</v>
+        <v>179.6083333333333</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-09-2025 09:16:29</t>
+          <t>09-09-2025 08:14:52</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09-09-2025 09:33:29</t>
+          <t>09-09-2025 08:29:52</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09-09-2025 09:33:29</t>
+          <t>09-09-2025 08:29:52</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>09-09-2025 10:33:05</t>
+          <t>09-09-2025 11:29:29</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>7153</v>
+        <v>21553</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2680,11 +2674,11 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
         <v>70</v>
@@ -2712,7 +2706,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253710</v>
+        <v>253367</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2721,37 +2715,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>1.616666666666667</v>
+        <v>135.7</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-09-2025 10:33:05</t>
+          <t>09-09-2025 11:29:29</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-09-2025 10:50:05</t>
+          <t>09-09-2025 11:44:29</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-09-2025 10:50:05</t>
+          <t>09-09-2025 11:44:29</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>09-09-2025 10:51:42</t>
+          <t>09-09-2025 14:00:11</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>194</v>
+        <v>16284</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2760,15 +2754,18 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
         <v>70</v>
       </c>
+      <c r="O29" t="n">
+        <v>40904</v>
+      </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
@@ -2777,19 +2774,19 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253359</v>
+        <v>253372</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2798,37 +2795,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>134.0166666666667</v>
+        <v>103.775</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-09-2025 10:51:42</t>
+          <t>09-09-2025 14:00:11</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-09-2025 11:10:42</t>
+          <t>09-09-2025 14:15:11</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-09-2025 11:10:42</t>
+          <t>09-09-2025 14:15:11</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>09-09-2025 13:24:43</t>
+          <t>10-09-2025 07:58:57</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>16082</v>
+        <v>12453</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2837,11 +2834,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
         <v>70</v>
@@ -2857,11 +2854,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>1</v>
@@ -2869,7 +2866,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253246</v>
+        <v>253377</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2878,37 +2875,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>194.25</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-09-2025 13:24:43</t>
+          <t>10-09-2025 07:58:57</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09-09-2025 13:41:43</t>
+          <t>10-09-2025 08:13:57</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-09-2025 13:41:43</t>
+          <t>10-09-2025 08:13:57</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10-09-2025 08:55:58</t>
+          <t>10-09-2025 10:21:40</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>23310</v>
+        <v>15326</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2917,17 +2914,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
         <v>70</v>
       </c>
       <c r="O31" t="n">
-        <v>40900</v>
+        <v>40904</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2937,19 +2934,19 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252906</v>
+        <v>253525</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2958,37 +2955,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>34.725</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10-09-2025 08:55:58</t>
+          <t>10-09-2025 10:21:40</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10-09-2025 09:31:58</t>
+          <t>10-09-2025 10:36:40</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10-09-2025 09:31:58</t>
+          <t>10-09-2025 10:36:40</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10-09-2025 10:06:42</t>
+          <t>10-09-2025 12:08:49</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>4167</v>
+        <v>11057</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2997,14 +2994,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O32" t="n">
         <v>40904</v>
@@ -3017,11 +3014,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>2</v>
@@ -3029,7 +3026,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253317</v>
+        <v>253361</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3038,37 +3035,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>102.775</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10-09-2025 10:06:42</t>
+          <t>10-09-2025 12:08:49</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10-09-2025 10:23:42</t>
+          <t>10-09-2025 12:23:49</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10-09-2025 10:23:42</t>
+          <t>10-09-2025 12:23:49</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10-09-2025 12:06:28</t>
+          <t>10-09-2025 13:40:31</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>12333</v>
+        <v>9205</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3077,17 +3074,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O33" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3097,11 +3094,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
@@ -3109,46 +3106,46 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>252939</v>
+        <v>253245</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="E34" t="n">
-        <v>89.8</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>10-09-2025 13:40:31</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>10-09-2025 13:59:31</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>10-09-2025 13:59:31</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>09-09-2025 09:04:18</t>
+          <t>11-09-2025 08:30:21</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>10776</v>
+        <v>18100</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3161,11 +3158,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
         <v>70</v>
       </c>
+      <c r="O34" t="n">
+        <v>40900</v>
+      </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
@@ -3174,58 +3174,58 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-18.37798611111111</v>
+        <v>-11</v>
       </c>
       <c r="T34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>253268</v>
+        <v>253371</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="E35" t="n">
-        <v>78.55833333333334</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-09-2025 09:04:18</t>
+          <t>11-09-2025 08:30:21</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09-09-2025 09:36:48</t>
+          <t>11-09-2025 08:49:21</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-09-2025 09:36:48</t>
+          <t>11-09-2025 08:49:21</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:21</t>
+          <t>11-09-2025 10:37:07</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>9427</v>
+        <v>12932</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3234,15 +3234,18 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
         <v>70</v>
       </c>
+      <c r="O35" t="n">
+        <v>40904</v>
+      </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
@@ -3251,58 +3254,58 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253267</v>
+        <v>253401</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="E36" t="n">
-        <v>164.3666666666667</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:21</t>
+          <t>11-09-2025 10:37:07</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-09-2025 11:25:51</t>
+          <t>11-09-2025 10:54:07</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-09-2025 11:25:51</t>
+          <t>11-09-2025 10:54:07</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>09-09-2025 14:10:13</t>
+          <t>11-09-2025 11:16:56</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>19724</v>
+        <v>2738</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3315,11 +3318,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" t="n">
         <v>70</v>
       </c>
+      <c r="O36" t="n">
+        <v>40904</v>
+      </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
@@ -3328,58 +3334,58 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="T36" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>253332</v>
+        <v>253436</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>34.5</v>
+        <v>21</v>
       </c>
       <c r="E37" t="n">
-        <v>184.825</v>
+        <v>18.85</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>09-09-2025 14:10:13</t>
+          <t>11-09-2025 11:16:56</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09-09-2025 14:44:43</t>
+          <t>11-09-2025 11:37:56</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>09-09-2025 14:44:43</t>
+          <t>11-09-2025 11:37:56</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10-09-2025 09:49:33</t>
+          <t>11-09-2025 11:56:47</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>22179</v>
+        <v>2262</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3388,15 +3394,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N37" t="n">
         <v>70</v>
       </c>
+      <c r="O37" t="n">
+        <v>40911</v>
+      </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
@@ -3409,7 +3418,7 @@
         </is>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-0.4094097222222222</v>
+        <v>-11</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
@@ -3417,46 +3426,46 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>253100</v>
+        <v>253261</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>47.35</v>
+        <v>18.85</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10-09-2025 09:49:33</t>
+          <t>11-09-2025 11:56:47</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10-09-2025 10:24:03</t>
+          <t>11-09-2025 12:11:47</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>10-09-2025 10:24:03</t>
+          <t>11-09-2025 12:11:47</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10-09-2025 11:11:24</t>
+          <t>11-09-2025 12:30:38</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>5682</v>
+        <v>2262</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3469,13 +3478,13 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N38" t="n">
         <v>70</v>
       </c>
       <c r="O38" t="n">
-        <v>40900</v>
+        <v>40911</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3485,58 +3494,58 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-13</v>
+        <v>-27</v>
       </c>
       <c r="T38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252601</v>
+        <v>244743</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>50.5</v>
+        <v>21</v>
       </c>
       <c r="E39" t="n">
-        <v>51.20833333333334</v>
+        <v>29.34166666666667</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10-09-2025 11:11:24</t>
+          <t>11-09-2025 12:30:38</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10-09-2025 12:01:54</t>
+          <t>11-09-2025 12:51:38</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>10-09-2025 12:01:54</t>
+          <t>11-09-2025 12:51:38</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>10-09-2025 12:53:06</t>
+          <t>11-09-2025 13:20:59</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>6145</v>
+        <v>3521</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3545,15 +3554,18 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
         <v>70</v>
       </c>
+      <c r="O39" t="n">
+        <v>40911</v>
+      </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
@@ -3562,11 +3574,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
@@ -3574,46 +3586,46 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252002</v>
+        <v>252529</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E40" t="n">
-        <v>55.675</v>
+        <v>68.08333333333333</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>11-09-2025 13:20:59</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>11-09-2025 13:54:59</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>11-09-2025 13:54:59</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>12-09-2025 07:03:04</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>6681</v>
+        <v>8170</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3622,82 +3634,75 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>70</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40307</v>
+        <v>0</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-10.57685763888889</v>
+        <v>-7.293796296296296</v>
       </c>
       <c r="T40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252569</v>
+        <v>253295</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E41" t="n">
-        <v>9.583333333333334</v>
+        <v>230.075</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>12-09-2025 07:03:04</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>04-09-2025 14:30:40</t>
+          <t>12-09-2025 07:37:04</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>04-09-2025 14:30:40</t>
+          <t>12-09-2025 07:37:04</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>04-09-2025 14:40:15</t>
+          <t>12-09-2025 11:27:08</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1150</v>
+        <v>27609</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3706,75 +3711,80 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="n">
-        <v>76</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O41" t="n">
+        <v>40274</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>40274</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-3.611290509259259</v>
+        <v>-0.477181712962963</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252685</v>
+        <v>252397</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E42" t="n">
-        <v>74.56666666666666</v>
+        <v>115.925</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>04-09-2025 14:40:15</t>
+          <t>12-09-2025 11:27:08</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05-09-2025 07:10:15</t>
+          <t>12-09-2025 11:59:08</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>05-09-2025 07:10:15</t>
+          <t>12-09-2025 11:59:08</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>05-09-2025 08:24:49</t>
+          <t>12-09-2025 13:55:04</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>8948</v>
+        <v>13911</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3792,71 +3802,66 @@
       <c r="N42" t="n">
         <v>76</v>
       </c>
-      <c r="O42" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P42" t="n">
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252682</v>
+        <v>252274</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E43" t="n">
-        <v>83.40833333333333</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>05-09-2025 08:24:49</t>
+          <t>12-09-2025 13:55:04</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05-09-2025 09:04:49</t>
+          <t>12-09-2025 14:12:04</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>05-09-2025 09:04:49</t>
+          <t>12-09-2025 14:12:04</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>05-09-2025 10:28:14</t>
+          <t>15-09-2025 09:05:29</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>10009</v>
+        <v>20810</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3869,76 +3874,71 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="n">
         <v>76</v>
       </c>
-      <c r="O43" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P43" t="n">
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>09-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0</v>
+        <v>-6.378807870370371</v>
       </c>
       <c r="T43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>253284</v>
+        <v>253244</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E44" t="n">
-        <v>56.99166666666667</v>
+        <v>166.5</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>05-09-2025 10:28:14</t>
+          <t>15-09-2025 09:05:29</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05-09-2025 11:08:14</t>
+          <t>15-09-2025 09:37:29</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>05-09-2025 11:08:14</t>
+          <t>15-09-2025 09:37:29</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>05-09-2025 12:05:13</t>
+          <t>15-09-2025 12:23:59</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>6839</v>
+        <v>19980</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3947,17 +3947,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="n">
-        <v>76</v>
-      </c>
-      <c r="O44" t="n">
-        <v>40299</v>
+        <v>70</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -3967,58 +3964,58 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-11</v>
+        <v>-5.516655092592592</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>253314</v>
+        <v>253549</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E45" t="n">
-        <v>43.40833333333333</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>05-09-2025 12:05:13</t>
+          <t>15-09-2025 12:23:59</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05-09-2025 12:45:13</t>
+          <t>15-09-2025 12:42:59</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>05-09-2025 12:45:13</t>
+          <t>15-09-2025 12:42:59</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>05-09-2025 13:28:38</t>
+          <t>16-09-2025 07:26:39</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>5209</v>
+        <v>19640</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4027,80 +4024,75 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N45" t="n">
-        <v>76</v>
-      </c>
-      <c r="O45" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>253409</v>
+        <v>253472</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E46" t="n">
-        <v>27.18333333333333</v>
+        <v>291.8</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>05-09-2025 13:28:38</t>
+          <t>16-09-2025 07:26:39</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05-09-2025 13:58:38</t>
+          <t>16-09-2025 07:43:39</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>05-09-2025 13:58:38</t>
+          <t>16-09-2025 07:43:39</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>05-09-2025 14:25:49</t>
+          <t>16-09-2025 12:35:27</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>3262</v>
+        <v>35016</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4109,17 +4101,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" t="n">
-        <v>76</v>
-      </c>
-      <c r="O46" t="n">
-        <v>40910</v>
+        <v>70</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4129,11 +4118,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>16-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-23</v>
+        <v>-0.5246180555555555</v>
       </c>
       <c r="T46" t="n">
         <v>1</v>
@@ -4141,46 +4130,46 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252883</v>
+        <v>252741</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E47" t="n">
-        <v>247.3083333333333</v>
+        <v>61.49166666666667</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>05-09-2025 14:25:49</t>
+          <t>16-09-2025 12:35:27</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08-09-2025 07:45:49</t>
+          <t>16-09-2025 12:58:27</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08-09-2025 07:45:49</t>
+          <t>16-09-2025 12:58:27</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>08-09-2025 11:53:07</t>
+          <t>16-09-2025 13:59:56</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>29677</v>
+        <v>7379</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4189,18 +4178,15 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N47" t="n">
         <v>70</v>
       </c>
-      <c r="O47" t="n">
-        <v>40900</v>
-      </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
@@ -4209,58 +4195,58 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>244023</v>
+        <v>253668</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E48" t="n">
-        <v>8.308333333333334</v>
+        <v>189.8666666666667</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>08-09-2025 11:53:07</t>
+          <t>16-09-2025 13:59:56</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08-09-2025 12:48:07</t>
+          <t>16-09-2025 14:20:56</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08-09-2025 12:48:07</t>
+          <t>16-09-2025 14:20:56</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>08-09-2025 12:56:26</t>
+          <t>17-09-2025 09:30:48</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>997</v>
+        <v>22784</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4269,11 +4255,11 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
         <v>70</v>
@@ -4286,58 +4272,58 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-343.5391898148148</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>253249</v>
+        <v>252833</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>50</v>
+        <v>34.5</v>
       </c>
       <c r="E49" t="n">
-        <v>57.75833333333333</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>08-09-2025 12:56:26</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08-09-2025 13:46:26</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08-09-2025 13:46:26</t>
+          <t>09-09-2025 07:34:30</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>08-09-2025 14:44:11</t>
+          <t>09-09-2025 08:49:17</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>6931</v>
+        <v>8974</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4346,14 +4332,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4363,58 +4349,58 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0</v>
+        <v>-14.36755787037037</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253659</v>
+        <v>253223</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>45</v>
+        <v>50.5</v>
       </c>
       <c r="E50" t="n">
-        <v>323.75</v>
+        <v>16.4</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>08-09-2025 14:44:11</t>
+          <t>09-09-2025 08:49:17</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-09-2025 07:29:11</t>
+          <t>09-09-2025 09:39:47</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-09-2025 07:29:11</t>
+          <t>09-09-2025 09:39:47</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>09-09-2025 12:52:56</t>
+          <t>09-09-2025 09:56:11</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>38850</v>
+        <v>1968</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4423,11 +4409,11 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N50" t="n">
         <v>70</v>
@@ -4440,58 +4426,58 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-8.414016203703703</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>253687</v>
+        <v>253246</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>48.5</v>
       </c>
       <c r="E51" t="n">
-        <v>44.23333333333333</v>
+        <v>194.25</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-09-2025 12:52:56</t>
+          <t>09-09-2025 09:56:11</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-09-2025 13:17:56</t>
+          <t>09-09-2025 10:44:41</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-09-2025 13:17:56</t>
+          <t>09-09-2025 10:44:41</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>09-09-2025 14:02:10</t>
+          <t>09-09-2025 13:58:56</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>5308</v>
+        <v>23310</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4504,11 +4490,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="n">
         <v>70</v>
       </c>
+      <c r="O51" t="n">
+        <v>40900</v>
+      </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
@@ -4517,58 +4506,58 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>253686</v>
+        <v>253710</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="E52" t="n">
-        <v>44.23333333333333</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-09-2025 14:02:10</t>
+          <t>09-09-2025 13:58:56</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-09-2025 14:27:10</t>
+          <t>09-09-2025 14:31:26</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>09-09-2025 14:27:10</t>
+          <t>09-09-2025 14:31:26</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>10-09-2025 07:11:24</t>
+          <t>09-09-2025 14:33:03</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>5308</v>
+        <v>194</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4581,7 +4570,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N52" t="n">
         <v>70</v>
@@ -4594,58 +4583,58 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252995</v>
+        <v>253095</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>45</v>
+        <v>32.5</v>
       </c>
       <c r="E53" t="n">
-        <v>68.31666666666666</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10-09-2025 07:11:24</t>
+          <t>09-09-2025 14:33:03</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10-09-2025 07:56:24</t>
+          <t>10-09-2025 07:05:33</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10-09-2025 07:56:24</t>
+          <t>10-09-2025 07:05:33</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>10-09-2025 09:04:43</t>
+          <t>10-09-2025 08:21:52</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>8198</v>
+        <v>9158</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4654,14 +4643,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -4671,11 +4660,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-9.378281250000001</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -4683,7 +4672,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>253223</v>
+        <v>253314</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4692,37 +4681,37 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E54" t="n">
-        <v>16.4</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10-09-2025 09:04:43</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10-09-2025 10:29:43</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>10-09-2025 10:29:43</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10-09-2025 10:46:07</t>
+          <t>04-09-2025 13:38:24</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1968</v>
+        <v>5209</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4731,36 +4720,41 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N54" t="n">
-        <v>70</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O54" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-9.448697916666667</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>253208</v>
+        <v>252002</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4769,37 +4763,37 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E55" t="n">
-        <v>104.2583333333333</v>
+        <v>55.675</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10-09-2025 10:46:07</t>
+          <t>04-09-2025 13:38:24</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10-09-2025 12:11:07</t>
+          <t>04-09-2025 14:28:24</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10-09-2025 12:11:07</t>
+          <t>04-09-2025 14:28:24</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10-09-2025 13:55:23</t>
+          <t>05-09-2025 07:24:05</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>12511</v>
+        <v>6681</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4808,36 +4802,43 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N55" t="n">
         <v>70</v>
       </c>
-      <c r="P55" t="n">
-        <v>0</v>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-5.580127314814815</v>
+        <v>-11.3083912037037</v>
       </c>
       <c r="T55" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>253210</v>
+        <v>252582</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4850,33 +4851,33 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E56" t="n">
-        <v>94.15833333333333</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10-09-2025 13:55:23</t>
+          <t>05-09-2025 07:24:05</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10-09-2025 14:20:23</t>
+          <t>05-09-2025 08:04:05</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>10-09-2025 14:20:23</t>
+          <t>05-09-2025 08:04:05</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>11-09-2025 07:54:32</t>
+          <t>05-09-2025 08:50:10</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>11299</v>
+        <v>5530</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4885,36 +4886,41 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>70</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O56" t="n">
+        <v>40290</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>40290</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-1.329542824074074</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252529</v>
+        <v>252685</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4923,37 +4929,37 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E57" t="n">
-        <v>68.08333333333333</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>11-09-2025 07:54:32</t>
+          <t>05-09-2025 08:50:10</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11-09-2025 09:19:32</t>
+          <t>05-09-2025 09:20:10</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>11-09-2025 09:19:32</t>
+          <t>05-09-2025 09:20:10</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>11-09-2025 10:27:37</t>
+          <t>05-09-2025 10:34:44</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>8170</v>
+        <v>8948</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4966,32 +4972,37 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N57" t="n">
         <v>76</v>
       </c>
-      <c r="P57" t="n">
-        <v>0</v>
+      <c r="O57" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-6.435850694444444</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>253436</v>
+        <v>252682</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -5000,37 +5011,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E58" t="n">
-        <v>18.85</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>11-09-2025 10:27:37</t>
+          <t>05-09-2025 10:34:44</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11-09-2025 11:17:37</t>
+          <t>05-09-2025 11:14:44</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>11-09-2025 11:17:37</t>
+          <t>05-09-2025 11:14:44</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>11-09-2025 11:36:28</t>
+          <t>05-09-2025 12:38:08</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>2262</v>
+        <v>10009</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5039,36 +5050,41 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N58" t="n">
-        <v>70</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O58" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-1.483663194444444</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>253261</v>
+        <v>253374</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -5077,37 +5093,37 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E59" t="n">
-        <v>18.85</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>11-09-2025 11:36:28</t>
+          <t>05-09-2025 12:38:08</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11-09-2025 12:01:28</t>
+          <t>05-09-2025 13:28:08</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>11-09-2025 12:01:28</t>
+          <t>05-09-2025 13:28:08</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>11-09-2025 12:20:19</t>
+          <t>05-09-2025 14:27:45</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2262</v>
+        <v>7153</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5120,11 +5136,14 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N59" t="n">
         <v>70</v>
       </c>
+      <c r="O59" t="n">
+        <v>40904</v>
+      </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
@@ -5133,19 +5152,19 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-17.51411458333333</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>244743</v>
+        <v>252883</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5154,37 +5173,37 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E60" t="n">
-        <v>29.34166666666667</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>11-09-2025 12:20:19</t>
+          <t>05-09-2025 14:27:45</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>11-09-2025 13:00:19</t>
+          <t>08-09-2025 07:32:45</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>11-09-2025 13:00:19</t>
+          <t>08-09-2025 07:32:45</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>11-09-2025 13:29:40</t>
+          <t>08-09-2025 11:40:03</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>3521</v>
+        <v>29677</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5193,15 +5212,18 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N60" t="n">
         <v>70</v>
       </c>
+      <c r="O60" t="n">
+        <v>40900</v>
+      </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
@@ -5210,19 +5232,19 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-17.56226851851852</v>
+        <v>-23</v>
       </c>
       <c r="T60" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>253392</v>
+        <v>253721</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5231,37 +5253,37 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E61" t="n">
-        <v>129.3833333333333</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>11-09-2025 13:29:40</t>
+          <t>08-09-2025 11:40:03</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11-09-2025 14:04:40</t>
+          <t>08-09-2025 12:50:03</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>11-09-2025 14:04:40</t>
+          <t>08-09-2025 12:50:03</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>12-09-2025 08:14:03</t>
+          <t>08-09-2025 13:29:27</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>15526</v>
+        <v>4727</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5270,7 +5292,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -5279,6 +5301,9 @@
       <c r="N61" t="n">
         <v>70</v>
       </c>
+      <c r="O61" t="n">
+        <v>40900</v>
+      </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
@@ -5287,7 +5312,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
@@ -5299,7 +5324,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>253295</v>
+        <v>235572</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5308,37 +5333,37 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>35</v>
       </c>
       <c r="E62" t="n">
-        <v>230.075</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>12-09-2025 08:14:03</t>
+          <t>08-09-2025 13:29:27</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12-09-2025 08:49:03</t>
+          <t>08-09-2025 14:04:27</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>12-09-2025 08:49:03</t>
+          <t>08-09-2025 14:04:27</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>12-09-2025 12:39:07</t>
+          <t>09-09-2025 07:27:26</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>27609</v>
+        <v>9958</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5357,31 +5382,29 @@
         <v>70</v>
       </c>
       <c r="O62" t="n">
-        <v>40274</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40904</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-0.5271701388888889</v>
+        <v>-689</v>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252397</v>
+        <v>253260</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5390,37 +5413,37 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E63" t="n">
-        <v>115.925</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>12-09-2025 12:39:07</t>
+          <t>09-09-2025 07:27:26</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12-09-2025 13:19:07</t>
+          <t>09-09-2025 07:57:26</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>12-09-2025 13:19:07</t>
+          <t>09-09-2025 07:57:26</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>15-09-2025 07:15:03</t>
+          <t>09-09-2025 09:46:50</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>13911</v>
+        <v>13129</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5429,14 +5452,17 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O63" t="n">
+        <v>40279</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5446,19 +5472,19 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="T63" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253472</v>
+        <v>253247</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5467,37 +5493,37 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E64" t="n">
-        <v>291.8</v>
+        <v>109.575</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>15-09-2025 07:15:03</t>
+          <t>09-09-2025 09:46:50</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>15-09-2025 07:55:03</t>
+          <t>09-09-2025 10:11:50</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>15-09-2025 07:55:03</t>
+          <t>09-09-2025 10:11:50</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>15-09-2025 12:46:51</t>
+          <t>09-09-2025 12:01:25</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>35016</v>
+        <v>13149</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5510,11 +5536,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" t="n">
         <v>70</v>
       </c>
+      <c r="O64" t="n">
+        <v>40279</v>
+      </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
@@ -5523,19 +5552,19 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253393</v>
+        <v>253455</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5544,37 +5573,37 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E65" t="n">
-        <v>77.63333333333334</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>15-09-2025 12:46:51</t>
+          <t>09-09-2025 12:01:25</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>15-09-2025 13:21:51</t>
+          <t>09-09-2025 12:26:25</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>15-09-2025 13:21:51</t>
+          <t>09-09-2025 12:26:25</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>15-09-2025 14:39:29</t>
+          <t>09-09-2025 13:21:58</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>9316</v>
+        <v>6667</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5583,15 +5612,18 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>CASON ;H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N65" t="n">
         <v>70</v>
       </c>
+      <c r="O65" t="n">
+        <v>40279</v>
+      </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
@@ -5600,19 +5632,19 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>19-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>253244</v>
+        <v>252601</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5621,37 +5653,37 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E66" t="n">
-        <v>166.5</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>15-09-2025 14:39:29</t>
+          <t>09-09-2025 13:21:58</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16-09-2025 07:09:29</t>
+          <t>09-09-2025 14:36:58</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>16-09-2025 07:09:29</t>
+          <t>09-09-2025 14:36:58</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>16-09-2025 09:55:59</t>
+          <t>10-09-2025 07:28:11</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>19980</v>
+        <v>6145</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5660,11 +5692,11 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N66" t="n">
         <v>70</v>
@@ -5677,19 +5709,19 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-6.413877314814814</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>253549</v>
+        <v>253208</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5698,37 +5730,37 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E67" t="n">
-        <v>163.6666666666667</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>16-09-2025 09:55:59</t>
+          <t>10-09-2025 07:28:11</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16-09-2025 10:30:59</t>
+          <t>10-09-2025 07:58:11</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>16-09-2025 10:30:59</t>
+          <t>10-09-2025 07:58:11</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>16-09-2025 13:14:39</t>
+          <t>10-09-2025 09:42:26</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>19640</v>
+        <v>12511</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5737,11 +5769,11 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N67" t="n">
         <v>70</v>
@@ -5754,19 +5786,19 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-5.404473379629629</v>
       </c>
       <c r="T67" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>253318</v>
+        <v>253210</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5779,33 +5811,33 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E68" t="n">
-        <v>51.55</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>16-09-2025 13:14:39</t>
+          <t>10-09-2025 09:42:26</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>16-09-2025 14:04:39</t>
+          <t>10-09-2025 10:07:26</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>16-09-2025 14:04:39</t>
+          <t>10-09-2025 10:07:26</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>16-09-2025 14:56:12</t>
+          <t>10-09-2025 11:41:36</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>6186</v>
+        <v>11299</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5814,17 +5846,14 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N68" t="n">
-        <v>76</v>
-      </c>
-      <c r="O68" t="n">
-        <v>40910</v>
+        <v>70</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -5834,58 +5863,58 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-13</v>
+        <v>-0.4872222222222222</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252274</v>
+        <v>252843</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E69" t="n">
-        <v>173.4166666666667</v>
+        <v>19.2</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>16-09-2025 14:56:12</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>17-09-2025 07:31:12</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>17-09-2025 07:31:12</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>17-09-2025 10:24:37</t>
+          <t>08-09-2025 07:46:12</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>20810</v>
+        <v>2304</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5898,11 +5927,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N69" t="n">
         <v>76</v>
       </c>
+      <c r="O69" t="n">
+        <v>40904</v>
+      </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
@@ -5911,11 +5943,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-8.433761574074074</v>
+        <v>-57</v>
       </c>
       <c r="T69" t="n">
         <v>2</v>
@@ -5923,46 +5955,46 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252741</v>
+        <v>252569</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E70" t="n">
-        <v>61.49166666666667</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>17-09-2025 10:24:37</t>
+          <t>08-09-2025 07:46:12</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17-09-2025 11:19:37</t>
+          <t>08-09-2025 08:13:12</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>17-09-2025 11:19:37</t>
+          <t>08-09-2025 08:13:12</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>17-09-2025 12:21:06</t>
+          <t>08-09-2025 08:22:47</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>7379</v>
+        <v>1150</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5971,14 +6003,14 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N70" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -5988,19 +6020,19 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
-        <v>0</v>
+        <v>-7.349155092592593</v>
       </c>
       <c r="T70" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>253194</v>
+        <v>253409</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -6016,30 +6048,30 @@
         <v>19</v>
       </c>
       <c r="E71" t="n">
-        <v>199.0833333333333</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>08-09-2025 08:22:47</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>08-09-2025 08:41:47</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>08-09-2025 08:41:47</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>08-09-2025 10:38:05</t>
+          <t>08-09-2025 09:08:58</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>23890</v>
+        <v>3262</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6068,11 +6100,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-32</v>
+        <v>-23</v>
       </c>
       <c r="T71" t="n">
         <v>1</v>
@@ -6080,7 +6112,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>253425</v>
+        <v>253194</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -6089,37 +6121,37 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>146.35</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-09-2025 10:38:05</t>
+          <t>08-09-2025 09:08:58</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08-09-2025 10:57:05</t>
+          <t>08-09-2025 09:23:58</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>08-09-2025 10:57:05</t>
+          <t>08-09-2025 09:23:58</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>08-09-2025 13:23:26</t>
+          <t>08-09-2025 12:43:03</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>17562</v>
+        <v>23890</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6132,11 +6164,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
         <v>76</v>
       </c>
+      <c r="O72" t="n">
+        <v>40910</v>
+      </c>
       <c r="P72" t="n">
         <v>0</v>
       </c>
@@ -6145,19 +6180,19 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-10.55793981481481</v>
+        <v>-32</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252843</v>
+        <v>253249</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -6166,37 +6201,37 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E73" t="n">
-        <v>19.2</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-09-2025 13:23:26</t>
+          <t>08-09-2025 12:43:03</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08-09-2025 13:46:26</t>
+          <t>08-09-2025 13:02:03</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>08-09-2025 13:46:26</t>
+          <t>08-09-2025 13:02:03</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>08-09-2025 14:05:38</t>
+          <t>08-09-2025 13:59:48</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>2304</v>
+        <v>6931</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6209,14 +6244,11 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N73" t="n">
         <v>76</v>
       </c>
-      <c r="O73" t="n">
-        <v>40904</v>
-      </c>
       <c r="P73" t="n">
         <v>0</v>
       </c>
@@ -6225,19 +6257,19 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-57</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>243569</v>
+        <v>253425</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6246,37 +6278,37 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E74" t="n">
-        <v>21.675</v>
+        <v>146.35</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-09-2025 14:05:38</t>
+          <t>08-09-2025 13:59:48</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08-09-2025 14:32:38</t>
+          <t>08-09-2025 14:18:48</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>08-09-2025 14:32:38</t>
+          <t>08-09-2025 14:18:48</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>08-09-2025 14:54:18</t>
+          <t>09-09-2025 08:45:09</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2601</v>
+        <v>17562</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6285,18 +6317,15 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N74" t="n">
         <v>76</v>
       </c>
-      <c r="O74" t="n">
-        <v>40904</v>
-      </c>
       <c r="P74" t="n">
         <v>0</v>
       </c>
@@ -6305,11 +6334,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-374</v>
+        <v>-11.36469328703704</v>
       </c>
       <c r="T74" t="n">
         <v>2</v>
@@ -6317,7 +6346,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252815</v>
+        <v>252827</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6326,37 +6355,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E75" t="n">
-        <v>242.9416666666667</v>
+        <v>410</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>08-09-2025 14:54:18</t>
+          <t>09-09-2025 08:45:09</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09-09-2025 07:19:18</t>
+          <t>09-09-2025 09:06:09</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>09-09-2025 07:19:18</t>
+          <t>09-09-2025 09:06:09</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>09-09-2025 11:22:15</t>
+          <t>10-09-2025 07:56:09</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>29153</v>
+        <v>49200</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -6365,11 +6394,11 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
         <v>76</v>
@@ -6382,11 +6411,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>04-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-4.473784722222222</v>
+        <v>-6.330665509259259</v>
       </c>
       <c r="T75" t="n">
         <v>4</v>
@@ -6394,7 +6423,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>252827</v>
+        <v>253706</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6403,37 +6432,37 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>27</v>
       </c>
       <c r="E76" t="n">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>09-09-2025 11:22:15</t>
+          <t>10-09-2025 07:56:09</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09-09-2025 11:49:15</t>
+          <t>10-09-2025 08:23:09</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>09-09-2025 11:49:15</t>
+          <t>10-09-2025 08:23:09</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>10-09-2025 10:39:15</t>
+          <t>10-09-2025 13:34:09</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>49200</v>
+        <v>37320</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -6446,7 +6475,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N76" t="n">
         <v>76</v>
@@ -6459,58 +6488,58 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-6.443923611111111</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>253602</v>
+        <v>244023</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E77" t="n">
-        <v>117.0833333333333</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>10-09-2025 10:39:15</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10-09-2025 11:00:15</t>
+          <t>09-09-2025 07:45:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>10-09-2025 11:00:15</t>
+          <t>09-09-2025 07:45:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>10-09-2025 12:57:20</t>
+          <t>09-09-2025 07:53:18</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>14050</v>
+        <v>997</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6519,14 +6548,14 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N77" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -6536,19 +6565,19 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-0.5398148148148149</v>
+        <v>-344.3286863425926</v>
       </c>
       <c r="T77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>253036</v>
+        <v>253686</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6557,37 +6586,37 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E78" t="n">
-        <v>78.73333333333333</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>09-09-2025 07:53:18</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:00</t>
+          <t>09-09-2025 08:23:18</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:00</t>
+          <t>09-09-2025 08:23:18</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>09-09-2025 08:53:44</t>
+          <t>09-09-2025 09:07:32</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>9448</v>
+        <v>5308</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -6596,17 +6625,14 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N78" t="n">
-        <v>76</v>
-      </c>
-      <c r="O78" t="n">
-        <v>40910</v>
+        <v>70</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -6616,19 +6642,19 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>253095</v>
+        <v>253659</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6641,33 +6667,33 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E79" t="n">
-        <v>76.31666666666666</v>
+        <v>323.75</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>09-09-2025 08:53:44</t>
+          <t>09-09-2025 09:07:32</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09-09-2025 09:28:44</t>
+          <t>09-09-2025 09:32:32</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>09-09-2025 09:28:44</t>
+          <t>09-09-2025 09:32:32</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>09-09-2025 10:45:03</t>
+          <t>09-09-2025 14:56:17</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>9158</v>
+        <v>38850</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -6676,11 +6702,11 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N79" t="n">
         <v>70</v>
@@ -6693,58 +6719,58 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S79" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>253016</v>
+        <v>253036</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E80" t="n">
-        <v>73.38333333333334</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>09-09-2025 14:56:17</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>05-09-2025 07:30:00</t>
+          <t>10-09-2025 07:36:17</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>05-09-2025 07:30:00</t>
+          <t>10-09-2025 07:36:17</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>05-09-2025 08:43:23</t>
+          <t>10-09-2025 08:55:01</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>8806</v>
+        <v>9448</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -6753,41 +6779,39 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N80" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O80" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40910</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S80" s="1" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="T80" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>252681</v>
+        <v>253016</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6796,37 +6820,37 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E81" t="n">
-        <v>115.0166666666667</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>05-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:30:00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:30:00</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>05-09-2025 08:43:23</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:18:23</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:18:23</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>05-09-2025 11:13:24</t>
-        </is>
-      </c>
       <c r="J81" t="n">
-        <v>13802</v>
+        <v>8806</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -6839,13 +6863,13 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N81" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O81" t="n">
-        <v>40279</v>
+        <v>40295</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -6853,18 +6877,18 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>40279</v>
+        <v>40295</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S81" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -6882,29 +6906,29 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E82" t="n">
         <v>17.41666666666667</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>05-09-2025 11:13:24</t>
+          <t>05-09-2025 08:43:23</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>05-09-2025 11:38:24</t>
+          <t>05-09-2025 09:18:23</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>05-09-2025 11:38:24</t>
+          <t>05-09-2025 09:18:23</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>05-09-2025 11:55:49</t>
+          <t>05-09-2025 09:35:48</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -6951,7 +6975,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>253259</v>
+        <v>252664</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6960,37 +6984,37 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>35</v>
       </c>
       <c r="E83" t="n">
-        <v>69.23333333333333</v>
+        <v>365.975</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>05-09-2025 11:55:49</t>
+          <t>05-09-2025 09:35:48</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>05-09-2025 12:30:49</t>
+          <t>05-09-2025 10:10:48</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>05-09-2025 12:30:49</t>
+          <t>05-09-2025 10:10:48</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>05-09-2025 13:40:03</t>
+          <t>08-09-2025 08:16:46</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>8308</v>
+        <v>43917</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -7009,7 +7033,7 @@
         <v>70</v>
       </c>
       <c r="O83" t="n">
-        <v>40295</v>
+        <v>40279</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -7017,15 +7041,15 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>40295</v>
+        <v>40279</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S83" s="1" t="n">
-        <v>0</v>
+        <v>-6.344982638888889</v>
       </c>
       <c r="T83" t="n">
         <v>7</v>
@@ -7053,22 +7077,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>05-09-2025 13:40:03</t>
+          <t>08-09-2025 08:16:46</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>05-09-2025 14:15:03</t>
+          <t>08-09-2025 08:51:46</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>05-09-2025 14:15:03</t>
+          <t>08-09-2025 08:51:46</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>08-09-2025 07:10:53</t>
+          <t>08-09-2025 09:47:36</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -7113,7 +7137,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>253527</v>
+        <v>252906</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -7122,37 +7146,37 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E85" t="n">
-        <v>67.48333333333333</v>
+        <v>34.725</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08-09-2025 07:10:53</t>
+          <t>08-09-2025 09:47:36</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>08-09-2025 07:50:53</t>
+          <t>08-09-2025 10:17:36</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>08-09-2025 07:50:53</t>
+          <t>08-09-2025 10:17:36</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:22</t>
+          <t>08-09-2025 10:52:20</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>8098</v>
+        <v>4167</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -7161,17 +7185,17 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N85" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O85" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -7181,19 +7205,19 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S85" s="1" t="n">
-        <v>-9</v>
+        <v>-31</v>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>253522</v>
+        <v>253100</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -7202,37 +7226,37 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E86" t="n">
-        <v>198.625</v>
+        <v>47.35</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:22</t>
+          <t>08-09-2025 10:52:20</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:22</t>
+          <t>08-09-2025 11:37:20</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:22</t>
+          <t>08-09-2025 11:37:20</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>08-09-2025 12:41:59</t>
+          <t>08-09-2025 12:24:41</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>23835</v>
+        <v>5682</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -7245,13 +7269,13 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N86" t="n">
         <v>70</v>
       </c>
       <c r="O86" t="n">
-        <v>40910</v>
+        <v>40900</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -7261,19 +7285,19 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S86" s="1" t="n">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="T86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>253528</v>
+        <v>250891</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -7282,37 +7306,37 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E87" t="n">
-        <v>119.175</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>08-09-2025 12:41:59</t>
+          <t>08-09-2025 12:24:41</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08-09-2025 13:06:59</t>
+          <t>08-09-2025 12:54:41</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>08-09-2025 13:06:59</t>
+          <t>08-09-2025 12:54:41</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>09-09-2025 07:06:10</t>
+          <t>08-09-2025 14:12:10</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>14301</v>
+        <v>9299</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -7325,7 +7349,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N87" t="n">
         <v>70</v>
@@ -7341,19 +7365,19 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S87" s="1" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="T87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>253524</v>
+        <v>253359</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -7366,33 +7390,33 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E88" t="n">
-        <v>58.75833333333333</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>09-09-2025 07:06:10</t>
+          <t>08-09-2025 14:12:10</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09-09-2025 07:31:10</t>
+          <t>08-09-2025 14:47:10</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>09-09-2025 07:31:10</t>
+          <t>08-09-2025 14:47:10</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>09-09-2025 08:29:55</t>
+          <t>09-09-2025 09:01:11</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>7051</v>
+        <v>16082</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -7411,7 +7435,7 @@
         <v>70</v>
       </c>
       <c r="O88" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -7421,11 +7445,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S88" s="1" t="n">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="T88" t="n">
         <v>1</v>
@@ -7433,7 +7457,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>253260</v>
+        <v>253268</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -7442,37 +7466,37 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D89" t="n">
         <v>30</v>
       </c>
       <c r="E89" t="n">
-        <v>109.4083333333333</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>09-09-2025 08:29:55</t>
+          <t>09-09-2025 09:01:11</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>09-09-2025 08:59:55</t>
+          <t>09-09-2025 09:31:11</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>09-09-2025 08:59:55</t>
+          <t>09-09-2025 09:31:11</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>09-09-2025 10:49:20</t>
+          <t>09-09-2025 10:49:45</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>13129</v>
+        <v>9427</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -7490,9 +7514,6 @@
       <c r="N89" t="n">
         <v>70</v>
       </c>
-      <c r="O89" t="n">
-        <v>40279</v>
-      </c>
       <c r="P89" t="n">
         <v>0</v>
       </c>
@@ -7501,19 +7522,19 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S89" s="1" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>253247</v>
+        <v>253267</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -7522,37 +7543,37 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D90" t="n">
         <v>25</v>
       </c>
       <c r="E90" t="n">
-        <v>109.575</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>09-09-2025 10:49:20</t>
+          <t>09-09-2025 10:49:45</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>09-09-2025 11:14:20</t>
+          <t>09-09-2025 11:14:45</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>09-09-2025 11:14:20</t>
+          <t>09-09-2025 11:14:45</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>09-09-2025 13:03:54</t>
+          <t>09-09-2025 13:59:07</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>13149</v>
+        <v>19724</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -7570,9 +7591,6 @@
       <c r="N90" t="n">
         <v>70</v>
       </c>
-      <c r="O90" t="n">
-        <v>40279</v>
-      </c>
       <c r="P90" t="n">
         <v>0</v>
       </c>
@@ -7581,19 +7599,19 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>253455</v>
+        <v>253332</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -7602,37 +7620,37 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E91" t="n">
-        <v>55.55833333333333</v>
+        <v>184.825</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>09-09-2025 13:03:54</t>
+          <t>09-09-2025 13:59:07</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09-09-2025 13:28:54</t>
+          <t>09-09-2025 14:34:07</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>09-09-2025 13:28:54</t>
+          <t>09-09-2025 14:34:07</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>09-09-2025 14:24:28</t>
+          <t>10-09-2025 09:38:56</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>6667</v>
+        <v>22179</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -7641,18 +7659,15 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N91" t="n">
         <v>70</v>
       </c>
-      <c r="O91" t="n">
-        <v>40279</v>
-      </c>
       <c r="P91" t="n">
         <v>0</v>
       </c>
@@ -7661,19 +7676,19 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S91" s="1" t="n">
-        <v>-2</v>
+        <v>-0.4020428240740741</v>
       </c>
       <c r="T91" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>253245</v>
+        <v>253687</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -7682,37 +7697,37 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>40</v>
       </c>
       <c r="E92" t="n">
-        <v>150.8333333333333</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>09-09-2025 14:24:28</t>
+          <t>10-09-2025 09:38:56</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>10-09-2025 07:04:28</t>
+          <t>10-09-2025 10:18:56</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>10-09-2025 07:04:28</t>
+          <t>10-09-2025 10:18:56</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>10-09-2025 09:35:18</t>
+          <t>10-09-2025 11:03:10</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>18100</v>
+        <v>5308</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -7725,14 +7740,11 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N92" t="n">
         <v>70</v>
       </c>
-      <c r="O92" t="n">
-        <v>40900</v>
-      </c>
       <c r="P92" t="n">
         <v>0</v>
       </c>
@@ -7741,77 +7753,74 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S92" s="1" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>253401</v>
+        <v>252980</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>22.81666666666667</v>
+        <v>17.075</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>10-09-2025 09:35:18</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10-09-2025 10:05:18</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>10-09-2025 10:05:18</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>10-09-2025 10:28:07</t>
+          <t>08-09-2025 07:17:04</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>2738</v>
+        <v>2049</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>70</v>
-      </c>
-      <c r="O93" t="n">
-        <v>40904</v>
+        <v>0</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -7821,90 +7830,13 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S93" s="1" t="n">
-        <v>-13</v>
+        <v>-0.3035243055555555</v>
       </c>
       <c r="T93" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>252980</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>03-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>17.075</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:17:04</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0</v>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>08-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S94" s="1" t="n">
-        <v>-0.3035243055555555</v>
-      </c>
-      <c r="T94" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/schedulazione.xlsx
+++ b/PS-VRP/Dati_output/schedulazione.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253278</v>
+        <v>253317</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -557,14 +557,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>28.425</v>
+        <v>102.775</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -573,21 +573,21 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:34:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:34:00</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 08:02:25</t>
+          <t>08-09-2025 08:59:46</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3411</v>
+        <v>12333</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,17 +596,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O2" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -616,19 +616,19 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
         <v>-13</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>253271</v>
+        <v>253318</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -637,37 +637,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>42.63333333333333</v>
+        <v>51.55</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:02:25</t>
+          <t>08-09-2025 08:59:46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:17:25</t>
+          <t>08-09-2025 09:14:46</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:17:25</t>
+          <t>08-09-2025 09:14:46</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 09:00:03</t>
+          <t>08-09-2025 10:06:19</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5116</v>
+        <v>6186</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -676,17 +676,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O3" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -696,19 +696,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-20</v>
+        <v>-13</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253072</v>
+        <v>253374</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -721,33 +721,33 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>29.13333333333333</v>
+        <v>59.60833333333333</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:00:03</t>
+          <t>08-09-2025 10:06:19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:15:03</t>
+          <t>08-09-2025 10:38:19</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:15:03</t>
+          <t>08-09-2025 10:38:19</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 09:44:11</t>
+          <t>08-09-2025 11:37:56</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3496</v>
+        <v>7153</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
         <v>70</v>
@@ -776,19 +776,19 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>253527</v>
+        <v>253372</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -797,37 +797,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>67.48333333333333</v>
+        <v>103.775</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 09:44:11</t>
+          <t>08-09-2025 11:37:56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:05:11</t>
+          <t>08-09-2025 11:56:56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 10:05:11</t>
+          <t>08-09-2025 11:56:56</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 11:12:40</t>
+          <t>08-09-2025 13:40:42</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>8098</v>
+        <v>12453</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -836,17 +836,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>70</v>
       </c>
       <c r="O5" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -856,11 +856,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>253524</v>
+        <v>253370</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -877,37 +877,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>58.75833333333333</v>
+        <v>207.5416666666667</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 11:12:40</t>
+          <t>08-09-2025 13:40:42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 11:27:40</t>
+          <t>08-09-2025 13:55:42</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 11:27:40</t>
+          <t>08-09-2025 13:55:42</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08-09-2025 12:26:26</t>
+          <t>09-09-2025 09:23:15</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>7051</v>
+        <v>24905</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -916,17 +916,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
         <v>70</v>
       </c>
       <c r="O6" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -936,11 +936,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>253522</v>
+        <v>244023</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -957,37 +957,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>198.625</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>08-09-2025 12:26:26</t>
+          <t>09-09-2025 09:23:15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08-09-2025 12:41:26</t>
+          <t>09-09-2025 09:46:15</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-09-2025 12:41:26</t>
+          <t>09-09-2025 09:46:15</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:00:03</t>
+          <t>09-09-2025 09:54:33</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>23835</v>
+        <v>997</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1000,14 +1000,11 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
       </c>
-      <c r="O7" t="n">
-        <v>40910</v>
-      </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
@@ -1016,11 +1013,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-9</v>
+        <v>-344.4128877314815</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -1028,7 +1025,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253528</v>
+        <v>253687</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1037,37 +1034,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>119.175</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:00:03</t>
+          <t>09-09-2025 09:54:33</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:15:03</t>
+          <t>09-09-2025 10:11:33</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 08:15:03</t>
+          <t>09-09-2025 10:11:33</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:14:14</t>
+          <t>09-09-2025 10:55:47</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>14301</v>
+        <v>5308</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1080,14 +1077,11 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
         <v>70</v>
       </c>
-      <c r="O8" t="n">
-        <v>40910</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
@@ -1096,7 +1090,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1108,7 +1102,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252815</v>
+        <v>252833</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1117,37 +1111,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>242.9416666666667</v>
+        <v>74.78333333333333</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 10:14:14</t>
+          <t>09-09-2025 10:55:47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 10:54:14</t>
+          <t>09-09-2025 11:14:47</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 10:54:14</t>
+          <t>09-09-2025 11:14:47</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09-09-2025 14:57:10</t>
+          <t>09-09-2025 12:29:34</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>29153</v>
+        <v>8974</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1156,14 +1150,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1173,11 +1167,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-4.623038194444445</v>
+        <v>-14.52053819444444</v>
       </c>
       <c r="T9" t="n">
         <v>4</v>
@@ -1185,7 +1179,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>253602</v>
+        <v>252939</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1194,37 +1188,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>117.0833333333333</v>
+        <v>89.8</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 14:57:10</t>
+          <t>09-09-2025 12:29:34</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10-09-2025 07:18:10</t>
+          <t>09-09-2025 12:48:34</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10-09-2025 07:18:10</t>
+          <t>09-09-2025 12:48:34</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10-09-2025 09:15:15</t>
+          <t>09-09-2025 14:18:22</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>14050</v>
+        <v>10776</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1233,14 +1227,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1250,11 +1244,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.3855960648148148</v>
+        <v>-18.59609375</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1262,46 +1256,46 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253317</v>
+        <v>253332</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>102.775</v>
+        <v>184.825</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>09-09-2025 14:18:22</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>09-09-2025 14:35:22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08-09-2025 07:29:00</t>
+          <t>09-09-2025 14:35:22</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>08-09-2025 09:11:46</t>
+          <t>10-09-2025 09:40:12</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12333</v>
+        <v>22179</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1310,17 +1304,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>76</v>
-      </c>
-      <c r="O11" t="n">
-        <v>40910</v>
+        <v>70</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1330,19 +1321,19 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-13</v>
+        <v>-0.4029166666666666</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>252939</v>
+        <v>253361</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1351,37 +1342,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" t="n">
-        <v>89.8</v>
+        <v>76.70833333333333</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-09-2025 09:11:46</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:46</t>
+          <t>08-09-2025 07:42:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-09-2025 09:55:46</t>
+          <t>08-09-2025 07:42:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>08-09-2025 11:25:34</t>
+          <t>08-09-2025 08:58:42</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>10776</v>
+        <v>9205</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1390,15 +1381,18 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
         <v>70</v>
       </c>
+      <c r="O12" t="n">
+        <v>40904</v>
+      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
@@ -1407,19 +1401,19 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-17.47609375</v>
+        <v>-14</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250284</v>
+        <v>253375</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1428,37 +1422,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>146.35</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-09-2025 11:25:34</t>
+          <t>08-09-2025 08:58:42</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-09-2025 12:00:34</t>
+          <t>08-09-2025 09:23:42</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-09-2025 12:00:34</t>
+          <t>08-09-2025 09:23:42</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>08-09-2025 14:26:55</t>
+          <t>08-09-2025 10:15:35</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>17562</v>
+        <v>6226</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1467,17 +1461,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>70</v>
       </c>
       <c r="O13" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1487,19 +1481,19 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-193</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252216</v>
+        <v>253368</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1508,37 +1502,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>141.8083333333333</v>
+        <v>103.775</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-09-2025 14:26:55</t>
+          <t>08-09-2025 10:15:35</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-09-2025 14:55:55</t>
+          <t>08-09-2025 10:40:35</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-09-2025 14:55:55</t>
+          <t>08-09-2025 10:40:35</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>09-09-2025 09:17:44</t>
+          <t>08-09-2025 12:24:22</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>17017</v>
+        <v>12453</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1547,17 +1541,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
         <v>70</v>
       </c>
       <c r="O14" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1567,19 +1561,19 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253318</v>
+        <v>253377</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1588,37 +1582,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>51.55</v>
+        <v>127.7166666666667</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>09-09-2025 09:17:44</t>
+          <t>08-09-2025 12:24:22</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09-09-2025 10:11:44</t>
+          <t>08-09-2025 12:49:22</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09-09-2025 10:11:44</t>
+          <t>08-09-2025 12:49:22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>09-09-2025 11:03:17</t>
+          <t>08-09-2025 14:57:05</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>6186</v>
+        <v>15326</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1627,17 +1621,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O15" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1647,11 +1641,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -1659,7 +1653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252681</v>
+        <v>253367</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1668,37 +1662,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>115.0166666666667</v>
+        <v>135.7</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>09-09-2025 11:03:17</t>
+          <t>08-09-2025 14:57:05</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09-09-2025 11:32:17</t>
+          <t>09-09-2025 07:22:05</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09-09-2025 11:32:17</t>
+          <t>09-09-2025 07:22:05</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>09-09-2025 13:27:18</t>
+          <t>09-09-2025 09:37:47</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>13802</v>
+        <v>16284</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1707,41 +1701,39 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O16" t="n">
-        <v>40279</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40904</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252995</v>
+        <v>253371</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1750,37 +1742,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>68.31666666666666</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-09-2025 13:27:18</t>
+          <t>09-09-2025 09:37:47</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09-09-2025 13:56:18</t>
+          <t>09-09-2025 10:02:47</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09-09-2025 13:56:18</t>
+          <t>09-09-2025 10:02:47</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10-09-2025 07:04:37</t>
+          <t>09-09-2025 11:50:33</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>8198</v>
+        <v>12932</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1789,14 +1781,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O17" t="n">
+        <v>40904</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1806,58 +1801,58 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-9.294872685185185</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>252702</v>
+        <v>253525</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>58.38333333333333</v>
+        <v>92.14166666666667</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>09-09-2025 11:50:33</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05-09-2025 07:34:00</t>
+          <t>09-09-2025 12:15:33</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>05-09-2025 07:34:00</t>
+          <t>09-09-2025 12:15:33</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>05-09-2025 08:32:23</t>
+          <t>09-09-2025 13:47:41</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>7006</v>
+        <v>11057</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1866,29 +1861,27 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O18" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40904</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>26-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -1900,46 +1893,46 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253362</v>
+        <v>253095</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>58.38333333333333</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>05-09-2025 08:32:23</t>
+          <t>09-09-2025 13:47:41</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05-09-2025 08:47:23</t>
+          <t>09-09-2025 14:14:41</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>05-09-2025 08:47:23</t>
+          <t>09-09-2025 14:14:41</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>05-09-2025 09:45:46</t>
+          <t>10-09-2025 07:31:00</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>7006</v>
+        <v>9158</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1948,80 +1941,75 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>152</v>
-      </c>
-      <c r="O19" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252679</v>
+        <v>253602</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>05-09-2025 09:45:46</t>
+          <t>10-09-2025 07:31:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05-09-2025 10:19:46</t>
+          <t>10-09-2025 08:17:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05-09-2025 10:19:46</t>
+          <t>10-09-2025 08:17:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>05-09-2025 11:19:46</t>
+          <t>10-09-2025 10:14:05</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>7200</v>
+        <v>14050</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2039,32 +2027,27 @@
       <c r="N20" t="n">
         <v>76</v>
       </c>
-      <c r="O20" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P20" t="n">
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0</v>
+        <v>-0.4264525462962963</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>253259</v>
+        <v>252582</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2077,33 +2060,33 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
-        <v>69.23333333333333</v>
+        <v>46.08333333333334</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05-09-2025 11:19:46</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05-09-2025 11:55:46</t>
+          <t>05-09-2025 07:34:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>05-09-2025 11:55:46</t>
+          <t>05-09-2025 07:34:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>05-09-2025 13:05:00</t>
+          <t>05-09-2025 08:20:05</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>8308</v>
+        <v>5530</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2112,17 +2095,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O21" t="n">
-        <v>40295</v>
+        <v>40290</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2130,23 +2113,23 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>40295</v>
+        <v>40290</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>18-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>243569</v>
+        <v>253016</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2155,37 +2138,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>21.675</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>05-09-2025 13:05:00</t>
+          <t>05-09-2025 08:20:05</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05-09-2025 13:37:00</t>
+          <t>05-09-2025 08:52:05</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>05-09-2025 13:37:00</t>
+          <t>05-09-2025 08:52:05</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>05-09-2025 13:58:40</t>
+          <t>05-09-2025 10:05:28</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2601</v>
+        <v>8806</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2198,27 +2181,29 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O22" t="n">
-        <v>40904</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
+        <v>40295</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>14-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-374</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>2</v>
@@ -2226,7 +2211,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>253284</v>
+        <v>252679</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2235,37 +2220,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E23" t="n">
-        <v>56.99166666666667</v>
+        <v>60</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05-09-2025 13:58:40</t>
+          <t>05-09-2025 10:05:28</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05-09-2025 14:15:40</t>
+          <t>05-09-2025 10:41:28</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>05-09-2025 14:15:40</t>
+          <t>05-09-2025 10:41:28</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>08-09-2025 07:12:40</t>
+          <t>05-09-2025 11:41:28</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>6839</v>
+        <v>7200</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2278,35 +2263,37 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="n">
         <v>76</v>
       </c>
       <c r="O23" t="n">
-        <v>40910</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
+        <v>40295</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253313</v>
+        <v>253259</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2319,33 +2306,33 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E24" t="n">
-        <v>100.0083333333333</v>
+        <v>69.23333333333333</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>08-09-2025 07:12:40</t>
+          <t>05-09-2025 11:41:28</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:40</t>
+          <t>05-09-2025 12:17:28</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:40</t>
+          <t>05-09-2025 12:17:28</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>08-09-2025 09:07:40</t>
+          <t>05-09-2025 13:26:42</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>12001</v>
+        <v>8308</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2354,39 +2341,41 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
-        <v>40910</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
+        <v>40295</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>253375</v>
+        <v>253140</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2399,33 +2388,33 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25" t="n">
-        <v>51.88333333333333</v>
+        <v>55.83333333333334</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>08-09-2025 09:07:40</t>
+          <t>05-09-2025 13:26:42</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08-09-2025 09:41:40</t>
+          <t>05-09-2025 13:58:42</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-09-2025 09:41:40</t>
+          <t>05-09-2025 13:58:42</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>08-09-2025 10:33:33</t>
+          <t>05-09-2025 14:54:32</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>6226</v>
+        <v>6700</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2434,17 +2423,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O25" t="n">
-        <v>40904</v>
+        <v>40900</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2454,11 +2443,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>26-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="T25" t="n">
         <v>1</v>
@@ -2466,7 +2455,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253368</v>
+        <v>253284</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2475,37 +2464,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>103.775</v>
+        <v>56.99166666666667</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>08-09-2025 10:33:33</t>
+          <t>05-09-2025 14:54:32</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-09-2025 10:48:33</t>
+          <t>08-09-2025 07:11:32</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-09-2025 10:48:33</t>
+          <t>08-09-2025 07:11:32</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>08-09-2025 12:32:20</t>
+          <t>08-09-2025 08:08:31</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>12453</v>
+        <v>6839</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2514,17 +2503,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O26" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2534,11 +2523,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>28-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2546,7 +2535,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253370</v>
+        <v>253313</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2555,37 +2544,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>207.5416666666667</v>
+        <v>100.0083333333333</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-09-2025 12:32:20</t>
+          <t>08-09-2025 08:08:31</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-09-2025 12:47:20</t>
+          <t>08-09-2025 08:23:31</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-09-2025 12:47:20</t>
+          <t>08-09-2025 08:23:31</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>09-09-2025 08:14:52</t>
+          <t>08-09-2025 10:03:32</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>24905</v>
+        <v>12001</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2594,17 +2583,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O27" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2614,11 +2603,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="T27" t="n">
         <v>1</v>
@@ -2626,7 +2615,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253376</v>
+        <v>253527</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2635,37 +2624,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>179.6083333333333</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>09-09-2025 08:14:52</t>
+          <t>08-09-2025 10:03:32</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09-09-2025 08:29:52</t>
+          <t>08-09-2025 10:35:32</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>09-09-2025 08:29:52</t>
+          <t>08-09-2025 10:35:32</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>09-09-2025 11:29:29</t>
+          <t>08-09-2025 11:43:01</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>21553</v>
+        <v>8098</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2674,17 +2663,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
         <v>70</v>
       </c>
       <c r="O28" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2694,11 +2683,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="T28" t="n">
         <v>1</v>
@@ -2706,7 +2695,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253367</v>
+        <v>253524</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2715,37 +2704,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>135.7</v>
+        <v>58.75833333333333</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>09-09-2025 11:29:29</t>
+          <t>08-09-2025 11:43:01</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:29</t>
+          <t>08-09-2025 11:58:01</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09-09-2025 11:44:29</t>
+          <t>08-09-2025 11:58:01</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:11</t>
+          <t>08-09-2025 12:56:46</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>16284</v>
+        <v>7051</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2754,17 +2743,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
         <v>70</v>
       </c>
       <c r="O29" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2774,11 +2763,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="T29" t="n">
         <v>1</v>
@@ -2786,7 +2775,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253372</v>
+        <v>253528</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2795,37 +2784,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>11-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>103.775</v>
+        <v>119.175</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:11</t>
+          <t>08-09-2025 12:56:46</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09-09-2025 14:15:11</t>
+          <t>08-09-2025 13:11:46</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09-09-2025 14:15:11</t>
+          <t>08-09-2025 13:11:46</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10-09-2025 07:58:57</t>
+          <t>09-09-2025 07:10:57</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>12453</v>
+        <v>14301</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2834,17 +2823,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
         <v>70</v>
       </c>
       <c r="O30" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2866,7 +2855,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>253377</v>
+        <v>250891</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2875,37 +2864,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E31" t="n">
-        <v>127.7166666666667</v>
+        <v>77.49166666666666</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10-09-2025 07:58:57</t>
+          <t>09-09-2025 07:10:57</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10-09-2025 08:13:57</t>
+          <t>09-09-2025 07:29:57</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10-09-2025 08:13:57</t>
+          <t>09-09-2025 07:29:57</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10-09-2025 10:21:40</t>
+          <t>09-09-2025 08:47:26</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>15326</v>
+        <v>9299</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2914,17 +2903,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
         <v>70</v>
       </c>
       <c r="O31" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2934,19 +2923,19 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>13-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>253525</v>
+        <v>252216</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2955,37 +2944,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E32" t="n">
-        <v>92.14166666666667</v>
+        <v>141.8083333333333</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10-09-2025 10:21:40</t>
+          <t>09-09-2025 08:47:26</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10-09-2025 10:36:40</t>
+          <t>09-09-2025 09:12:26</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10-09-2025 10:36:40</t>
+          <t>09-09-2025 09:12:26</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10-09-2025 12:08:49</t>
+          <t>09-09-2025 11:34:15</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>11057</v>
+        <v>17017</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2994,17 +2983,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
         <v>70</v>
       </c>
       <c r="O32" t="n">
-        <v>40904</v>
+        <v>40910</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3014,19 +3003,19 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>253361</v>
+        <v>252815</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3035,37 +3024,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E33" t="n">
-        <v>76.70833333333333</v>
+        <v>242.9416666666667</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10-09-2025 12:08:49</t>
+          <t>09-09-2025 11:34:15</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10-09-2025 12:23:49</t>
+          <t>09-09-2025 12:08:15</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10-09-2025 12:23:49</t>
+          <t>09-09-2025 12:08:15</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10-09-2025 13:40:31</t>
+          <t>10-09-2025 08:11:11</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>9205</v>
+        <v>29153</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3074,17 +3063,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N33" t="n">
-        <v>70</v>
-      </c>
-      <c r="O33" t="n">
-        <v>40904</v>
+        <v>76</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3094,58 +3080,58 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-14</v>
+        <v>-5.341105324074074</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253245</v>
+        <v>253686</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>19</v>
+        <v>38.5</v>
       </c>
       <c r="E34" t="n">
-        <v>150.8333333333333</v>
+        <v>44.23333333333333</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10-09-2025 13:40:31</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10-09-2025 13:59:31</t>
+          <t>09-09-2025 07:38:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>10-09-2025 13:59:31</t>
+          <t>09-09-2025 07:38:30</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11-09-2025 08:30:21</t>
+          <t>09-09-2025 08:22:44</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>18100</v>
+        <v>5308</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3158,14 +3144,11 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
         <v>70</v>
       </c>
-      <c r="O34" t="n">
-        <v>40900</v>
-      </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
@@ -3174,58 +3157,58 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>253371</v>
+        <v>252883</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>19</v>
+        <v>44.5</v>
       </c>
       <c r="E35" t="n">
-        <v>107.7666666666667</v>
+        <v>247.3083333333333</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>11-09-2025 08:30:21</t>
+          <t>09-09-2025 08:22:44</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11-09-2025 08:49:21</t>
+          <t>09-09-2025 09:07:14</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11-09-2025 08:49:21</t>
+          <t>09-09-2025 09:07:14</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>11-09-2025 10:37:07</t>
+          <t>09-09-2025 13:14:32</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>12932</v>
+        <v>29677</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3234,17 +3217,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N35" t="n">
         <v>70</v>
       </c>
       <c r="O35" t="n">
-        <v>40904</v>
+        <v>40900</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3254,11 +3237,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="T35" t="n">
         <v>1</v>
@@ -3266,46 +3249,46 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253401</v>
+        <v>253208</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="E36" t="n">
-        <v>22.81666666666667</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11-09-2025 10:37:07</t>
+          <t>09-09-2025 13:14:32</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11-09-2025 10:54:07</t>
+          <t>09-09-2025 13:47:02</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11-09-2025 10:54:07</t>
+          <t>09-09-2025 13:47:02</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>11-09-2025 11:16:56</t>
+          <t>10-09-2025 07:31:18</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>2738</v>
+        <v>12511</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3314,18 +3297,15 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N36" t="n">
         <v>70</v>
       </c>
-      <c r="O36" t="n">
-        <v>40904</v>
-      </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
@@ -3334,58 +3314,58 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-13</v>
+        <v>-5.313402777777778</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>253436</v>
+        <v>253210</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>21</v>
+        <v>30.5</v>
       </c>
       <c r="E37" t="n">
-        <v>18.85</v>
+        <v>94.15833333333333</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>11-09-2025 11:16:56</t>
+          <t>10-09-2025 07:31:18</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11-09-2025 11:37:56</t>
+          <t>10-09-2025 08:01:48</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11-09-2025 11:37:56</t>
+          <t>10-09-2025 08:01:48</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>11-09-2025 11:56:47</t>
+          <t>10-09-2025 09:35:57</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2262</v>
+        <v>11299</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3394,18 +3374,15 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N37" t="n">
         <v>70</v>
       </c>
-      <c r="O37" t="n">
-        <v>40911</v>
-      </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
@@ -3418,54 +3395,54 @@
         </is>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-11</v>
+        <v>-0.3999710648148148</v>
       </c>
       <c r="T37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>253261</v>
+        <v>252002</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>01-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E38" t="n">
-        <v>18.85</v>
+        <v>55.675</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>11-09-2025 11:56:47</t>
+          <t>04-09-2025 12:00:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11-09-2025 12:11:47</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>11-09-2025 12:11:47</t>
+          <t>04-09-2025 12:55:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>11-09-2025 12:30:38</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>2262</v>
+        <v>6681</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3478,19 +3455,23 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
         <v>70</v>
       </c>
-      <c r="O38" t="n">
-        <v>40911</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>40307 (esterno)</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>40307</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3498,54 +3479,54 @@
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-27</v>
+        <v>-10.57685763888889</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>244743</v>
+        <v>235572</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E39" t="n">
-        <v>29.34166666666667</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>11-09-2025 12:30:38</t>
+          <t>04-09-2025 13:50:40</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11-09-2025 12:51:38</t>
+          <t>04-09-2025 14:20:40</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>11-09-2025 12:51:38</t>
+          <t>04-09-2025 14:20:40</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>11-09-2025 13:20:59</t>
+          <t>05-09-2025 07:43:39</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>3521</v>
+        <v>9958</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3558,13 +3539,13 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N39" t="n">
         <v>70</v>
       </c>
       <c r="O39" t="n">
-        <v>40911</v>
+        <v>40904</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -3574,58 +3555,58 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-27</v>
+        <v>-689</v>
       </c>
       <c r="T39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252529</v>
+        <v>253314</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>02-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E40" t="n">
-        <v>68.08333333333333</v>
+        <v>43.40833333333333</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>11-09-2025 13:20:59</t>
+          <t>05-09-2025 07:43:39</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11-09-2025 13:54:59</t>
+          <t>05-09-2025 08:23:39</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11-09-2025 13:54:59</t>
+          <t>05-09-2025 08:23:39</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>12-09-2025 07:03:04</t>
+          <t>05-09-2025 09:07:04</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>8170</v>
+        <v>5209</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3638,71 +3619,76 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
         <v>76</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
+      <c r="O40" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-7.293796296296296</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>253295</v>
+        <v>253036</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E41" t="n">
-        <v>230.075</v>
+        <v>78.73333333333333</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>12-09-2025 07:03:04</t>
+          <t>05-09-2025 09:07:04</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12-09-2025 07:37:04</t>
+          <t>05-09-2025 09:37:04</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>12-09-2025 07:37:04</t>
+          <t>05-09-2025 09:37:04</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>12-09-2025 11:27:08</t>
+          <t>05-09-2025 10:55:48</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>27609</v>
+        <v>9448</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3711,80 +3697,78 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>H7 ;R5</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O41" t="n">
-        <v>40274</v>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40910</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>40274</v>
+        <v>0</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>22-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-0.477181712962963</v>
+        <v>-30</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252397</v>
+        <v>252685</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E42" t="n">
-        <v>115.925</v>
+        <v>74.56666666666666</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>12-09-2025 11:27:08</t>
+          <t>05-09-2025 10:55:48</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12-09-2025 11:59:08</t>
+          <t>05-09-2025 11:25:48</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>12-09-2025 11:59:08</t>
+          <t>05-09-2025 11:25:48</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>12-09-2025 13:55:04</t>
+          <t>05-09-2025 12:40:22</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>13911</v>
+        <v>8948</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3802,66 +3786,71 @@
       <c r="N42" t="n">
         <v>76</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
+      <c r="O42" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252274</v>
+        <v>252682</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E43" t="n">
-        <v>173.4166666666667</v>
+        <v>83.40833333333333</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12-09-2025 13:55:04</t>
+          <t>05-09-2025 12:40:22</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12-09-2025 14:12:04</t>
+          <t>05-09-2025 13:20:22</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>12-09-2025 14:12:04</t>
+          <t>05-09-2025 13:20:22</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>15-09-2025 09:05:29</t>
+          <t>05-09-2025 14:43:46</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>20810</v>
+        <v>10009</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3874,71 +3863,76 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="n">
         <v>76</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
+      <c r="O43" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>09-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-6.378807870370371</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>253244</v>
+        <v>252995</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>166.5</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>15-09-2025 09:05:29</t>
+          <t>05-09-2025 14:43:46</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15-09-2025 09:37:29</t>
+          <t>08-09-2025 07:13:46</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>15-09-2025 09:37:29</t>
+          <t>08-09-2025 07:13:46</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>15-09-2025 12:23:59</t>
+          <t>08-09-2025 08:22:05</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>19980</v>
+        <v>8198</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3947,14 +3941,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -3964,58 +3958,58 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-5.516655092592592</v>
+        <v>-7.348674768518518</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>253549</v>
+        <v>253194</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E45" t="n">
-        <v>163.6666666666667</v>
+        <v>199.0833333333333</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>15-09-2025 12:23:59</t>
+          <t>08-09-2025 08:22:05</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15-09-2025 12:42:59</t>
+          <t>08-09-2025 08:57:05</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>15-09-2025 12:42:59</t>
+          <t>08-09-2025 08:57:05</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>16-09-2025 07:26:39</t>
+          <t>08-09-2025 12:16:10</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>19640</v>
+        <v>23890</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4024,14 +4018,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O45" t="n">
+        <v>40910</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -4041,58 +4038,58 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>20-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>253472</v>
+        <v>252843</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E46" t="n">
-        <v>291.8</v>
+        <v>19.2</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>16-09-2025 07:26:39</t>
+          <t>08-09-2025 12:16:10</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>16-09-2025 07:43:39</t>
+          <t>08-09-2025 13:11:10</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>16-09-2025 07:43:39</t>
+          <t>08-09-2025 13:11:10</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>16-09-2025 12:35:27</t>
+          <t>08-09-2025 13:30:22</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>35016</v>
+        <v>2304</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4101,14 +4098,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N46" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O46" t="n">
+        <v>40904</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4118,58 +4118,58 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>16-09-2025 00:00:00</t>
+          <t>30-07-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-0.5246180555555555</v>
+        <v>-57</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252741</v>
+        <v>253659</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E47" t="n">
-        <v>61.49166666666667</v>
+        <v>323.75</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>16-09-2025 12:35:27</t>
+          <t>08-09-2025 13:30:22</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>16-09-2025 12:58:27</t>
+          <t>08-09-2025 14:25:22</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>16-09-2025 12:58:27</t>
+          <t>08-09-2025 14:25:22</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>16-09-2025 13:59:56</t>
+          <t>09-09-2025 11:49:07</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>7379</v>
+        <v>38850</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4195,58 +4195,58 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>253668</v>
+        <v>250284</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E48" t="n">
-        <v>189.8666666666667</v>
+        <v>146.35</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>16-09-2025 13:59:56</t>
+          <t>09-09-2025 11:49:07</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>16-09-2025 14:20:56</t>
+          <t>09-09-2025 12:29:07</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>16-09-2025 14:20:56</t>
+          <t>09-09-2025 12:29:07</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>17-09-2025 09:30:48</t>
+          <t>09-09-2025 14:55:28</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>22784</v>
+        <v>17562</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4255,15 +4255,18 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N48" t="n">
         <v>70</v>
       </c>
+      <c r="O48" t="n">
+        <v>40910</v>
+      </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
@@ -4272,11 +4275,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0</v>
+        <v>-193</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4284,11 +4287,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252833</v>
+        <v>253223</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4297,33 +4300,33 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>34.5</v>
+        <v>50</v>
       </c>
       <c r="E49" t="n">
-        <v>74.78333333333333</v>
+        <v>16.4</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>09-09-2025 14:55:28</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>10-09-2025 07:45:28</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>09-09-2025 07:34:30</t>
+          <t>10-09-2025 07:45:28</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:17</t>
+          <t>10-09-2025 08:01:52</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>8974</v>
+        <v>1968</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4332,11 +4335,11 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N49" t="n">
         <v>70</v>
@@ -4349,58 +4352,58 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-14.36755787037037</v>
+        <v>-9.334635416666666</v>
       </c>
       <c r="T49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>253223</v>
+        <v>252601</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>50.5</v>
+        <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>16.4</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:17</t>
+          <t>10-09-2025 08:01:52</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09-09-2025 09:39:47</t>
+          <t>10-09-2025 08:31:52</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>09-09-2025 09:39:47</t>
+          <t>10-09-2025 08:31:52</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>09-09-2025 09:56:11</t>
+          <t>10-09-2025 09:23:05</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1968</v>
+        <v>6145</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4413,7 +4416,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N50" t="n">
         <v>70</v>
@@ -4426,11 +4429,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>31-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-8.414016203703703</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>7</v>
@@ -4438,46 +4441,46 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>253246</v>
+        <v>252827</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>48.5</v>
+        <v>17</v>
       </c>
       <c r="E51" t="n">
-        <v>194.25</v>
+        <v>410</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>09-09-2025 09:56:11</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09-09-2025 10:44:41</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>09-09-2025 10:44:41</t>
+          <t>08-09-2025 07:17:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>09-09-2025 13:58:56</t>
+          <t>08-09-2025 14:07:00</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>23310</v>
+        <v>49200</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4486,78 +4489,75 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>76</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>04-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>-4.588194444444444</v>
+      </c>
+      <c r="T51" t="n">
         <v>4</v>
-      </c>
-      <c r="N51" t="n">
-        <v>70</v>
-      </c>
-      <c r="O51" t="n">
-        <v>40900</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>10-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S51" s="1" t="n">
-        <v>-11</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>253710</v>
+        <v>243569</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="E52" t="n">
-        <v>1.616666666666667</v>
+        <v>21.675</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>09-09-2025 13:58:56</t>
+          <t>08-09-2025 14:07:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09-09-2025 14:31:26</t>
+          <t>08-09-2025 14:24:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>09-09-2025 14:31:26</t>
+          <t>08-09-2025 14:24:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>09-09-2025 14:33:03</t>
+          <t>08-09-2025 14:45:40</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>194</v>
+        <v>2601</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4566,14 +4566,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O52" t="n">
+        <v>40904</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -4583,58 +4586,58 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>16-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0</v>
+        <v>-374</v>
       </c>
       <c r="T52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>253095</v>
+        <v>252569</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="E53" t="n">
-        <v>76.31666666666666</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>09-09-2025 14:33:03</t>
+          <t>08-09-2025 14:45:40</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10-09-2025 07:05:33</t>
+          <t>09-09-2025 07:04:40</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>10-09-2025 07:05:33</t>
+          <t>09-09-2025 07:04:40</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>10-09-2025 08:21:52</t>
+          <t>09-09-2025 07:14:15</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>9158</v>
+        <v>1150</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4643,14 +4646,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -4660,58 +4663,58 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-8.301568287037037</v>
       </c>
       <c r="T53" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>253314</v>
+        <v>253249</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>28-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E54" t="n">
-        <v>43.40833333333333</v>
+        <v>57.75833333333333</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>09-09-2025 07:14:15</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>09-09-2025 07:33:15</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>09-09-2025 07:33:15</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>04-09-2025 13:38:24</t>
+          <t>09-09-2025 08:31:01</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>5209</v>
+        <v>6931</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4724,76 +4727,71 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" t="n">
         <v>76</v>
       </c>
-      <c r="O54" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P54" t="n">
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252002</v>
+        <v>253425</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E55" t="n">
-        <v>55.675</v>
+        <v>146.35</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>04-09-2025 13:38:24</t>
+          <t>09-09-2025 08:31:01</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04-09-2025 14:28:24</t>
+          <t>09-09-2025 08:50:01</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>04-09-2025 14:28:24</t>
+          <t>09-09-2025 08:50:01</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>05-09-2025 07:24:05</t>
+          <t>09-09-2025 11:16:22</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>6681</v>
+        <v>17562</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4802,82 +4800,75 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="n">
-        <v>70</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>40307</v>
+        <v>0</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-11.3083912037037</v>
+        <v>-11.46969907407407</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>252582</v>
+        <v>253409</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>27-08-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E56" t="n">
-        <v>46.08333333333334</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>05-09-2025 07:24:05</t>
+          <t>09-09-2025 11:16:22</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>05-09-2025 08:04:05</t>
+          <t>09-09-2025 11:35:22</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>05-09-2025 08:04:05</t>
+          <t>09-09-2025 11:35:22</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>05-09-2025 08:50:10</t>
+          <t>09-09-2025 12:02:33</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>5530</v>
+        <v>3262</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4896,23 +4887,21 @@
         <v>76</v>
       </c>
       <c r="O56" t="n">
-        <v>40290</v>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40910</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>29-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="T56" t="n">
         <v>1</v>
@@ -4920,46 +4909,46 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252685</v>
+        <v>252906</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E57" t="n">
-        <v>74.56666666666666</v>
+        <v>34.725</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>05-09-2025 08:50:10</t>
+          <t>09-09-2025 12:02:33</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>05-09-2025 09:20:10</t>
+          <t>09-09-2025 12:19:33</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>05-09-2025 09:20:10</t>
+          <t>09-09-2025 12:19:33</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>05-09-2025 10:34:44</t>
+          <t>09-09-2025 12:54:16</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>8948</v>
+        <v>4167</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4978,70 +4967,68 @@
         <v>76</v>
       </c>
       <c r="O57" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>40904</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="T57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>252682</v>
+        <v>253706</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E58" t="n">
-        <v>83.40833333333333</v>
+        <v>311</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>05-09-2025 10:34:44</t>
+          <t>09-09-2025 12:54:16</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05-09-2025 11:14:44</t>
+          <t>09-09-2025 13:17:16</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>05-09-2025 11:14:44</t>
+          <t>09-09-2025 13:17:16</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>05-09-2025 12:38:08</t>
+          <t>10-09-2025 10:28:16</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>10009</v>
+        <v>37320</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5050,80 +5037,75 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N58" t="n">
         <v>76</v>
       </c>
-      <c r="O58" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P58" t="n">
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>30-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>253374</v>
+        <v>253246</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E59" t="n">
-        <v>59.60833333333333</v>
+        <v>194.25</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>05-09-2025 12:38:08</t>
+          <t>09-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>05-09-2025 13:28:08</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>05-09-2025 13:28:08</t>
+          <t>09-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>05-09-2025 14:27:45</t>
+          <t>09-09-2025 10:49:15</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>7153</v>
+        <v>23310</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5142,7 +5124,7 @@
         <v>70</v>
       </c>
       <c r="O59" t="n">
-        <v>40904</v>
+        <v>40900</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -5152,23 +5134,23 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252883</v>
+        <v>253100</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5177,33 +5159,33 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E60" t="n">
-        <v>247.3083333333333</v>
+        <v>47.35</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>05-09-2025 14:27:45</t>
+          <t>09-09-2025 10:49:15</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08-09-2025 07:32:45</t>
+          <t>09-09-2025 11:14:15</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>08-09-2025 07:32:45</t>
+          <t>09-09-2025 11:14:15</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>08-09-2025 11:40:03</t>
+          <t>09-09-2025 12:01:36</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>29677</v>
+        <v>5682</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5212,11 +5194,11 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N60" t="n">
         <v>70</v>
@@ -5232,58 +5214,58 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-23</v>
+        <v>-13</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>253721</v>
+        <v>253359</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E61" t="n">
-        <v>39.39166666666667</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08-09-2025 11:40:03</t>
+          <t>09-09-2025 12:01:36</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08-09-2025 12:50:03</t>
+          <t>09-09-2025 12:31:36</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>08-09-2025 12:50:03</t>
+          <t>09-09-2025 12:31:36</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>08-09-2025 13:29:27</t>
+          <t>09-09-2025 14:45:37</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>4727</v>
+        <v>16082</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5302,7 +5284,7 @@
         <v>70</v>
       </c>
       <c r="O61" t="n">
-        <v>40900</v>
+        <v>40904</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -5312,11 +5294,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>11-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="T61" t="n">
         <v>1</v>
@@ -5324,46 +5306,46 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>235572</v>
+        <v>253267</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E62" t="n">
-        <v>82.98333333333333</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>08-09-2025 13:29:27</t>
+          <t>09-09-2025 14:45:37</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08-09-2025 14:04:27</t>
+          <t>10-09-2025 07:15:37</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>08-09-2025 14:04:27</t>
+          <t>10-09-2025 07:15:37</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>09-09-2025 07:27:26</t>
+          <t>10-09-2025 09:59:59</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>9958</v>
+        <v>19724</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5376,14 +5358,11 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="n">
         <v>70</v>
       </c>
-      <c r="O62" t="n">
-        <v>40904</v>
-      </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
@@ -5392,11 +5371,11 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-689</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
         <v>4</v>
@@ -5404,46 +5383,46 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>253260</v>
+        <v>253268</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E63" t="n">
-        <v>109.4083333333333</v>
+        <v>78.55833333333334</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09-09-2025 07:27:26</t>
+          <t>10-09-2025 09:59:59</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09-09-2025 07:57:26</t>
+          <t>10-09-2025 10:24:59</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>09-09-2025 07:57:26</t>
+          <t>10-09-2025 10:24:59</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>09-09-2025 09:46:50</t>
+          <t>10-09-2025 11:43:32</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>13129</v>
+        <v>9427</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5461,9 +5440,6 @@
       <c r="N63" t="n">
         <v>70</v>
       </c>
-      <c r="O63" t="n">
-        <v>40279</v>
-      </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
@@ -5472,58 +5448,58 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>23-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253247</v>
+        <v>253710</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E64" t="n">
-        <v>109.575</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09-09-2025 09:46:50</t>
+          <t>10-09-2025 11:43:32</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09-09-2025 10:11:50</t>
+          <t>10-09-2025 12:13:32</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>09-09-2025 10:11:50</t>
+          <t>10-09-2025 12:13:32</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>09-09-2025 12:01:25</t>
+          <t>10-09-2025 12:15:09</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>13149</v>
+        <v>194</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5536,14 +5512,11 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64" t="n">
         <v>70</v>
       </c>
-      <c r="O64" t="n">
-        <v>40279</v>
-      </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
@@ -5556,54 +5529,54 @@
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>0</v>
+        <v>-0.5105266203703703</v>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>253455</v>
+        <v>252702</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E65" t="n">
-        <v>55.55833333333333</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>09-09-2025 12:01:25</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09-09-2025 12:26:25</t>
+          <t>05-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>09-09-2025 12:26:25</t>
+          <t>05-09-2025 07:35:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>09-09-2025 13:21:58</t>
+          <t>05-09-2025 08:33:23</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>6667</v>
+        <v>7006</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5612,78 +5585,80 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O65" t="n">
-        <v>40279</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
+        <v>40295</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>04-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252601</v>
+        <v>253362</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E66" t="n">
-        <v>51.20833333333334</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-09-2025 13:21:58</t>
+          <t>05-09-2025 08:33:23</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09-09-2025 14:36:58</t>
+          <t>05-09-2025 08:58:23</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09-09-2025 14:36:58</t>
+          <t>05-09-2025 08:58:23</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>10-09-2025 07:28:11</t>
+          <t>05-09-2025 09:56:46</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>6145</v>
+        <v>7006</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5692,40 +5667,45 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>70</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="O66" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>15-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>253208</v>
+        <v>252681</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -5734,33 +5714,33 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E67" t="n">
-        <v>104.2583333333333</v>
+        <v>115.0166666666667</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>10-09-2025 07:28:11</t>
+          <t>05-09-2025 09:56:46</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10-09-2025 07:58:11</t>
+          <t>05-09-2025 10:36:46</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10-09-2025 07:58:11</t>
+          <t>05-09-2025 10:36:46</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>10-09-2025 09:42:26</t>
+          <t>05-09-2025 12:31:47</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>12511</v>
+        <v>13802</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5769,40 +5749,45 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>70</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O67" t="n">
+        <v>40279</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>01-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-5.404473379629629</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>253210</v>
+        <v>253591</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5814,30 +5799,30 @@
         <v>25</v>
       </c>
       <c r="E68" t="n">
-        <v>94.15833333333333</v>
+        <v>17.41666666666667</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10-09-2025 09:42:26</t>
+          <t>05-09-2025 12:31:47</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10-09-2025 10:07:26</t>
+          <t>05-09-2025 12:56:47</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>10-09-2025 10:07:26</t>
+          <t>05-09-2025 12:56:47</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>10-09-2025 11:41:36</t>
+          <t>05-09-2025 13:14:12</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>11299</v>
+        <v>2090</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5846,75 +5831,80 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>70</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O68" t="n">
+        <v>40295</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>40295</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>24-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-0.4872222222222222</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252843</v>
+        <v>252664</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E69" t="n">
-        <v>19.2</v>
+        <v>365.975</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>05-09-2025 13:14:12</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>05-09-2025 13:49:12</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>08-09-2025 07:27:00</t>
+          <t>05-09-2025 13:49:12</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>08-09-2025 07:46:12</t>
+          <t>08-09-2025 11:55:10</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>2304</v>
+        <v>43917</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5923,78 +5913,80 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O69" t="n">
-        <v>40904</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
+        <v>40279</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>40279</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>02-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-57</v>
+        <v>-6.496649305555556</v>
       </c>
       <c r="T69" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252569</v>
+        <v>253721</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E70" t="n">
-        <v>9.583333333333334</v>
+        <v>39.39166666666667</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-09-2025 07:46:12</t>
+          <t>08-09-2025 11:55:10</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08-09-2025 08:13:12</t>
+          <t>08-09-2025 12:25:10</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08-09-2025 08:13:12</t>
+          <t>08-09-2025 12:25:10</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>08-09-2025 08:22:47</t>
+          <t>08-09-2025 13:04:34</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1150</v>
+        <v>4727</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6003,14 +5995,17 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O70" t="n">
+        <v>40900</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -6020,11 +6015,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>08-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-7.349155092592593</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
         <v>1</v>
@@ -6032,46 +6027,46 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>253409</v>
+        <v>253072</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>04-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E71" t="n">
-        <v>27.18333333333333</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-09-2025 08:22:47</t>
+          <t>08-09-2025 13:04:34</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-09-2025 08:41:47</t>
+          <t>08-09-2025 13:44:34</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08-09-2025 08:41:47</t>
+          <t>08-09-2025 13:44:34</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>08-09-2025 09:08:58</t>
+          <t>08-09-2025 14:13:42</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>3262</v>
+        <v>3496</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6080,17 +6075,17 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N71" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O71" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -6100,58 +6095,58 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>18-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-23</v>
+        <v>-38</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>253194</v>
+        <v>253271</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E72" t="n">
-        <v>199.0833333333333</v>
+        <v>42.63333333333333</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-09-2025 09:08:58</t>
+          <t>08-09-2025 14:13:42</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:58</t>
+          <t>08-09-2025 14:38:42</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:58</t>
+          <t>08-09-2025 14:38:42</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>08-09-2025 12:43:03</t>
+          <t>09-09-2025 07:21:20</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>23890</v>
+        <v>5116</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6160,17 +6155,17 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N72" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O72" t="n">
-        <v>40910</v>
+        <v>40904</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -6180,58 +6175,58 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>05-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-32</v>
+        <v>-20</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>253249</v>
+        <v>253278</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>05-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E73" t="n">
-        <v>57.75833333333333</v>
+        <v>28.425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>08-09-2025 12:43:03</t>
+          <t>09-09-2025 07:21:20</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08-09-2025 13:02:03</t>
+          <t>09-09-2025 07:46:20</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>08-09-2025 13:02:03</t>
+          <t>09-09-2025 07:46:20</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>08-09-2025 13:59:48</t>
+          <t>09-09-2025 08:14:45</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>6931</v>
+        <v>3411</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6240,14 +6235,17 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N73" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O73" t="n">
+        <v>40904</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -6257,58 +6255,58 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>12-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>253425</v>
+        <v>253260</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>08-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E74" t="n">
-        <v>146.35</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>08-09-2025 13:59:48</t>
+          <t>09-09-2025 08:14:45</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08-09-2025 14:18:48</t>
+          <t>09-09-2025 08:49:45</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>08-09-2025 14:18:48</t>
+          <t>09-09-2025 08:49:45</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>09-09-2025 08:45:09</t>
+          <t>09-09-2025 10:39:10</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>17562</v>
+        <v>13129</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6317,14 +6315,17 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N74" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O74" t="n">
+        <v>40279</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -6334,58 +6335,58 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>25-08-2025 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-11.36469328703704</v>
+        <v>-16</v>
       </c>
       <c r="T74" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252827</v>
+        <v>253247</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E75" t="n">
-        <v>410</v>
+        <v>109.575</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>09-09-2025 08:45:09</t>
+          <t>09-09-2025 10:39:10</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09-09-2025 09:06:09</t>
+          <t>09-09-2025 11:04:10</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>09-09-2025 09:06:09</t>
+          <t>09-09-2025 11:04:10</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>10-09-2025 07:56:09</t>
+          <t>09-09-2025 12:53:44</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>49200</v>
+        <v>13149</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -6394,75 +6395,78 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="n">
+        <v>70</v>
+      </c>
+      <c r="O75" t="n">
+        <v>40279</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>10-09-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
         <v>2</v>
-      </c>
-      <c r="N75" t="n">
-        <v>76</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>04-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S75" s="1" t="n">
-        <v>-6.330665509259259</v>
-      </c>
-      <c r="T75" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>253706</v>
+        <v>253455</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>10-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E76" t="n">
-        <v>311</v>
+        <v>55.55833333333333</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>10-09-2025 07:56:09</t>
+          <t>09-09-2025 12:53:44</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10-09-2025 08:23:09</t>
+          <t>09-09-2025 13:18:44</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>10-09-2025 08:23:09</t>
+          <t>09-09-2025 13:18:44</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>10-09-2025 13:34:09</t>
+          <t>09-09-2025 14:14:18</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>37320</v>
+        <v>6667</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -6471,14 +6475,17 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N76" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O76" t="n">
+        <v>40279</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -6488,58 +6495,58 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S76" s="1" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>244023</v>
+        <v>253245</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E77" t="n">
-        <v>8.308333333333334</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>09-09-2025 14:14:18</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09-09-2025 07:45:00</t>
+          <t>09-09-2025 14:54:18</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>09-09-2025 07:45:00</t>
+          <t>09-09-2025 14:54:18</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>09-09-2025 07:53:18</t>
+          <t>10-09-2025 09:25:08</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>997</v>
+        <v>18100</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6552,11 +6559,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N77" t="n">
         <v>70</v>
       </c>
+      <c r="O77" t="n">
+        <v>40900</v>
+      </c>
       <c r="P77" t="n">
         <v>0</v>
       </c>
@@ -6565,58 +6575,58 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>10-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-344.3286863425926</v>
+        <v>-11</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>253686</v>
+        <v>253401</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>09-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>30</v>
       </c>
       <c r="E78" t="n">
-        <v>44.23333333333333</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>09-09-2025 07:53:18</t>
+          <t>10-09-2025 09:25:08</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09-09-2025 08:23:18</t>
+          <t>10-09-2025 09:55:08</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>09-09-2025 08:23:18</t>
+          <t>10-09-2025 09:55:08</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>09-09-2025 09:07:32</t>
+          <t>10-09-2025 10:17:57</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>5308</v>
+        <v>2738</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -6629,11 +6639,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N78" t="n">
         <v>70</v>
       </c>
+      <c r="O78" t="n">
+        <v>40904</v>
+      </c>
       <c r="P78" t="n">
         <v>0</v>
       </c>
@@ -6646,70 +6659,70 @@
         </is>
       </c>
       <c r="S78" s="1" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="T78" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>253659</v>
+        <v>252980</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>03-09-2025 14:00:00</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>323.75</v>
+        <v>17.075</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>09-09-2025 09:07:32</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09-09-2025 09:32:32</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>09-09-2025 09:32:32</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>09-09-2025 14:56:17</t>
+          <t>08-09-2025 07:17:04</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>38850</v>
+        <v>2049</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -6719,1124 +6732,13 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>08-09-2025 00:00:00</t>
         </is>
       </c>
       <c r="S79" s="1" t="n">
-        <v>0</v>
+        <v>-0.3035243055555555</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>253036</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>40</v>
-      </c>
-      <c r="E80" t="n">
-        <v>78.73333333333333</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:56:17</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:36:17</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:36:17</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>10-09-2025 08:55:01</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>9448</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>H7 ;R5</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>3</v>
-      </c>
-      <c r="N80" t="n">
-        <v>76</v>
-      </c>
-      <c r="O80" t="n">
-        <v>40910</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>22-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S80" s="1" t="n">
-        <v>-30</v>
-      </c>
-      <c r="T80" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>253016</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>02-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>30</v>
-      </c>
-      <c r="E81" t="n">
-        <v>73.38333333333334</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:30:00</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:30:00</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:43:23</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>8806</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>2</v>
-      </c>
-      <c r="N81" t="n">
-        <v>152</v>
-      </c>
-      <c r="O81" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q81" t="n">
-        <v>40295</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>14-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>253591</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>35</v>
-      </c>
-      <c r="E82" t="n">
-        <v>17.41666666666667</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:43:23</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:18:23</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:18:23</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:35:48</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>2090</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>3</v>
-      </c>
-      <c r="N82" t="n">
-        <v>76</v>
-      </c>
-      <c r="O82" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q82" t="n">
-        <v>40295</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>24-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>252664</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>03-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>35</v>
-      </c>
-      <c r="E83" t="n">
-        <v>365.975</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:35:48</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:10:48</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:10:48</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:16:46</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>43917</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>2</v>
-      </c>
-      <c r="N83" t="n">
-        <v>70</v>
-      </c>
-      <c r="O83" t="n">
-        <v>40279</v>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q83" t="n">
-        <v>40279</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>02-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S83" s="1" t="n">
-        <v>-6.344982638888889</v>
-      </c>
-      <c r="T83" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>253140</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>35</v>
-      </c>
-      <c r="E84" t="n">
-        <v>55.83333333333334</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:16:46</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:51:46</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:51:46</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:47:36</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>6700</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>3</v>
-      </c>
-      <c r="N84" t="n">
-        <v>76</v>
-      </c>
-      <c r="O84" t="n">
-        <v>40900</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>26-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S84" s="1" t="n">
-        <v>-26</v>
-      </c>
-      <c r="T84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>252906</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>30</v>
-      </c>
-      <c r="E85" t="n">
-        <v>34.725</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:47:36</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:17:36</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:17:36</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:52:20</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>4167</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>4</v>
-      </c>
-      <c r="N85" t="n">
-        <v>76</v>
-      </c>
-      <c r="O85" t="n">
-        <v>40904</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>25-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S85" s="1" t="n">
-        <v>-31</v>
-      </c>
-      <c r="T85" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>253100</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>45</v>
-      </c>
-      <c r="E86" t="n">
-        <v>47.35</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:52:20</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:37:20</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:37:20</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:24:41</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>5682</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>4</v>
-      </c>
-      <c r="N86" t="n">
-        <v>70</v>
-      </c>
-      <c r="O86" t="n">
-        <v>40900</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0</v>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>08-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S86" s="1" t="n">
-        <v>-13</v>
-      </c>
-      <c r="T86" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>250891</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>03-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>30</v>
-      </c>
-      <c r="E87" t="n">
-        <v>77.49166666666666</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:24:41</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:54:41</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:54:41</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:12:10</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>9299</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>5</v>
-      </c>
-      <c r="N87" t="n">
-        <v>70</v>
-      </c>
-      <c r="O87" t="n">
-        <v>40910</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>13-08-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S87" s="1" t="n">
-        <v>-39</v>
-      </c>
-      <c r="T87" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>253359</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>35</v>
-      </c>
-      <c r="E88" t="n">
-        <v>134.0166666666667</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:12:10</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:47:10</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>08-09-2025 14:47:10</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:01:11</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>16082</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>3</v>
-      </c>
-      <c r="N88" t="n">
-        <v>70</v>
-      </c>
-      <c r="O88" t="n">
-        <v>40904</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0</v>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>11-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S88" s="1" t="n">
-        <v>-14</v>
-      </c>
-      <c r="T88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>253268</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>30</v>
-      </c>
-      <c r="E89" t="n">
-        <v>78.55833333333334</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:01:11</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:31:11</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:31:11</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:49:45</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>9427</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>4</v>
-      </c>
-      <c r="N89" t="n">
-        <v>70</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>23-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T89" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>253267</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>25</v>
-      </c>
-      <c r="E90" t="n">
-        <v>164.3666666666667</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:49:45</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>09-09-2025 11:14:45</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>09-09-2025 11:14:45</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>09-09-2025 13:59:07</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>19724</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>4</v>
-      </c>
-      <c r="N90" t="n">
-        <v>70</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>23-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T90" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>253332</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>35</v>
-      </c>
-      <c r="E91" t="n">
-        <v>184.825</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>09-09-2025 13:59:07</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:34:07</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:34:07</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>10-09-2025 09:38:56</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>22179</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>2</v>
-      </c>
-      <c r="N91" t="n">
-        <v>70</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>10-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S91" s="1" t="n">
-        <v>-0.4020428240740741</v>
-      </c>
-      <c r="T91" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>253687</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>01-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>40</v>
-      </c>
-      <c r="E92" t="n">
-        <v>44.23333333333333</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>10-09-2025 09:38:56</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:18:56</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:18:56</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>10-09-2025 11:03:10</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>5308</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>5</v>
-      </c>
-      <c r="N92" t="n">
-        <v>70</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>12-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S92" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>252980</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>03-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>17.075</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:17:04</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0</v>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>08-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S93" s="1" t="n">
-        <v>-0.3035243055555555</v>
-      </c>
-      <c r="T93" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/schedulazione.xlsx
+++ b/PS-VRP/Dati_output/schedulazione.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253317</v>
+        <v>254129</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -557,37 +557,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>102.775</v>
+        <v>44.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>13-11-2025 12:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>13-11-2025 12:32:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>13-11-2025 12:32:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>08-09-2025 08:59:46</t>
+          <t>13-11-2025 13:16:30</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>12333</v>
+        <v>5340</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -600,35 +600,37 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
         <v>76</v>
       </c>
       <c r="O2" t="n">
-        <v>40910</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
+        <v>40623</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40623</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>30-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-13</v>
+        <v>-0.553125</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>253318</v>
+        <v>254385</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -637,37 +639,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>51.55</v>
+        <v>52.08333333333334</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08-09-2025 08:59:46</t>
+          <t>13-11-2025 13:16:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08-09-2025 09:14:46</t>
+          <t>13-11-2025 13:48:30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-09-2025 09:14:46</t>
+          <t>13-11-2025 13:48:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08-09-2025 10:06:19</t>
+          <t>13-11-2025 14:40:35</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>6186</v>
+        <v>6250</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -676,39 +678,41 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O3" t="n">
-        <v>40910</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
+        <v>40627</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>40627</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>06-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>253374</v>
+        <v>254293</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -717,37 +721,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>13-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>59.60833333333333</v>
+        <v>18.85</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:06:19</t>
+          <t>13-11-2025 14:40:35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:38:19</t>
+          <t>14-11-2025 07:16:35</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08-09-2025 10:38:19</t>
+          <t>14-11-2025 07:16:35</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08-09-2025 11:37:56</t>
+          <t>14-11-2025 07:35:26</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>7153</v>
+        <v>2262</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -760,13 +764,13 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
         <v>70</v>
       </c>
       <c r="O4" t="n">
-        <v>40904</v>
+        <v>40624</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -776,19 +780,19 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>05-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>253372</v>
+        <v>254713</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -797,37 +801,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
-        <v>103.775</v>
+        <v>49.96666666666667</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08-09-2025 11:37:56</t>
+          <t>14-11-2025 07:35:26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08-09-2025 11:56:56</t>
+          <t>14-11-2025 08:09:26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08-09-2025 11:56:56</t>
+          <t>14-11-2025 08:09:26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08-09-2025 13:40:42</t>
+          <t>14-11-2025 08:59:24</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>12453</v>
+        <v>5996</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -836,39 +840,41 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>76</v>
+      </c>
+      <c r="O5" t="n">
+        <v>40623</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>40623</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>27-11-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>-1.374583333333333</v>
+      </c>
+      <c r="T5" t="n">
         <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>70</v>
-      </c>
-      <c r="O5" t="n">
-        <v>40904</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>25-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>253370</v>
+        <v>243569</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -877,37 +883,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>26-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>207.5416666666667</v>
+        <v>21.675</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:40:42</t>
+          <t>14-11-2025 08:59:24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:55:42</t>
+          <t>14-11-2025 09:16:24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08-09-2025 13:55:42</t>
+          <t>14-11-2025 09:16:24</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09-09-2025 09:23:15</t>
+          <t>14-11-2025 09:38:04</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>24905</v>
+        <v>2601</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -916,39 +922,39 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>76</v>
+      </c>
+      <c r="O6" t="n">
+        <v>406372</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>16-09-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>-429</v>
+      </c>
+      <c r="T6" t="n">
         <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>70</v>
-      </c>
-      <c r="O6" t="n">
-        <v>40904</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>25-09-2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>244023</v>
+        <v>252061</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -957,37 +963,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17-09-2024 14:00:00</t>
+          <t>13-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>8.308333333333334</v>
+        <v>36.16666666666666</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09-09-2025 09:23:15</t>
+          <t>14-11-2025 09:38:04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09-09-2025 09:46:15</t>
+          <t>14-11-2025 10:12:04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09-09-2025 09:46:15</t>
+          <t>14-11-2025 10:12:04</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>09-09-2025 09:54:33</t>
+          <t>14-11-2025 10:48:14</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>997</v>
+        <v>4340</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1000,32 +1006,37 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
+      <c r="O7" t="n">
+        <v>40628</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>40628</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>30-09-2024 00:00:00</t>
+          <t>07-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-344.4128877314815</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253687</v>
+        <v>253382</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1034,37 +1045,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>13-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>44.23333333333333</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>09-09-2025 09:54:33</t>
+          <t>14-11-2025 10:48:14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:11:33</t>
+          <t>14-11-2025 11:22:14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:11:33</t>
+          <t>14-11-2025 11:22:14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:47</t>
+          <t>14-11-2025 12:47:20</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>5308</v>
+        <v>10212</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1077,10 +1088,13 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O8" t="n">
+        <v>406372</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1090,19 +1104,19 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>07-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252833</v>
+        <v>254256</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1111,37 +1125,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
-        <v>74.78333333333333</v>
+        <v>50.925</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>09-09-2025 10:55:47</t>
+          <t>14-11-2025 12:47:20</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09-09-2025 11:14:47</t>
+          <t>14-11-2025 13:21:20</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09-09-2025 11:14:47</t>
+          <t>14-11-2025 13:21:20</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09-09-2025 12:29:34</t>
+          <t>14-11-2025 14:12:16</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>8974</v>
+        <v>6111</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1150,7 +1164,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1159,6 +1173,9 @@
       <c r="N9" t="n">
         <v>70</v>
       </c>
+      <c r="O9" t="n">
+        <v>406422</v>
+      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
@@ -1167,11 +1184,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>03-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-14.52053819444444</v>
+        <v>-18</v>
       </c>
       <c r="T9" t="n">
         <v>4</v>
@@ -1179,7 +1196,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252939</v>
+        <v>254375</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1188,37 +1205,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>13-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>89.8</v>
+        <v>45.29166666666666</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09-09-2025 12:29:34</t>
+          <t>14-11-2025 14:12:16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09-09-2025 12:48:34</t>
+          <t>14-11-2025 14:29:16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09-09-2025 12:48:34</t>
+          <t>14-11-2025 14:29:16</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09-09-2025 14:18:22</t>
+          <t>17-11-2025 07:14:33</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>10776</v>
+        <v>5435</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1231,11 +1248,14 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
         <v>70</v>
       </c>
+      <c r="O10" t="n">
+        <v>40624</v>
+      </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
@@ -1244,19 +1264,19 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>07-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-18.59609375</v>
+        <v>-12</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>253332</v>
+        <v>254512</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1265,37 +1285,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E11" t="n">
-        <v>184.825</v>
+        <v>59.55833333333333</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09-09-2025 14:18:22</t>
+          <t>17-11-2025 07:14:33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09-09-2025 14:35:22</t>
+          <t>17-11-2025 07:50:33</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09-09-2025 14:35:22</t>
+          <t>17-11-2025 07:50:33</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10-09-2025 09:40:12</t>
+          <t>17-11-2025 08:50:07</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>22179</v>
+        <v>7147</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1304,14 +1324,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O11" t="n">
+        <v>406232</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1321,58 +1344,58 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>14-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-0.4029166666666666</v>
+        <v>-6</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>253361</v>
+        <v>255039</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>76.70833333333333</v>
+        <v>9.15</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>17-11-2025 08:50:07</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08-09-2025 07:42:00</t>
+          <t>17-11-2025 09:22:07</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-09-2025 07:42:00</t>
+          <t>17-11-2025 09:22:07</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:42</t>
+          <t>17-11-2025 09:31:16</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>9205</v>
+        <v>1098</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1385,13 +1408,13 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
         <v>70</v>
       </c>
       <c r="O12" t="n">
-        <v>40904</v>
+        <v>40624</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1401,58 +1424,58 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>21-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>253375</v>
+        <v>254198</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>51.88333333333333</v>
+        <v>215</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:42</t>
+          <t>17-11-2025 09:31:16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:42</t>
+          <t>17-11-2025 10:03:16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:42</t>
+          <t>17-11-2025 10:03:16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>08-09-2025 10:15:35</t>
+          <t>17-11-2025 13:38:16</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>6226</v>
+        <v>25800</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1461,17 +1484,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>70</v>
-      </c>
-      <c r="O13" t="n">
-        <v>40904</v>
+        <v>152</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1481,62 +1501,62 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>30-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-18.56824074074074</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>253368</v>
+        <v>254428</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>17-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>103.775</v>
+        <v>48.30833333333333</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08-09-2025 10:15:35</t>
+          <t>17-11-2025 13:38:16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08-09-2025 10:40:35</t>
+          <t>17-11-2025 14:12:16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08-09-2025 10:40:35</t>
+          <t>17-11-2025 14:12:16</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>08-09-2025 12:24:22</t>
+          <t>18-11-2025 07:00:34</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>12453</v>
+        <v>5797</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1545,93 +1565,92 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>70</v>
       </c>
       <c r="O14" t="n">
-        <v>40904</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
+        <v>40649</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>40649</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>10-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-8.292065972222222</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>253377</v>
+        <v>254173</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>15-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7166666666667</v>
+        <v>202.5916666666667</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>08-09-2025 12:24:22</t>
+          <t>18-11-2025 07:00:34</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08-09-2025 12:49:22</t>
+          <t>18-11-2025 07:28:34</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-09-2025 12:49:22</t>
+          <t>18-11-2025 07:28:34</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>08-09-2025 14:57:05</t>
+          <t>18-11-2025 10:51:10</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>15326</v>
+        <v>24311</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>70</v>
-      </c>
-      <c r="O15" t="n">
-        <v>40904</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1641,58 +1660,58 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>20-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0</v>
+        <v>-29.45219907407407</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253367</v>
+        <v>254599</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>17-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E16" t="n">
-        <v>135.7</v>
+        <v>44.9</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>08-09-2025 14:57:05</t>
+          <t>18-11-2025 10:51:10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09-09-2025 07:22:05</t>
+          <t>18-11-2025 11:29:10</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09-09-2025 07:22:05</t>
+          <t>18-11-2025 11:29:10</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>09-09-2025 09:37:47</t>
+          <t>18-11-2025 12:14:04</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>16284</v>
+        <v>5388</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1701,17 +1720,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
         <v>70</v>
       </c>
       <c r="O16" t="n">
-        <v>40904</v>
+        <v>406372</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1721,58 +1740,58 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>17-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>253371</v>
+        <v>254605</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>14-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>107.7666666666667</v>
+        <v>39.025</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09-09-2025 09:37:47</t>
+          <t>18-11-2025 12:14:04</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09-09-2025 10:02:47</t>
+          <t>18-11-2025 12:31:04</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>09-09-2025 10:02:47</t>
+          <t>18-11-2025 12:31:04</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>09-09-2025 11:50:33</t>
+          <t>18-11-2025 13:10:05</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>12932</v>
+        <v>4683</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1785,14 +1804,11 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
         <v>70</v>
       </c>
-      <c r="O17" t="n">
-        <v>40904</v>
-      </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
@@ -1801,11 +1817,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>24-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-4.548674768518518</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
@@ -1813,46 +1829,46 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>253525</v>
+        <v>254758</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12-09-2025 14:00:00</t>
+          <t>14-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>92.14166666666667</v>
+        <v>61.38333333333333</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>09-09-2025 11:50:33</t>
+          <t>18-11-2025 13:10:05</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09-09-2025 12:15:33</t>
+          <t>18-11-2025 13:27:05</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>09-09-2025 12:15:33</t>
+          <t>18-11-2025 13:27:05</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>09-09-2025 13:47:41</t>
+          <t>18-11-2025 14:28:28</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>11057</v>
+        <v>7366</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1861,18 +1877,15 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
         <v>70</v>
       </c>
-      <c r="O18" t="n">
-        <v>40904</v>
-      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
@@ -1881,19 +1894,19 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>26-09-2025 00:00:00</t>
+          <t>27-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-1.603107638888889</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>253095</v>
+        <v>254165</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1902,37 +1915,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
-        <v>76.31666666666666</v>
+        <v>58.31666666666667</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>09-09-2025 13:47:41</t>
+          <t>14-11-2025 07:00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09-09-2025 14:14:41</t>
+          <t>14-11-2025 07:42:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>09-09-2025 14:14:41</t>
+          <t>14-11-2025 07:42:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>10-09-2025 07:31:00</t>
+          <t>14-11-2025 08:40:19</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>9158</v>
+        <v>6998</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1941,28 +1954,33 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>70</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O19" t="n">
+        <v>40606</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40606</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>07-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-0.3613310185185185</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1970,7 +1988,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>253602</v>
+        <v>254156</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1979,37 +1997,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>117.0833333333333</v>
+        <v>87.47499999999999</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10-09-2025 07:31:00</t>
+          <t>14-11-2025 08:40:19</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10-09-2025 08:17:00</t>
+          <t>14-11-2025 09:05:19</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10-09-2025 08:17:00</t>
+          <t>14-11-2025 09:05:19</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10-09-2025 10:14:05</t>
+          <t>14-11-2025 10:32:47</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>14050</v>
+        <v>10497</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2018,28 +2036,33 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
         <v>76</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
+      <c r="O20" t="n">
+        <v>40606</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>40606</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>07-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.4264525462962963</v>
+        <v>-0.4394386574074074</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2047,128 +2070,126 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>252582</v>
+        <v>254609</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E21" t="n">
-        <v>46.08333333333334</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>14-11-2025 10:32:47</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05-09-2025 07:34:00</t>
+          <t>14-11-2025 11:20:47</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>05-09-2025 07:34:00</t>
+          <t>14-11-2025 11:20:47</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>05-09-2025 08:20:05</t>
+          <t>17-11-2025 10:17:27</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>5530</v>
+        <v>50000</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>40290</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>406552</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>40290</v>
+        <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>18-09-2025 00:00:00</t>
+          <t>20-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>253016</v>
+        <v>254437</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>14-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E22" t="n">
-        <v>73.38333333333334</v>
+        <v>58.05833333333333</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>05-09-2025 08:20:05</t>
+          <t>17-11-2025 10:17:27</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05-09-2025 08:52:05</t>
+          <t>17-11-2025 11:05:27</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>05-09-2025 08:52:05</t>
+          <t>17-11-2025 11:05:27</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>05-09-2025 10:05:28</t>
+          <t>17-11-2025 12:03:31</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>8806</v>
+        <v>6967</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2177,80 +2198,78 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O22" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>406552</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>14-08-2025 00:00:00</t>
+          <t>18-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252679</v>
+        <v>254675</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>153.9583333333333</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>05-09-2025 10:05:28</t>
+          <t>17-11-2025 12:03:31</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05-09-2025 10:41:28</t>
+          <t>17-11-2025 12:45:31</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>05-09-2025 10:41:28</t>
+          <t>17-11-2025 12:45:31</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>05-09-2025 11:41:28</t>
+          <t>18-11-2025 07:19:28</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>7200</v>
+        <v>18475</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2259,80 +2278,78 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>76</v>
       </c>
       <c r="O23" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>406422</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>17-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253259</v>
+        <v>254188</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>14-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
-        <v>69.23333333333333</v>
+        <v>37.44166666666667</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>05-09-2025 11:41:28</t>
+          <t>18-11-2025 07:19:28</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05-09-2025 12:17:28</t>
+          <t>18-11-2025 08:01:28</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>05-09-2025 12:17:28</t>
+          <t>18-11-2025 08:01:28</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>05-09-2025 13:26:42</t>
+          <t>18-11-2025 08:38:55</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>8308</v>
+        <v>4493</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2341,80 +2358,78 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
         <v>70</v>
       </c>
       <c r="O24" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>406372</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>18-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>253140</v>
+        <v>254309</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E25" t="n">
-        <v>55.83333333333334</v>
+        <v>900.0166666666667</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>05-09-2025 13:26:42</t>
+          <t>18-11-2025 08:38:55</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05-09-2025 13:58:42</t>
+          <t>18-11-2025 09:24:55</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>05-09-2025 13:58:42</t>
+          <t>18-11-2025 09:24:55</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>05-09-2025 14:54:32</t>
+          <t>20-11-2025 08:24:56</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>6700</v>
+        <v>108002</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2423,17 +2438,14 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>76</v>
-      </c>
-      <c r="O25" t="n">
-        <v>40900</v>
+        <v>152</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2443,11 +2455,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>26-08-2025 00:00:00</t>
+          <t>10-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-26</v>
+        <v>-20.35064814814815</v>
       </c>
       <c r="T25" t="n">
         <v>1</v>
@@ -2455,46 +2467,46 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>253284</v>
+        <v>254166</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>18-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E26" t="n">
-        <v>56.99166666666667</v>
+        <v>38.85</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>05-09-2025 14:54:32</t>
+          <t>20-11-2025 08:24:56</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08-09-2025 07:11:32</t>
+          <t>20-11-2025 09:06:56</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-09-2025 07:11:32</t>
+          <t>20-11-2025 09:06:56</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:31</t>
+          <t>20-11-2025 09:45:47</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>6839</v>
+        <v>4662</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2503,17 +2515,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>76</v>
-      </c>
-      <c r="O26" t="n">
-        <v>40910</v>
+        <v>70</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2523,58 +2532,58 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>28-08-2025 00:00:00</t>
+          <t>02-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>253313</v>
+        <v>254419</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>18-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E27" t="n">
-        <v>100.0083333333333</v>
+        <v>72.34166666666667</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>08-09-2025 08:08:31</t>
+          <t>20-11-2025 09:45:47</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08-09-2025 08:23:31</t>
+          <t>20-11-2025 10:12:47</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-09-2025 08:23:31</t>
+          <t>20-11-2025 10:12:47</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>08-09-2025 10:03:32</t>
+          <t>20-11-2025 11:25:07</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>12001</v>
+        <v>8681</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2583,17 +2592,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>76</v>
-      </c>
-      <c r="O27" t="n">
-        <v>40910</v>
+        <v>70</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2603,58 +2609,58 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>10-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-16</v>
+        <v>-20.47578125</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>253527</v>
+        <v>254433</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>18-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E28" t="n">
-        <v>67.48333333333333</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>08-09-2025 10:03:32</t>
+          <t>20-11-2025 11:25:07</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08-09-2025 10:35:32</t>
+          <t>20-11-2025 11:54:07</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>08-09-2025 10:35:32</t>
+          <t>20-11-2025 11:54:07</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>08-09-2025 11:43:01</t>
+          <t>20-11-2025 13:01:58</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>8098</v>
+        <v>8142</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2667,14 +2673,11 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
         <v>70</v>
       </c>
-      <c r="O28" t="n">
-        <v>40910</v>
-      </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
@@ -2683,11 +2686,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>18-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-9</v>
+        <v>-12.54303819444444</v>
       </c>
       <c r="T28" t="n">
         <v>1</v>
@@ -2695,46 +2698,46 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>253524</v>
+        <v>254252</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>18-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E29" t="n">
-        <v>58.75833333333333</v>
+        <v>80.51666666666667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>08-09-2025 11:43:01</t>
+          <t>20-11-2025 13:01:58</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08-09-2025 11:58:01</t>
+          <t>20-11-2025 13:30:58</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08-09-2025 11:58:01</t>
+          <t>20-11-2025 13:30:58</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>08-09-2025 12:56:46</t>
+          <t>20-11-2025 14:51:29</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>7051</v>
+        <v>9662</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2747,14 +2750,11 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>40910</v>
-      </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
@@ -2763,58 +2763,58 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>03-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-9</v>
+        <v>-27.61909143518519</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>253528</v>
+        <v>254547</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11-09-2025 14:00:00</t>
+          <t>19-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E30" t="n">
-        <v>119.175</v>
+        <v>68.55</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>08-09-2025 12:56:46</t>
+          <t>20-11-2025 14:51:29</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08-09-2025 13:11:46</t>
+          <t>21-11-2025 07:22:29</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08-09-2025 13:11:46</t>
+          <t>21-11-2025 07:22:29</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>09-09-2025 07:10:57</t>
+          <t>21-11-2025 08:31:02</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>14301</v>
+        <v>8226</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2827,14 +2827,11 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>40910</v>
-      </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
@@ -2843,19 +2840,19 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>25-09-2025 00:00:00</t>
+          <t>19-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-12.3548900462963</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>250891</v>
+        <v>253380</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2864,37 +2861,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E31" t="n">
-        <v>77.49166666666666</v>
+        <v>104.275</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>09-09-2025 07:10:57</t>
+          <t>14-11-2025 07:00:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09-09-2025 07:29:57</t>
+          <t>14-11-2025 07:46:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09-09-2025 07:29:57</t>
+          <t>14-11-2025 07:46:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>09-09-2025 08:47:26</t>
+          <t>14-11-2025 09:30:16</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>9299</v>
+        <v>12513</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2903,39 +2900,41 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N31" t="n">
         <v>70</v>
       </c>
       <c r="O31" t="n">
-        <v>40910</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
+        <v>40606</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40606</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>13-08-2025 00:00:00</t>
+          <t>11-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-39</v>
+        <v>-0.3960243055555556</v>
       </c>
       <c r="T31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>252216</v>
+        <v>254088</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2944,56 +2943,56 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E32" t="n">
-        <v>141.8083333333333</v>
+        <v>425.2166666666666</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>09-09-2025 08:47:26</t>
+          <t>14-11-2025 09:30:16</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09-09-2025 09:12:26</t>
+          <t>14-11-2025 10:03:16</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09-09-2025 09:12:26</t>
+          <t>14-11-2025 10:03:16</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>09-09-2025 11:34:15</t>
+          <t>17-11-2025 09:08:29</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>17017</v>
+        <v>51026</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>70</v>
       </c>
       <c r="O32" t="n">
-        <v>40910</v>
+        <v>406372</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3003,19 +3002,19 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>20-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="T32" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>252815</v>
+        <v>253865</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3024,37 +3023,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>06-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E33" t="n">
-        <v>242.9416666666667</v>
+        <v>116.7583333333333</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>09-09-2025 11:34:15</t>
+          <t>17-11-2025 09:08:29</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09-09-2025 12:08:15</t>
+          <t>17-11-2025 09:33:29</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09-09-2025 12:08:15</t>
+          <t>17-11-2025 09:33:29</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10-09-2025 08:11:11</t>
+          <t>17-11-2025 11:30:15</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>29153</v>
+        <v>14011</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3067,10 +3066,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3080,58 +3079,58 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>20-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-5.341105324074074</v>
+        <v>-38.47934027777778</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>253686</v>
+        <v>254555</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>14-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>38.5</v>
+        <v>32</v>
       </c>
       <c r="E34" t="n">
-        <v>44.23333333333333</v>
+        <v>172.9833333333333</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>17-11-2025 11:30:15</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:38:30</t>
+          <t>17-11-2025 12:02:15</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09-09-2025 07:38:30</t>
+          <t>17-11-2025 12:02:15</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>09-09-2025 08:22:44</t>
+          <t>17-11-2025 14:55:14</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>5308</v>
+        <v>20758</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3140,14 +3139,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O34" t="n">
+        <v>406232</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3157,58 +3159,58 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>20-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252883</v>
+        <v>254457</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>14-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>44.5</v>
+        <v>36</v>
       </c>
       <c r="E35" t="n">
-        <v>247.3083333333333</v>
+        <v>3.925</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>09-09-2025 08:22:44</t>
+          <t>17-11-2025 14:55:14</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09-09-2025 09:07:14</t>
+          <t>18-11-2025 07:31:14</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09-09-2025 09:07:14</t>
+          <t>18-11-2025 07:31:14</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>09-09-2025 13:14:32</t>
+          <t>18-11-2025 07:35:09</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>29677</v>
+        <v>471</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3217,17 +3219,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N35" t="n">
         <v>70</v>
       </c>
       <c r="O35" t="n">
-        <v>40900</v>
+        <v>406372</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3237,11 +3239,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>18-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-23</v>
+        <v>-1</v>
       </c>
       <c r="T35" t="n">
         <v>1</v>
@@ -3249,46 +3251,46 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>253208</v>
+        <v>254107</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>32.5</v>
+        <v>21</v>
       </c>
       <c r="E36" t="n">
-        <v>104.2583333333333</v>
+        <v>175.0583333333333</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>09-09-2025 13:14:32</t>
+          <t>18-11-2025 07:35:09</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09-09-2025 13:47:02</t>
+          <t>18-11-2025 07:56:09</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>09-09-2025 13:47:02</t>
+          <t>18-11-2025 07:56:09</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10-09-2025 07:31:18</t>
+          <t>18-11-2025 10:51:13</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>12511</v>
+        <v>21007</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3297,11 +3299,11 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
         <v>70</v>
@@ -3314,58 +3316,58 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>22-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-5.313402777777778</v>
+        <v>-27.4522337962963</v>
       </c>
       <c r="T36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>253210</v>
+        <v>253885</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>13-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>94.15833333333333</v>
+        <v>105.9333333333333</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10-09-2025 07:31:18</t>
+          <t>18-11-2025 10:51:13</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10-09-2025 08:01:48</t>
+          <t>18-11-2025 11:08:13</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>10-09-2025 08:01:48</t>
+          <t>18-11-2025 11:08:13</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10-09-2025 09:35:57</t>
+          <t>18-11-2025 12:54:09</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>11299</v>
+        <v>12712</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3374,11 +3376,11 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
         <v>70</v>
@@ -3391,11 +3393,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>14-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-0.3999710648148148</v>
+        <v>-4.537604166666667</v>
       </c>
       <c r="T37" t="n">
         <v>8</v>
@@ -3403,46 +3405,46 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252002</v>
+        <v>254903</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E38" t="n">
-        <v>55.675</v>
+        <v>256.6416666666667</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>04-09-2025 12:00:00</t>
+          <t>18-11-2025 12:54:09</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>18-11-2025 13:13:09</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>04-09-2025 12:55:00</t>
+          <t>18-11-2025 13:13:09</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>19-11-2025 09:29:47</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>6681</v>
+        <v>30797</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3455,78 +3457,71 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
         <v>70</v>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>40307 (esterno)</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P38" t="n">
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>40307</v>
+        <v>0</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>12-01-2026 00:00:00</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-10.57685763888889</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>235572</v>
+        <v>254653</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>13-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E39" t="n">
-        <v>82.98333333333333</v>
+        <v>64.40833333333333</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>04-09-2025 13:50:40</t>
+          <t>19-11-2025 09:29:47</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>04-09-2025 14:20:40</t>
+          <t>19-11-2025 09:46:47</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>04-09-2025 14:20:40</t>
+          <t>19-11-2025 09:46:47</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>05-09-2025 07:43:39</t>
+          <t>19-11-2025 10:51:12</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>9958</v>
+        <v>7729</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3539,14 +3534,11 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
         <v>70</v>
       </c>
-      <c r="O39" t="n">
-        <v>40904</v>
-      </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
@@ -3555,58 +3547,58 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>06-11-2023 00:00:00</t>
+          <t>24-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-689</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>253314</v>
+        <v>254481</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>02-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>40</v>
+        <v>32.5</v>
       </c>
       <c r="E40" t="n">
-        <v>43.40833333333333</v>
+        <v>81.16666666666667</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>05-09-2025 07:43:39</t>
+          <t>13-11-2025 12:00:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05-09-2025 08:23:39</t>
+          <t>13-11-2025 12:32:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>05-09-2025 08:23:39</t>
+          <t>13-11-2025 12:32:30</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>05-09-2025 09:07:04</t>
+          <t>13-11-2025 13:53:40</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>5209</v>
+        <v>9740</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3615,17 +3607,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
-        <v>40295</v>
+        <v>40642</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3633,62 +3625,62 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>40295</v>
+        <v>40642</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>04-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>253036</v>
+        <v>254762</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="E41" t="n">
-        <v>78.73333333333333</v>
+        <v>31.85833333333333</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>05-09-2025 09:07:04</t>
+          <t>13-11-2025 13:53:40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05-09-2025 09:37:04</t>
+          <t>13-11-2025 14:28:10</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>05-09-2025 09:37:04</t>
+          <t>13-11-2025 14:28:10</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>05-09-2025 10:55:48</t>
+          <t>14-11-2025 07:00:01</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>9448</v>
+        <v>3823</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3697,78 +3689,80 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>H7 ;R5</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O41" t="n">
-        <v>40910</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
+        <v>40623</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>40623</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>22-08-2025 00:00:00</t>
+          <t>07-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-30</v>
+        <v>-1.291684027777778</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252685</v>
+        <v>253897</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>13-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30</v>
+        <v>46.5</v>
       </c>
       <c r="E42" t="n">
-        <v>74.56666666666666</v>
+        <v>94.01666666666667</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>05-09-2025 10:55:48</t>
+          <t>14-11-2025 07:00:01</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05-09-2025 11:25:48</t>
+          <t>14-11-2025 07:46:31</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>05-09-2025 11:25:48</t>
+          <t>14-11-2025 07:46:31</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>05-09-2025 12:40:22</t>
+          <t>14-11-2025 09:20:32</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>8948</v>
+        <v>11282</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3777,17 +3771,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N42" t="n">
         <v>76</v>
       </c>
       <c r="O42" t="n">
-        <v>40295</v>
+        <v>40606</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -3795,62 +3789,62 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>40295</v>
+        <v>40606</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>03-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S42" s="1" t="n">
-        <v>0</v>
+        <v>-0.3892650462962963</v>
       </c>
       <c r="T42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252682</v>
+        <v>235572</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="E43" t="n">
-        <v>83.40833333333333</v>
+        <v>82.98333333333333</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>05-09-2025 12:40:22</t>
+          <t>14-11-2025 09:20:32</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05-09-2025 13:20:22</t>
+          <t>14-11-2025 10:03:02</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>05-09-2025 13:20:22</t>
+          <t>14-11-2025 10:03:02</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>05-09-2025 14:43:46</t>
+          <t>14-11-2025 11:26:01</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>10009</v>
+        <v>9958</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3859,33 +3853,31 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>406372</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0</v>
+        <v>-744</v>
       </c>
       <c r="T43" t="n">
         <v>4</v>
@@ -3893,46 +3885,46 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252995</v>
+        <v>254546</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>13-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="E44" t="n">
-        <v>68.31666666666666</v>
+        <v>109.4083333333333</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>05-09-2025 14:43:46</t>
+          <t>14-11-2025 11:26:01</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08-09-2025 07:13:46</t>
+          <t>14-11-2025 11:58:31</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>08-09-2025 07:13:46</t>
+          <t>14-11-2025 11:58:31</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>08-09-2025 08:22:05</t>
+          <t>14-11-2025 13:47:56</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>8198</v>
+        <v>13129</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3941,14 +3933,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O44" t="n">
+        <v>406242</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -3958,11 +3953,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>19-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-7.348674768518518</v>
+        <v>-7</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
@@ -3970,46 +3965,46 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>253194</v>
+        <v>254824</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>H7</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="E45" t="n">
-        <v>199.0833333333333</v>
+        <v>748.225</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>08-09-2025 08:22:05</t>
+          <t>14-11-2025 13:47:56</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08-09-2025 08:57:05</t>
+          <t>14-11-2025 14:22:26</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>08-09-2025 08:57:05</t>
+          <t>14-11-2025 14:22:26</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>08-09-2025 12:16:10</t>
+          <t>18-11-2025 10:50:39</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>23890</v>
+        <v>89787</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4018,17 +4013,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
         <v>76</v>
       </c>
       <c r="O45" t="n">
-        <v>40910</v>
+        <v>406232</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -4038,19 +4033,19 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>20-08-2025 00:00:00</t>
+          <t>16-03-2026 00:00:00</t>
         </is>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252843</v>
+        <v>253694</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4059,37 +4054,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E46" t="n">
-        <v>19.2</v>
+        <v>121.7583333333333</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>08-09-2025 12:16:10</t>
+          <t>13-11-2025 12:00:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08-09-2025 13:11:10</t>
+          <t>13-11-2025 12:45:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>08-09-2025 13:11:10</t>
+          <t>13-11-2025 12:45:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>08-09-2025 13:30:22</t>
+          <t>13-11-2025 14:46:45</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>2304</v>
+        <v>14611</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4098,31 +4093,33 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N46" t="n">
         <v>76</v>
       </c>
       <c r="O46" t="n">
-        <v>40904</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
+        <v>40623</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>40623</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>30-07-2025 00:00:00</t>
+          <t>05-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-57</v>
+        <v>-0.6158043981481481</v>
       </c>
       <c r="T46" t="n">
         <v>2</v>
@@ -4130,7 +4127,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>253659</v>
+        <v>254556</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4139,37 +4136,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>13-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>323.75</v>
+        <v>173.4166666666667</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>08-09-2025 13:30:22</t>
+          <t>13-11-2025 14:46:45</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08-09-2025 14:25:22</t>
+          <t>14-11-2025 07:16:45</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>08-09-2025 14:25:22</t>
+          <t>14-11-2025 07:16:45</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>09-09-2025 11:49:07</t>
+          <t>14-11-2025 10:10:10</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>38850</v>
+        <v>20810</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4178,36 +4175,41 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="n">
-        <v>70</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="O47" t="n">
+        <v>40623</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>40623</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>12-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0</v>
+        <v>-1.423732638888889</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>250284</v>
+        <v>254291</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4216,37 +4218,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00:00</t>
+          <t>13-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>40</v>
       </c>
       <c r="E48" t="n">
-        <v>146.35</v>
+        <v>18.85</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>09-09-2025 11:49:07</t>
+          <t>14-11-2025 10:10:10</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09-09-2025 12:29:07</t>
+          <t>14-11-2025 10:50:10</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>09-09-2025 12:29:07</t>
+          <t>14-11-2025 10:50:10</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>09-09-2025 14:55:28</t>
+          <t>14-11-2025 11:09:01</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>17562</v>
+        <v>2262</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4259,13 +4261,13 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N48" t="n">
         <v>70</v>
       </c>
       <c r="O48" t="n">
-        <v>40910</v>
+        <v>40624</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4275,11 +4277,11 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>05-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-193</v>
+        <v>-14</v>
       </c>
       <c r="T48" t="n">
         <v>7</v>
@@ -4287,7 +4289,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>253223</v>
+        <v>254365</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4296,37 +4298,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>10-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>16.4</v>
+        <v>67.53333333333333</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>09-09-2025 14:55:28</t>
+          <t>14-11-2025 11:09:01</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10-09-2025 07:45:28</t>
+          <t>14-11-2025 11:39:01</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>10-09-2025 07:45:28</t>
+          <t>14-11-2025 11:39:01</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10-09-2025 08:01:52</t>
+          <t>14-11-2025 12:46:33</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1968</v>
+        <v>8104</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4335,11 +4337,11 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N49" t="n">
         <v>70</v>
@@ -4352,19 +4354,19 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>14-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-9.334635416666666</v>
+        <v>-0.532332175925926</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252601</v>
+        <v>254283</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4373,37 +4375,37 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E50" t="n">
-        <v>51.20833333333334</v>
+        <v>95.76666666666667</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10-09-2025 08:01:52</t>
+          <t>14-11-2025 12:46:33</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10-09-2025 08:31:52</t>
+          <t>14-11-2025 13:41:33</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>10-09-2025 08:31:52</t>
+          <t>14-11-2025 13:41:33</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10-09-2025 09:23:05</t>
+          <t>17-11-2025 07:17:19</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>6145</v>
+        <v>11492</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4412,14 +4414,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>CASON ;H7</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N50" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="O50" t="n">
+        <v>406552</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -4429,58 +4434,58 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>31-12-2025 00:00:00</t>
+          <t>11-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="T50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252827</v>
+        <v>254106</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E51" t="n">
-        <v>410</v>
+        <v>107.6416666666667</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>17-11-2025 07:17:19</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>17-11-2025 07:57:19</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-09-2025 07:17:00</t>
+          <t>17-11-2025 07:57:19</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>08-09-2025 14:07:00</t>
+          <t>17-11-2025 09:44:58</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>49200</v>
+        <v>12917</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -4489,14 +4494,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N51" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -4506,58 +4511,58 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>04-09-2025 00:00:00</t>
+          <t>17-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-4.588194444444444</v>
+        <v>-31.40622685185185</v>
       </c>
       <c r="T51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>243569</v>
+        <v>254276</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>14-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E52" t="n">
-        <v>21.675</v>
+        <v>37.03333333333333</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>08-09-2025 14:07:00</t>
+          <t>17-11-2025 09:44:58</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08-09-2025 14:24:00</t>
+          <t>17-11-2025 10:24:58</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>08-09-2025 14:24:00</t>
+          <t>17-11-2025 10:24:58</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>08-09-2025 14:45:40</t>
+          <t>17-11-2025 11:02:00</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>2601</v>
+        <v>4444</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4566,17 +4571,14 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N52" t="n">
-        <v>76</v>
-      </c>
-      <c r="O52" t="n">
-        <v>40904</v>
+        <v>70</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -4586,58 +4588,58 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>03-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-374</v>
+        <v>-24.45972222222222</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>252569</v>
+        <v>253838</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E53" t="n">
-        <v>9.583333333333334</v>
+        <v>108.3666666666667</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>08-09-2025 14:45:40</t>
+          <t>17-11-2025 11:02:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09-09-2025 07:04:40</t>
+          <t>17-11-2025 11:32:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>09-09-2025 07:04:40</t>
+          <t>17-11-2025 11:32:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>09-09-2025 07:14:15</t>
+          <t>17-11-2025 13:20:22</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1150</v>
+        <v>13004</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4646,14 +4648,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -4663,58 +4665,58 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>06-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-8.301568287037037</v>
+        <v>-21.55581018518518</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>253249</v>
+        <v>254237</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>28-08-2025 14:00:00</t>
+          <t>14-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E54" t="n">
-        <v>57.75833333333333</v>
+        <v>184.0916666666667</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>09-09-2025 07:14:15</t>
+          <t>17-11-2025 13:20:22</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-09-2025 07:33:15</t>
+          <t>17-11-2025 13:55:22</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>09-09-2025 07:33:15</t>
+          <t>17-11-2025 13:55:22</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>09-09-2025 08:31:01</t>
+          <t>18-11-2025 08:59:27</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>6931</v>
+        <v>22091</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4723,28 +4725,35 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N54" t="n">
-        <v>76</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>40651 (esterno)</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>40651</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>10-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-8.374623842592593</v>
       </c>
       <c r="T54" t="n">
         <v>1</v>
@@ -4752,46 +4761,46 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>253425</v>
+        <v>254381</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E55" t="n">
-        <v>146.35</v>
+        <v>83.86666666666666</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>09-09-2025 08:31:01</t>
+          <t>18-11-2025 08:59:27</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09-09-2025 08:50:01</t>
+          <t>18-11-2025 09:44:27</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>09-09-2025 08:50:01</t>
+          <t>18-11-2025 09:44:27</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>09-09-2025 11:16:22</t>
+          <t>18-11-2025 11:08:19</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>17562</v>
+        <v>10064</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4800,14 +4809,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -4817,58 +4826,58 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>07-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-11.46969907407407</v>
+        <v>-21.46411458333333</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>253409</v>
+        <v>254230</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>27-08-2025 14:00:00</t>
+          <t>10-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E56" t="n">
-        <v>27.18333333333333</v>
+        <v>62.475</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>09-09-2025 11:16:22</t>
+          <t>18-11-2025 11:08:19</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09-09-2025 11:35:22</t>
+          <t>18-11-2025 11:38:19</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>09-09-2025 11:35:22</t>
+          <t>18-11-2025 11:38:19</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>09-09-2025 12:02:33</t>
+          <t>18-11-2025 12:40:48</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>3262</v>
+        <v>7497</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4877,17 +4886,17 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
-        <v>40910</v>
+        <v>406552</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -4897,58 +4906,58 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>29-08-2025 00:00:00</t>
+          <t>06-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-23</v>
+        <v>-14</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>252906</v>
+        <v>244023</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E57" t="n">
-        <v>34.725</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>09-09-2025 12:02:33</t>
+          <t>18-11-2025 12:40:48</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09-09-2025 12:19:33</t>
+          <t>18-11-2025 13:25:48</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>09-09-2025 12:19:33</t>
+          <t>18-11-2025 13:25:48</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>09-09-2025 12:54:16</t>
+          <t>18-11-2025 13:34:06</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>4167</v>
+        <v>997</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4957,17 +4966,17 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
-        <v>40904</v>
+        <v>406062</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -4977,58 +4986,58 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-31</v>
+        <v>-417</v>
       </c>
       <c r="T57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>253706</v>
+        <v>254189</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>14-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E58" t="n">
-        <v>311</v>
+        <v>55.875</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>09-09-2025 12:54:16</t>
+          <t>18-11-2025 13:34:06</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09-09-2025 13:17:16</t>
+          <t>18-11-2025 14:19:06</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>09-09-2025 13:17:16</t>
+          <t>18-11-2025 14:19:06</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10-09-2025 10:28:16</t>
+          <t>19-11-2025 07:14:59</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>37320</v>
+        <v>6705</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5037,14 +5046,17 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="O58" t="n">
+        <v>406552</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -5054,58 +5066,58 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>30-09-2025 00:00:00</t>
+          <t>18-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>253246</v>
+        <v>253614</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E59" t="n">
-        <v>194.25</v>
+        <v>122.45</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>09-09-2025 07:00:00</t>
+          <t>19-11-2025 07:14:59</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:00</t>
+          <t>19-11-2025 07:54:59</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>09-09-2025 07:35:00</t>
+          <t>19-11-2025 07:54:59</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>09-09-2025 10:49:15</t>
+          <t>19-11-2025 09:57:26</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>23310</v>
+        <v>14694</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5114,17 +5126,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>CASON ;H7 ;R5</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
-        <v>70</v>
-      </c>
-      <c r="O59" t="n">
-        <v>40900</v>
+        <v>152</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -5134,58 +5143,58 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>20-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>253100</v>
+        <v>254910</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E60" t="n">
-        <v>47.35</v>
+        <v>73.53333333333333</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09-09-2025 10:49:15</t>
+          <t>19-11-2025 09:57:26</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09-09-2025 11:14:15</t>
+          <t>19-11-2025 10:37:26</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>09-09-2025 11:14:15</t>
+          <t>19-11-2025 10:37:26</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>09-09-2025 12:01:36</t>
+          <t>19-11-2025 11:50:58</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>5682</v>
+        <v>8824</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5201,10 +5210,7 @@
         <v>4</v>
       </c>
       <c r="N60" t="n">
-        <v>70</v>
-      </c>
-      <c r="O60" t="n">
-        <v>40900</v>
+        <v>76</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -5214,58 +5220,58 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>05-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>253359</v>
+        <v>254339</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>18-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E61" t="n">
-        <v>134.0166666666667</v>
+        <v>245.9666666666667</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>09-09-2025 12:01:36</t>
+          <t>19-11-2025 11:50:58</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09-09-2025 12:31:36</t>
+          <t>19-11-2025 12:30:58</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>09-09-2025 12:31:36</t>
+          <t>19-11-2025 12:30:58</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>09-09-2025 14:45:37</t>
+          <t>20-11-2025 08:36:56</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>16082</v>
+        <v>29516</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5278,14 +5284,11 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N61" t="n">
         <v>70</v>
       </c>
-      <c r="O61" t="n">
-        <v>40904</v>
-      </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
@@ -5294,58 +5297,58 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>11-09-2025 00:00:00</t>
+          <t>30-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-14</v>
+        <v>-31.35898148148148</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>253267</v>
+        <v>254101</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>18-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>30</v>
       </c>
       <c r="E62" t="n">
-        <v>164.3666666666667</v>
+        <v>28.425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>09-09-2025 14:45:37</t>
+          <t>20-11-2025 08:36:56</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10-09-2025 07:15:37</t>
+          <t>20-11-2025 09:06:56</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10-09-2025 07:15:37</t>
+          <t>20-11-2025 09:06:56</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10-09-2025 09:59:59</t>
+          <t>20-11-2025 09:35:21</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>19724</v>
+        <v>3411</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5358,7 +5361,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N62" t="n">
         <v>70</v>
@@ -5371,58 +5374,58 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>03-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S62" s="1" t="n">
-        <v>0</v>
+        <v>-27.39955439814815</v>
       </c>
       <c r="T62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>253268</v>
+        <v>253974</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>19-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>25</v>
       </c>
       <c r="E63" t="n">
-        <v>78.55833333333334</v>
+        <v>28.425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10-09-2025 09:59:59</t>
+          <t>20-11-2025 09:35:21</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10-09-2025 10:24:59</t>
+          <t>20-11-2025 10:00:21</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>10-09-2025 10:24:59</t>
+          <t>20-11-2025 10:00:21</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>10-09-2025 11:43:32</t>
+          <t>20-11-2025 10:28:47</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>9427</v>
+        <v>3411</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5435,7 +5438,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N63" t="n">
         <v>70</v>
@@ -5448,58 +5451,58 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>23-09-2025 00:00:00</t>
+          <t>29-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S63" s="1" t="n">
-        <v>0</v>
+        <v>-32.43665509259259</v>
       </c>
       <c r="T63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>253710</v>
+        <v>254354</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>18-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>30</v>
       </c>
       <c r="E64" t="n">
-        <v>1.616666666666667</v>
+        <v>18.675</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10-09-2025 11:43:32</t>
+          <t>20-11-2025 10:28:47</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10-09-2025 12:13:32</t>
+          <t>20-11-2025 10:58:47</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>10-09-2025 12:13:32</t>
+          <t>20-11-2025 10:58:47</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>10-09-2025 12:15:09</t>
+          <t>20-11-2025 11:17:27</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>194</v>
+        <v>2241</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -5512,7 +5515,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N64" t="n">
         <v>70</v>
@@ -5525,58 +5528,58 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>14-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-0.5105266203703703</v>
+        <v>-16.47045717592593</v>
       </c>
       <c r="T64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252702</v>
+        <v>254671</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>18-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>35</v>
       </c>
       <c r="E65" t="n">
-        <v>58.38333333333333</v>
+        <v>136.1666666666667</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>05-09-2025 07:00:00</t>
+          <t>20-11-2025 11:17:27</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>20-11-2025 11:52:27</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>05-09-2025 07:35:00</t>
+          <t>20-11-2025 11:52:27</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:23</t>
+          <t>20-11-2025 14:08:37</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>7006</v>
+        <v>16340</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -5585,80 +5588,75 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N65" t="n">
-        <v>152</v>
-      </c>
-      <c r="O65" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>04-08-2025 00:00:00</t>
+          <t>21-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-9.589322916666667</v>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>253362</v>
+        <v>253906</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>18-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E66" t="n">
-        <v>58.38333333333333</v>
+        <v>45.79166666666666</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>05-09-2025 08:33:23</t>
+          <t>20-11-2025 14:08:37</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>05-09-2025 08:58:23</t>
+          <t>20-11-2025 14:58:37</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>05-09-2025 08:58:23</t>
+          <t>20-11-2025 14:58:37</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>05-09-2025 09:56:46</t>
+          <t>21-11-2025 07:44:25</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>7006</v>
+        <v>5495</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -5667,80 +5665,75 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N66" t="n">
-        <v>152</v>
-      </c>
-      <c r="O66" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>15-09-2025 00:00:00</t>
+          <t>25-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S66" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252681</v>
+        <v>254714</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E67" t="n">
-        <v>115.0166666666667</v>
+        <v>91.47499999999999</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>05-09-2025 09:56:46</t>
+          <t>14-11-2025 07:00:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>14-11-2025 07:19:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>05-09-2025 10:36:46</t>
+          <t>14-11-2025 07:19:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>05-09-2025 12:31:47</t>
+          <t>14-11-2025 08:50:28</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>13802</v>
+        <v>10977</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -5749,17 +5742,17 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N67" t="n">
         <v>76</v>
       </c>
       <c r="O67" t="n">
-        <v>40279</v>
+        <v>40623</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -5767,62 +5760,62 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>40279</v>
+        <v>40623</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>01-09-2025 00:00:00</t>
+          <t>19-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-1.368385416666667</v>
       </c>
       <c r="T67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>253591</v>
+        <v>254598</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>04-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E68" t="n">
-        <v>17.41666666666667</v>
+        <v>104.2583333333333</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>05-09-2025 12:31:47</t>
+          <t>14-11-2025 08:50:28</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>05-09-2025 12:56:47</t>
+          <t>14-11-2025 09:36:28</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>05-09-2025 12:56:47</t>
+          <t>14-11-2025 09:36:28</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>05-09-2025 13:14:12</t>
+          <t>14-11-2025 11:20:44</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>2090</v>
+        <v>12511</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5831,80 +5824,75 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N68" t="n">
-        <v>76</v>
-      </c>
-      <c r="O68" t="n">
-        <v>40295</v>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>40295</v>
+        <v>0</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>24-09-2025 00:00:00</t>
+          <t>15-12-2025 00:00:00</t>
         </is>
       </c>
       <c r="S68" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252664</v>
+        <v>254519</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v>35</v>
       </c>
       <c r="E69" t="n">
-        <v>365.975</v>
+        <v>77.15833333333333</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>05-09-2025 13:14:12</t>
+          <t>14-11-2025 11:20:44</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>05-09-2025 13:49:12</t>
+          <t>14-11-2025 11:55:44</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>05-09-2025 13:49:12</t>
+          <t>14-11-2025 11:55:44</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>08-09-2025 11:55:10</t>
+          <t>14-11-2025 13:12:53</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>43917</v>
+        <v>9259</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5913,80 +5901,75 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N69" t="n">
         <v>70</v>
       </c>
-      <c r="O69" t="n">
-        <v>40279</v>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P69" t="n">
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>40279</v>
+        <v>0</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>02-09-2025 00:00:00</t>
+          <t>17-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-6.496649305555556</v>
+        <v>-7.550619212962963</v>
       </c>
       <c r="T69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>253721</v>
+        <v>254915</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>03-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E70" t="n">
-        <v>39.39166666666667</v>
+        <v>48.875</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>08-09-2025 11:55:10</t>
+          <t>14-11-2025 13:12:53</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08-09-2025 12:25:10</t>
+          <t>14-11-2025 13:29:53</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08-09-2025 12:25:10</t>
+          <t>14-11-2025 13:29:53</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>08-09-2025 13:04:34</t>
+          <t>14-11-2025 14:18:46</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>4727</v>
+        <v>5865</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5995,18 +5978,15 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N70" t="n">
         <v>70</v>
       </c>
-      <c r="O70" t="n">
-        <v>40900</v>
-      </c>
       <c r="P70" t="n">
         <v>0</v>
       </c>
@@ -6015,58 +5995,58 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>08-10-2025 00:00:00</t>
+          <t>12-01-2026 00:00:00</t>
         </is>
       </c>
       <c r="S70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>253072</v>
+        <v>254941</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>04-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E71" t="n">
-        <v>29.13333333333333</v>
+        <v>35.5</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>08-09-2025 13:04:34</t>
+          <t>14-11-2025 07:00:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08-09-2025 13:44:34</t>
+          <t>14-11-2025 07:45:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>08-09-2025 13:44:34</t>
+          <t>14-11-2025 07:45:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>08-09-2025 14:13:42</t>
+          <t>14-11-2025 08:20:30</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>3496</v>
+        <v>4260</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6079,74 +6059,76 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N71" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O71" t="n">
-        <v>40904</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
+        <v>40623</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>40623</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>18-08-2025 00:00:00</t>
+          <t>14-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-38</v>
+        <v>-1.347569444444444</v>
       </c>
       <c r="T71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>253271</v>
+        <v>253650</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E72" t="n">
-        <v>42.63333333333333</v>
+        <v>273.1333333333333</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>08-09-2025 14:13:42</t>
+          <t>14-11-2025 08:20:30</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08-09-2025 14:38:42</t>
+          <t>14-11-2025 08:55:30</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>08-09-2025 14:38:42</t>
+          <t>14-11-2025 08:55:30</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>09-09-2025 07:21:20</t>
+          <t>14-11-2025 13:28:38</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>5116</v>
+        <v>32776</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -6155,17 +6137,14 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>70</v>
-      </c>
-      <c r="O72" t="n">
-        <v>40904</v>
+        <v>76</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -6175,11 +6154,11 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>05-09-2025 00:00:00</t>
+          <t>30-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-20</v>
+        <v>-15.56155092592593</v>
       </c>
       <c r="T72" t="n">
         <v>2</v>
@@ -6187,46 +6166,46 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>253278</v>
+        <v>254429</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>05-09-2025 14:00:00</t>
+          <t>30-10-2025 14:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E73" t="n">
-        <v>28.425</v>
+        <v>240.2416666666667</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>09-09-2025 07:21:20</t>
+          <t>14-11-2025 13:28:38</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09-09-2025 07:46:20</t>
+          <t>14-11-2025 14:08:38</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>09-09-2025 07:46:20</t>
+          <t>14-11-2025 14:08:38</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>09-09-2025 08:14:45</t>
+          <t>17-11-2025 10:08:52</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>3411</v>
+        <v>28829</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -6235,17 +6214,17 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N73" t="n">
         <v>70</v>
       </c>
       <c r="O73" t="n">
-        <v>40904</v>
+        <v>406372</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -6255,11 +6234,11 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>10-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="T73" t="n">
         <v>2</v>
@@ -6267,46 +6246,46 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>253260</v>
+        <v>250284</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>08-09-2025 14:00:00</t>
+          <t>17-03-2025 14:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E74" t="n">
-        <v>109.4083333333333</v>
+        <v>146.35</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>09-09-2025 08:14:45</t>
+          <t>17-11-2025 10:08:52</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:45</t>
+          <t>17-11-2025 10:48:52</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:45</t>
+          <t>17-11-2025 10:48:52</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>09-09-2025 10:39:10</t>
+          <t>17-11-2025 13:15:13</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>13129</v>
+        <v>17562</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -6319,13 +6298,13 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N74" t="n">
         <v>70</v>
       </c>
       <c r="O74" t="n">
-        <v>40279</v>
+        <v>406422</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -6335,11 +6314,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>25-08-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-16</v>
+        <v>-254</v>
       </c>
       <c r="T74" t="n">
         <v>7</v>
@@ -6347,46 +6326,46 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>253247</v>
+        <v>254652</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>17-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E75" t="n">
-        <v>109.575</v>
+        <v>28.73333333333333</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>09-09-2025 10:39:10</t>
+          <t>17-11-2025 13:15:13</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09-09-2025 11:04:10</t>
+          <t>17-11-2025 14:00:13</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>09-09-2025 11:04:10</t>
+          <t>17-11-2025 14:00:13</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>09-09-2025 12:53:44</t>
+          <t>17-11-2025 14:28:57</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>13149</v>
+        <v>3448</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -6404,9 +6383,6 @@
       <c r="N75" t="n">
         <v>70</v>
       </c>
-      <c r="O75" t="n">
-        <v>40279</v>
-      </c>
       <c r="P75" t="n">
         <v>0</v>
       </c>
@@ -6415,58 +6391,58 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>21-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S75" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>253455</v>
+        <v>254451</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10-09-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E76" t="n">
-        <v>55.55833333333333</v>
+        <v>321.1416666666667</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>09-09-2025 12:53:44</t>
+          <t>17-11-2025 14:28:57</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09-09-2025 13:18:44</t>
+          <t>17-11-2025 14:58:57</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>09-09-2025 13:18:44</t>
+          <t>17-11-2025 14:58:57</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>09-09-2025 14:14:18</t>
+          <t>18-11-2025 12:20:06</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>6667</v>
+        <v>38537</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -6475,18 +6451,15 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N76" t="n">
         <v>70</v>
       </c>
-      <c r="O76" t="n">
-        <v>40279</v>
-      </c>
       <c r="P76" t="n">
         <v>0</v>
       </c>
@@ -6495,58 +6468,58 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>08-09-2025 00:00:00</t>
+          <t>18-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-2</v>
+        <v>-10.51395833333333</v>
       </c>
       <c r="T76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>253245</v>
+        <v>254756</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>17-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E77" t="n">
-        <v>150.8333333333333</v>
+        <v>60.625</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>09-09-2025 14:14:18</t>
+          <t>18-11-2025 12:20:06</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09-09-2025 14:54:18</t>
+          <t>18-11-2025 13:15:06</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>09-09-2025 14:54:18</t>
+          <t>18-11-2025 13:15:06</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>10-09-2025 09:25:08</t>
+          <t>18-11-2025 14:15:43</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>18100</v>
+        <v>7275</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6555,18 +6528,15 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N77" t="n">
         <v>70</v>
       </c>
-      <c r="O77" t="n">
-        <v>40900</v>
-      </c>
       <c r="P77" t="n">
         <v>0</v>
       </c>
@@ -6575,58 +6545,58 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>10-09-2025 00:00:00</t>
+          <t>24-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-11</v>
+        <v>-4.594253472222222</v>
       </c>
       <c r="T77" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>253401</v>
+        <v>254100</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>09-09-2025 14:00:00</t>
+          <t>18-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E78" t="n">
-        <v>22.81666666666667</v>
+        <v>28.425</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>10-09-2025 09:25:08</t>
+          <t>18-11-2025 14:15:43</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10-09-2025 09:55:08</t>
+          <t>18-11-2025 14:55:43</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>10-09-2025 09:55:08</t>
+          <t>18-11-2025 14:55:43</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>10-09-2025 10:17:57</t>
+          <t>19-11-2025 07:24:09</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>2738</v>
+        <v>3411</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -6639,14 +6609,11 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N78" t="n">
         <v>70</v>
       </c>
-      <c r="O78" t="n">
-        <v>40904</v>
-      </c>
       <c r="P78" t="n">
         <v>0</v>
       </c>
@@ -6655,90 +6622,1184 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>12-09-2025 00:00:00</t>
+          <t>03-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-13</v>
+        <v>-26.3084375</v>
       </c>
       <c r="T78" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
+        <v>254715</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>12-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>35</v>
+      </c>
+      <c r="E79" t="n">
+        <v>134.5416666666667</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>14-11-2025 09:49:32</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>16145</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="n">
+        <v>76</v>
+      </c>
+      <c r="O79" t="n">
+        <v>40623</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>40623</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>19-11-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>-1.409403935185185</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>254287</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>12-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>35</v>
+      </c>
+      <c r="E80" t="n">
+        <v>129.6333333333333</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>14-11-2025 09:49:32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>14-11-2025 10:24:32</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>14-11-2025 10:24:32</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>14-11-2025 12:34:10</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>15556</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="n">
+        <v>70</v>
+      </c>
+      <c r="O80" t="n">
+        <v>406422</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>03-11-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="T80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>254427</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>17-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>40</v>
+      </c>
+      <c r="E81" t="n">
+        <v>55.55833333333333</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>14-11-2025 12:34:10</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>14-11-2025 13:14:10</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>14-11-2025 13:14:10</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:09:44</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>6667</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>T1 ;T2 ;T8</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>70</v>
+      </c>
+      <c r="O81" t="n">
+        <v>406422</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>40649</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>10-11-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>-4.590092592592592</v>
+      </c>
+      <c r="T81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>254574</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>13-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>40</v>
+      </c>
+      <c r="E82" t="n">
+        <v>173.6083333333333</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:09:44</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:49:44</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:49:44</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>17-11-2025 09:43:20</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>20833</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="n">
+        <v>70</v>
+      </c>
+      <c r="O82" t="n">
+        <v>406422</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>14-11-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>-7</v>
+      </c>
+      <c r="T82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>254460</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>21-10-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>30</v>
+      </c>
+      <c r="E83" t="n">
+        <v>46.68333333333333</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>17-11-2025 09:43:20</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>17-11-2025 10:13:20</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>17-11-2025 10:13:20</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>17-11-2025 11:00:01</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>5602</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="n">
+        <v>70</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>23-10-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>-35.45835069444445</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>254245</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>40</v>
+      </c>
+      <c r="E84" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>17-11-2025 11:00:01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>17-11-2025 11:40:01</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>17-11-2025 11:40:01</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>17-11-2025 13:09:49</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>10776</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="n">
+        <v>70</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>30-10-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>-18.54848958333333</v>
+      </c>
+      <c r="T84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>254356</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>25</v>
+      </c>
+      <c r="E85" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>17-11-2025 13:09:49</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>17-11-2025 13:34:49</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>17-11-2025 13:34:49</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>18-11-2025 08:34:25</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>21552</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="n">
+        <v>70</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>08-11-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>-10.35723958333333</v>
+      </c>
+      <c r="T85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>253961</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>17-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>25</v>
+      </c>
+      <c r="E86" t="n">
+        <v>35.91666666666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>18-11-2025 08:34:25</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>18-11-2025 08:59:25</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>18-11-2025 08:59:25</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>18-11-2025 09:35:20</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>4310</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="n">
+        <v>70</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>11-11-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>-7.399542824074074</v>
+      </c>
+      <c r="T86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>252811</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>17-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>30</v>
+      </c>
+      <c r="E87" t="n">
+        <v>11.875</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>18-11-2025 09:35:20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>18-11-2025 10:05:20</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>18-11-2025 10:05:20</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>18-11-2025 10:17:13</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1425</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>70</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>13-11-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>-15.42862268518519</v>
+      </c>
+      <c r="T87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>254651</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>13-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>35</v>
+      </c>
+      <c r="E88" t="n">
+        <v>22.64166666666667</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>18-11-2025 10:17:13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>18-11-2025 10:52:13</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>18-11-2025 10:52:13</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>18-11-2025 11:14:51</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>2717</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="n">
+        <v>70</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>21-11-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>254586</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>35</v>
+      </c>
+      <c r="E89" t="n">
+        <v>51.54166666666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>18-11-2025 11:14:51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>18-11-2025 11:49:51</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>18-11-2025 11:49:51</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>18-11-2025 12:41:24</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>6185</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="n">
+        <v>70</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>24-11-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S89" s="1" t="n">
+        <v>-4.52875</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>254893</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>25</v>
+      </c>
+      <c r="E90" t="n">
+        <v>46.675</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>18-11-2025 12:41:24</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>18-11-2025 13:06:24</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>18-11-2025 13:06:24</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>18-11-2025 13:53:04</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>5601</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="n">
+        <v>70</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>04-12-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>254521</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>11-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>39.68333333333333</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>12-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>12-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>12-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>12-11-2025 07:39:41</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>4762</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>T1 ;T2 ;T8</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="n">
+        <v>70</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>15-11-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>254117</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>07-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:09:10</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="n">
+        <v>76</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>20-10-2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="S92" s="1" t="n">
+        <v>-35.2980324074074</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
         <v>252980</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>03-09-2025 14:00:00</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>11-11-2025 14:00:00</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
         <v>17.075</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:17:04</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:09:10</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:09:10</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:09:10</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>14-11-2025 07:26:14</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
         <v>2049</v>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="inlineStr">
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="inlineStr">
         <is>
           <t>08-09-2025 00:00:00</t>
         </is>
       </c>
-      <c r="S79" s="1" t="n">
-        <v>-0.3035243055555555</v>
-      </c>
-      <c r="T79" t="n">
+      <c r="S93" s="1" t="n">
+        <v>-77.3098900462963</v>
+      </c>
+      <c r="T93" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/schedulazione.xlsx
+++ b/PS-VRP/Dati_output/schedulazione.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,7 +712,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>254293</v>
+        <v>252061</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>18.85</v>
+        <v>36.16666666666666</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -737,21 +737,21 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14-11-2025 07:16:35</t>
+          <t>14-11-2025 07:14:35</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14-11-2025 07:16:35</t>
+          <t>14-11-2025 07:14:35</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14-11-2025 07:35:26</t>
+          <t>14-11-2025 07:50:45</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2262</v>
+        <v>4340</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -764,30 +764,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
         <v>70</v>
       </c>
       <c r="O4" t="n">
-        <v>40624</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
+        <v>40628</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40628</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>05-11-2025 00:00:00</t>
+          <t>07-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -805,29 +807,29 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
         <v>49.96666666666667</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14-11-2025 07:35:26</t>
+          <t>14-11-2025 07:50:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14-11-2025 08:09:26</t>
+          <t>14-11-2025 08:22:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14-11-2025 08:09:26</t>
+          <t>14-11-2025 08:22:45</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>14-11-2025 08:59:24</t>
+          <t>14-11-2025 09:12:43</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -866,7 +868,7 @@
         </is>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-1.374583333333333</v>
+        <v>-1.383831018518519</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -874,7 +876,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>243569</v>
+        <v>244023</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -883,37 +885,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26-09-2024 14:00:00</t>
+          <t>17-09-2024 14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>21.675</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14-11-2025 08:59:24</t>
+          <t>14-11-2025 09:12:43</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14-11-2025 09:16:24</t>
+          <t>14-11-2025 09:46:43</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14-11-2025 09:16:24</t>
+          <t>14-11-2025 09:46:43</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>14-11-2025 09:38:04</t>
+          <t>14-11-2025 09:55:01</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2601</v>
+        <v>997</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -922,17 +924,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;R12 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O6" t="n">
-        <v>406372</v>
+        <v>406062</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -942,19 +944,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>16-09-2024 00:00:00</t>
+          <t>30-09-2024 00:00:00</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-429</v>
+        <v>-417</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252061</v>
+        <v>254256</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -963,37 +965,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13-11-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>36.16666666666666</v>
+        <v>50.925</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14-11-2025 09:38:04</t>
+          <t>14-11-2025 09:55:01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14-11-2025 10:12:04</t>
+          <t>14-11-2025 10:16:01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14-11-2025 10:12:04</t>
+          <t>14-11-2025 10:16:01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>14-11-2025 10:48:14</t>
+          <t>14-11-2025 11:06:57</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>4340</v>
+        <v>6111</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1002,41 +1004,39 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
         <v>70</v>
       </c>
       <c r="O7" t="n">
-        <v>40628</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>406422</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>40628</v>
+        <v>0</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>07-11-2025 00:00:00</t>
+          <t>03-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>253382</v>
+        <v>254375</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1049,33 +1049,33 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>85.09999999999999</v>
+        <v>45.29166666666666</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>14-11-2025 10:48:14</t>
+          <t>14-11-2025 11:06:57</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14-11-2025 11:22:14</t>
+          <t>14-11-2025 11:23:57</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14-11-2025 11:22:14</t>
+          <t>14-11-2025 11:23:57</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>14-11-2025 12:47:20</t>
+          <t>14-11-2025 12:09:14</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>10212</v>
+        <v>5435</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1088,13 +1088,13 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O8" t="n">
-        <v>406372</v>
+        <v>40624</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>254256</v>
+        <v>254512</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1125,37 +1125,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11-11-2025 14:00:00</t>
+          <t>12-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>50.925</v>
+        <v>59.55833333333333</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>14-11-2025 12:47:20</t>
+          <t>14-11-2025 12:09:14</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14-11-2025 13:21:20</t>
+          <t>14-11-2025 12:45:14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14-11-2025 13:21:20</t>
+          <t>14-11-2025 12:45:14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14-11-2025 14:12:16</t>
+          <t>14-11-2025 13:44:48</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>6111</v>
+        <v>7147</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1164,17 +1164,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O9" t="n">
-        <v>406422</v>
+        <v>406232</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>03-11-2025 00:00:00</t>
+          <t>14-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>254375</v>
+        <v>255039</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1205,37 +1205,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13-11-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>45.29166666666666</v>
+        <v>9.15</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>14-11-2025 14:12:16</t>
+          <t>14-11-2025 13:44:48</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14-11-2025 14:29:16</t>
+          <t>14-11-2025 14:16:48</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14-11-2025 14:29:16</t>
+          <t>14-11-2025 14:16:48</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>17-11-2025 07:14:33</t>
+          <t>14-11-2025 14:25:57</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5435</v>
+        <v>1098</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1244,11 +1244,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
         <v>70</v>
@@ -1264,19 +1264,19 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>07-11-2025 00:00:00</t>
+          <t>21-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>254512</v>
+        <v>254189</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1285,37 +1285,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12-11-2025 14:00:00</t>
+          <t>14-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>59.55833333333333</v>
+        <v>55.875</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17-11-2025 07:14:33</t>
+          <t>14-11-2025 14:25:57</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17-11-2025 07:50:33</t>
+          <t>14-11-2025 14:42:57</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>17-11-2025 07:50:33</t>
+          <t>14-11-2025 14:42:57</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17-11-2025 08:50:07</t>
+          <t>17-11-2025 07:38:49</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>7147</v>
+        <v>6705</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1324,17 +1324,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;H7 ;R12 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O11" t="n">
-        <v>406232</v>
+        <v>406552</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1344,11 +1344,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>14-11-2025 00:00:00</t>
+          <t>18-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>255039</v>
+        <v>254230</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1365,37 +1365,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11-11-2025 14:00:00</t>
+          <t>10-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>9.15</v>
+        <v>62.475</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>17-11-2025 08:50:07</t>
+          <t>17-11-2025 07:38:49</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17-11-2025 09:22:07</t>
+          <t>17-11-2025 07:53:49</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17-11-2025 09:22:07</t>
+          <t>17-11-2025 07:53:49</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>17-11-2025 09:31:16</t>
+          <t>17-11-2025 08:56:18</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1098</v>
+        <v>7497</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1404,17 +1404,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
         <v>70</v>
       </c>
       <c r="O12" t="n">
-        <v>40624</v>
+        <v>406552</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>21-11-2025 00:00:00</t>
+          <t>06-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>254198</v>
+        <v>254433</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1445,37 +1445,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11-11-2025 14:00:00</t>
+          <t>18-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>215</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>17-11-2025 09:31:16</t>
+          <t>17-11-2025 08:56:18</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17-11-2025 10:03:16</t>
+          <t>17-11-2025 09:11:18</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>17-11-2025 10:03:16</t>
+          <t>17-11-2025 09:11:18</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17-11-2025 13:38:16</t>
+          <t>17-11-2025 10:19:09</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25800</v>
+        <v>8142</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1491,7 +1491,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>152</v>
+        <v>70</v>
+      </c>
+      <c r="O13" t="n">
+        <v>406552</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1501,19 +1504,19 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>30-10-2025 00:00:00</t>
+          <t>18-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-18.56824074074074</v>
+        <v>-2</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>254428</v>
+        <v>253838</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1522,80 +1525,75 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17-11-2025 14:00:00</t>
+          <t>11-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>48.30833333333333</v>
+        <v>108.3666666666667</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>17-11-2025 13:38:16</t>
+          <t>17-11-2025 10:19:09</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17-11-2025 14:12:16</t>
+          <t>17-11-2025 10:40:09</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>17-11-2025 14:12:16</t>
+          <t>17-11-2025 10:40:09</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>18-11-2025 07:00:34</t>
+          <t>17-11-2025 12:28:31</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>5797</v>
+        <v>13004</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;R5 ;R9</t>
+          <t>BIMEC 3 ;BIMEC 4 ;BIMEC 5 ;CASON ;H7 ;R5 ;R9</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
         <v>70</v>
       </c>
-      <c r="O14" t="n">
-        <v>40649</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="P14" t="n">
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>40649</v>
+        <v>0</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>10-11-2025 00:00:00</t>
+          <t>06-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-8.292065972222222</v>
+        <v>-21.51980324074074</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>254173</v>
+        <v>253885</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1604,41 +1602,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15-11-2025 14:00:00</t>
+          <t>13-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>202.5916666666667</v>
+        <v>105.9333333333333</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>18-11-2025 07:00:34</t>
+          <t>17-11-2025 12:28:31</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18-11-2025 07:28:34</t>
+          <t>17-11-2025 12:47:31</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>18-11-2025 07:28:34</t>
+          <t>17-11-2025 12:47:31</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>18-11-2025 10:51:10</t>
+          <t>17-11-2025 14:33:27</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>24311</v>
+        <v>12712</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1647,10 +1645,10 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1660,19 +1658,19 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>20-10-2025 00:00:00</t>
+          <t>14-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-29.45219907407407</v>
+        <v>-3.6065625</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>254599</v>
+        <v>254173</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1681,41 +1679,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17-11-2025 14:00:00</t>
+          <t>15-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
-        <v>44.9</v>
+        <v>202.5916666666667</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18-11-2025 10:51:10</t>
+          <t>17-11-2025 14:33:27</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18-11-2025 11:29:10</t>
+          <t>18-11-2025 07:09:27</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>18-11-2025 11:29:10</t>
+          <t>18-11-2025 07:09:27</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>18-11-2025 12:14:04</t>
+          <t>18-11-2025 10:32:02</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>5388</v>
+        <v>24311</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1724,13 +1722,10 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>70</v>
-      </c>
-      <c r="O16" t="n">
-        <v>406372</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1740,14 +1735,14 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>17-11-2025 00:00:00</t>
+          <t>20-10-2025 00:00:00</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-2</v>
+        <v>-29.43891782407407</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1765,29 +1760,29 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E17" t="n">
         <v>39.025</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>18-11-2025 12:14:04</t>
+          <t>18-11-2025 10:32:02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18-11-2025 12:31:04</t>
+          <t>18-11-2025 11:12:02</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>18-11-2025 12:31:04</t>
+          <t>18-11-2025 11:12:02</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>18-11-2025 13:10:05</t>
+          <t>18-11-2025 11:51:04</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1821,7 +1816,7 @@
         </is>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-4.548674768518518</v>
+        <v>-4.493796296296297</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
@@ -1829,7 +1824,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>254758</v>
+        <v>254653</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1838,37 +1833,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14-11-2025 14:00:00</t>
+          <t>13-11-2025 14:00:00</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>61.38333333333333</v>
+        <v>64.40833333333333</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>18-11-2025 13:10:05</t>
+          <t>18-11-2025 11:51:04</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18-11-2025 13:27:05</t>
+          <t>18-11-2025 12:08:04</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18-11-2025 13:27:05</t>
+          <t>18-11-2025 12:08:04</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>18-11-2025 14:28:28</t>
+          <t>18-11-2025 13:12:28</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>7366</v>
+        <v>7729</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1894,58 +1889,58 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>27-11-2025 00:00:00</t>
+          <t>24-11-2025 00:00:00</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.603107638888889</v>
